--- a/主题分工情况记录.xlsx
+++ b/主题分工情况记录.xlsx
@@ -15219,6 +15219,7 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15231,6 +15232,7 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15244,6 +15246,7 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15264,7 +15267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15402,13 +15405,6 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -15799,16 +15795,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16144,20 +16140,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -27791,7 +27787,7 @@
         <v>1116</v>
       </c>
       <c r="K314" s="29"/>
-      <c r="L314" s="69" t="s">
+      <c r="L314" s="67" t="s">
         <v>565</v>
       </c>
     </row>
@@ -28227,7 +28223,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="327" spans="1:12" s="70" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A327" s="33">
         <v>19</v>
       </c>
@@ -28299,7 +28295,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="329" spans="1:12" s="70" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A329" s="33">
         <v>22</v>
       </c>
@@ -28407,7 +28403,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="332" spans="1:12" s="70" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A332" s="33">
         <v>25</v>
       </c>
@@ -28443,7 +28439,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="333" spans="1:12" s="70" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A333" s="33">
         <v>26</v>
       </c>
@@ -29991,7 +29987,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="376" spans="1:12" s="70" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A376" s="33">
         <v>71</v>
       </c>
@@ -33771,7 +33767,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="481" spans="1:12" s="70" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A481" s="33">
         <v>188</v>
       </c>
@@ -33879,7 +33875,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="484" spans="1:12" s="70" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A484" s="33">
         <v>191</v>
       </c>
@@ -33951,7 +33947,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="486" spans="1:12" s="70" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A486" s="33">
         <v>199</v>
       </c>
@@ -33987,7 +33983,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="487" spans="1:12" s="70" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" s="68" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A487" s="33">
         <v>202</v>
       </c>

--- a/主题分工情况记录.xlsx
+++ b/主题分工情况记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6456" uniqueCount="1627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6456" uniqueCount="1633">
   <si>
     <t>标题</t>
   </si>
@@ -15329,52 +15329,140 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注：截止到2017.12.28，已结提交25篇，因此计划1月15日之前，每日1篇，共计提交15篇
+    <t>2017.12.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.12.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.5</t>
+  </si>
+  <si>
+    <t>2018.1.2</t>
+  </si>
+  <si>
+    <t>2018.1.3</t>
+  </si>
+  <si>
+    <t>2018.1.4</t>
+  </si>
+  <si>
+    <t>2018.1.6</t>
+  </si>
+  <si>
+    <t>2018.1.7</t>
+  </si>
+  <si>
+    <t>2018.1.8</t>
+  </si>
+  <si>
+    <t>2018.1.9</t>
+  </si>
+  <si>
+    <t>2017.12.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.12.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Kyocera(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>京瓷)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位RGB工业TFT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>640X480</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分辨率，10.4寸，400亮度全透，18位RGB工业TFT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>刘阳</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LVDS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工业TFT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>800X600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分辨率，12.1寸，450亮度全透，LVDS工业TFT</t>
+    </r>
+  </si>
+  <si>
+    <t>备注：截止到2017.12.28，已结提交22篇，因此计划1月15日之前，每日1篇，共计提交15篇
 1月15日至2月15日前，每日2篇，共计60篇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.12.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.12.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.5</t>
-  </si>
-  <si>
-    <t>2018.1.2</t>
-  </si>
-  <si>
-    <t>2018.1.3</t>
-  </si>
-  <si>
-    <t>2018.1.4</t>
-  </si>
-  <si>
-    <t>2018.1.6</t>
-  </si>
-  <si>
-    <t>2018.1.7</t>
-  </si>
-  <si>
-    <t>2018.1.8</t>
-  </si>
-  <si>
-    <t>2018.1.9</t>
-  </si>
-  <si>
-    <t>2017.12.31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.12.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15736,7 +15824,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -15933,12 +16021,6 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -15964,11 +16046,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -16287,14 +16378,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N489"/>
   <sheetViews>
-    <sheetView topLeftCell="F475" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L86" sqref="L86:L91"/>
+    <sheetView topLeftCell="A212" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A241" sqref="A241:XFD241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="4" width="18.875" customWidth="1"/>
+    <col min="3" max="3" width="36.25" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="8" max="8" width="14.625" customWidth="1"/>
     <col min="9" max="9" width="20.25" style="28" customWidth="1"/>
@@ -16305,20 +16397,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -19938,43 +20030,43 @@
         <v>366</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="31" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="29">
+    <row r="88" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="33">
         <v>86</v>
       </c>
-      <c r="B88" s="29" t="s">
+      <c r="B88" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="C88" s="29" t="s">
+      <c r="C88" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="D88" s="29" t="s">
+      <c r="D88" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="E88" s="29" t="s">
+      <c r="E88" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="F88" s="29" t="s">
+      <c r="F88" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G88" s="29" t="s">
+      <c r="G88" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H88" s="29" t="s">
+      <c r="H88" s="33" t="s">
         <v>371</v>
       </c>
-      <c r="I88" s="30">
+      <c r="I88" s="34">
         <v>42773</v>
       </c>
-      <c r="J88" s="29" t="s">
+      <c r="J88" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K88" s="32" t="s">
+      <c r="K88" s="37" t="s">
         <v>1606</v>
       </c>
-      <c r="L88" s="29"/>
-      <c r="M88" s="29"/>
-      <c r="N88" s="29" t="s">
+      <c r="L88" s="33"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="33" t="s">
         <v>369</v>
       </c>
     </row>
@@ -22194,9 +22286,9 @@
         <v>1090</v>
       </c>
       <c r="K146" s="56"/>
-      <c r="L146" s="74"/>
-      <c r="M146" s="74"/>
-      <c r="N146" s="74"/>
+      <c r="L146" s="72"/>
+      <c r="M146" s="72"/>
+      <c r="N146" s="72"/>
     </row>
     <row r="147" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A147" s="53">
@@ -22230,9 +22322,9 @@
         <v>1090</v>
       </c>
       <c r="K147" s="56"/>
-      <c r="L147" s="74"/>
-      <c r="M147" s="74"/>
-      <c r="N147" s="74"/>
+      <c r="L147" s="72"/>
+      <c r="M147" s="72"/>
+      <c r="N147" s="72"/>
     </row>
     <row r="148" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A148" s="53">
@@ -22266,9 +22358,9 @@
         <v>1090</v>
       </c>
       <c r="K148" s="56"/>
-      <c r="L148" s="74"/>
-      <c r="M148" s="74"/>
-      <c r="N148" s="74"/>
+      <c r="L148" s="72"/>
+      <c r="M148" s="72"/>
+      <c r="N148" s="72"/>
     </row>
     <row r="149" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A149" s="53">
@@ -22302,9 +22394,9 @@
         <v>1090</v>
       </c>
       <c r="K149" s="56"/>
-      <c r="L149" s="74"/>
-      <c r="M149" s="74"/>
-      <c r="N149" s="74"/>
+      <c r="L149" s="72"/>
+      <c r="M149" s="72"/>
+      <c r="N149" s="72"/>
     </row>
     <row r="150" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A150" s="53">
@@ -22338,9 +22430,9 @@
         <v>1090</v>
       </c>
       <c r="K150" s="56"/>
-      <c r="L150" s="74"/>
-      <c r="M150" s="74"/>
-      <c r="N150" s="74"/>
+      <c r="L150" s="72"/>
+      <c r="M150" s="72"/>
+      <c r="N150" s="72"/>
     </row>
     <row r="151" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A151" s="53">
@@ -22376,9 +22468,9 @@
       <c r="K151" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L151" s="74"/>
-      <c r="M151" s="74"/>
-      <c r="N151" s="74"/>
+      <c r="L151" s="72"/>
+      <c r="M151" s="72"/>
+      <c r="N151" s="72"/>
     </row>
     <row r="152" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A152" s="59">
@@ -22414,9 +22506,9 @@
       <c r="K152" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L152" s="75"/>
-      <c r="M152" s="75"/>
-      <c r="N152" s="75"/>
+      <c r="L152" s="73"/>
+      <c r="M152" s="73"/>
+      <c r="N152" s="73"/>
     </row>
     <row r="153" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A153" s="53">
@@ -22452,9 +22544,9 @@
       <c r="K153" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L153" s="74"/>
-      <c r="M153" s="74"/>
-      <c r="N153" s="74"/>
+      <c r="L153" s="72"/>
+      <c r="M153" s="72"/>
+      <c r="N153" s="72"/>
     </row>
     <row r="154" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A154" s="53">
@@ -22490,9 +22582,9 @@
       <c r="K154" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L154" s="74"/>
-      <c r="M154" s="74"/>
-      <c r="N154" s="74"/>
+      <c r="L154" s="72"/>
+      <c r="M154" s="72"/>
+      <c r="N154" s="72"/>
     </row>
     <row r="155" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A155" s="53">
@@ -22528,9 +22620,9 @@
       <c r="K155" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L155" s="74"/>
-      <c r="M155" s="74"/>
-      <c r="N155" s="74"/>
+      <c r="L155" s="72"/>
+      <c r="M155" s="72"/>
+      <c r="N155" s="72"/>
     </row>
     <row r="156" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A156" s="59">
@@ -22566,9 +22658,9 @@
       <c r="K156" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L156" s="75"/>
-      <c r="M156" s="75"/>
-      <c r="N156" s="75"/>
+      <c r="L156" s="73"/>
+      <c r="M156" s="73"/>
+      <c r="N156" s="73"/>
     </row>
     <row r="157" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A157" s="59">
@@ -22604,9 +22696,9 @@
       <c r="K157" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L157" s="75"/>
-      <c r="M157" s="75"/>
-      <c r="N157" s="75"/>
+      <c r="L157" s="73"/>
+      <c r="M157" s="73"/>
+      <c r="N157" s="73"/>
     </row>
     <row r="158" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A158" s="53">
@@ -22642,9 +22734,9 @@
       <c r="K158" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L158" s="74"/>
-      <c r="M158" s="74"/>
-      <c r="N158" s="74"/>
+      <c r="L158" s="72"/>
+      <c r="M158" s="72"/>
+      <c r="N158" s="72"/>
     </row>
     <row r="159" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A159" s="53">
@@ -22680,9 +22772,9 @@
       <c r="K159" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L159" s="74"/>
-      <c r="M159" s="74"/>
-      <c r="N159" s="74"/>
+      <c r="L159" s="72"/>
+      <c r="M159" s="72"/>
+      <c r="N159" s="72"/>
     </row>
     <row r="160" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A160" s="53">
@@ -22718,9 +22810,9 @@
       <c r="K160" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L160" s="74"/>
-      <c r="M160" s="74"/>
-      <c r="N160" s="74"/>
+      <c r="L160" s="72"/>
+      <c r="M160" s="72"/>
+      <c r="N160" s="72"/>
     </row>
     <row r="161" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A161" s="53">
@@ -22756,9 +22848,9 @@
       <c r="K161" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L161" s="74"/>
-      <c r="M161" s="74"/>
-      <c r="N161" s="74"/>
+      <c r="L161" s="72"/>
+      <c r="M161" s="72"/>
+      <c r="N161" s="72"/>
     </row>
     <row r="162" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A162" s="59">
@@ -22794,9 +22886,9 @@
       <c r="K162" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L162" s="75"/>
-      <c r="M162" s="75"/>
-      <c r="N162" s="75"/>
+      <c r="L162" s="73"/>
+      <c r="M162" s="73"/>
+      <c r="N162" s="73"/>
     </row>
     <row r="163" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A163" s="59">
@@ -22832,9 +22924,9 @@
       <c r="K163" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L163" s="75"/>
-      <c r="M163" s="75"/>
-      <c r="N163" s="75"/>
+      <c r="L163" s="73"/>
+      <c r="M163" s="73"/>
+      <c r="N163" s="73"/>
     </row>
     <row r="164" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A164" s="59">
@@ -22870,9 +22962,9 @@
       <c r="K164" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L164" s="75"/>
-      <c r="M164" s="75"/>
-      <c r="N164" s="75"/>
+      <c r="L164" s="73"/>
+      <c r="M164" s="73"/>
+      <c r="N164" s="73"/>
     </row>
     <row r="165" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A165" s="59">
@@ -22908,9 +23000,9 @@
       <c r="K165" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L165" s="75"/>
-      <c r="M165" s="75"/>
-      <c r="N165" s="75"/>
+      <c r="L165" s="73"/>
+      <c r="M165" s="73"/>
+      <c r="N165" s="73"/>
     </row>
     <row r="166" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A166" s="53">
@@ -22946,9 +23038,9 @@
       <c r="K166" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L166" s="74"/>
-      <c r="M166" s="74"/>
-      <c r="N166" s="74"/>
+      <c r="L166" s="72"/>
+      <c r="M166" s="72"/>
+      <c r="N166" s="72"/>
     </row>
     <row r="167" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A167" s="53">
@@ -22984,9 +23076,9 @@
       <c r="K167" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L167" s="74"/>
-      <c r="M167" s="74"/>
-      <c r="N167" s="74"/>
+      <c r="L167" s="72"/>
+      <c r="M167" s="72"/>
+      <c r="N167" s="72"/>
     </row>
     <row r="168" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A168" s="53">
@@ -23022,9 +23114,9 @@
       <c r="K168" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L168" s="74"/>
-      <c r="M168" s="74"/>
-      <c r="N168" s="74"/>
+      <c r="L168" s="72"/>
+      <c r="M168" s="72"/>
+      <c r="N168" s="72"/>
     </row>
     <row r="169" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A169" s="53">
@@ -23060,9 +23152,9 @@
       <c r="K169" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L169" s="74"/>
-      <c r="M169" s="74"/>
-      <c r="N169" s="74"/>
+      <c r="L169" s="72"/>
+      <c r="M169" s="72"/>
+      <c r="N169" s="72"/>
     </row>
     <row r="170" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A170" s="53">
@@ -23098,9 +23190,9 @@
       <c r="K170" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L170" s="74"/>
-      <c r="M170" s="74"/>
-      <c r="N170" s="74"/>
+      <c r="L170" s="72"/>
+      <c r="M170" s="72"/>
+      <c r="N170" s="72"/>
     </row>
     <row r="171" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A171" s="53">
@@ -23136,9 +23228,9 @@
       <c r="K171" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L171" s="74"/>
-      <c r="M171" s="74"/>
-      <c r="N171" s="74"/>
+      <c r="L171" s="72"/>
+      <c r="M171" s="72"/>
+      <c r="N171" s="72"/>
     </row>
     <row r="172" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A172" s="53">
@@ -23174,9 +23266,9 @@
       <c r="K172" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L172" s="74"/>
-      <c r="M172" s="74"/>
-      <c r="N172" s="74"/>
+      <c r="L172" s="72"/>
+      <c r="M172" s="72"/>
+      <c r="N172" s="72"/>
     </row>
     <row r="173" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A173" s="53">
@@ -23212,9 +23304,9 @@
       <c r="K173" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L173" s="74"/>
-      <c r="M173" s="74"/>
-      <c r="N173" s="74"/>
+      <c r="L173" s="72"/>
+      <c r="M173" s="72"/>
+      <c r="N173" s="72"/>
     </row>
     <row r="174" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A174" s="53">
@@ -23250,9 +23342,9 @@
       <c r="K174" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L174" s="74"/>
-      <c r="M174" s="74"/>
-      <c r="N174" s="74"/>
+      <c r="L174" s="72"/>
+      <c r="M174" s="72"/>
+      <c r="N174" s="72"/>
     </row>
     <row r="175" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A175" s="53">
@@ -23288,9 +23380,9 @@
       <c r="K175" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L175" s="74"/>
-      <c r="M175" s="74"/>
-      <c r="N175" s="74"/>
+      <c r="L175" s="72"/>
+      <c r="M175" s="72"/>
+      <c r="N175" s="72"/>
     </row>
     <row r="176" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A176" s="53">
@@ -23326,49 +23418,49 @@
       <c r="K176" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L176" s="74"/>
-      <c r="M176" s="74"/>
-      <c r="N176" s="74"/>
-    </row>
-    <row r="177" spans="1:14" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A177" s="70">
+      <c r="L176" s="72"/>
+      <c r="M176" s="72"/>
+      <c r="N176" s="72"/>
+    </row>
+    <row r="177" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A177" s="68">
         <v>32</v>
       </c>
-      <c r="B177" s="70" t="s">
+      <c r="B177" s="68" t="s">
         <v>842</v>
       </c>
-      <c r="C177" s="70" t="s">
+      <c r="C177" s="68" t="s">
         <v>622</v>
       </c>
-      <c r="D177" s="70" t="s">
+      <c r="D177" s="68" t="s">
         <v>864</v>
       </c>
-      <c r="E177" s="70" t="s">
+      <c r="E177" s="68" t="s">
         <v>897</v>
       </c>
-      <c r="F177" s="70" t="s">
+      <c r="F177" s="68" t="s">
         <v>843</v>
       </c>
-      <c r="G177" s="70" t="s">
+      <c r="G177" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="H177" s="70" t="s">
+      <c r="H177" s="68" t="s">
         <v>623</v>
       </c>
-      <c r="I177" s="70" t="s">
+      <c r="I177" s="68" t="s">
         <v>898</v>
       </c>
-      <c r="J177" s="71" t="s">
+      <c r="J177" s="69" t="s">
         <v>846</v>
       </c>
-      <c r="K177" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="L177" s="76"/>
-      <c r="M177" s="76" t="s">
+      <c r="K177" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="L177" s="74"/>
+      <c r="M177" s="74" t="s">
         <v>1605</v>
       </c>
-      <c r="N177" s="76"/>
+      <c r="N177" s="74"/>
     </row>
     <row r="178" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A178" s="53">
@@ -23404,9 +23496,9 @@
       <c r="K178" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L178" s="74"/>
-      <c r="M178" s="74"/>
-      <c r="N178" s="74"/>
+      <c r="L178" s="72"/>
+      <c r="M178" s="72"/>
+      <c r="N178" s="72"/>
     </row>
     <row r="179" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A179" s="53">
@@ -23442,9 +23534,9 @@
       <c r="K179" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L179" s="74"/>
-      <c r="M179" s="74"/>
-      <c r="N179" s="74"/>
+      <c r="L179" s="72"/>
+      <c r="M179" s="72"/>
+      <c r="N179" s="72"/>
     </row>
     <row r="180" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A180" s="53">
@@ -23483,48 +23575,48 @@
       <c r="L180" s="54" t="s">
         <v>1106</v>
       </c>
-      <c r="M180" s="74"/>
-      <c r="N180" s="74"/>
-    </row>
-    <row r="181" spans="1:14" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A181" s="70">
+      <c r="M180" s="72"/>
+      <c r="N180" s="72"/>
+    </row>
+    <row r="181" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A181" s="68">
         <v>36</v>
       </c>
-      <c r="B181" s="70" t="s">
+      <c r="B181" s="68" t="s">
         <v>842</v>
       </c>
-      <c r="C181" s="70" t="s">
+      <c r="C181" s="68" t="s">
         <v>630</v>
       </c>
-      <c r="D181" s="70" t="s">
+      <c r="D181" s="68" t="s">
         <v>864</v>
       </c>
-      <c r="E181" s="70" t="s">
+      <c r="E181" s="68" t="s">
         <v>904</v>
       </c>
-      <c r="F181" s="70" t="s">
+      <c r="F181" s="68" t="s">
         <v>843</v>
       </c>
-      <c r="G181" s="70" t="s">
+      <c r="G181" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="H181" s="70" t="s">
+      <c r="H181" s="68" t="s">
         <v>631</v>
       </c>
-      <c r="I181" s="70" t="s">
+      <c r="I181" s="68" t="s">
         <v>905</v>
       </c>
-      <c r="J181" s="71" t="s">
+      <c r="J181" s="69" t="s">
         <v>846</v>
       </c>
-      <c r="K181" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="L181" s="76"/>
-      <c r="M181" s="76" t="s">
+      <c r="K181" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="L181" s="74"/>
+      <c r="M181" s="74" t="s">
         <v>1605</v>
       </c>
-      <c r="N181" s="76"/>
+      <c r="N181" s="74"/>
     </row>
     <row r="182" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A182" s="53">
@@ -23560,9 +23652,9 @@
       <c r="K182" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L182" s="74"/>
-      <c r="M182" s="74"/>
-      <c r="N182" s="74"/>
+      <c r="L182" s="72"/>
+      <c r="M182" s="72"/>
+      <c r="N182" s="72"/>
     </row>
     <row r="183" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A183" s="53">
@@ -23598,49 +23690,49 @@
       <c r="K183" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L183" s="74"/>
-      <c r="M183" s="74"/>
-      <c r="N183" s="74"/>
-    </row>
-    <row r="184" spans="1:14" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A184" s="70">
+      <c r="L183" s="72"/>
+      <c r="M183" s="72"/>
+      <c r="N183" s="72"/>
+    </row>
+    <row r="184" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A184" s="68">
         <v>39</v>
       </c>
-      <c r="B184" s="70" t="s">
+      <c r="B184" s="68" t="s">
         <v>842</v>
       </c>
-      <c r="C184" s="70" t="s">
+      <c r="C184" s="68" t="s">
         <v>636</v>
       </c>
-      <c r="D184" s="70" t="s">
+      <c r="D184" s="68" t="s">
         <v>848</v>
       </c>
-      <c r="E184" s="70" t="s">
+      <c r="E184" s="68" t="s">
         <v>910</v>
       </c>
-      <c r="F184" s="70" t="s">
+      <c r="F184" s="68" t="s">
         <v>843</v>
       </c>
-      <c r="G184" s="70" t="s">
+      <c r="G184" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="H184" s="70" t="s">
+      <c r="H184" s="68" t="s">
         <v>637</v>
       </c>
-      <c r="I184" s="70" t="s">
+      <c r="I184" s="68" t="s">
         <v>911</v>
       </c>
-      <c r="J184" s="71" t="s">
+      <c r="J184" s="69" t="s">
         <v>846</v>
       </c>
-      <c r="K184" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="L184" s="76"/>
-      <c r="M184" s="76" t="s">
+      <c r="K184" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="L184" s="74"/>
+      <c r="M184" s="74" t="s">
         <v>1605</v>
       </c>
-      <c r="N184" s="76"/>
+      <c r="N184" s="74"/>
     </row>
     <row r="185" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A185" s="53">
@@ -23676,9 +23768,9 @@
       <c r="K185" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L185" s="74"/>
-      <c r="M185" s="74"/>
-      <c r="N185" s="74"/>
+      <c r="L185" s="72"/>
+      <c r="M185" s="72"/>
+      <c r="N185" s="72"/>
     </row>
     <row r="186" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A186" s="53">
@@ -23714,9 +23806,9 @@
       <c r="K186" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L186" s="74"/>
-      <c r="M186" s="74"/>
-      <c r="N186" s="74"/>
+      <c r="L186" s="72"/>
+      <c r="M186" s="72"/>
+      <c r="N186" s="72"/>
     </row>
     <row r="187" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A187" s="53">
@@ -23752,9 +23844,9 @@
       <c r="K187" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L187" s="74"/>
-      <c r="M187" s="74"/>
-      <c r="N187" s="74"/>
+      <c r="L187" s="72"/>
+      <c r="M187" s="72"/>
+      <c r="N187" s="72"/>
     </row>
     <row r="188" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A188" s="53">
@@ -23790,89 +23882,89 @@
       <c r="K188" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L188" s="74"/>
-      <c r="M188" s="74"/>
-      <c r="N188" s="74"/>
-    </row>
-    <row r="189" spans="1:14" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A189" s="70">
+      <c r="L188" s="72"/>
+      <c r="M188" s="72"/>
+      <c r="N188" s="72"/>
+    </row>
+    <row r="189" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A189" s="68">
         <v>44</v>
       </c>
-      <c r="B189" s="70" t="s">
+      <c r="B189" s="68" t="s">
         <v>842</v>
       </c>
-      <c r="C189" s="70" t="s">
+      <c r="C189" s="68" t="s">
         <v>646</v>
       </c>
-      <c r="D189" s="70" t="s">
+      <c r="D189" s="68" t="s">
         <v>864</v>
       </c>
-      <c r="E189" s="70" t="s">
+      <c r="E189" s="68" t="s">
         <v>915</v>
       </c>
-      <c r="F189" s="70" t="s">
+      <c r="F189" s="68" t="s">
         <v>843</v>
       </c>
-      <c r="G189" s="70" t="s">
+      <c r="G189" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="H189" s="70" t="s">
+      <c r="H189" s="68" t="s">
         <v>647</v>
       </c>
-      <c r="I189" s="70" t="s">
+      <c r="I189" s="68" t="s">
         <v>913</v>
       </c>
-      <c r="J189" s="71" t="s">
+      <c r="J189" s="69" t="s">
         <v>846</v>
       </c>
-      <c r="K189" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="L189" s="76"/>
-      <c r="M189" s="76" t="s">
+      <c r="K189" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="L189" s="74"/>
+      <c r="M189" s="74" t="s">
         <v>1605</v>
       </c>
-      <c r="N189" s="76"/>
-    </row>
-    <row r="190" spans="1:14" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A190" s="70">
+      <c r="N189" s="74"/>
+    </row>
+    <row r="190" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A190" s="68">
         <v>45</v>
       </c>
-      <c r="B190" s="70" t="s">
+      <c r="B190" s="68" t="s">
         <v>842</v>
       </c>
-      <c r="C190" s="70" t="s">
+      <c r="C190" s="68" t="s">
         <v>648</v>
       </c>
-      <c r="D190" s="70" t="s">
+      <c r="D190" s="68" t="s">
         <v>864</v>
       </c>
-      <c r="E190" s="70" t="s">
+      <c r="E190" s="68" t="s">
         <v>916</v>
       </c>
-      <c r="F190" s="70" t="s">
+      <c r="F190" s="68" t="s">
         <v>843</v>
       </c>
-      <c r="G190" s="70" t="s">
+      <c r="G190" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="H190" s="70" t="s">
+      <c r="H190" s="68" t="s">
         <v>649</v>
       </c>
-      <c r="I190" s="70" t="s">
+      <c r="I190" s="68" t="s">
         <v>917</v>
       </c>
-      <c r="J190" s="71" t="s">
+      <c r="J190" s="69" t="s">
         <v>846</v>
       </c>
-      <c r="K190" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="L190" s="76"/>
-      <c r="M190" s="76" t="s">
+      <c r="K190" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="L190" s="74"/>
+      <c r="M190" s="74" t="s">
         <v>1611</v>
       </c>
-      <c r="N190" s="76"/>
+      <c r="N190" s="74"/>
     </row>
     <row r="191" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A191" s="53">
@@ -23908,9 +24000,9 @@
       <c r="K191" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L191" s="74"/>
-      <c r="M191" s="74"/>
-      <c r="N191" s="74"/>
+      <c r="L191" s="72"/>
+      <c r="M191" s="72"/>
+      <c r="N191" s="72"/>
     </row>
     <row r="192" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A192" s="53">
@@ -23946,9 +24038,9 @@
       <c r="K192" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L192" s="74"/>
-      <c r="M192" s="74"/>
-      <c r="N192" s="74"/>
+      <c r="L192" s="72"/>
+      <c r="M192" s="72"/>
+      <c r="N192" s="72"/>
     </row>
     <row r="193" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A193" s="53">
@@ -23984,9 +24076,9 @@
       <c r="K193" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L193" s="74"/>
-      <c r="M193" s="74"/>
-      <c r="N193" s="74"/>
+      <c r="L193" s="72"/>
+      <c r="M193" s="72"/>
+      <c r="N193" s="72"/>
     </row>
     <row r="194" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A194" s="53">
@@ -24022,9 +24114,9 @@
       <c r="K194" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L194" s="74"/>
-      <c r="M194" s="74"/>
-      <c r="N194" s="74"/>
+      <c r="L194" s="72"/>
+      <c r="M194" s="72"/>
+      <c r="N194" s="72"/>
     </row>
     <row r="195" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A195" s="53">
@@ -24060,89 +24152,89 @@
       <c r="K195" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L195" s="74"/>
-      <c r="M195" s="74"/>
-      <c r="N195" s="74"/>
-    </row>
-    <row r="196" spans="1:14" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A196" s="70">
+      <c r="L195" s="72"/>
+      <c r="M195" s="72"/>
+      <c r="N195" s="72"/>
+    </row>
+    <row r="196" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A196" s="68">
         <v>51</v>
       </c>
-      <c r="B196" s="70" t="s">
+      <c r="B196" s="68" t="s">
         <v>842</v>
       </c>
-      <c r="C196" s="70" t="s">
+      <c r="C196" s="68" t="s">
         <v>660</v>
       </c>
-      <c r="D196" s="70" t="s">
+      <c r="D196" s="68" t="s">
         <v>864</v>
       </c>
-      <c r="E196" s="70" t="s">
+      <c r="E196" s="68" t="s">
         <v>923</v>
       </c>
-      <c r="F196" s="70" t="s">
+      <c r="F196" s="68" t="s">
         <v>843</v>
       </c>
-      <c r="G196" s="70" t="s">
+      <c r="G196" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="H196" s="70" t="s">
+      <c r="H196" s="68" t="s">
         <v>661</v>
       </c>
-      <c r="I196" s="70" t="s">
+      <c r="I196" s="68" t="s">
         <v>924</v>
       </c>
-      <c r="J196" s="71" t="s">
+      <c r="J196" s="69" t="s">
         <v>846</v>
       </c>
-      <c r="K196" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="L196" s="76"/>
-      <c r="M196" s="76" t="s">
+      <c r="K196" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="L196" s="74"/>
+      <c r="M196" s="74" t="s">
         <v>1605</v>
       </c>
-      <c r="N196" s="76"/>
-    </row>
-    <row r="197" spans="1:14" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A197" s="70">
+      <c r="N196" s="74"/>
+    </row>
+    <row r="197" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A197" s="68">
         <v>52</v>
       </c>
-      <c r="B197" s="70" t="s">
+      <c r="B197" s="68" t="s">
         <v>842</v>
       </c>
-      <c r="C197" s="70" t="s">
+      <c r="C197" s="68" t="s">
         <v>662</v>
       </c>
-      <c r="D197" s="70" t="s">
+      <c r="D197" s="68" t="s">
         <v>864</v>
       </c>
-      <c r="E197" s="70" t="s">
+      <c r="E197" s="68" t="s">
         <v>923</v>
       </c>
-      <c r="F197" s="70" t="s">
+      <c r="F197" s="68" t="s">
         <v>843</v>
       </c>
-      <c r="G197" s="70" t="s">
+      <c r="G197" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="H197" s="70" t="s">
+      <c r="H197" s="68" t="s">
         <v>663</v>
       </c>
-      <c r="I197" s="70" t="s">
+      <c r="I197" s="68" t="s">
         <v>925</v>
       </c>
-      <c r="J197" s="71" t="s">
+      <c r="J197" s="69" t="s">
         <v>846</v>
       </c>
-      <c r="K197" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="L197" s="76"/>
-      <c r="M197" s="76" t="s">
+      <c r="K197" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="L197" s="74"/>
+      <c r="M197" s="74" t="s">
         <v>1611</v>
       </c>
-      <c r="N197" s="76"/>
+      <c r="N197" s="74"/>
     </row>
     <row r="198" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A198" s="53">
@@ -24178,9 +24270,9 @@
       <c r="K198" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L198" s="74"/>
-      <c r="M198" s="74"/>
-      <c r="N198" s="74"/>
+      <c r="L198" s="72"/>
+      <c r="M198" s="72"/>
+      <c r="N198" s="72"/>
     </row>
     <row r="199" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A199" s="53">
@@ -24216,9 +24308,9 @@
       <c r="K199" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L199" s="74"/>
-      <c r="M199" s="74"/>
-      <c r="N199" s="74"/>
+      <c r="L199" s="72"/>
+      <c r="M199" s="72"/>
+      <c r="N199" s="72"/>
     </row>
     <row r="200" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A200" s="53">
@@ -24254,9 +24346,9 @@
       <c r="K200" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L200" s="74"/>
-      <c r="M200" s="74"/>
-      <c r="N200" s="74"/>
+      <c r="L200" s="72"/>
+      <c r="M200" s="72"/>
+      <c r="N200" s="72"/>
     </row>
     <row r="201" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A201" s="59">
@@ -24292,9 +24384,9 @@
       <c r="K201" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L201" s="75"/>
-      <c r="M201" s="75"/>
-      <c r="N201" s="75"/>
+      <c r="L201" s="73"/>
+      <c r="M201" s="73"/>
+      <c r="N201" s="73"/>
     </row>
     <row r="202" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A202" s="59">
@@ -24330,9 +24422,9 @@
       <c r="K202" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L202" s="75"/>
-      <c r="M202" s="75"/>
-      <c r="N202" s="75"/>
+      <c r="L202" s="73"/>
+      <c r="M202" s="73"/>
+      <c r="N202" s="73"/>
     </row>
     <row r="203" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A203" s="53">
@@ -24368,9 +24460,9 @@
       <c r="K203" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L203" s="74"/>
-      <c r="M203" s="74"/>
-      <c r="N203" s="74"/>
+      <c r="L203" s="72"/>
+      <c r="M203" s="72"/>
+      <c r="N203" s="72"/>
     </row>
     <row r="204" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A204" s="53">
@@ -24406,9 +24498,9 @@
       <c r="K204" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L204" s="74"/>
-      <c r="M204" s="74"/>
-      <c r="N204" s="74"/>
+      <c r="L204" s="72"/>
+      <c r="M204" s="72"/>
+      <c r="N204" s="72"/>
     </row>
     <row r="205" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A205" s="53">
@@ -24444,9 +24536,9 @@
       <c r="K205" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L205" s="74"/>
-      <c r="M205" s="74"/>
-      <c r="N205" s="74"/>
+      <c r="L205" s="72"/>
+      <c r="M205" s="72"/>
+      <c r="N205" s="72"/>
     </row>
     <row r="206" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A206" s="53">
@@ -24482,9 +24574,9 @@
       <c r="K206" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L206" s="74"/>
-      <c r="M206" s="74"/>
-      <c r="N206" s="74"/>
+      <c r="L206" s="72"/>
+      <c r="M206" s="72"/>
+      <c r="N206" s="72"/>
     </row>
     <row r="207" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A207" s="53">
@@ -24520,9 +24612,9 @@
       <c r="K207" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L207" s="74"/>
-      <c r="M207" s="74"/>
-      <c r="N207" s="74"/>
+      <c r="L207" s="72"/>
+      <c r="M207" s="72"/>
+      <c r="N207" s="72"/>
     </row>
     <row r="208" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A208" s="53">
@@ -24558,49 +24650,49 @@
       <c r="K208" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L208" s="74"/>
-      <c r="M208" s="74"/>
-      <c r="N208" s="74"/>
-    </row>
-    <row r="209" spans="1:14" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A209" s="70">
+      <c r="L208" s="72"/>
+      <c r="M208" s="72"/>
+      <c r="N208" s="72"/>
+    </row>
+    <row r="209" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A209" s="68">
         <v>64</v>
       </c>
-      <c r="B209" s="70" t="s">
+      <c r="B209" s="68" t="s">
         <v>842</v>
       </c>
-      <c r="C209" s="70" t="s">
+      <c r="C209" s="68" t="s">
         <v>686</v>
       </c>
-      <c r="D209" s="70" t="s">
+      <c r="D209" s="68" t="s">
         <v>864</v>
       </c>
-      <c r="E209" s="70" t="s">
+      <c r="E209" s="68" t="s">
         <v>944</v>
       </c>
-      <c r="F209" s="70" t="s">
+      <c r="F209" s="68" t="s">
         <v>843</v>
       </c>
-      <c r="G209" s="70" t="s">
+      <c r="G209" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="H209" s="70" t="s">
+      <c r="H209" s="68" t="s">
         <v>687</v>
       </c>
-      <c r="I209" s="70" t="s">
+      <c r="I209" s="68" t="s">
         <v>945</v>
       </c>
-      <c r="J209" s="71" t="s">
+      <c r="J209" s="69" t="s">
         <v>846</v>
       </c>
-      <c r="K209" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="L209" s="76"/>
-      <c r="M209" s="76" t="s">
+      <c r="K209" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="L209" s="74"/>
+      <c r="M209" s="74" t="s">
         <v>1605</v>
       </c>
-      <c r="N209" s="76"/>
+      <c r="N209" s="74"/>
     </row>
     <row r="210" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A210" s="53">
@@ -24636,9 +24728,9 @@
       <c r="K210" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L210" s="74"/>
-      <c r="M210" s="74"/>
-      <c r="N210" s="74"/>
+      <c r="L210" s="72"/>
+      <c r="M210" s="72"/>
+      <c r="N210" s="72"/>
     </row>
     <row r="211" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A211" s="53">
@@ -24674,9 +24766,9 @@
       <c r="K211" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L211" s="74"/>
-      <c r="M211" s="74"/>
-      <c r="N211" s="74"/>
+      <c r="L211" s="72"/>
+      <c r="M211" s="72"/>
+      <c r="N211" s="72"/>
     </row>
     <row r="212" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A212" s="53">
@@ -24712,89 +24804,89 @@
       <c r="K212" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L212" s="74"/>
-      <c r="M212" s="74"/>
-      <c r="N212" s="74"/>
-    </row>
-    <row r="213" spans="1:14" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A213" s="70">
+      <c r="L212" s="72"/>
+      <c r="M212" s="72"/>
+      <c r="N212" s="72"/>
+    </row>
+    <row r="213" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A213" s="68">
         <v>68</v>
       </c>
-      <c r="B213" s="70" t="s">
+      <c r="B213" s="68" t="s">
         <v>842</v>
       </c>
-      <c r="C213" s="70" t="s">
+      <c r="C213" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="D213" s="70" t="s">
+      <c r="D213" s="68" t="s">
         <v>864</v>
       </c>
-      <c r="E213" s="70" t="s">
+      <c r="E213" s="68" t="s">
         <v>946</v>
       </c>
-      <c r="F213" s="70" t="s">
+      <c r="F213" s="68" t="s">
         <v>843</v>
       </c>
-      <c r="G213" s="70" t="s">
+      <c r="G213" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="H213" s="70" t="s">
+      <c r="H213" s="68" t="s">
         <v>695</v>
       </c>
-      <c r="I213" s="70" t="s">
+      <c r="I213" s="68" t="s">
         <v>950</v>
       </c>
-      <c r="J213" s="71" t="s">
+      <c r="J213" s="69" t="s">
         <v>846</v>
       </c>
-      <c r="K213" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="L213" s="76"/>
-      <c r="M213" s="76" t="s">
+      <c r="K213" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="L213" s="74"/>
+      <c r="M213" s="74" t="s">
         <v>1611</v>
       </c>
-      <c r="N213" s="76"/>
-    </row>
-    <row r="214" spans="1:14" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A214" s="70">
+      <c r="N213" s="74"/>
+    </row>
+    <row r="214" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A214" s="68">
         <v>69</v>
       </c>
-      <c r="B214" s="70" t="s">
+      <c r="B214" s="68" t="s">
         <v>842</v>
       </c>
-      <c r="C214" s="70" t="s">
+      <c r="C214" s="68" t="s">
         <v>696</v>
       </c>
-      <c r="D214" s="70" t="s">
+      <c r="D214" s="68" t="s">
         <v>864</v>
       </c>
-      <c r="E214" s="70" t="s">
+      <c r="E214" s="68" t="s">
         <v>951</v>
       </c>
-      <c r="F214" s="70" t="s">
+      <c r="F214" s="68" t="s">
         <v>843</v>
       </c>
-      <c r="G214" s="70" t="s">
+      <c r="G214" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="H214" s="70" t="s">
+      <c r="H214" s="68" t="s">
         <v>697</v>
       </c>
-      <c r="I214" s="70" t="s">
+      <c r="I214" s="68" t="s">
         <v>952</v>
       </c>
-      <c r="J214" s="71" t="s">
+      <c r="J214" s="69" t="s">
         <v>846</v>
       </c>
-      <c r="K214" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="L214" s="76"/>
-      <c r="M214" s="76" t="s">
+      <c r="K214" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="L214" s="74"/>
+      <c r="M214" s="74" t="s">
         <v>1605</v>
       </c>
-      <c r="N214" s="76"/>
+      <c r="N214" s="74"/>
     </row>
     <row r="215" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A215" s="53">
@@ -24830,9 +24922,9 @@
       <c r="K215" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L215" s="74"/>
-      <c r="M215" s="74"/>
-      <c r="N215" s="74"/>
+      <c r="L215" s="72"/>
+      <c r="M215" s="72"/>
+      <c r="N215" s="72"/>
     </row>
     <row r="216" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A216" s="53">
@@ -24868,9 +24960,9 @@
       <c r="K216" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L216" s="74"/>
-      <c r="M216" s="74"/>
-      <c r="N216" s="74"/>
+      <c r="L216" s="72"/>
+      <c r="M216" s="72"/>
+      <c r="N216" s="72"/>
     </row>
     <row r="217" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A217" s="53">
@@ -24906,9 +24998,9 @@
       <c r="K217" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L217" s="74"/>
-      <c r="M217" s="74"/>
-      <c r="N217" s="74"/>
+      <c r="L217" s="72"/>
+      <c r="M217" s="72"/>
+      <c r="N217" s="72"/>
     </row>
     <row r="218" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A218" s="53">
@@ -24944,9 +25036,9 @@
       <c r="K218" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L218" s="74"/>
-      <c r="M218" s="74"/>
-      <c r="N218" s="74"/>
+      <c r="L218" s="72"/>
+      <c r="M218" s="72"/>
+      <c r="N218" s="72"/>
     </row>
     <row r="219" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A219" s="53">
@@ -24982,49 +25074,49 @@
       <c r="K219" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L219" s="74"/>
-      <c r="M219" s="74"/>
-      <c r="N219" s="74"/>
-    </row>
-    <row r="220" spans="1:14" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A220" s="70">
+      <c r="L219" s="72"/>
+      <c r="M219" s="72"/>
+      <c r="N219" s="72"/>
+    </row>
+    <row r="220" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A220" s="68">
         <v>75</v>
       </c>
-      <c r="B220" s="70" t="s">
+      <c r="B220" s="68" t="s">
         <v>842</v>
       </c>
-      <c r="C220" s="70" t="s">
+      <c r="C220" s="68" t="s">
         <v>708</v>
       </c>
-      <c r="D220" s="70" t="s">
+      <c r="D220" s="68" t="s">
         <v>864</v>
       </c>
-      <c r="E220" s="70" t="s">
+      <c r="E220" s="68" t="s">
         <v>962</v>
       </c>
-      <c r="F220" s="70" t="s">
+      <c r="F220" s="68" t="s">
         <v>843</v>
       </c>
-      <c r="G220" s="70" t="s">
+      <c r="G220" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="H220" s="70" t="s">
+      <c r="H220" s="68" t="s">
         <v>709</v>
       </c>
-      <c r="I220" s="70" t="s">
+      <c r="I220" s="68" t="s">
         <v>963</v>
       </c>
-      <c r="J220" s="71" t="s">
+      <c r="J220" s="69" t="s">
         <v>846</v>
       </c>
-      <c r="K220" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="L220" s="76"/>
-      <c r="M220" s="76" t="s">
+      <c r="K220" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="L220" s="74"/>
+      <c r="M220" s="74" t="s">
         <v>1605</v>
       </c>
-      <c r="N220" s="76"/>
+      <c r="N220" s="74"/>
     </row>
     <row r="221" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A221" s="53">
@@ -25060,49 +25152,49 @@
       <c r="K221" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L221" s="74"/>
-      <c r="M221" s="74"/>
-      <c r="N221" s="74"/>
-    </row>
-    <row r="222" spans="1:14" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A222" s="70">
+      <c r="L221" s="72"/>
+      <c r="M221" s="72"/>
+      <c r="N221" s="72"/>
+    </row>
+    <row r="222" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A222" s="68">
         <v>77</v>
       </c>
-      <c r="B222" s="70" t="s">
+      <c r="B222" s="68" t="s">
         <v>842</v>
       </c>
-      <c r="C222" s="70" t="s">
+      <c r="C222" s="68" t="s">
         <v>712</v>
       </c>
-      <c r="D222" s="70" t="s">
+      <c r="D222" s="68" t="s">
         <v>864</v>
       </c>
-      <c r="E222" s="70" t="s">
+      <c r="E222" s="68" t="s">
         <v>966</v>
       </c>
-      <c r="F222" s="70" t="s">
+      <c r="F222" s="68" t="s">
         <v>843</v>
       </c>
-      <c r="G222" s="70" t="s">
+      <c r="G222" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="H222" s="70" t="s">
+      <c r="H222" s="68" t="s">
         <v>713</v>
       </c>
-      <c r="I222" s="70" t="s">
+      <c r="I222" s="68" t="s">
         <v>967</v>
       </c>
-      <c r="J222" s="71" t="s">
+      <c r="J222" s="69" t="s">
         <v>846</v>
       </c>
-      <c r="K222" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="L222" s="76"/>
-      <c r="M222" s="76" t="s">
+      <c r="K222" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="L222" s="74"/>
+      <c r="M222" s="74" t="s">
         <v>1611</v>
       </c>
-      <c r="N222" s="76"/>
+      <c r="N222" s="74"/>
     </row>
     <row r="223" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A223" s="53">
@@ -25138,9 +25230,9 @@
       <c r="K223" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L223" s="74"/>
-      <c r="M223" s="74"/>
-      <c r="N223" s="74"/>
+      <c r="L223" s="72"/>
+      <c r="M223" s="72"/>
+      <c r="N223" s="72"/>
     </row>
     <row r="224" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A224" s="53">
@@ -25176,9 +25268,9 @@
       <c r="K224" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L224" s="74"/>
-      <c r="M224" s="74"/>
-      <c r="N224" s="74"/>
+      <c r="L224" s="72"/>
+      <c r="M224" s="72"/>
+      <c r="N224" s="72"/>
     </row>
     <row r="225" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A225" s="53">
@@ -25214,9 +25306,9 @@
       <c r="K225" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L225" s="74"/>
-      <c r="M225" s="74"/>
-      <c r="N225" s="74"/>
+      <c r="L225" s="72"/>
+      <c r="M225" s="72"/>
+      <c r="N225" s="72"/>
     </row>
     <row r="226" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A226" s="53">
@@ -25252,49 +25344,49 @@
       <c r="K226" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L226" s="74"/>
-      <c r="M226" s="74"/>
-      <c r="N226" s="74"/>
-    </row>
-    <row r="227" spans="1:14" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A227" s="70">
+      <c r="L226" s="72"/>
+      <c r="M226" s="72"/>
+      <c r="N226" s="72"/>
+    </row>
+    <row r="227" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="33">
         <v>82</v>
       </c>
-      <c r="B227" s="70" t="s">
-        <v>842</v>
-      </c>
-      <c r="C227" s="70" t="s">
+      <c r="B227" s="33" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C227" s="33" t="s">
         <v>722</v>
       </c>
-      <c r="D227" s="70" t="s">
-        <v>852</v>
-      </c>
-      <c r="E227" s="70" t="s">
-        <v>973</v>
-      </c>
-      <c r="F227" s="70" t="s">
-        <v>843</v>
-      </c>
-      <c r="G227" s="70" t="s">
-        <v>844</v>
-      </c>
-      <c r="H227" s="70" t="s">
+      <c r="D227" s="33" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E227" s="33" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F227" s="33" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G227" s="33" t="s">
+        <v>1591</v>
+      </c>
+      <c r="H227" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="I227" s="70" t="s">
+      <c r="I227" s="33" t="s">
         <v>949</v>
       </c>
-      <c r="J227" s="71" t="s">
-        <v>846</v>
-      </c>
-      <c r="K227" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="L227" s="76"/>
-      <c r="M227" s="76" t="s">
+      <c r="J227" s="81" t="s">
+        <v>1629</v>
+      </c>
+      <c r="K227" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="L227" s="51"/>
+      <c r="M227" s="51" t="s">
         <v>1605</v>
       </c>
-      <c r="N227" s="76"/>
+      <c r="N227" s="51"/>
     </row>
     <row r="228" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A228" s="53">
@@ -25330,9 +25422,9 @@
       <c r="K228" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L228" s="74"/>
-      <c r="M228" s="74"/>
-      <c r="N228" s="74"/>
+      <c r="L228" s="72"/>
+      <c r="M228" s="72"/>
+      <c r="N228" s="72"/>
     </row>
     <row r="229" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A229" s="53">
@@ -25368,9 +25460,9 @@
       <c r="K229" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L229" s="74"/>
-      <c r="M229" s="74"/>
-      <c r="N229" s="74"/>
+      <c r="L229" s="72"/>
+      <c r="M229" s="72"/>
+      <c r="N229" s="72"/>
     </row>
     <row r="230" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A230" s="53">
@@ -25406,9 +25498,9 @@
       <c r="K230" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L230" s="74"/>
-      <c r="M230" s="74"/>
-      <c r="N230" s="74"/>
+      <c r="L230" s="72"/>
+      <c r="M230" s="72"/>
+      <c r="N230" s="72"/>
     </row>
     <row r="231" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A231" s="53">
@@ -25444,49 +25536,49 @@
       <c r="K231" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L231" s="74"/>
-      <c r="M231" s="74"/>
-      <c r="N231" s="74"/>
-    </row>
-    <row r="232" spans="1:14" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A232" s="70">
+      <c r="L231" s="72"/>
+      <c r="M231" s="72"/>
+      <c r="N231" s="72"/>
+    </row>
+    <row r="232" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A232" s="68">
         <v>87</v>
       </c>
-      <c r="B232" s="70" t="s">
+      <c r="B232" s="68" t="s">
         <v>842</v>
       </c>
-      <c r="C232" s="70" t="s">
+      <c r="C232" s="68" t="s">
         <v>732</v>
       </c>
-      <c r="D232" s="70" t="s">
+      <c r="D232" s="68" t="s">
         <v>864</v>
       </c>
-      <c r="E232" s="70" t="s">
+      <c r="E232" s="68" t="s">
         <v>977</v>
       </c>
-      <c r="F232" s="70" t="s">
+      <c r="F232" s="68" t="s">
         <v>843</v>
       </c>
-      <c r="G232" s="70" t="s">
+      <c r="G232" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="H232" s="70" t="s">
+      <c r="H232" s="68" t="s">
         <v>733</v>
       </c>
-      <c r="I232" s="70" t="s">
+      <c r="I232" s="68" t="s">
         <v>945</v>
       </c>
-      <c r="J232" s="71" t="s">
+      <c r="J232" s="69" t="s">
         <v>846</v>
       </c>
-      <c r="K232" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="L232" s="76"/>
-      <c r="M232" s="76" t="s">
+      <c r="K232" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="L232" s="74"/>
+      <c r="M232" s="74" t="s">
         <v>1611</v>
       </c>
-      <c r="N232" s="76"/>
+      <c r="N232" s="74"/>
     </row>
     <row r="233" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A233" s="53">
@@ -25522,9 +25614,9 @@
       <c r="K233" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L233" s="74"/>
-      <c r="M233" s="74"/>
-      <c r="N233" s="74"/>
+      <c r="L233" s="72"/>
+      <c r="M233" s="72"/>
+      <c r="N233" s="72"/>
     </row>
     <row r="234" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A234" s="53">
@@ -25560,9 +25652,9 @@
       <c r="K234" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L234" s="74"/>
-      <c r="M234" s="74"/>
-      <c r="N234" s="74"/>
+      <c r="L234" s="72"/>
+      <c r="M234" s="72"/>
+      <c r="N234" s="72"/>
     </row>
     <row r="235" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A235" s="53">
@@ -25598,9 +25690,9 @@
       <c r="K235" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L235" s="74"/>
-      <c r="M235" s="74"/>
-      <c r="N235" s="74"/>
+      <c r="L235" s="72"/>
+      <c r="M235" s="72"/>
+      <c r="N235" s="72"/>
     </row>
     <row r="236" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A236" s="53">
@@ -25636,49 +25728,49 @@
       <c r="K236" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L236" s="74"/>
-      <c r="M236" s="74"/>
-      <c r="N236" s="74"/>
-    </row>
-    <row r="237" spans="1:14" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A237" s="70">
+      <c r="L236" s="72"/>
+      <c r="M236" s="72"/>
+      <c r="N236" s="72"/>
+    </row>
+    <row r="237" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A237" s="68">
         <v>92</v>
       </c>
-      <c r="B237" s="70" t="s">
+      <c r="B237" s="68" t="s">
         <v>842</v>
       </c>
-      <c r="C237" s="70" t="s">
+      <c r="C237" s="68" t="s">
         <v>742</v>
       </c>
-      <c r="D237" s="70" t="s">
+      <c r="D237" s="68" t="s">
         <v>864</v>
       </c>
-      <c r="E237" s="70" t="s">
+      <c r="E237" s="68" t="s">
         <v>978</v>
       </c>
-      <c r="F237" s="70" t="s">
+      <c r="F237" s="68" t="s">
         <v>843</v>
       </c>
-      <c r="G237" s="70" t="s">
+      <c r="G237" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="H237" s="70" t="s">
+      <c r="H237" s="68" t="s">
         <v>743</v>
       </c>
-      <c r="I237" s="70" t="s">
+      <c r="I237" s="68" t="s">
         <v>954</v>
       </c>
-      <c r="J237" s="71" t="s">
+      <c r="J237" s="69" t="s">
         <v>846</v>
       </c>
-      <c r="K237" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="L237" s="76"/>
-      <c r="M237" s="76" t="s">
+      <c r="K237" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="L237" s="74"/>
+      <c r="M237" s="74" t="s">
         <v>1611</v>
       </c>
-      <c r="N237" s="76"/>
+      <c r="N237" s="74"/>
     </row>
     <row r="238" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A238" s="53">
@@ -25714,9 +25806,9 @@
       <c r="K238" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L238" s="74"/>
-      <c r="M238" s="74"/>
-      <c r="N238" s="74"/>
+      <c r="L238" s="72"/>
+      <c r="M238" s="72"/>
+      <c r="N238" s="72"/>
     </row>
     <row r="239" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A239" s="53">
@@ -25752,9 +25844,9 @@
       <c r="K239" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L239" s="74"/>
-      <c r="M239" s="74"/>
-      <c r="N239" s="74"/>
+      <c r="L239" s="72"/>
+      <c r="M239" s="72"/>
+      <c r="N239" s="72"/>
     </row>
     <row r="240" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A240" s="53">
@@ -25790,49 +25882,49 @@
       <c r="K240" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L240" s="74"/>
-      <c r="M240" s="74"/>
-      <c r="N240" s="74"/>
-    </row>
-    <row r="241" spans="1:14" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A241" s="70">
+      <c r="L240" s="72"/>
+      <c r="M240" s="72"/>
+      <c r="N240" s="72"/>
+    </row>
+    <row r="241" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="33">
         <v>96</v>
       </c>
-      <c r="B241" s="70" t="s">
-        <v>842</v>
-      </c>
-      <c r="C241" s="70" t="s">
+      <c r="B241" s="33" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C241" s="33" t="s">
         <v>750</v>
       </c>
-      <c r="D241" s="70" t="s">
-        <v>864</v>
-      </c>
-      <c r="E241" s="70" t="s">
-        <v>989</v>
-      </c>
-      <c r="F241" s="70" t="s">
-        <v>843</v>
-      </c>
-      <c r="G241" s="70" t="s">
-        <v>844</v>
-      </c>
-      <c r="H241" s="70" t="s">
+      <c r="D241" s="33" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E241" s="33" t="s">
+        <v>1631</v>
+      </c>
+      <c r="F241" s="33" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G241" s="33" t="s">
+        <v>1591</v>
+      </c>
+      <c r="H241" s="33" t="s">
         <v>751</v>
       </c>
-      <c r="I241" s="70" t="s">
+      <c r="I241" s="33" t="s">
         <v>990</v>
       </c>
-      <c r="J241" s="71" t="s">
-        <v>846</v>
-      </c>
-      <c r="K241" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="L241" s="76"/>
-      <c r="M241" s="76" t="s">
+      <c r="J241" s="81" t="s">
+        <v>1629</v>
+      </c>
+      <c r="K241" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="L241" s="51"/>
+      <c r="M241" s="51" t="s">
         <v>1605</v>
       </c>
-      <c r="N241" s="76"/>
+      <c r="N241" s="51"/>
     </row>
     <row r="242" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A242" s="53">
@@ -25868,9 +25960,9 @@
       <c r="K242" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L242" s="74"/>
-      <c r="M242" s="74"/>
-      <c r="N242" s="74"/>
+      <c r="L242" s="72"/>
+      <c r="M242" s="72"/>
+      <c r="N242" s="72"/>
     </row>
     <row r="243" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A243" s="53">
@@ -25906,9 +25998,9 @@
       <c r="K243" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L243" s="74"/>
-      <c r="M243" s="74"/>
-      <c r="N243" s="74"/>
+      <c r="L243" s="72"/>
+      <c r="M243" s="72"/>
+      <c r="N243" s="72"/>
     </row>
     <row r="244" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A244" s="53">
@@ -25944,9 +26036,9 @@
       <c r="K244" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L244" s="74"/>
-      <c r="M244" s="74"/>
-      <c r="N244" s="74"/>
+      <c r="L244" s="72"/>
+      <c r="M244" s="72"/>
+      <c r="N244" s="72"/>
     </row>
     <row r="245" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A245" s="53">
@@ -25982,9 +26074,9 @@
       <c r="K245" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L245" s="74"/>
-      <c r="M245" s="74"/>
-      <c r="N245" s="74"/>
+      <c r="L245" s="72"/>
+      <c r="M245" s="72"/>
+      <c r="N245" s="72"/>
     </row>
     <row r="246" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A246" s="53">
@@ -26020,9 +26112,9 @@
       <c r="K246" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L246" s="74"/>
-      <c r="M246" s="74"/>
-      <c r="N246" s="74"/>
+      <c r="L246" s="72"/>
+      <c r="M246" s="72"/>
+      <c r="N246" s="72"/>
     </row>
     <row r="247" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A247" s="53">
@@ -26058,9 +26150,9 @@
       <c r="K247" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L247" s="74"/>
-      <c r="M247" s="74"/>
-      <c r="N247" s="74"/>
+      <c r="L247" s="72"/>
+      <c r="M247" s="72"/>
+      <c r="N247" s="72"/>
     </row>
     <row r="248" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A248" s="53">
@@ -26096,49 +26188,49 @@
       <c r="K248" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L248" s="74"/>
-      <c r="M248" s="74"/>
-      <c r="N248" s="74"/>
-    </row>
-    <row r="249" spans="1:14" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A249" s="70">
+      <c r="L248" s="72"/>
+      <c r="M248" s="72"/>
+      <c r="N248" s="72"/>
+    </row>
+    <row r="249" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A249" s="68">
         <v>104</v>
       </c>
-      <c r="B249" s="70" t="s">
+      <c r="B249" s="68" t="s">
         <v>842</v>
       </c>
-      <c r="C249" s="70" t="s">
+      <c r="C249" s="68" t="s">
         <v>766</v>
       </c>
-      <c r="D249" s="70" t="s">
+      <c r="D249" s="68" t="s">
         <v>864</v>
       </c>
-      <c r="E249" s="70" t="s">
+      <c r="E249" s="68" t="s">
         <v>999</v>
       </c>
-      <c r="F249" s="70" t="s">
+      <c r="F249" s="68" t="s">
         <v>843</v>
       </c>
-      <c r="G249" s="70" t="s">
+      <c r="G249" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="H249" s="70" t="s">
+      <c r="H249" s="68" t="s">
         <v>767</v>
       </c>
-      <c r="I249" s="70" t="s">
+      <c r="I249" s="68" t="s">
         <v>1000</v>
       </c>
-      <c r="J249" s="71" t="s">
+      <c r="J249" s="69" t="s">
         <v>846</v>
       </c>
-      <c r="K249" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="L249" s="76"/>
-      <c r="M249" s="76" t="s">
+      <c r="K249" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="L249" s="74"/>
+      <c r="M249" s="74" t="s">
         <v>1605</v>
       </c>
-      <c r="N249" s="76"/>
+      <c r="N249" s="74"/>
     </row>
     <row r="250" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A250" s="53">
@@ -26174,9 +26266,9 @@
       <c r="K250" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L250" s="74"/>
-      <c r="M250" s="74"/>
-      <c r="N250" s="74"/>
+      <c r="L250" s="72"/>
+      <c r="M250" s="72"/>
+      <c r="N250" s="72"/>
     </row>
     <row r="251" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A251" s="53">
@@ -26212,9 +26304,9 @@
       <c r="K251" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L251" s="74"/>
-      <c r="M251" s="74"/>
-      <c r="N251" s="74"/>
+      <c r="L251" s="72"/>
+      <c r="M251" s="72"/>
+      <c r="N251" s="72"/>
     </row>
     <row r="252" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A252" s="53">
@@ -26250,9 +26342,9 @@
       <c r="K252" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L252" s="74"/>
-      <c r="M252" s="74"/>
-      <c r="N252" s="74"/>
+      <c r="L252" s="72"/>
+      <c r="M252" s="72"/>
+      <c r="N252" s="72"/>
     </row>
     <row r="253" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A253" s="53">
@@ -26288,9 +26380,9 @@
       <c r="K253" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L253" s="74"/>
-      <c r="M253" s="74"/>
-      <c r="N253" s="74"/>
+      <c r="L253" s="72"/>
+      <c r="M253" s="72"/>
+      <c r="N253" s="72"/>
     </row>
     <row r="254" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A254" s="53">
@@ -26326,9 +26418,9 @@
       <c r="K254" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L254" s="74"/>
-      <c r="M254" s="74"/>
-      <c r="N254" s="74"/>
+      <c r="L254" s="72"/>
+      <c r="M254" s="72"/>
+      <c r="N254" s="72"/>
     </row>
     <row r="255" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A255" s="53">
@@ -26364,9 +26456,9 @@
       <c r="K255" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L255" s="74"/>
-      <c r="M255" s="74"/>
-      <c r="N255" s="74"/>
+      <c r="L255" s="72"/>
+      <c r="M255" s="72"/>
+      <c r="N255" s="72"/>
     </row>
     <row r="256" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A256" s="53">
@@ -26402,9 +26494,9 @@
       <c r="K256" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L256" s="74"/>
-      <c r="M256" s="74"/>
-      <c r="N256" s="74"/>
+      <c r="L256" s="72"/>
+      <c r="M256" s="72"/>
+      <c r="N256" s="72"/>
     </row>
     <row r="257" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A257" s="53">
@@ -26440,9 +26532,9 @@
       <c r="K257" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L257" s="74"/>
-      <c r="M257" s="74"/>
-      <c r="N257" s="74"/>
+      <c r="L257" s="72"/>
+      <c r="M257" s="72"/>
+      <c r="N257" s="72"/>
     </row>
     <row r="258" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A258" s="53">
@@ -26478,9 +26570,9 @@
       <c r="K258" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L258" s="74"/>
-      <c r="M258" s="74"/>
-      <c r="N258" s="74"/>
+      <c r="L258" s="72"/>
+      <c r="M258" s="72"/>
+      <c r="N258" s="72"/>
     </row>
     <row r="259" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A259" s="59">
@@ -26514,9 +26606,9 @@
         <v>846</v>
       </c>
       <c r="K259" s="63"/>
-      <c r="L259" s="77"/>
-      <c r="M259" s="77"/>
-      <c r="N259" s="77"/>
+      <c r="L259" s="75"/>
+      <c r="M259" s="75"/>
+      <c r="N259" s="75"/>
     </row>
     <row r="260" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A260" s="59">
@@ -26550,9 +26642,9 @@
         <v>846</v>
       </c>
       <c r="K260" s="63"/>
-      <c r="L260" s="77"/>
-      <c r="M260" s="77"/>
-      <c r="N260" s="77"/>
+      <c r="L260" s="75"/>
+      <c r="M260" s="75"/>
+      <c r="N260" s="75"/>
     </row>
     <row r="261" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A261" s="59">
@@ -26586,9 +26678,9 @@
         <v>846</v>
       </c>
       <c r="K261" s="63"/>
-      <c r="L261" s="77"/>
-      <c r="M261" s="77"/>
-      <c r="N261" s="77"/>
+      <c r="L261" s="75"/>
+      <c r="M261" s="75"/>
+      <c r="N261" s="75"/>
     </row>
     <row r="262" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A262" s="59">
@@ -26622,9 +26714,9 @@
         <v>846</v>
       </c>
       <c r="K262" s="63"/>
-      <c r="L262" s="77"/>
-      <c r="M262" s="77"/>
-      <c r="N262" s="77"/>
+      <c r="L262" s="75"/>
+      <c r="M262" s="75"/>
+      <c r="N262" s="75"/>
     </row>
     <row r="263" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A263" s="59">
@@ -26658,9 +26750,9 @@
         <v>846</v>
       </c>
       <c r="K263" s="63"/>
-      <c r="L263" s="77"/>
-      <c r="M263" s="77"/>
-      <c r="N263" s="77"/>
+      <c r="L263" s="75"/>
+      <c r="M263" s="75"/>
+      <c r="N263" s="75"/>
     </row>
     <row r="264" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A264" s="59">
@@ -26694,9 +26786,9 @@
         <v>846</v>
       </c>
       <c r="K264" s="63"/>
-      <c r="L264" s="77"/>
-      <c r="M264" s="77"/>
-      <c r="N264" s="77"/>
+      <c r="L264" s="75"/>
+      <c r="M264" s="75"/>
+      <c r="N264" s="75"/>
     </row>
     <row r="265" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A265" s="59">
@@ -26730,9 +26822,9 @@
         <v>846</v>
       </c>
       <c r="K265" s="63"/>
-      <c r="L265" s="77"/>
-      <c r="M265" s="77"/>
-      <c r="N265" s="77"/>
+      <c r="L265" s="75"/>
+      <c r="M265" s="75"/>
+      <c r="N265" s="75"/>
     </row>
     <row r="266" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A266" s="59">
@@ -26766,9 +26858,9 @@
         <v>846</v>
       </c>
       <c r="K266" s="63"/>
-      <c r="L266" s="77"/>
-      <c r="M266" s="77"/>
-      <c r="N266" s="77"/>
+      <c r="L266" s="75"/>
+      <c r="M266" s="75"/>
+      <c r="N266" s="75"/>
     </row>
     <row r="267" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A267" s="59">
@@ -26802,9 +26894,9 @@
         <v>846</v>
       </c>
       <c r="K267" s="63"/>
-      <c r="L267" s="77"/>
-      <c r="M267" s="77"/>
-      <c r="N267" s="77"/>
+      <c r="L267" s="75"/>
+      <c r="M267" s="75"/>
+      <c r="N267" s="75"/>
     </row>
     <row r="268" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A268" s="59">
@@ -26838,9 +26930,9 @@
         <v>846</v>
       </c>
       <c r="K268" s="63"/>
-      <c r="L268" s="77"/>
-      <c r="M268" s="77"/>
-      <c r="N268" s="77"/>
+      <c r="L268" s="75"/>
+      <c r="M268" s="75"/>
+      <c r="N268" s="75"/>
     </row>
     <row r="269" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A269" s="59">
@@ -26874,9 +26966,9 @@
         <v>846</v>
       </c>
       <c r="K269" s="63"/>
-      <c r="L269" s="77"/>
-      <c r="M269" s="77"/>
-      <c r="N269" s="77"/>
+      <c r="L269" s="75"/>
+      <c r="M269" s="75"/>
+      <c r="N269" s="75"/>
     </row>
     <row r="270" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A270" s="59">
@@ -26910,9 +27002,9 @@
         <v>846</v>
       </c>
       <c r="K270" s="63"/>
-      <c r="L270" s="77"/>
-      <c r="M270" s="77"/>
-      <c r="N270" s="77"/>
+      <c r="L270" s="75"/>
+      <c r="M270" s="75"/>
+      <c r="N270" s="75"/>
     </row>
     <row r="271" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A271" s="59">
@@ -26946,9 +27038,9 @@
         <v>846</v>
       </c>
       <c r="K271" s="63"/>
-      <c r="L271" s="77"/>
-      <c r="M271" s="77"/>
-      <c r="N271" s="77"/>
+      <c r="L271" s="75"/>
+      <c r="M271" s="75"/>
+      <c r="N271" s="75"/>
     </row>
     <row r="272" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A272" s="59">
@@ -26982,9 +27074,9 @@
         <v>846</v>
       </c>
       <c r="K272" s="63"/>
-      <c r="L272" s="77"/>
-      <c r="M272" s="77"/>
-      <c r="N272" s="77"/>
+      <c r="L272" s="75"/>
+      <c r="M272" s="75"/>
+      <c r="N272" s="75"/>
     </row>
     <row r="273" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A273" s="59">
@@ -27018,9 +27110,9 @@
         <v>846</v>
       </c>
       <c r="K273" s="63"/>
-      <c r="L273" s="77"/>
-      <c r="M273" s="77"/>
-      <c r="N273" s="77"/>
+      <c r="L273" s="75"/>
+      <c r="M273" s="75"/>
+      <c r="N273" s="75"/>
     </row>
     <row r="274" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A274" s="59">
@@ -27054,9 +27146,9 @@
         <v>846</v>
       </c>
       <c r="K274" s="63"/>
-      <c r="L274" s="77"/>
-      <c r="M274" s="77"/>
-      <c r="N274" s="77"/>
+      <c r="L274" s="75"/>
+      <c r="M274" s="75"/>
+      <c r="N274" s="75"/>
     </row>
     <row r="275" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A275" s="59">
@@ -27090,9 +27182,9 @@
         <v>846</v>
       </c>
       <c r="K275" s="63"/>
-      <c r="L275" s="77"/>
-      <c r="M275" s="77"/>
-      <c r="N275" s="77"/>
+      <c r="L275" s="75"/>
+      <c r="M275" s="75"/>
+      <c r="N275" s="75"/>
     </row>
     <row r="276" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A276" s="59">
@@ -27126,9 +27218,9 @@
         <v>846</v>
       </c>
       <c r="K276" s="63"/>
-      <c r="L276" s="77"/>
-      <c r="M276" s="77"/>
-      <c r="N276" s="77"/>
+      <c r="L276" s="75"/>
+      <c r="M276" s="75"/>
+      <c r="N276" s="75"/>
     </row>
     <row r="277" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A277" s="59">
@@ -27162,9 +27254,9 @@
         <v>846</v>
       </c>
       <c r="K277" s="63"/>
-      <c r="L277" s="77"/>
-      <c r="M277" s="77"/>
-      <c r="N277" s="77"/>
+      <c r="L277" s="75"/>
+      <c r="M277" s="75"/>
+      <c r="N277" s="75"/>
     </row>
     <row r="278" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A278" s="59">
@@ -27198,9 +27290,9 @@
         <v>846</v>
       </c>
       <c r="K278" s="63"/>
-      <c r="L278" s="77"/>
-      <c r="M278" s="77"/>
-      <c r="N278" s="77"/>
+      <c r="L278" s="75"/>
+      <c r="M278" s="75"/>
+      <c r="N278" s="75"/>
     </row>
     <row r="279" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A279" s="59">
@@ -27234,9 +27326,9 @@
         <v>846</v>
       </c>
       <c r="K279" s="63"/>
-      <c r="L279" s="77"/>
-      <c r="M279" s="77"/>
-      <c r="N279" s="77"/>
+      <c r="L279" s="75"/>
+      <c r="M279" s="75"/>
+      <c r="N279" s="75"/>
     </row>
     <row r="280" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A280" s="59">
@@ -27270,9 +27362,9 @@
         <v>846</v>
       </c>
       <c r="K280" s="63"/>
-      <c r="L280" s="77"/>
-      <c r="M280" s="77"/>
-      <c r="N280" s="77"/>
+      <c r="L280" s="75"/>
+      <c r="M280" s="75"/>
+      <c r="N280" s="75"/>
     </row>
     <row r="281" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A281" s="59">
@@ -27306,9 +27398,9 @@
         <v>846</v>
       </c>
       <c r="K281" s="63"/>
-      <c r="L281" s="77"/>
-      <c r="M281" s="77"/>
-      <c r="N281" s="77"/>
+      <c r="L281" s="75"/>
+      <c r="M281" s="75"/>
+      <c r="N281" s="75"/>
     </row>
     <row r="282" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A282" s="59">
@@ -27342,9 +27434,9 @@
         <v>846</v>
       </c>
       <c r="K282" s="63"/>
-      <c r="L282" s="77"/>
-      <c r="M282" s="77"/>
-      <c r="N282" s="77"/>
+      <c r="L282" s="75"/>
+      <c r="M282" s="75"/>
+      <c r="N282" s="75"/>
     </row>
     <row r="283" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A283" s="59">
@@ -27378,9 +27470,9 @@
         <v>846</v>
       </c>
       <c r="K283" s="63"/>
-      <c r="L283" s="77"/>
-      <c r="M283" s="77"/>
-      <c r="N283" s="77"/>
+      <c r="L283" s="75"/>
+      <c r="M283" s="75"/>
+      <c r="N283" s="75"/>
     </row>
     <row r="284" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A284" s="59">
@@ -27414,9 +27506,9 @@
         <v>846</v>
       </c>
       <c r="K284" s="63"/>
-      <c r="L284" s="77"/>
-      <c r="M284" s="77"/>
-      <c r="N284" s="77"/>
+      <c r="L284" s="75"/>
+      <c r="M284" s="75"/>
+      <c r="N284" s="75"/>
     </row>
     <row r="285" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A285" s="59">
@@ -27450,9 +27542,9 @@
         <v>846</v>
       </c>
       <c r="K285" s="63"/>
-      <c r="L285" s="77"/>
-      <c r="M285" s="77"/>
-      <c r="N285" s="77"/>
+      <c r="L285" s="75"/>
+      <c r="M285" s="75"/>
+      <c r="N285" s="75"/>
     </row>
     <row r="286" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A286" s="59">
@@ -27486,9 +27578,9 @@
         <v>846</v>
       </c>
       <c r="K286" s="63"/>
-      <c r="L286" s="77"/>
-      <c r="M286" s="77"/>
-      <c r="N286" s="77"/>
+      <c r="L286" s="75"/>
+      <c r="M286" s="75"/>
+      <c r="N286" s="75"/>
     </row>
     <row r="287" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A287" s="53">
@@ -27524,9 +27616,9 @@
       <c r="K287" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L287" s="74"/>
-      <c r="M287" s="74"/>
-      <c r="N287" s="74"/>
+      <c r="L287" s="72"/>
+      <c r="M287" s="72"/>
+      <c r="N287" s="72"/>
     </row>
     <row r="288" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A288" s="53">
@@ -27562,9 +27654,9 @@
       <c r="K288" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L288" s="74"/>
-      <c r="M288" s="74"/>
-      <c r="N288" s="74"/>
+      <c r="L288" s="72"/>
+      <c r="M288" s="72"/>
+      <c r="N288" s="72"/>
     </row>
     <row r="289" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A289" s="53">
@@ -27600,9 +27692,9 @@
       <c r="K289" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L289" s="74"/>
-      <c r="M289" s="74"/>
-      <c r="N289" s="74"/>
+      <c r="L289" s="72"/>
+      <c r="M289" s="72"/>
+      <c r="N289" s="72"/>
     </row>
     <row r="290" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A290" s="53">
@@ -27638,9 +27730,9 @@
       <c r="K290" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L290" s="74"/>
-      <c r="M290" s="74"/>
-      <c r="N290" s="74"/>
+      <c r="L290" s="72"/>
+      <c r="M290" s="72"/>
+      <c r="N290" s="72"/>
     </row>
     <row r="291" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A291" s="53">
@@ -27676,9 +27768,9 @@
       <c r="K291" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L291" s="74"/>
-      <c r="M291" s="74"/>
-      <c r="N291" s="74"/>
+      <c r="L291" s="72"/>
+      <c r="M291" s="72"/>
+      <c r="N291" s="72"/>
     </row>
     <row r="292" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A292" s="53">
@@ -27714,9 +27806,9 @@
       <c r="K292" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L292" s="74"/>
-      <c r="M292" s="74"/>
-      <c r="N292" s="74"/>
+      <c r="L292" s="72"/>
+      <c r="M292" s="72"/>
+      <c r="N292" s="72"/>
     </row>
     <row r="293" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A293" s="53">
@@ -27752,9 +27844,9 @@
       <c r="K293" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L293" s="74"/>
-      <c r="M293" s="74"/>
-      <c r="N293" s="74"/>
+      <c r="L293" s="72"/>
+      <c r="M293" s="72"/>
+      <c r="N293" s="72"/>
     </row>
     <row r="294" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A294" s="53">
@@ -27790,9 +27882,9 @@
       <c r="K294" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L294" s="74"/>
-      <c r="M294" s="74"/>
-      <c r="N294" s="74"/>
+      <c r="L294" s="72"/>
+      <c r="M294" s="72"/>
+      <c r="N294" s="72"/>
     </row>
     <row r="295" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A295" s="53">
@@ -27828,9 +27920,9 @@
       <c r="K295" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L295" s="74"/>
-      <c r="M295" s="74"/>
-      <c r="N295" s="74"/>
+      <c r="L295" s="72"/>
+      <c r="M295" s="72"/>
+      <c r="N295" s="72"/>
     </row>
     <row r="296" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A296" s="53">
@@ -27866,9 +27958,9 @@
       <c r="K296" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L296" s="74"/>
-      <c r="M296" s="74"/>
-      <c r="N296" s="74"/>
+      <c r="L296" s="72"/>
+      <c r="M296" s="72"/>
+      <c r="N296" s="72"/>
     </row>
     <row r="297" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A297" s="59">
@@ -27904,9 +27996,9 @@
       <c r="K297" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L297" s="75"/>
-      <c r="M297" s="75"/>
-      <c r="N297" s="75"/>
+      <c r="L297" s="73"/>
+      <c r="M297" s="73"/>
+      <c r="N297" s="73"/>
     </row>
     <row r="298" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A298" s="53">
@@ -27942,9 +28034,9 @@
       <c r="K298" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L298" s="74"/>
-      <c r="M298" s="74"/>
-      <c r="N298" s="74"/>
+      <c r="L298" s="72"/>
+      <c r="M298" s="72"/>
+      <c r="N298" s="72"/>
     </row>
     <row r="299" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A299" s="53">
@@ -27980,9 +28072,9 @@
       <c r="K299" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L299" s="74"/>
-      <c r="M299" s="74"/>
-      <c r="N299" s="74"/>
+      <c r="L299" s="72"/>
+      <c r="M299" s="72"/>
+      <c r="N299" s="72"/>
     </row>
     <row r="300" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A300" s="53">
@@ -28018,9 +28110,9 @@
       <c r="K300" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L300" s="74"/>
-      <c r="M300" s="74"/>
-      <c r="N300" s="74"/>
+      <c r="L300" s="72"/>
+      <c r="M300" s="72"/>
+      <c r="N300" s="72"/>
     </row>
     <row r="301" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A301" s="53">
@@ -28056,9 +28148,9 @@
       <c r="K301" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L301" s="74"/>
-      <c r="M301" s="74"/>
-      <c r="N301" s="74"/>
+      <c r="L301" s="72"/>
+      <c r="M301" s="72"/>
+      <c r="N301" s="72"/>
     </row>
     <row r="302" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A302" s="53">
@@ -28094,9 +28186,9 @@
       <c r="K302" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L302" s="74"/>
-      <c r="M302" s="74"/>
-      <c r="N302" s="74"/>
+      <c r="L302" s="72"/>
+      <c r="M302" s="72"/>
+      <c r="N302" s="72"/>
     </row>
     <row r="303" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A303" s="53">
@@ -28132,9 +28224,9 @@
       <c r="K303" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L303" s="74"/>
-      <c r="M303" s="74"/>
-      <c r="N303" s="74"/>
+      <c r="L303" s="72"/>
+      <c r="M303" s="72"/>
+      <c r="N303" s="72"/>
     </row>
     <row r="304" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A304" s="53">
@@ -28170,9 +28262,9 @@
       <c r="K304" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L304" s="74"/>
-      <c r="M304" s="74"/>
-      <c r="N304" s="74"/>
+      <c r="L304" s="72"/>
+      <c r="M304" s="72"/>
+      <c r="N304" s="72"/>
     </row>
     <row r="305" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A305" s="53">
@@ -28208,49 +28300,49 @@
       <c r="K305" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L305" s="74"/>
-      <c r="M305" s="74"/>
-      <c r="N305" s="74"/>
-    </row>
-    <row r="306" spans="1:14" s="73" customFormat="1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A306" s="70">
+      <c r="L305" s="72"/>
+      <c r="M305" s="72"/>
+      <c r="N305" s="72"/>
+    </row>
+    <row r="306" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A306" s="68">
         <v>161</v>
       </c>
-      <c r="B306" s="70" t="s">
+      <c r="B306" s="68" t="s">
         <v>842</v>
       </c>
-      <c r="C306" s="70" t="s">
+      <c r="C306" s="68" t="s">
         <v>824</v>
       </c>
-      <c r="D306" s="70" t="s">
+      <c r="D306" s="68" t="s">
         <v>1056</v>
       </c>
-      <c r="E306" s="70" t="s">
+      <c r="E306" s="68" t="s">
         <v>1077</v>
       </c>
-      <c r="F306" s="70" t="s">
+      <c r="F306" s="68" t="s">
         <v>843</v>
       </c>
-      <c r="G306" s="70" t="s">
+      <c r="G306" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="H306" s="70" t="s">
+      <c r="H306" s="68" t="s">
         <v>825</v>
       </c>
-      <c r="I306" s="70" t="s">
+      <c r="I306" s="68" t="s">
         <v>1064</v>
       </c>
-      <c r="J306" s="71" t="s">
+      <c r="J306" s="69" t="s">
         <v>846</v>
       </c>
-      <c r="K306" s="72" t="s">
-        <v>565</v>
-      </c>
-      <c r="L306" s="76"/>
-      <c r="M306" s="76" t="s">
+      <c r="K306" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="L306" s="74"/>
+      <c r="M306" s="74" t="s">
         <v>1605</v>
       </c>
-      <c r="N306" s="76"/>
+      <c r="N306" s="74"/>
     </row>
     <row r="307" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A307" s="53">
@@ -28286,9 +28378,9 @@
       <c r="K307" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L307" s="74"/>
-      <c r="M307" s="74"/>
-      <c r="N307" s="74"/>
+      <c r="L307" s="72"/>
+      <c r="M307" s="72"/>
+      <c r="N307" s="72"/>
     </row>
     <row r="308" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A308" s="53">
@@ -28324,9 +28416,9 @@
       <c r="K308" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L308" s="74"/>
-      <c r="M308" s="74"/>
-      <c r="N308" s="74"/>
+      <c r="L308" s="72"/>
+      <c r="M308" s="72"/>
+      <c r="N308" s="72"/>
     </row>
     <row r="309" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A309" s="53">
@@ -28362,9 +28454,9 @@
       <c r="K309" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L309" s="74"/>
-      <c r="M309" s="74"/>
-      <c r="N309" s="74"/>
+      <c r="L309" s="72"/>
+      <c r="M309" s="72"/>
+      <c r="N309" s="72"/>
     </row>
     <row r="310" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A310" s="53">
@@ -28400,9 +28492,9 @@
       <c r="K310" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L310" s="74"/>
-      <c r="M310" s="74"/>
-      <c r="N310" s="74"/>
+      <c r="L310" s="72"/>
+      <c r="M310" s="72"/>
+      <c r="N310" s="72"/>
     </row>
     <row r="311" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A311" s="53">
@@ -28438,9 +28530,9 @@
       <c r="K311" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L311" s="74"/>
-      <c r="M311" s="74"/>
-      <c r="N311" s="74"/>
+      <c r="L311" s="72"/>
+      <c r="M311" s="72"/>
+      <c r="N311" s="72"/>
     </row>
     <row r="312" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A312" s="53">
@@ -28476,9 +28568,9 @@
       <c r="K312" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L312" s="74"/>
-      <c r="M312" s="74"/>
-      <c r="N312" s="74"/>
+      <c r="L312" s="72"/>
+      <c r="M312" s="72"/>
+      <c r="N312" s="72"/>
     </row>
     <row r="313" spans="1:14" ht="15" x14ac:dyDescent="0.15">
       <c r="A313" s="53">
@@ -28514,9 +28606,9 @@
       <c r="K313" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L313" s="74"/>
-      <c r="M313" s="74"/>
-      <c r="N313" s="74"/>
+      <c r="L313" s="72"/>
+      <c r="M313" s="72"/>
+      <c r="N313" s="72"/>
     </row>
     <row r="314" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="29">
@@ -29047,8 +29139,8 @@
       <c r="L327" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="M327" s="78"/>
-      <c r="N327" s="78"/>
+      <c r="M327" s="76"/>
+      <c r="N327" s="76"/>
     </row>
     <row r="328" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="29">
@@ -29125,8 +29217,8 @@
       <c r="L329" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="M329" s="78"/>
-      <c r="N329" s="78"/>
+      <c r="M329" s="76"/>
+      <c r="N329" s="76"/>
     </row>
     <row r="330" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="29">
@@ -29239,8 +29331,8 @@
       <c r="L332" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="M332" s="78"/>
-      <c r="N332" s="78"/>
+      <c r="M332" s="76"/>
+      <c r="N332" s="76"/>
     </row>
     <row r="333" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="33">
@@ -29277,8 +29369,8 @@
       <c r="L333" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="M333" s="78"/>
-      <c r="N333" s="78"/>
+      <c r="M333" s="76"/>
+      <c r="N333" s="76"/>
     </row>
     <row r="334" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="29">
@@ -30911,8 +31003,8 @@
       <c r="L376" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="M376" s="78"/>
-      <c r="N376" s="78"/>
+      <c r="M376" s="76"/>
+      <c r="N376" s="76"/>
     </row>
     <row r="377" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="29">
@@ -34901,8 +34993,8 @@
       <c r="L481" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="M481" s="78"/>
-      <c r="N481" s="78"/>
+      <c r="M481" s="76"/>
+      <c r="N481" s="76"/>
     </row>
     <row r="482" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="29">
@@ -35015,8 +35107,8 @@
       <c r="L484" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="M484" s="78"/>
-      <c r="N484" s="78"/>
+      <c r="M484" s="76"/>
+      <c r="N484" s="76"/>
     </row>
     <row r="485" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="29">
@@ -35091,8 +35183,8 @@
       <c r="L486" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="M486" s="78"/>
-      <c r="N486" s="78"/>
+      <c r="M486" s="76"/>
+      <c r="N486" s="76"/>
     </row>
     <row r="487" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="33">
@@ -35129,8 +35221,8 @@
       <c r="L487" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="M487" s="78"/>
-      <c r="N487" s="78"/>
+      <c r="M487" s="76"/>
+      <c r="N487" s="76"/>
     </row>
     <row r="488" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="29">
@@ -35474,7 +35566,7 @@
   <dimension ref="A1:N178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -35492,17 +35584,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
-        <v>1613</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
+      <c r="A1" s="79" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -35584,7 +35676,7 @@
         <v>565</v>
       </c>
       <c r="M3" s="47" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="N3" s="47"/>
     </row>
@@ -35624,7 +35716,7 @@
         <v>565</v>
       </c>
       <c r="M4" s="47" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="N4" s="47"/>
     </row>
@@ -35664,7 +35756,7 @@
         <v>565</v>
       </c>
       <c r="M5" s="47" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="N5" s="47"/>
     </row>
@@ -35704,7 +35796,7 @@
         <v>565</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="N6" s="47"/>
     </row>
@@ -35744,7 +35836,7 @@
         <v>565</v>
       </c>
       <c r="M7" s="47" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="N7" s="47"/>
     </row>
@@ -35784,7 +35876,7 @@
         <v>565</v>
       </c>
       <c r="M8" s="47" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="N8" s="47"/>
     </row>
@@ -35824,7 +35916,7 @@
         <v>565</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="N9" s="47"/>
     </row>
@@ -35864,7 +35956,7 @@
         <v>565</v>
       </c>
       <c r="M10" s="47" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="N10" s="47"/>
     </row>
@@ -35904,7 +35996,7 @@
         <v>565</v>
       </c>
       <c r="M11" s="47" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="N11" s="47"/>
     </row>
@@ -35944,7 +36036,7 @@
         <v>565</v>
       </c>
       <c r="M12" s="47" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="N12" s="47"/>
     </row>
@@ -35984,7 +36076,7 @@
         <v>565</v>
       </c>
       <c r="M13" s="47" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="N13" s="47"/>
     </row>
@@ -36024,7 +36116,7 @@
         <v>565</v>
       </c>
       <c r="M14" s="47" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="N14" s="47"/>
     </row>
@@ -36064,7 +36156,7 @@
         <v>565</v>
       </c>
       <c r="M15" s="47" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="N15" s="47"/>
     </row>
@@ -36103,8 +36195,8 @@
       <c r="L16" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
     </row>
     <row r="17" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="29">
@@ -36181,8 +36273,8 @@
       <c r="L18" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="M18" s="78"/>
-      <c r="N18" s="78"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
     </row>
     <row r="19" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="29">
@@ -36295,8 +36387,8 @@
       <c r="L21" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
     </row>
     <row r="22" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="33">
@@ -36333,8 +36425,8 @@
       <c r="L22" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
     </row>
     <row r="23" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="29">
@@ -37967,8 +38059,8 @@
       <c r="L65" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="M65" s="78"/>
-      <c r="N65" s="78"/>
+      <c r="M65" s="76"/>
+      <c r="N65" s="76"/>
     </row>
     <row r="66" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="29">
@@ -41957,8 +42049,8 @@
       <c r="L170" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="M170" s="78"/>
-      <c r="N170" s="78"/>
+      <c r="M170" s="76"/>
+      <c r="N170" s="76"/>
     </row>
     <row r="171" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A171" s="29">
@@ -42071,8 +42163,8 @@
       <c r="L173" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="M173" s="78"/>
-      <c r="N173" s="78"/>
+      <c r="M173" s="76"/>
+      <c r="N173" s="76"/>
     </row>
     <row r="174" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="29">
@@ -42147,8 +42239,8 @@
       <c r="L175" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="M175" s="78"/>
-      <c r="N175" s="78"/>
+      <c r="M175" s="76"/>
+      <c r="N175" s="76"/>
     </row>
     <row r="176" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="33">
@@ -42185,8 +42277,8 @@
       <c r="L176" s="33" t="s">
         <v>562</v>
       </c>
-      <c r="M176" s="78"/>
-      <c r="N176" s="78"/>
+      <c r="M176" s="76"/>
+      <c r="N176" s="76"/>
     </row>
     <row r="177" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="29">

--- a/主题分工情况记录.xlsx
+++ b/主题分工情况记录.xlsx
@@ -13,13 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$489</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">新电元!$L$1:$L$178</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6451" uniqueCount="1638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6494" uniqueCount="1704">
   <si>
     <t>标题</t>
   </si>
@@ -15201,6 +15202,7 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15213,6 +15215,7 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15226,6 +15229,7 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15266,6 +15270,7 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15337,6 +15342,7 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15352,6 +15358,7 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15367,6 +15374,7 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15379,6 +15387,7 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15395,6 +15404,7 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15410,6 +15420,7 @@
         <sz val="11"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -15417,80 +15428,364 @@
     </r>
   </si>
   <si>
-    <t>备注：截止到2017.12.28，已结提交22篇，因此计划1月15日之前，每日1篇，共计提交15篇
+    <t>D20FDC10ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D15FR4ST&amp;id=13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1M3&amp;id=32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.4提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.12.27提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=M1FJ4&amp;id=45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1FJ8A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FJ8A&amp;id=56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S90T15V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=S90T15V&amp;id=79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.4提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.4提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D30FDC15ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D30FDC15ST&amp;id=27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.8提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE10PC3&amp;id=90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF10SC4M&amp;id=96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.9提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已分给重阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：截止到2017.12.28，已结提交22篇，因此计划1月15日之前，提交20篇
 1月15日至2月15日前，每日2篇，共计60篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D20FDC10ST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D15FR4ST&amp;id=13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1M3&amp;id=32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.4提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.12.27提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=M1FJ4&amp;id=45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1FJ8A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FJ8A&amp;id=56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S90T15V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=S90T15V&amp;id=79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.4提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.4提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D30FDC15ST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D30FDC15ST&amp;id=27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.8提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE10PC3&amp;id=90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF10SC4M&amp;id=96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.9提交</t>
+    <t>SG30JC6M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG30JC6M&amp;id=137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.10提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG20SC3LM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG20SC3LM&amp;id=127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG20SC4M&amp;id=128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG20SC4M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF40PC3&amp;id=116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新主题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改写</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG1J10A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1J10A&amp;id=36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.11提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG1S6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1S6A&amp;id=40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4SBN20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D4SBN20&amp;id=170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D15XBN20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D15XBN20&amp;id=174</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3FP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D3FP3&amp;id=67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF20NC15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF20NC15&amp;id=107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D40FDC15ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20FDC15ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D20FDC10ST&amp;id=23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D20FDC15ST&amp;id=24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.22提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D40FDC10ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D40FDC10ST&amp;id=28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D40FDC15ST&amp;id=29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG1H3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1H3&amp;id=33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1M3A&amp;id=38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.22提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1FJ10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1FH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FH3&amp;id=55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.24提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2FH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=M2FH3&amp;id=62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=M2FM3&amp;id=63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=01&amp;product_id=M2F60&amp;id=14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2F60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=S20SC60WV&amp;id=177</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D15XBS6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D15XBS6&amp;id=172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.25提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG30TC10M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG30TC10M&amp;id=139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG30TC12M&amp;id=140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG30TC15M&amp;id=141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3CE4S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3CE6S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FS4&amp;id=48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1FS4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1FS6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FS6&amp;id=49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.24提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE3S4M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE3S6M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE3S6M&amp;id=71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE3S4M&amp;id=70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.24提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15498,7 +15793,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15637,15 +15932,8 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15713,8 +16001,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -15836,6 +16136,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -15858,7 +16171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -16096,6 +16409,19 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="6" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -16106,6 +16432,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -16425,8 +16760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N489"/>
   <sheetViews>
-    <sheetView topLeftCell="A315" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView topLeftCell="A473" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C474" sqref="C474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16444,20 +16779,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -35612,8 +35947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="L160" sqref="L160"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L46" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -35631,18 +35966,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="87" t="s">
-        <v>1619</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
+      <c r="A1" s="94" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -36166,7 +36501,7 @@
         <v>1591</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="J14" s="29" t="s">
         <v>1113</v>
@@ -36229,7 +36564,7 @@
       <c r="B16" s="33" t="s">
         <v>1589</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="33">
         <v>14</v>
       </c>
       <c r="D16" s="33" t="s">
@@ -36242,10 +36577,10 @@
         <v>1150</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>1590</v>
+        <v>1647</v>
       </c>
       <c r="H16" s="33" t="s">
-        <v>1591</v>
+        <v>1648</v>
       </c>
       <c r="I16" s="33" t="s">
         <v>1151</v>
@@ -36298,7 +36633,7 @@
         <v>1114</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="M17" s="29" t="s">
         <v>565</v>
@@ -36313,7 +36648,7 @@
       <c r="B18" s="33" t="s">
         <v>1589</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="33">
         <v>16</v>
       </c>
       <c r="D18" s="33" t="s">
@@ -36347,87 +36682,89 @@
       <c r="N18" s="76"/>
       <c r="O18" s="76"/>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="29">
+    <row r="19" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="78">
         <v>23</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="78">
         <v>17</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E19" s="29" t="s">
+      <c r="D19" s="78" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E19" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="78" t="s">
         <v>1156</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I19" s="29" t="s">
-        <v>1157</v>
-      </c>
-      <c r="J19" s="29">
+      <c r="I19" s="79" t="s">
+        <v>1664</v>
+      </c>
+      <c r="J19" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-    </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29">
+      <c r="L19" s="96" t="s">
+        <v>1666</v>
+      </c>
+      <c r="M19" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+    </row>
+    <row r="20" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="78">
         <v>24</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="78">
         <v>18</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E20" s="29" t="s">
+      <c r="D20" s="78" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E20" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="78" t="s">
         <v>1159</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I20" s="29" t="s">
-        <v>1160</v>
-      </c>
-      <c r="J20" s="29">
+      <c r="I20" s="79" t="s">
+        <v>1665</v>
+      </c>
+      <c r="J20" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
     </row>
     <row r="21" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="33">
@@ -36436,7 +36773,7 @@
       <c r="B21" s="33" t="s">
         <v>1589</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="33">
         <v>19</v>
       </c>
       <c r="D21" s="33" t="s">
@@ -36477,7 +36814,7 @@
       <c r="B22" s="33" t="s">
         <v>1589</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="33">
         <v>20</v>
       </c>
       <c r="D22" s="33" t="s">
@@ -36522,7 +36859,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="82" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E23" s="82" t="s">
         <v>1111</v>
@@ -36537,7 +36874,7 @@
         <v>1591</v>
       </c>
       <c r="I23" s="79" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="J23" s="82">
         <v>2014.3</v>
@@ -36546,7 +36883,7 @@
         <v>1114</v>
       </c>
       <c r="L23" s="82" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="M23" s="82" t="s">
         <v>565</v>
@@ -36554,87 +36891,89 @@
       <c r="N23" s="83"/>
       <c r="O23" s="83"/>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="29">
+    <row r="24" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="78">
         <v>28</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="78">
         <v>22</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E24" s="29" t="s">
+      <c r="D24" s="78" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E24" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="78" t="s">
         <v>1171</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I24" s="29" t="s">
-        <v>1172</v>
-      </c>
-      <c r="J24" s="29">
+      <c r="I24" s="79" t="s">
+        <v>1668</v>
+      </c>
+      <c r="J24" s="78">
         <v>2013.12</v>
       </c>
-      <c r="K24" s="29" t="s">
+      <c r="K24" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-    </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="29">
+      <c r="L24" s="96" t="s">
+        <v>1673</v>
+      </c>
+      <c r="M24" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+    </row>
+    <row r="25" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="78">
         <v>29</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="78">
         <v>23</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E25" s="29" t="s">
+      <c r="D25" s="78" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E25" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="78" t="s">
         <v>1174</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I25" s="29" t="s">
-        <v>1175</v>
-      </c>
-      <c r="J25" s="29">
+      <c r="I25" s="79" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J25" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K25" s="29" t="s">
+      <c r="K25" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
     </row>
     <row r="26" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="29">
@@ -36703,7 +37042,7 @@
         <v>1591</v>
       </c>
       <c r="I27" s="79" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="J27" s="78">
         <v>2016.6</v>
@@ -36712,7 +37051,7 @@
         <v>1114</v>
       </c>
       <c r="L27" s="78" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="M27" s="78" t="s">
         <v>565</v>
@@ -36720,46 +37059,48 @@
       <c r="N27" s="80"/>
       <c r="O27" s="80"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="29">
+    <row r="28" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="78">
         <v>32</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="78">
         <v>26</v>
       </c>
-      <c r="D28" s="29" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E28" s="29" t="s">
+      <c r="D28" s="78" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E28" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="78" t="s">
         <v>1180</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I28" s="29" t="s">
-        <v>1183</v>
-      </c>
-      <c r="J28" s="29">
+      <c r="I28" s="79" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J28" s="78">
         <v>2017.1</v>
       </c>
-      <c r="K28" s="29" t="s">
+      <c r="K28" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
+      <c r="L28" s="78" t="s">
+        <v>1666</v>
+      </c>
+      <c r="M28" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
     </row>
     <row r="29" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="29">
@@ -36843,46 +37184,48 @@
       <c r="N30" s="47"/>
       <c r="O30" s="47"/>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="29">
+    <row r="31" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="78">
         <v>35</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="78">
         <v>29</v>
       </c>
-      <c r="D31" s="29" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E31" s="29" t="s">
+      <c r="D31" s="78" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E31" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="78" t="s">
         <v>1191</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H31" s="29" t="s">
+      <c r="H31" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I31" s="29" t="s">
-        <v>1192</v>
-      </c>
-      <c r="J31" s="29">
+      <c r="I31" s="79" t="s">
+        <v>1650</v>
+      </c>
+      <c r="J31" s="78">
         <v>2017.1</v>
       </c>
-      <c r="K31" s="29" t="s">
+      <c r="K31" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
+      <c r="L31" s="78" t="s">
+        <v>1651</v>
+      </c>
+      <c r="M31" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
     </row>
     <row r="32" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="29">
@@ -36950,8 +37293,8 @@
       <c r="H33" s="29" t="s">
         <v>1591</v>
       </c>
-      <c r="I33" s="29" t="s">
-        <v>1198</v>
+      <c r="I33" s="46" t="s">
+        <v>1672</v>
       </c>
       <c r="J33" s="29">
         <v>2017.1</v>
@@ -36965,87 +37308,91 @@
       <c r="N33" s="47"/>
       <c r="O33" s="47"/>
     </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="29">
+    <row r="34" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="78">
         <v>38</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="78">
         <v>32</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="78" t="s">
         <v>1199</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="78" t="s">
         <v>1197</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I34" s="29" t="s">
+      <c r="I34" s="78" t="s">
         <v>1200</v>
       </c>
-      <c r="J34" s="29">
+      <c r="J34" s="78">
         <v>2017.1</v>
       </c>
-      <c r="K34" s="29" t="s">
+      <c r="K34" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-    </row>
-    <row r="35" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="29">
+      <c r="L34" s="78" t="s">
+        <v>1674</v>
+      </c>
+      <c r="M34" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+    </row>
+    <row r="35" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="78">
         <v>39</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="78">
         <v>33</v>
       </c>
-      <c r="D35" s="29" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E35" s="29" t="s">
+      <c r="D35" s="78" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E35" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="78" t="s">
         <v>1202</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H35" s="29" t="s">
+      <c r="H35" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I35" s="29" t="s">
-        <v>1203</v>
-      </c>
-      <c r="J35" s="29">
+      <c r="I35" s="79" t="s">
+        <v>1653</v>
+      </c>
+      <c r="J35" s="78">
         <v>2016.6</v>
       </c>
-      <c r="K35" s="29" t="s">
+      <c r="K35" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
+      <c r="L35" s="78" t="s">
+        <v>1651</v>
+      </c>
+      <c r="M35" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
     </row>
     <row r="36" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="29">
@@ -37237,7 +37584,7 @@
         <v>1591</v>
       </c>
       <c r="I40" s="78" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="J40" s="78">
         <v>2015.9</v>
@@ -37246,7 +37593,7 @@
         <v>1114</v>
       </c>
       <c r="L40" s="78" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="M40" s="78" t="s">
         <v>565</v>
@@ -37306,7 +37653,7 @@
         <v>40</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>1221</v>
+        <v>1675</v>
       </c>
       <c r="E42" s="29" t="s">
         <v>1111</v>
@@ -37336,87 +37683,89 @@
       <c r="N42" s="47"/>
       <c r="O42" s="47"/>
     </row>
-    <row r="43" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="29">
+    <row r="43" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="78">
         <v>47</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="78">
         <v>41</v>
       </c>
-      <c r="D43" s="29" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E43" s="29" t="s">
+      <c r="D43" s="78" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E43" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F43" s="29" t="s">
+      <c r="F43" s="78" t="s">
         <v>1224</v>
       </c>
-      <c r="G43" s="29" t="s">
+      <c r="G43" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H43" s="29" t="s">
+      <c r="H43" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I43" s="29" t="s">
-        <v>1225</v>
-      </c>
-      <c r="J43" s="29">
+      <c r="I43" s="79" t="s">
+        <v>1694</v>
+      </c>
+      <c r="J43" s="78">
         <v>2015.9</v>
       </c>
-      <c r="K43" s="29" t="s">
+      <c r="K43" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
-    </row>
-    <row r="44" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="29">
+      <c r="L43" s="96" t="s">
+        <v>1698</v>
+      </c>
+      <c r="M43" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+    </row>
+    <row r="44" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="78">
         <v>48</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="78">
         <v>42</v>
       </c>
-      <c r="D44" s="29" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E44" s="29" t="s">
+      <c r="D44" s="78" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E44" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="F44" s="78" t="s">
         <v>1227</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H44" s="29" t="s">
+      <c r="H44" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I44" s="29" t="s">
-        <v>1228</v>
-      </c>
-      <c r="J44" s="29">
+      <c r="I44" s="79" t="s">
+        <v>1697</v>
+      </c>
+      <c r="J44" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K44" s="29" t="s">
+      <c r="K44" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
     </row>
     <row r="45" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="29">
@@ -37623,46 +37972,48 @@
       <c r="N49" s="47"/>
       <c r="O49" s="47"/>
     </row>
-    <row r="50" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="29">
+    <row r="50" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="78">
         <v>54</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="78">
         <v>48</v>
       </c>
-      <c r="D50" s="29" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E50" s="29" t="s">
+      <c r="D50" s="78" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E50" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F50" s="29" t="s">
+      <c r="F50" s="78" t="s">
         <v>1219</v>
       </c>
-      <c r="G50" s="29" t="s">
+      <c r="G50" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H50" s="29" t="s">
+      <c r="H50" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I50" s="29" t="s">
-        <v>1244</v>
-      </c>
-      <c r="J50" s="29">
+      <c r="I50" s="79" t="s">
+        <v>1677</v>
+      </c>
+      <c r="J50" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K50" s="29" t="s">
+      <c r="K50" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N50" s="47"/>
-      <c r="O50" s="47"/>
+      <c r="L50" s="78" t="s">
+        <v>1678</v>
+      </c>
+      <c r="M50" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
     </row>
     <row r="51" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="78">
@@ -37675,7 +38026,7 @@
         <v>49</v>
       </c>
       <c r="D51" s="78" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E51" s="78" t="s">
         <v>1111</v>
@@ -37690,7 +38041,7 @@
         <v>1591</v>
       </c>
       <c r="I51" s="79" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="J51" s="78">
         <v>2016.11</v>
@@ -37699,7 +38050,7 @@
         <v>1114</v>
       </c>
       <c r="L51" s="78" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="M51" s="78" t="s">
         <v>565</v>
@@ -37759,7 +38110,7 @@
         <v>51</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>1251</v>
+        <v>1692</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>1111</v>
@@ -37800,7 +38151,7 @@
         <v>52</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>1254</v>
+        <v>1693</v>
       </c>
       <c r="E54" s="29" t="s">
         <v>1111</v>
@@ -37830,87 +38181,89 @@
       <c r="N54" s="47"/>
       <c r="O54" s="47"/>
     </row>
-    <row r="55" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="29">
+    <row r="55" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="78">
         <v>61</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C55" s="29">
+      <c r="C55" s="78">
         <v>53</v>
       </c>
-      <c r="D55" s="29" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E55" s="29" t="s">
+      <c r="D55" s="78" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E55" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F55" s="78" t="s">
         <v>1258</v>
       </c>
-      <c r="G55" s="29" t="s">
+      <c r="G55" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H55" s="29" t="s">
+      <c r="H55" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I55" s="29" t="s">
-        <v>1259</v>
-      </c>
-      <c r="J55" s="29">
+      <c r="I55" s="79" t="s">
+        <v>1680</v>
+      </c>
+      <c r="J55" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K55" s="29" t="s">
+      <c r="K55" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N55" s="47"/>
-      <c r="O55" s="47"/>
-    </row>
-    <row r="56" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="29">
+      <c r="L55" s="96" t="s">
+        <v>1703</v>
+      </c>
+      <c r="M55" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N55" s="80"/>
+      <c r="O55" s="80"/>
+    </row>
+    <row r="56" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="78">
         <v>62</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="78">
         <v>54</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="78" t="s">
         <v>1260</v>
       </c>
-      <c r="E56" s="29" t="s">
+      <c r="E56" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F56" s="29" t="s">
+      <c r="F56" s="78" t="s">
         <v>1258</v>
       </c>
-      <c r="G56" s="29" t="s">
+      <c r="G56" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H56" s="29" t="s">
+      <c r="H56" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I56" s="29" t="s">
-        <v>1261</v>
-      </c>
-      <c r="J56" s="29">
+      <c r="I56" s="79" t="s">
+        <v>1681</v>
+      </c>
+      <c r="J56" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K56" s="29" t="s">
+      <c r="K56" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N56" s="47"/>
-      <c r="O56" s="47"/>
+      <c r="L56" s="97"/>
+      <c r="M56" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N56" s="80"/>
+      <c r="O56" s="80"/>
     </row>
     <row r="57" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="29">
@@ -38035,46 +38388,48 @@
       <c r="N59" s="47"/>
       <c r="O59" s="47"/>
     </row>
-    <row r="60" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="29">
+    <row r="60" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="78">
         <v>66</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C60" s="29">
+      <c r="C60" s="78">
         <v>58</v>
       </c>
-      <c r="D60" s="29" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E60" s="29" t="s">
+      <c r="D60" s="78" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E60" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F60" s="29" t="s">
+      <c r="F60" s="78" t="s">
         <v>1219</v>
       </c>
-      <c r="G60" s="29" t="s">
+      <c r="G60" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H60" s="29" t="s">
+      <c r="H60" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I60" s="29" t="s">
-        <v>1271</v>
-      </c>
-      <c r="J60" s="29">
+      <c r="I60" s="79" t="s">
+        <v>1659</v>
+      </c>
+      <c r="J60" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K60" s="29" t="s">
+      <c r="K60" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N60" s="47"/>
-      <c r="O60" s="47"/>
+      <c r="L60" s="78" t="s">
+        <v>1651</v>
+      </c>
+      <c r="M60" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N60" s="80"/>
+      <c r="O60" s="80"/>
     </row>
     <row r="61" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="29">
@@ -38158,87 +38513,89 @@
       <c r="N62" s="47"/>
       <c r="O62" s="47"/>
     </row>
-    <row r="63" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="29">
+    <row r="63" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="78">
         <v>69</v>
       </c>
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C63" s="29">
+      <c r="C63" s="78">
         <v>61</v>
       </c>
-      <c r="D63" s="29" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E63" s="29" t="s">
+      <c r="D63" s="78" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E63" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F63" s="29" t="s">
+      <c r="F63" s="78" t="s">
         <v>1252</v>
       </c>
-      <c r="G63" s="29" t="s">
+      <c r="G63" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H63" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I63" s="29" t="s">
-        <v>1278</v>
-      </c>
-      <c r="J63" s="29">
+      <c r="I63" s="79" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J63" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K63" s="29" t="s">
+      <c r="K63" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N63" s="47"/>
-      <c r="O63" s="47"/>
-    </row>
-    <row r="64" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="29">
+      <c r="L63" s="96" t="s">
+        <v>1698</v>
+      </c>
+      <c r="M63" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N63" s="80"/>
+      <c r="O63" s="80"/>
+    </row>
+    <row r="64" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="78">
         <v>70</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C64" s="29">
+      <c r="C64" s="78">
         <v>62</v>
       </c>
-      <c r="D64" s="29" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E64" s="29" t="s">
+      <c r="D64" s="78" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E64" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F64" s="78" t="s">
         <v>1255</v>
       </c>
-      <c r="G64" s="29" t="s">
+      <c r="G64" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H64" s="29" t="s">
+      <c r="H64" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I64" s="29" t="s">
-        <v>1280</v>
-      </c>
-      <c r="J64" s="29">
+      <c r="I64" s="79" t="s">
+        <v>1701</v>
+      </c>
+      <c r="J64" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K64" s="29" t="s">
+      <c r="K64" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N64" s="47"/>
-      <c r="O64" s="47"/>
+      <c r="L64" s="97"/>
+      <c r="M64" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N64" s="80"/>
+      <c r="O64" s="80"/>
     </row>
     <row r="65" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="33">
@@ -38247,7 +38604,7 @@
       <c r="B65" s="33" t="s">
         <v>1589</v>
       </c>
-      <c r="C65" s="29">
+      <c r="C65" s="33">
         <v>63</v>
       </c>
       <c r="D65" s="33" t="s">
@@ -38497,7 +38854,7 @@
         <v>69</v>
       </c>
       <c r="D71" s="78" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="E71" s="78" t="s">
         <v>1111</v>
@@ -38512,7 +38869,7 @@
         <v>1591</v>
       </c>
       <c r="I71" s="79" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="J71" s="78">
         <v>2016.2</v>
@@ -38521,7 +38878,7 @@
         <v>1114</v>
       </c>
       <c r="L71" s="78" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="M71" s="78" t="s">
         <v>565</v>
@@ -38965,7 +39322,7 @@
         <v>1591</v>
       </c>
       <c r="I82" s="79" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="J82" s="78">
         <v>2016.2</v>
@@ -38974,7 +39331,7 @@
         <v>1114</v>
       </c>
       <c r="L82" s="78" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="M82" s="78" t="s">
         <v>565</v>
@@ -39213,7 +39570,7 @@
         <v>1591</v>
       </c>
       <c r="I88" s="79" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="J88" s="78">
         <v>2016.2</v>
@@ -39222,7 +39579,7 @@
         <v>1114</v>
       </c>
       <c r="L88" s="78" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="M88" s="78" t="s">
         <v>565</v>
@@ -39640,46 +39997,48 @@
       <c r="N98" s="47"/>
       <c r="O98" s="47"/>
     </row>
-    <row r="99" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="29">
+    <row r="99" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="78">
         <v>106</v>
       </c>
-      <c r="B99" s="29" t="s">
+      <c r="B99" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C99" s="29">
+      <c r="C99" s="78">
         <v>97</v>
       </c>
-      <c r="D99" s="29" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E99" s="29" t="s">
+      <c r="D99" s="78" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E99" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F99" s="29" t="s">
+      <c r="F99" s="78" t="s">
         <v>1159</v>
       </c>
-      <c r="G99" s="29" t="s">
+      <c r="G99" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H99" s="29" t="s">
+      <c r="H99" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I99" s="29" t="s">
-        <v>1370</v>
-      </c>
-      <c r="J99" s="29">
+      <c r="I99" s="79" t="s">
+        <v>1661</v>
+      </c>
+      <c r="J99" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K99" s="29" t="s">
+      <c r="K99" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L99" s="29"/>
-      <c r="M99" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N99" s="47"/>
-      <c r="O99" s="47"/>
+      <c r="L99" s="78" t="s">
+        <v>1651</v>
+      </c>
+      <c r="M99" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N99" s="80"/>
+      <c r="O99" s="80"/>
     </row>
     <row r="100" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="29">
@@ -40009,46 +40368,48 @@
       <c r="N107" s="47"/>
       <c r="O107" s="47"/>
     </row>
-    <row r="108" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="29">
+    <row r="108" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="78">
         <v>115</v>
       </c>
-      <c r="B108" s="29" t="s">
+      <c r="B108" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C108" s="29">
+      <c r="C108" s="78">
         <v>106</v>
       </c>
-      <c r="D108" s="29" t="s">
+      <c r="D108" s="78" t="s">
         <v>1390</v>
       </c>
-      <c r="E108" s="29" t="s">
+      <c r="E108" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F108" s="29" t="s">
+      <c r="F108" s="78" t="s">
         <v>1391</v>
       </c>
-      <c r="G108" s="29" t="s">
+      <c r="G108" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H108" s="29" t="s">
+      <c r="H108" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I108" s="29" t="s">
-        <v>1392</v>
-      </c>
-      <c r="J108" s="29">
+      <c r="I108" s="79" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J108" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K108" s="29" t="s">
+      <c r="K108" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L108" s="29"/>
-      <c r="M108" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N108" s="47"/>
-      <c r="O108" s="47"/>
+      <c r="L108" s="78" t="s">
+        <v>1641</v>
+      </c>
+      <c r="M108" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N108" s="80"/>
+      <c r="O108" s="80"/>
     </row>
     <row r="109" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="29">
@@ -40460,87 +40821,89 @@
       <c r="N118" s="47"/>
       <c r="O118" s="47"/>
     </row>
-    <row r="119" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="29">
+    <row r="119" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="78">
         <v>126</v>
       </c>
-      <c r="B119" s="29" t="s">
+      <c r="B119" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C119" s="29">
+      <c r="C119" s="78">
         <v>117</v>
       </c>
-      <c r="D119" s="29" t="s">
-        <v>1422</v>
-      </c>
-      <c r="E119" s="29" t="s">
+      <c r="D119" s="78" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E119" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F119" s="29" t="s">
+      <c r="F119" s="78" t="s">
         <v>1423</v>
       </c>
-      <c r="G119" s="29" t="s">
+      <c r="G119" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H119" s="29" t="s">
+      <c r="H119" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I119" s="29" t="s">
-        <v>1424</v>
-      </c>
-      <c r="J119" s="29">
+      <c r="I119" s="79" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J119" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K119" s="29" t="s">
+      <c r="K119" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L119" s="29"/>
-      <c r="M119" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N119" s="47"/>
-      <c r="O119" s="47"/>
-    </row>
-    <row r="120" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="29">
+      <c r="L119" s="78" t="s">
+        <v>1641</v>
+      </c>
+      <c r="M119" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N119" s="80"/>
+      <c r="O119" s="80"/>
+    </row>
+    <row r="120" spans="1:15" s="91" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="88">
         <v>127</v>
       </c>
-      <c r="B120" s="29" t="s">
+      <c r="B120" s="88" t="s">
         <v>1589</v>
       </c>
-      <c r="C120" s="29">
+      <c r="C120" s="88">
         <v>118</v>
       </c>
-      <c r="D120" s="29" t="s">
-        <v>1425</v>
-      </c>
-      <c r="E120" s="29" t="s">
+      <c r="D120" s="88" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E120" s="88" t="s">
         <v>1111</v>
       </c>
-      <c r="F120" s="29" t="s">
+      <c r="F120" s="88" t="s">
         <v>1426</v>
       </c>
-      <c r="G120" s="29" t="s">
+      <c r="G120" s="88" t="s">
         <v>1590</v>
       </c>
-      <c r="H120" s="29" t="s">
+      <c r="H120" s="88" t="s">
         <v>1591</v>
       </c>
-      <c r="I120" s="29" t="s">
-        <v>1427</v>
-      </c>
-      <c r="J120" s="29">
+      <c r="I120" s="89" t="s">
+        <v>1644</v>
+      </c>
+      <c r="J120" s="88">
         <v>2016.2</v>
       </c>
-      <c r="K120" s="29" t="s">
+      <c r="K120" s="88" t="s">
         <v>1114</v>
       </c>
-      <c r="L120" s="29"/>
-      <c r="M120" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N120" s="47"/>
-      <c r="O120" s="47"/>
+      <c r="L120" s="88"/>
+      <c r="M120" s="88" t="s">
+        <v>565</v>
+      </c>
+      <c r="N120" s="90"/>
+      <c r="O120" s="90"/>
     </row>
     <row r="121" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="29">
@@ -40870,46 +41233,48 @@
       <c r="N128" s="47"/>
       <c r="O128" s="47"/>
     </row>
-    <row r="129" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="29">
+    <row r="129" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="78">
         <v>136</v>
       </c>
-      <c r="B129" s="29" t="s">
+      <c r="B129" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C129" s="29">
+      <c r="C129" s="78">
         <v>127</v>
       </c>
-      <c r="D129" s="29" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E129" s="29" t="s">
+      <c r="D129" s="78" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E129" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F129" s="29" t="s">
+      <c r="F129" s="78" t="s">
         <v>1452</v>
       </c>
-      <c r="G129" s="29" t="s">
+      <c r="G129" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H129" s="29" t="s">
+      <c r="H129" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I129" s="29" t="s">
-        <v>1453</v>
-      </c>
-      <c r="J129" s="29">
+      <c r="I129" s="79" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J129" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K129" s="29" t="s">
+      <c r="K129" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L129" s="29"/>
-      <c r="M129" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N129" s="47"/>
-      <c r="O129" s="47"/>
+      <c r="L129" s="78" t="s">
+        <v>1641</v>
+      </c>
+      <c r="M129" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N129" s="80"/>
+      <c r="O129" s="80"/>
     </row>
     <row r="130" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="29">
@@ -40952,128 +41317,130 @@
       <c r="N130" s="47"/>
       <c r="O130" s="47"/>
     </row>
-    <row r="131" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="29">
+    <row r="131" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="78">
         <v>138</v>
       </c>
-      <c r="B131" s="29" t="s">
+      <c r="B131" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C131" s="29">
+      <c r="C131" s="78">
         <v>129</v>
       </c>
-      <c r="D131" s="29" t="s">
-        <v>1456</v>
-      </c>
-      <c r="E131" s="29" t="s">
+      <c r="D131" s="78" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E131" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F131" s="29" t="s">
+      <c r="F131" s="78" t="s">
         <v>1457</v>
       </c>
-      <c r="G131" s="29" t="s">
+      <c r="G131" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H131" s="29" t="s">
+      <c r="H131" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I131" s="29" t="s">
-        <v>1458</v>
-      </c>
-      <c r="J131" s="29">
+      <c r="I131" s="79" t="s">
+        <v>1689</v>
+      </c>
+      <c r="J131" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K131" s="29" t="s">
+      <c r="K131" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L131" s="29"/>
-      <c r="M131" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N131" s="47"/>
-      <c r="O131" s="47"/>
-    </row>
-    <row r="132" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="29">
+      <c r="L131" s="96" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M131" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N131" s="80"/>
+      <c r="O131" s="80"/>
+    </row>
+    <row r="132" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="78">
         <v>139</v>
       </c>
-      <c r="B132" s="29" t="s">
+      <c r="B132" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C132" s="29">
+      <c r="C132" s="78">
         <v>130</v>
       </c>
-      <c r="D132" s="29" t="s">
+      <c r="D132" s="78" t="s">
         <v>1459</v>
       </c>
-      <c r="E132" s="29" t="s">
+      <c r="E132" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F132" s="29" t="s">
+      <c r="F132" s="78" t="s">
         <v>1460</v>
       </c>
-      <c r="G132" s="29" t="s">
+      <c r="G132" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H132" s="29" t="s">
+      <c r="H132" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I132" s="29" t="s">
-        <v>1461</v>
-      </c>
-      <c r="J132" s="29">
+      <c r="I132" s="79" t="s">
+        <v>1690</v>
+      </c>
+      <c r="J132" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K132" s="29" t="s">
+      <c r="K132" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L132" s="29"/>
-      <c r="M132" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N132" s="47"/>
-      <c r="O132" s="47"/>
-    </row>
-    <row r="133" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="29">
+      <c r="L132" s="98"/>
+      <c r="M132" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N132" s="80"/>
+      <c r="O132" s="80"/>
+    </row>
+    <row r="133" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="78">
         <v>140</v>
       </c>
-      <c r="B133" s="29" t="s">
+      <c r="B133" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C133" s="29">
+      <c r="C133" s="78">
         <v>131</v>
       </c>
-      <c r="D133" s="29" t="s">
+      <c r="D133" s="78" t="s">
         <v>1462</v>
       </c>
-      <c r="E133" s="29" t="s">
+      <c r="E133" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F133" s="29" t="s">
+      <c r="F133" s="78" t="s">
         <v>1463</v>
       </c>
-      <c r="G133" s="29" t="s">
+      <c r="G133" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H133" s="29" t="s">
+      <c r="H133" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I133" s="29" t="s">
-        <v>1464</v>
-      </c>
-      <c r="J133" s="29">
+      <c r="I133" s="79" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J133" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K133" s="29" t="s">
+      <c r="K133" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L133" s="29"/>
-      <c r="M133" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N133" s="47"/>
-      <c r="O133" s="47"/>
+      <c r="L133" s="97"/>
+      <c r="M133" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N133" s="80"/>
+      <c r="O133" s="80"/>
     </row>
     <row r="134" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="29">
@@ -41157,948 +41524,994 @@
       <c r="N135" s="47"/>
       <c r="O135" s="47"/>
     </row>
-    <row r="136" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="29">
+    <row r="136" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="85">
         <v>143</v>
       </c>
-      <c r="B136" s="29" t="s">
+      <c r="B136" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C136" s="29">
+      <c r="C136" s="85">
         <v>134</v>
       </c>
-      <c r="D136" s="29" t="s">
+      <c r="D136" s="85" t="s">
         <v>1471</v>
       </c>
-      <c r="E136" s="29" t="s">
+      <c r="E136" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F136" s="29" t="s">
+      <c r="F136" s="85" t="s">
         <v>1434</v>
       </c>
-      <c r="G136" s="29" t="s">
+      <c r="G136" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H136" s="29" t="s">
+      <c r="H136" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I136" s="29" t="s">
+      <c r="I136" s="85" t="s">
         <v>1472</v>
       </c>
-      <c r="J136" s="29">
+      <c r="J136" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K136" s="29" t="s">
+      <c r="K136" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L136" s="29"/>
-      <c r="M136" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N136" s="47"/>
-      <c r="O136" s="47"/>
-    </row>
-    <row r="137" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="29">
+      <c r="L136" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M136" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N136" s="86"/>
+      <c r="O136" s="86"/>
+    </row>
+    <row r="137" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="85">
         <v>144</v>
       </c>
-      <c r="B137" s="29" t="s">
+      <c r="B137" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C137" s="29">
+      <c r="C137" s="85">
         <v>135</v>
       </c>
-      <c r="D137" s="29" t="s">
+      <c r="D137" s="85" t="s">
         <v>1473</v>
       </c>
-      <c r="E137" s="29" t="s">
+      <c r="E137" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F137" s="29" t="s">
+      <c r="F137" s="85" t="s">
         <v>1449</v>
       </c>
-      <c r="G137" s="29" t="s">
+      <c r="G137" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H137" s="29" t="s">
+      <c r="H137" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I137" s="29" t="s">
+      <c r="I137" s="85" t="s">
         <v>1474</v>
       </c>
-      <c r="J137" s="29">
+      <c r="J137" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K137" s="29" t="s">
+      <c r="K137" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L137" s="29"/>
-      <c r="M137" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N137" s="47"/>
-      <c r="O137" s="47"/>
-    </row>
-    <row r="138" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="29">
+      <c r="L137" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M137" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N137" s="86"/>
+      <c r="O137" s="86"/>
+    </row>
+    <row r="138" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="85">
         <v>145</v>
       </c>
-      <c r="B138" s="29" t="s">
+      <c r="B138" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C138" s="29">
+      <c r="C138" s="85">
         <v>136</v>
       </c>
-      <c r="D138" s="29" t="s">
+      <c r="D138" s="85" t="s">
         <v>1475</v>
       </c>
-      <c r="E138" s="29" t="s">
+      <c r="E138" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F138" s="29" t="s">
+      <c r="F138" s="85" t="s">
         <v>1452</v>
       </c>
-      <c r="G138" s="29" t="s">
+      <c r="G138" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H138" s="29" t="s">
+      <c r="H138" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I138" s="29" t="s">
+      <c r="I138" s="85" t="s">
         <v>1476</v>
       </c>
-      <c r="J138" s="29">
+      <c r="J138" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K138" s="29" t="s">
+      <c r="K138" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L138" s="29"/>
-      <c r="M138" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N138" s="47"/>
-      <c r="O138" s="47"/>
-    </row>
-    <row r="139" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="29">
+      <c r="L138" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M138" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N138" s="86"/>
+      <c r="O138" s="86"/>
+    </row>
+    <row r="139" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="85">
         <v>146</v>
       </c>
-      <c r="B139" s="29" t="s">
+      <c r="B139" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C139" s="29">
+      <c r="C139" s="85">
         <v>137</v>
       </c>
-      <c r="D139" s="29" t="s">
+      <c r="D139" s="85" t="s">
         <v>1477</v>
       </c>
-      <c r="E139" s="29" t="s">
+      <c r="E139" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F139" s="29" t="s">
+      <c r="F139" s="85" t="s">
         <v>1463</v>
       </c>
-      <c r="G139" s="29" t="s">
+      <c r="G139" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H139" s="29" t="s">
+      <c r="H139" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I139" s="29" t="s">
+      <c r="I139" s="85" t="s">
         <v>1478</v>
       </c>
-      <c r="J139" s="29">
+      <c r="J139" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K139" s="29" t="s">
+      <c r="K139" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L139" s="29"/>
-      <c r="M139" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N139" s="47"/>
-      <c r="O139" s="47"/>
-    </row>
-    <row r="140" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="29">
+      <c r="L139" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M139" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N139" s="86"/>
+      <c r="O139" s="86"/>
+    </row>
+    <row r="140" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="85">
         <v>147</v>
       </c>
-      <c r="B140" s="29" t="s">
+      <c r="B140" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C140" s="29">
+      <c r="C140" s="85">
         <v>138</v>
       </c>
-      <c r="D140" s="29" t="s">
+      <c r="D140" s="85" t="s">
         <v>1479</v>
       </c>
-      <c r="E140" s="29" t="s">
+      <c r="E140" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F140" s="29" t="s">
+      <c r="F140" s="85" t="s">
         <v>1480</v>
       </c>
-      <c r="G140" s="29" t="s">
+      <c r="G140" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H140" s="29" t="s">
+      <c r="H140" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I140" s="29" t="s">
+      <c r="I140" s="85" t="s">
         <v>1481</v>
       </c>
-      <c r="J140" s="29">
+      <c r="J140" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K140" s="29" t="s">
+      <c r="K140" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L140" s="29"/>
-      <c r="M140" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N140" s="47"/>
-      <c r="O140" s="47"/>
-    </row>
-    <row r="141" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="29">
+      <c r="L140" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M140" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N140" s="86"/>
+      <c r="O140" s="86"/>
+    </row>
+    <row r="141" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="85">
         <v>148</v>
       </c>
-      <c r="B141" s="29" t="s">
+      <c r="B141" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C141" s="29">
+      <c r="C141" s="85">
         <v>139</v>
       </c>
-      <c r="D141" s="29" t="s">
+      <c r="D141" s="85" t="s">
         <v>1482</v>
       </c>
-      <c r="E141" s="29" t="s">
+      <c r="E141" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F141" s="29" t="s">
+      <c r="F141" s="85" t="s">
         <v>1483</v>
       </c>
-      <c r="G141" s="29" t="s">
+      <c r="G141" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H141" s="29" t="s">
+      <c r="H141" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I141" s="29" t="s">
+      <c r="I141" s="85" t="s">
         <v>1484</v>
       </c>
-      <c r="J141" s="29">
+      <c r="J141" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K141" s="29" t="s">
+      <c r="K141" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L141" s="29"/>
-      <c r="M141" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N141" s="47"/>
-      <c r="O141" s="47"/>
-    </row>
-    <row r="142" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="29">
+      <c r="L141" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M141" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N141" s="86"/>
+      <c r="O141" s="86"/>
+    </row>
+    <row r="142" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="85">
         <v>149</v>
       </c>
-      <c r="B142" s="29" t="s">
+      <c r="B142" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C142" s="29">
+      <c r="C142" s="85">
         <v>140</v>
       </c>
-      <c r="D142" s="29" t="s">
+      <c r="D142" s="85" t="s">
         <v>1485</v>
       </c>
-      <c r="E142" s="29" t="s">
+      <c r="E142" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F142" s="29" t="s">
+      <c r="F142" s="85" t="s">
         <v>1486</v>
       </c>
-      <c r="G142" s="29" t="s">
+      <c r="G142" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H142" s="29" t="s">
+      <c r="H142" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I142" s="29" t="s">
+      <c r="I142" s="85" t="s">
         <v>1487</v>
       </c>
-      <c r="J142" s="29">
+      <c r="J142" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K142" s="29" t="s">
+      <c r="K142" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L142" s="29"/>
-      <c r="M142" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N142" s="47"/>
-      <c r="O142" s="47"/>
-    </row>
-    <row r="143" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="29">
+      <c r="L142" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M142" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N142" s="86"/>
+      <c r="O142" s="86"/>
+    </row>
+    <row r="143" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="85">
         <v>150</v>
       </c>
-      <c r="B143" s="29" t="s">
+      <c r="B143" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C143" s="29">
+      <c r="C143" s="85">
         <v>141</v>
       </c>
-      <c r="D143" s="29" t="s">
+      <c r="D143" s="85" t="s">
         <v>1488</v>
       </c>
-      <c r="E143" s="29" t="s">
+      <c r="E143" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F143" s="29" t="s">
+      <c r="F143" s="85" t="s">
         <v>1486</v>
       </c>
-      <c r="G143" s="29" t="s">
+      <c r="G143" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H143" s="29" t="s">
+      <c r="H143" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I143" s="29" t="s">
+      <c r="I143" s="85" t="s">
         <v>1489</v>
       </c>
-      <c r="J143" s="29">
+      <c r="J143" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K143" s="29" t="s">
+      <c r="K143" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L143" s="29"/>
-      <c r="M143" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N143" s="47"/>
-      <c r="O143" s="47"/>
-    </row>
-    <row r="144" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="29">
+      <c r="L143" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M143" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N143" s="86"/>
+      <c r="O143" s="86"/>
+    </row>
+    <row r="144" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="85">
         <v>151</v>
       </c>
-      <c r="B144" s="29" t="s">
+      <c r="B144" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C144" s="29">
+      <c r="C144" s="85">
         <v>142</v>
       </c>
-      <c r="D144" s="29" t="s">
+      <c r="D144" s="85" t="s">
         <v>1490</v>
       </c>
-      <c r="E144" s="29" t="s">
+      <c r="E144" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F144" s="29" t="s">
+      <c r="F144" s="85" t="s">
         <v>1491</v>
       </c>
-      <c r="G144" s="29" t="s">
+      <c r="G144" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H144" s="29" t="s">
+      <c r="H144" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I144" s="29" t="s">
+      <c r="I144" s="85" t="s">
         <v>1492</v>
       </c>
-      <c r="J144" s="29">
+      <c r="J144" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K144" s="29" t="s">
+      <c r="K144" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L144" s="29"/>
-      <c r="M144" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N144" s="47"/>
-      <c r="O144" s="47"/>
-    </row>
-    <row r="145" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="29">
+      <c r="L144" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M144" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N144" s="86"/>
+      <c r="O144" s="86"/>
+    </row>
+    <row r="145" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="85">
         <v>152</v>
       </c>
-      <c r="B145" s="29" t="s">
+      <c r="B145" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C145" s="29">
+      <c r="C145" s="85">
         <v>143</v>
       </c>
-      <c r="D145" s="29" t="s">
+      <c r="D145" s="85" t="s">
         <v>1493</v>
       </c>
-      <c r="E145" s="29" t="s">
+      <c r="E145" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F145" s="29" t="s">
+      <c r="F145" s="85" t="s">
         <v>1494</v>
       </c>
-      <c r="G145" s="29" t="s">
+      <c r="G145" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H145" s="29" t="s">
+      <c r="H145" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I145" s="29" t="s">
+      <c r="I145" s="85" t="s">
         <v>1495</v>
       </c>
-      <c r="J145" s="29">
+      <c r="J145" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K145" s="29" t="s">
+      <c r="K145" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L145" s="29"/>
-      <c r="M145" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N145" s="47"/>
-      <c r="O145" s="47"/>
-    </row>
-    <row r="146" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="29">
+      <c r="L145" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M145" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N145" s="86"/>
+      <c r="O145" s="86"/>
+    </row>
+    <row r="146" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="85">
         <v>153</v>
       </c>
-      <c r="B146" s="29" t="s">
+      <c r="B146" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C146" s="29">
+      <c r="C146" s="85">
         <v>144</v>
       </c>
-      <c r="D146" s="29" t="s">
+      <c r="D146" s="85" t="s">
         <v>1496</v>
       </c>
-      <c r="E146" s="29" t="s">
+      <c r="E146" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F146" s="29" t="s">
+      <c r="F146" s="85" t="s">
         <v>1497</v>
       </c>
-      <c r="G146" s="29" t="s">
+      <c r="G146" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H146" s="29" t="s">
+      <c r="H146" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I146" s="29" t="s">
+      <c r="I146" s="85" t="s">
         <v>1498</v>
       </c>
-      <c r="J146" s="29">
+      <c r="J146" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K146" s="29" t="s">
+      <c r="K146" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L146" s="29"/>
-      <c r="M146" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N146" s="47"/>
-      <c r="O146" s="47"/>
-    </row>
-    <row r="147" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="29">
+      <c r="L146" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M146" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N146" s="86"/>
+      <c r="O146" s="86"/>
+    </row>
+    <row r="147" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="85">
         <v>154</v>
       </c>
-      <c r="B147" s="29" t="s">
+      <c r="B147" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C147" s="29">
+      <c r="C147" s="85">
         <v>145</v>
       </c>
-      <c r="D147" s="29" t="s">
+      <c r="D147" s="85" t="s">
         <v>1499</v>
       </c>
-      <c r="E147" s="29" t="s">
+      <c r="E147" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F147" s="29" t="s">
+      <c r="F147" s="85" t="s">
         <v>1500</v>
       </c>
-      <c r="G147" s="29" t="s">
+      <c r="G147" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H147" s="29" t="s">
+      <c r="H147" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I147" s="29" t="s">
+      <c r="I147" s="85" t="s">
         <v>1501</v>
       </c>
-      <c r="J147" s="29">
+      <c r="J147" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K147" s="29" t="s">
+      <c r="K147" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L147" s="29"/>
-      <c r="M147" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N147" s="47"/>
-      <c r="O147" s="47"/>
-    </row>
-    <row r="148" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="29">
+      <c r="L147" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M147" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N147" s="86"/>
+      <c r="O147" s="86"/>
+    </row>
+    <row r="148" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="85">
         <v>155</v>
       </c>
-      <c r="B148" s="29" t="s">
+      <c r="B148" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C148" s="29">
+      <c r="C148" s="85">
         <v>146</v>
       </c>
-      <c r="D148" s="29" t="s">
+      <c r="D148" s="85" t="s">
         <v>1502</v>
       </c>
-      <c r="E148" s="29" t="s">
+      <c r="E148" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F148" s="29" t="s">
+      <c r="F148" s="85" t="s">
         <v>1449</v>
       </c>
-      <c r="G148" s="29" t="s">
+      <c r="G148" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H148" s="29" t="s">
+      <c r="H148" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I148" s="29" t="s">
+      <c r="I148" s="85" t="s">
         <v>1503</v>
       </c>
-      <c r="J148" s="29">
+      <c r="J148" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K148" s="29" t="s">
+      <c r="K148" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L148" s="29"/>
-      <c r="M148" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N148" s="47"/>
-      <c r="O148" s="47"/>
-    </row>
-    <row r="149" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="29">
+      <c r="L148" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M148" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N148" s="86"/>
+      <c r="O148" s="86"/>
+    </row>
+    <row r="149" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="85">
         <v>156</v>
       </c>
-      <c r="B149" s="29" t="s">
+      <c r="B149" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C149" s="29">
+      <c r="C149" s="85">
         <v>147</v>
       </c>
-      <c r="D149" s="29" t="s">
+      <c r="D149" s="85" t="s">
         <v>1504</v>
       </c>
-      <c r="E149" s="29" t="s">
+      <c r="E149" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F149" s="29" t="s">
+      <c r="F149" s="85" t="s">
         <v>1500</v>
       </c>
-      <c r="G149" s="29" t="s">
+      <c r="G149" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H149" s="29" t="s">
+      <c r="H149" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I149" s="29" t="s">
+      <c r="I149" s="85" t="s">
         <v>1505</v>
       </c>
-      <c r="J149" s="29">
+      <c r="J149" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K149" s="29" t="s">
+      <c r="K149" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L149" s="29"/>
-      <c r="M149" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N149" s="47"/>
-      <c r="O149" s="47"/>
-    </row>
-    <row r="150" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="29">
+      <c r="L149" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M149" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N149" s="86"/>
+      <c r="O149" s="86"/>
+    </row>
+    <row r="150" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="85">
         <v>157</v>
       </c>
-      <c r="B150" s="29" t="s">
+      <c r="B150" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C150" s="29">
+      <c r="C150" s="85">
         <v>148</v>
       </c>
-      <c r="D150" s="29" t="s">
+      <c r="D150" s="85" t="s">
         <v>1506</v>
       </c>
-      <c r="E150" s="29" t="s">
+      <c r="E150" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F150" s="29" t="s">
+      <c r="F150" s="85" t="s">
         <v>1507</v>
       </c>
-      <c r="G150" s="29" t="s">
+      <c r="G150" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H150" s="29" t="s">
+      <c r="H150" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I150" s="29" t="s">
+      <c r="I150" s="85" t="s">
         <v>1508</v>
       </c>
-      <c r="J150" s="29">
+      <c r="J150" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K150" s="29" t="s">
+      <c r="K150" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L150" s="29"/>
-      <c r="M150" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N150" s="47"/>
-      <c r="O150" s="47"/>
-    </row>
-    <row r="151" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="29">
+      <c r="L150" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M150" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N150" s="86"/>
+      <c r="O150" s="86"/>
+    </row>
+    <row r="151" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="85">
         <v>158</v>
       </c>
-      <c r="B151" s="29" t="s">
+      <c r="B151" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C151" s="29">
+      <c r="C151" s="85">
         <v>149</v>
       </c>
-      <c r="D151" s="29" t="s">
+      <c r="D151" s="85" t="s">
         <v>1509</v>
       </c>
-      <c r="E151" s="29" t="s">
+      <c r="E151" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F151" s="29" t="s">
+      <c r="F151" s="85" t="s">
         <v>1510</v>
       </c>
-      <c r="G151" s="29" t="s">
+      <c r="G151" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H151" s="29" t="s">
+      <c r="H151" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I151" s="29" t="s">
+      <c r="I151" s="85" t="s">
         <v>1511</v>
       </c>
-      <c r="J151" s="29">
+      <c r="J151" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K151" s="29" t="s">
+      <c r="K151" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L151" s="29"/>
-      <c r="M151" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N151" s="47"/>
-      <c r="O151" s="47"/>
-    </row>
-    <row r="152" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="29">
+      <c r="L151" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M151" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N151" s="86"/>
+      <c r="O151" s="86"/>
+    </row>
+    <row r="152" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="85">
         <v>159</v>
       </c>
-      <c r="B152" s="29" t="s">
+      <c r="B152" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C152" s="29">
+      <c r="C152" s="85">
         <v>150</v>
       </c>
-      <c r="D152" s="29" t="s">
+      <c r="D152" s="85" t="s">
         <v>1512</v>
       </c>
-      <c r="E152" s="29" t="s">
+      <c r="E152" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F152" s="29" t="s">
+      <c r="F152" s="85" t="s">
         <v>1513</v>
       </c>
-      <c r="G152" s="29" t="s">
+      <c r="G152" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H152" s="29" t="s">
+      <c r="H152" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I152" s="29" t="s">
+      <c r="I152" s="85" t="s">
         <v>1514</v>
       </c>
-      <c r="J152" s="29">
+      <c r="J152" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K152" s="29" t="s">
+      <c r="K152" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L152" s="29"/>
-      <c r="M152" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N152" s="47"/>
-      <c r="O152" s="47"/>
-    </row>
-    <row r="153" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="29">
+      <c r="L152" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M152" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N152" s="86"/>
+      <c r="O152" s="86"/>
+    </row>
+    <row r="153" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="85">
         <v>160</v>
       </c>
-      <c r="B153" s="29" t="s">
+      <c r="B153" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C153" s="29">
+      <c r="C153" s="85">
         <v>151</v>
       </c>
-      <c r="D153" s="29" t="s">
+      <c r="D153" s="85" t="s">
         <v>1515</v>
       </c>
-      <c r="E153" s="29" t="s">
+      <c r="E153" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F153" s="29" t="s">
+      <c r="F153" s="85" t="s">
         <v>1516</v>
       </c>
-      <c r="G153" s="29" t="s">
+      <c r="G153" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H153" s="29" t="s">
+      <c r="H153" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I153" s="29" t="s">
+      <c r="I153" s="85" t="s">
         <v>1517</v>
       </c>
-      <c r="J153" s="29">
+      <c r="J153" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K153" s="29" t="s">
+      <c r="K153" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L153" s="29"/>
-      <c r="M153" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N153" s="47"/>
-      <c r="O153" s="47"/>
-    </row>
-    <row r="154" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="29">
+      <c r="L153" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M153" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N153" s="86"/>
+      <c r="O153" s="86"/>
+    </row>
+    <row r="154" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="85">
         <v>161</v>
       </c>
-      <c r="B154" s="29" t="s">
+      <c r="B154" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C154" s="29">
+      <c r="C154" s="85">
         <v>152</v>
       </c>
-      <c r="D154" s="29" t="s">
+      <c r="D154" s="85" t="s">
         <v>1518</v>
       </c>
-      <c r="E154" s="29" t="s">
+      <c r="E154" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F154" s="29" t="s">
+      <c r="F154" s="85" t="s">
         <v>1519</v>
       </c>
-      <c r="G154" s="29" t="s">
+      <c r="G154" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H154" s="29" t="s">
+      <c r="H154" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I154" s="29" t="s">
+      <c r="I154" s="85" t="s">
         <v>1520</v>
       </c>
-      <c r="J154" s="29">
+      <c r="J154" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K154" s="29" t="s">
+      <c r="K154" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L154" s="29"/>
-      <c r="M154" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N154" s="47"/>
-      <c r="O154" s="47"/>
-    </row>
-    <row r="155" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="29">
+      <c r="L154" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M154" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N154" s="86"/>
+      <c r="O154" s="86"/>
+    </row>
+    <row r="155" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="85">
         <v>162</v>
       </c>
-      <c r="B155" s="29" t="s">
+      <c r="B155" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C155" s="29">
+      <c r="C155" s="85">
         <v>153</v>
       </c>
-      <c r="D155" s="29" t="s">
+      <c r="D155" s="85" t="s">
         <v>1521</v>
       </c>
-      <c r="E155" s="29" t="s">
+      <c r="E155" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F155" s="29" t="s">
+      <c r="F155" s="85" t="s">
         <v>1522</v>
       </c>
-      <c r="G155" s="29" t="s">
+      <c r="G155" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H155" s="29" t="s">
+      <c r="H155" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I155" s="29" t="s">
+      <c r="I155" s="85" t="s">
         <v>1523</v>
       </c>
-      <c r="J155" s="29">
+      <c r="J155" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K155" s="29" t="s">
+      <c r="K155" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L155" s="29"/>
-      <c r="M155" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N155" s="47"/>
-      <c r="O155" s="47"/>
-    </row>
-    <row r="156" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="29">
+      <c r="L155" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M155" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N155" s="86"/>
+      <c r="O155" s="86"/>
+    </row>
+    <row r="156" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="85">
         <v>163</v>
       </c>
-      <c r="B156" s="29" t="s">
+      <c r="B156" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C156" s="29">
+      <c r="C156" s="85">
         <v>154</v>
       </c>
-      <c r="D156" s="29" t="s">
+      <c r="D156" s="85" t="s">
         <v>1524</v>
       </c>
-      <c r="E156" s="29" t="s">
+      <c r="E156" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F156" s="29" t="s">
+      <c r="F156" s="85" t="s">
         <v>1525</v>
       </c>
-      <c r="G156" s="29" t="s">
+      <c r="G156" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H156" s="29" t="s">
+      <c r="H156" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I156" s="29" t="s">
+      <c r="I156" s="85" t="s">
         <v>1526</v>
       </c>
-      <c r="J156" s="29">
+      <c r="J156" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K156" s="29" t="s">
+      <c r="K156" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L156" s="29"/>
-      <c r="M156" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N156" s="47"/>
-      <c r="O156" s="47"/>
-    </row>
-    <row r="157" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="29">
+      <c r="L156" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M156" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N156" s="86"/>
+      <c r="O156" s="86"/>
+    </row>
+    <row r="157" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="85">
         <v>164</v>
       </c>
-      <c r="B157" s="29" t="s">
+      <c r="B157" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C157" s="29">
+      <c r="C157" s="85">
         <v>155</v>
       </c>
-      <c r="D157" s="29" t="s">
+      <c r="D157" s="85" t="s">
         <v>1527</v>
       </c>
-      <c r="E157" s="29" t="s">
+      <c r="E157" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F157" s="29" t="s">
+      <c r="F157" s="85" t="s">
         <v>1528</v>
       </c>
-      <c r="G157" s="29" t="s">
+      <c r="G157" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H157" s="29" t="s">
+      <c r="H157" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I157" s="29" t="s">
+      <c r="I157" s="85" t="s">
         <v>1529</v>
       </c>
-      <c r="J157" s="29">
+      <c r="J157" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K157" s="29" t="s">
+      <c r="K157" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L157" s="29"/>
-      <c r="M157" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N157" s="47"/>
-      <c r="O157" s="47"/>
-    </row>
-    <row r="158" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="29">
+      <c r="L157" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M157" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N157" s="86"/>
+      <c r="O157" s="86"/>
+    </row>
+    <row r="158" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="85">
         <v>165</v>
       </c>
-      <c r="B158" s="29" t="s">
+      <c r="B158" s="85" t="s">
         <v>1589</v>
       </c>
-      <c r="C158" s="29">
+      <c r="C158" s="85">
         <v>156</v>
       </c>
-      <c r="D158" s="29" t="s">
+      <c r="D158" s="85" t="s">
         <v>1530</v>
       </c>
-      <c r="E158" s="29" t="s">
+      <c r="E158" s="85" t="s">
         <v>1111</v>
       </c>
-      <c r="F158" s="29" t="s">
+      <c r="F158" s="85" t="s">
         <v>1531</v>
       </c>
-      <c r="G158" s="29" t="s">
+      <c r="G158" s="85" t="s">
         <v>1590</v>
       </c>
-      <c r="H158" s="29" t="s">
+      <c r="H158" s="85" t="s">
         <v>1591</v>
       </c>
-      <c r="I158" s="29" t="s">
+      <c r="I158" s="85" t="s">
         <v>1532</v>
       </c>
-      <c r="J158" s="29">
+      <c r="J158" s="85">
         <v>2016.2</v>
       </c>
-      <c r="K158" s="29" t="s">
+      <c r="K158" s="85" t="s">
         <v>1114</v>
       </c>
-      <c r="L158" s="29"/>
-      <c r="M158" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N158" s="47"/>
-      <c r="O158" s="47"/>
+      <c r="L158" s="85" t="s">
+        <v>1637</v>
+      </c>
+      <c r="M158" s="85" t="s">
+        <v>565</v>
+      </c>
+      <c r="N158" s="86"/>
+      <c r="O158" s="86"/>
     </row>
     <row r="159" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A159" s="29">
@@ -42182,46 +42595,48 @@
       <c r="N160" s="47"/>
       <c r="O160" s="47"/>
     </row>
-    <row r="161" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="29">
+    <row r="161" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="78">
         <v>168</v>
       </c>
-      <c r="B161" s="29" t="s">
+      <c r="B161" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C161" s="29">
+      <c r="C161" s="78">
         <v>159</v>
       </c>
-      <c r="D161" s="29" t="s">
-        <v>1539</v>
-      </c>
-      <c r="E161" s="29" t="s">
+      <c r="D161" s="78" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E161" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F161" s="29" t="s">
+      <c r="F161" s="78" t="s">
         <v>1540</v>
       </c>
-      <c r="G161" s="29" t="s">
+      <c r="G161" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H161" s="29" t="s">
+      <c r="H161" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I161" s="29" t="s">
-        <v>1541</v>
-      </c>
-      <c r="J161" s="29">
+      <c r="I161" s="79" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J161" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K161" s="29" t="s">
+      <c r="K161" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L161" s="29"/>
-      <c r="M161" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N161" s="47"/>
-      <c r="O161" s="47"/>
+      <c r="L161" s="78" t="s">
+        <v>1651</v>
+      </c>
+      <c r="M161" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N161" s="80"/>
+      <c r="O161" s="80"/>
     </row>
     <row r="162" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A162" s="29">
@@ -42264,46 +42679,48 @@
       <c r="N162" s="47"/>
       <c r="O162" s="47"/>
     </row>
-    <row r="163" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="29">
+    <row r="163" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="78">
         <v>170</v>
       </c>
-      <c r="B163" s="29" t="s">
+      <c r="B163" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C163" s="29">
+      <c r="C163" s="78">
         <v>161</v>
       </c>
-      <c r="D163" s="29" t="s">
-        <v>1544</v>
-      </c>
-      <c r="E163" s="29" t="s">
+      <c r="D163" s="78" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E163" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F163" s="29" t="s">
+      <c r="F163" s="78" t="s">
         <v>1420</v>
       </c>
-      <c r="G163" s="29" t="s">
+      <c r="G163" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H163" s="29" t="s">
+      <c r="H163" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I163" s="29" t="s">
-        <v>1545</v>
-      </c>
-      <c r="J163" s="29">
+      <c r="I163" s="79" t="s">
+        <v>1686</v>
+      </c>
+      <c r="J163" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K163" s="29" t="s">
+      <c r="K163" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L163" s="29"/>
-      <c r="M163" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N163" s="47"/>
-      <c r="O163" s="47"/>
+      <c r="L163" s="78" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M163" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N163" s="80"/>
+      <c r="O163" s="80"/>
     </row>
     <row r="164" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A164" s="29">
@@ -42346,46 +42763,48 @@
       <c r="N164" s="47"/>
       <c r="O164" s="47"/>
     </row>
-    <row r="165" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="29">
+    <row r="165" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="78">
         <v>172</v>
       </c>
-      <c r="B165" s="29" t="s">
+      <c r="B165" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C165" s="29">
+      <c r="C165" s="78">
         <v>163</v>
       </c>
-      <c r="D165" s="29" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E165" s="29" t="s">
+      <c r="D165" s="78" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E165" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F165" s="29" t="s">
+      <c r="F165" s="78" t="s">
         <v>1550</v>
       </c>
-      <c r="G165" s="29" t="s">
+      <c r="G165" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H165" s="29" t="s">
+      <c r="H165" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I165" s="29" t="s">
-        <v>1551</v>
-      </c>
-      <c r="J165" s="29">
+      <c r="I165" s="79" t="s">
+        <v>1657</v>
+      </c>
+      <c r="J165" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K165" s="29" t="s">
+      <c r="K165" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L165" s="29"/>
-      <c r="M165" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N165" s="47"/>
-      <c r="O165" s="47"/>
+      <c r="L165" s="78" t="s">
+        <v>1651</v>
+      </c>
+      <c r="M165" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N165" s="80"/>
+      <c r="O165" s="80"/>
     </row>
     <row r="166" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A166" s="29">
@@ -42469,46 +42888,48 @@
       <c r="N167" s="47"/>
       <c r="O167" s="47"/>
     </row>
-    <row r="168" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="29">
+    <row r="168" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="78">
         <v>175</v>
       </c>
-      <c r="B168" s="29" t="s">
+      <c r="B168" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C168" s="29">
+      <c r="C168" s="78">
         <v>166</v>
       </c>
-      <c r="D168" s="29" t="s">
+      <c r="D168" s="78" t="s">
         <v>1557</v>
       </c>
-      <c r="E168" s="29" t="s">
+      <c r="E168" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F168" s="29" t="s">
+      <c r="F168" s="78" t="s">
         <v>1558</v>
       </c>
-      <c r="G168" s="29" t="s">
+      <c r="G168" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H168" s="29" t="s">
+      <c r="H168" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I168" s="29" t="s">
-        <v>1559</v>
-      </c>
-      <c r="J168" s="29">
+      <c r="I168" s="79" t="s">
+        <v>1684</v>
+      </c>
+      <c r="J168" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K168" s="29" t="s">
+      <c r="K168" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L168" s="29"/>
-      <c r="M168" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N168" s="47"/>
-      <c r="O168" s="47"/>
+      <c r="L168" s="78" t="s">
+        <v>1687</v>
+      </c>
+      <c r="M168" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N168" s="80"/>
+      <c r="O168" s="80"/>
     </row>
     <row r="169" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A169" s="78">
@@ -42545,7 +42966,7 @@
         <v>1114</v>
       </c>
       <c r="L169" s="78" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="M169" s="78" t="s">
         <v>565</v>
@@ -42560,7 +42981,7 @@
       <c r="B170" s="33" t="s">
         <v>1589</v>
       </c>
-      <c r="C170" s="29">
+      <c r="C170" s="33">
         <v>168</v>
       </c>
       <c r="D170" s="33" t="s">
@@ -42646,7 +43067,7 @@
         <v>170</v>
       </c>
       <c r="D172" s="29" t="s">
-        <v>1569</v>
+        <v>1683</v>
       </c>
       <c r="E172" s="29" t="s">
         <v>1563</v>
@@ -42660,8 +43081,8 @@
       <c r="H172" s="29" t="s">
         <v>1591</v>
       </c>
-      <c r="I172" s="29" t="s">
-        <v>1570</v>
+      <c r="I172" s="46" t="s">
+        <v>1682</v>
       </c>
       <c r="J172" s="29">
         <v>2016.2</v>
@@ -42683,7 +43104,7 @@
       <c r="B173" s="33" t="s">
         <v>1589</v>
       </c>
-      <c r="C173" s="29">
+      <c r="C173" s="33">
         <v>171</v>
       </c>
       <c r="D173" s="33" t="s">
@@ -42765,7 +43186,7 @@
       <c r="B175" s="33" t="s">
         <v>1589</v>
       </c>
-      <c r="C175" s="29">
+      <c r="C175" s="33">
         <v>173</v>
       </c>
       <c r="D175" s="33" t="s">
@@ -42806,7 +43227,7 @@
       <c r="B176" s="33" t="s">
         <v>1589</v>
       </c>
-      <c r="C176" s="29">
+      <c r="C176" s="33">
         <v>174</v>
       </c>
       <c r="D176" s="33" t="s">
@@ -42840,91 +43261,97 @@
       <c r="N176" s="76"/>
       <c r="O176" s="76"/>
     </row>
-    <row r="177" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="29">
+    <row r="177" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="33">
         <v>205</v>
       </c>
-      <c r="B177" s="29" t="s">
+      <c r="B177" s="33" t="s">
         <v>1589</v>
       </c>
-      <c r="C177" s="29">
+      <c r="C177" s="33">
         <v>175</v>
       </c>
-      <c r="D177" s="29" t="s">
+      <c r="D177" s="33" t="s">
         <v>1583</v>
       </c>
-      <c r="E177" s="29" t="s">
+      <c r="E177" s="33" t="s">
         <v>1563</v>
       </c>
-      <c r="F177" s="29" t="s">
+      <c r="F177" s="33" t="s">
         <v>1584</v>
       </c>
-      <c r="G177" s="29" t="s">
+      <c r="G177" s="33" t="s">
         <v>1590</v>
       </c>
-      <c r="H177" s="29" t="s">
+      <c r="H177" s="33" t="s">
         <v>1591</v>
       </c>
-      <c r="I177" s="29" t="s">
+      <c r="I177" s="33" t="s">
         <v>1585</v>
       </c>
-      <c r="J177" s="29">
+      <c r="J177" s="33">
         <v>2016.2</v>
       </c>
-      <c r="K177" s="29" t="s">
+      <c r="K177" s="33" t="s">
         <v>1114</v>
       </c>
-      <c r="L177" s="29"/>
-      <c r="M177" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N177" s="47"/>
-      <c r="O177" s="47"/>
-    </row>
-    <row r="178" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="29">
+      <c r="L177" s="33"/>
+      <c r="M177" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="N177" s="76"/>
+      <c r="O177" s="76"/>
+    </row>
+    <row r="178" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="33">
         <v>206</v>
       </c>
-      <c r="B178" s="29" t="s">
+      <c r="B178" s="33" t="s">
         <v>1589</v>
       </c>
-      <c r="C178" s="29">
+      <c r="C178" s="33">
         <v>176</v>
       </c>
-      <c r="D178" s="29" t="s">
+      <c r="D178" s="33" t="s">
         <v>1586</v>
       </c>
-      <c r="E178" s="29" t="s">
+      <c r="E178" s="33" t="s">
         <v>1563</v>
       </c>
-      <c r="F178" s="29" t="s">
+      <c r="F178" s="33" t="s">
         <v>1587</v>
       </c>
-      <c r="G178" s="29" t="s">
+      <c r="G178" s="33" t="s">
         <v>1590</v>
       </c>
-      <c r="H178" s="29" t="s">
+      <c r="H178" s="33" t="s">
         <v>1591</v>
       </c>
-      <c r="I178" s="29" t="s">
+      <c r="I178" s="33" t="s">
         <v>1588</v>
       </c>
-      <c r="J178" s="29">
+      <c r="J178" s="33">
         <v>2016.2</v>
       </c>
-      <c r="K178" s="29" t="s">
+      <c r="K178" s="33" t="s">
         <v>1114</v>
       </c>
-      <c r="L178" s="29"/>
-      <c r="M178" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N178" s="47"/>
-      <c r="O178" s="47"/>
+      <c r="L178" s="33"/>
+      <c r="M178" s="33" t="s">
+        <v>565</v>
+      </c>
+      <c r="N178" s="76"/>
+      <c r="O178" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="L131:L133"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="L63:L64"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -42937,9 +43364,38 @@
     <hyperlink ref="I23" r:id="rId7"/>
     <hyperlink ref="I82" r:id="rId8"/>
     <hyperlink ref="I88" r:id="rId9"/>
+    <hyperlink ref="I129" r:id="rId10"/>
+    <hyperlink ref="I119" r:id="rId11"/>
+    <hyperlink ref="I120" r:id="rId12"/>
+    <hyperlink ref="I108" r:id="rId13"/>
+    <hyperlink ref="I31" r:id="rId14"/>
+    <hyperlink ref="I35" r:id="rId15"/>
+    <hyperlink ref="I161" r:id="rId16"/>
+    <hyperlink ref="I165" r:id="rId17"/>
+    <hyperlink ref="I60" r:id="rId18"/>
+    <hyperlink ref="I99" r:id="rId19"/>
+    <hyperlink ref="I19" r:id="rId20"/>
+    <hyperlink ref="I20" r:id="rId21"/>
+    <hyperlink ref="I24" r:id="rId22"/>
+    <hyperlink ref="I25" r:id="rId23"/>
+    <hyperlink ref="I28" r:id="rId24"/>
+    <hyperlink ref="I33" r:id="rId25"/>
+    <hyperlink ref="I50" r:id="rId26"/>
+    <hyperlink ref="I55" r:id="rId27"/>
+    <hyperlink ref="I56" r:id="rId28"/>
+    <hyperlink ref="I172" r:id="rId29"/>
+    <hyperlink ref="I168" r:id="rId30"/>
+    <hyperlink ref="I163" r:id="rId31"/>
+    <hyperlink ref="I131" r:id="rId32"/>
+    <hyperlink ref="I132" r:id="rId33"/>
+    <hyperlink ref="I133" r:id="rId34"/>
+    <hyperlink ref="I43" r:id="rId35"/>
+    <hyperlink ref="I44" r:id="rId36"/>
+    <hyperlink ref="I63" r:id="rId37"/>
+    <hyperlink ref="I64" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
 

--- a/主题分工情况记录.xlsx
+++ b/主题分工情况记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6494" uniqueCount="1704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6499" uniqueCount="1719">
   <si>
     <t>标题</t>
   </si>
@@ -15504,288 +15504,348 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SG30JC6M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG30JC6M&amp;id=137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.10提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG20SC3LM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG20SC3LM&amp;id=127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG20SC4M&amp;id=128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG20SC4M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF40PC3&amp;id=116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新主题</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改写</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG1J10A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1J10A&amp;id=36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.11提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG1S6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1S6A&amp;id=40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4SBN20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D4SBN20&amp;id=170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D15XBN20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D15XBN20&amp;id=174</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3FP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D3FP3&amp;id=67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF20NC15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF20NC15&amp;id=107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D40FDC15ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D20FDC15ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D20FDC10ST&amp;id=23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D20FDC15ST&amp;id=24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.22提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D40FDC10ST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D40FDC10ST&amp;id=28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D40FDC15ST&amp;id=29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG1H3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1H3&amp;id=33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1M3A&amp;id=38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.22提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1FJ10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1FH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FH3&amp;id=55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.24提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2FH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=M2FH3&amp;id=62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=M2FM3&amp;id=63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=01&amp;product_id=M2F60&amp;id=14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2F60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=S20SC60WV&amp;id=177</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D15XBS6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D15XBS6&amp;id=172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.25提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG30TC10M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG30TC10M&amp;id=139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG30TC12M&amp;id=140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG30TC15M&amp;id=141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3CE4S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3CE6S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FS4&amp;id=48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1FS4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1FS6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FS6&amp;id=49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.24提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE3S4M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE3S6M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE3S6M&amp;id=71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE3S4M&amp;id=70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.24提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG5S4M&amp;id=76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG5S6M&amp;id=77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG5S9M&amp;id=78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.26提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4SBS4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D4SBS4&amp;id=168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D4SBS6&amp;id=169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.1.11提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG20TC10M&amp;id=132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG20TC12M&amp;id=133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG20TC15M&amp;id=134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF40SC3L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF40SC3L&amp;id=117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF30SC3ML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF30SC3ML&amp;id=110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>备注：截止到2017.12.28，已结提交22篇，因此计划1月15日之前，提交20篇
-1月15日至2月15日前，每日2篇，共计60篇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SG30JC6M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG30JC6M&amp;id=137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.10提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SG20SC3LM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG20SC3LM&amp;id=127</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG20SC4M&amp;id=128</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SG20SC4M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF40PC3&amp;id=116</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>新主题</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>改写</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DG1J10A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1J10A&amp;id=36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.11提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DG1S6A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1S6A&amp;id=40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D4SBN20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D4SBN20&amp;id=170</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D15XBN20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D15XBN20&amp;id=174</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D3FP3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D3FP3&amp;id=67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DF20NC15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DF20NC15&amp;id=107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D40FDC15ST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D20FDC15ST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D20FDC10ST&amp;id=23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D20FDC15ST&amp;id=24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.22提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D40FDC10ST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D40FDC10ST&amp;id=28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D40FDC15ST&amp;id=29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DG1H3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1H3&amp;id=33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DG1M3A&amp;id=38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.22提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1FJ10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1FH3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FH3&amp;id=55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.24提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2FH3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=M2FH3&amp;id=62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=M2FM3&amp;id=63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=01&amp;product_id=M2F60&amp;id=14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2F60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=S20SC60WV&amp;id=177</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D15XBS6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D15XBS6&amp;id=172</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.25提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SG30TC10M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG30TC10M&amp;id=139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG30TC12M&amp;id=140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=SG30TC15M&amp;id=141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D3CE4S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D3CE6S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FS4&amp;id=48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1FS4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1FS6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=D1FS6&amp;id=49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.24提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DE3S4M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DE3S6M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE3S6M&amp;id=71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.shindengen.co.jp/product_e/semi/list_detail_NEW.php?category_id=01&amp;sub_id=04&amp;product_id=DE3S4M&amp;id=70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.1.24提交</t>
+截止到1月26日，已提交15篇，距离目标还差25篇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -35947,8 +36007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L46" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -35967,7 +36027,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="94" t="s">
-        <v>1638</v>
+        <v>1718</v>
       </c>
       <c r="B1" s="95"/>
       <c r="C1" s="95"/>
@@ -36577,10 +36637,10 @@
         <v>1150</v>
       </c>
       <c r="G16" s="33" t="s">
+        <v>1646</v>
+      </c>
+      <c r="H16" s="33" t="s">
         <v>1647</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>1648</v>
       </c>
       <c r="I16" s="33" t="s">
         <v>1151</v>
@@ -36708,7 +36768,7 @@
         <v>1591</v>
       </c>
       <c r="I19" s="79" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="J19" s="78">
         <v>2016.2</v>
@@ -36717,7 +36777,7 @@
         <v>1114</v>
       </c>
       <c r="L19" s="96" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="M19" s="78" t="s">
         <v>565</v>
@@ -36736,7 +36796,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E20" s="78" t="s">
         <v>1111</v>
@@ -36751,7 +36811,7 @@
         <v>1591</v>
       </c>
       <c r="I20" s="79" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="J20" s="78">
         <v>2016.2</v>
@@ -36902,7 +36962,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E24" s="78" t="s">
         <v>1111</v>
@@ -36917,7 +36977,7 @@
         <v>1591</v>
       </c>
       <c r="I24" s="79" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="J24" s="78">
         <v>2013.12</v>
@@ -36926,7 +36986,7 @@
         <v>1114</v>
       </c>
       <c r="L24" s="96" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="M24" s="78" t="s">
         <v>565</v>
@@ -36945,7 +37005,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="78" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="E25" s="78" t="s">
         <v>1111</v>
@@ -36960,7 +37020,7 @@
         <v>1591</v>
       </c>
       <c r="I25" s="79" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="J25" s="78">
         <v>2016.2</v>
@@ -37070,7 +37130,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E28" s="78" t="s">
         <v>1111</v>
@@ -37085,7 +37145,7 @@
         <v>1591</v>
       </c>
       <c r="I28" s="79" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="J28" s="78">
         <v>2017.1</v>
@@ -37094,7 +37154,7 @@
         <v>1114</v>
       </c>
       <c r="L28" s="78" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="M28" s="78" t="s">
         <v>565</v>
@@ -37195,7 +37255,7 @@
         <v>29</v>
       </c>
       <c r="D31" s="78" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E31" s="78" t="s">
         <v>1111</v>
@@ -37210,7 +37270,7 @@
         <v>1591</v>
       </c>
       <c r="I31" s="79" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="J31" s="78">
         <v>2017.1</v>
@@ -37219,7 +37279,7 @@
         <v>1114</v>
       </c>
       <c r="L31" s="78" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="M31" s="78" t="s">
         <v>565</v>
@@ -37294,7 +37354,7 @@
         <v>1591</v>
       </c>
       <c r="I33" s="46" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="J33" s="29">
         <v>2017.1</v>
@@ -37343,7 +37403,7 @@
         <v>1114</v>
       </c>
       <c r="L34" s="78" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="M34" s="78" t="s">
         <v>565</v>
@@ -37362,7 +37422,7 @@
         <v>33</v>
       </c>
       <c r="D35" s="78" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="E35" s="78" t="s">
         <v>1111</v>
@@ -37377,7 +37437,7 @@
         <v>1591</v>
       </c>
       <c r="I35" s="79" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="J35" s="78">
         <v>2016.6</v>
@@ -37386,7 +37446,7 @@
         <v>1114</v>
       </c>
       <c r="L35" s="78" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="M35" s="78" t="s">
         <v>565</v>
@@ -37653,7 +37713,7 @@
         <v>40</v>
       </c>
       <c r="D42" s="29" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E42" s="29" t="s">
         <v>1111</v>
@@ -37694,7 +37754,7 @@
         <v>41</v>
       </c>
       <c r="D43" s="78" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="E43" s="78" t="s">
         <v>1111</v>
@@ -37709,7 +37769,7 @@
         <v>1591</v>
       </c>
       <c r="I43" s="79" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="J43" s="78">
         <v>2015.9</v>
@@ -37718,7 +37778,7 @@
         <v>1114</v>
       </c>
       <c r="L43" s="96" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="M43" s="78" t="s">
         <v>565</v>
@@ -37737,7 +37797,7 @@
         <v>42</v>
       </c>
       <c r="D44" s="78" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E44" s="78" t="s">
         <v>1111</v>
@@ -37752,7 +37812,7 @@
         <v>1591</v>
       </c>
       <c r="I44" s="79" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="J44" s="78">
         <v>2016.2</v>
@@ -37983,7 +38043,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="78" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E50" s="78" t="s">
         <v>1111</v>
@@ -37998,7 +38058,7 @@
         <v>1591</v>
       </c>
       <c r="I50" s="79" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="J50" s="78">
         <v>2016.2</v>
@@ -38007,7 +38067,7 @@
         <v>1114</v>
       </c>
       <c r="L50" s="78" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="M50" s="78" t="s">
         <v>565</v>
@@ -38110,7 +38170,7 @@
         <v>51</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>1111</v>
@@ -38151,7 +38211,7 @@
         <v>52</v>
       </c>
       <c r="D54" s="29" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E54" s="29" t="s">
         <v>1111</v>
@@ -38192,7 +38252,7 @@
         <v>53</v>
       </c>
       <c r="D55" s="78" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E55" s="78" t="s">
         <v>1111</v>
@@ -38207,7 +38267,7 @@
         <v>1591</v>
       </c>
       <c r="I55" s="79" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="J55" s="78">
         <v>2016.2</v>
@@ -38216,7 +38276,7 @@
         <v>1114</v>
       </c>
       <c r="L55" s="96" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="M55" s="78" t="s">
         <v>565</v>
@@ -38250,7 +38310,7 @@
         <v>1591</v>
       </c>
       <c r="I56" s="79" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="J56" s="78">
         <v>2016.2</v>
@@ -38399,7 +38459,7 @@
         <v>58</v>
       </c>
       <c r="D60" s="78" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="E60" s="78" t="s">
         <v>1111</v>
@@ -38414,7 +38474,7 @@
         <v>1591</v>
       </c>
       <c r="I60" s="79" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="J60" s="78">
         <v>2016.2</v>
@@ -38423,7 +38483,7 @@
         <v>1114</v>
       </c>
       <c r="L60" s="78" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="M60" s="78" t="s">
         <v>565</v>
@@ -38524,7 +38584,7 @@
         <v>61</v>
       </c>
       <c r="D63" s="78" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E63" s="78" t="s">
         <v>1111</v>
@@ -38539,7 +38599,7 @@
         <v>1591</v>
       </c>
       <c r="I63" s="79" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="J63" s="78">
         <v>2016.2</v>
@@ -38548,7 +38608,7 @@
         <v>1114</v>
       </c>
       <c r="L63" s="96" t="s">
-        <v>1698</v>
+        <v>1677</v>
       </c>
       <c r="M63" s="78" t="s">
         <v>565</v>
@@ -38567,7 +38627,7 @@
         <v>62</v>
       </c>
       <c r="D64" s="78" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E64" s="78" t="s">
         <v>1111</v>
@@ -38582,7 +38642,7 @@
         <v>1591</v>
       </c>
       <c r="I64" s="79" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="J64" s="78">
         <v>2016.2</v>
@@ -38720,128 +38780,130 @@
       <c r="N67" s="47"/>
       <c r="O67" s="47"/>
     </row>
-    <row r="68" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="29">
+    <row r="68" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="78">
         <v>75</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C68" s="29">
+      <c r="C68" s="78">
         <v>66</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="78" t="s">
         <v>1289</v>
       </c>
-      <c r="E68" s="29" t="s">
+      <c r="E68" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F68" s="29" t="s">
+      <c r="F68" s="78" t="s">
         <v>1290</v>
       </c>
-      <c r="G68" s="29" t="s">
+      <c r="G68" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H68" s="29" t="s">
+      <c r="H68" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I68" s="29" t="s">
-        <v>1291</v>
-      </c>
-      <c r="J68" s="29">
+      <c r="I68" s="79" t="s">
+        <v>1703</v>
+      </c>
+      <c r="J68" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K68" s="29" t="s">
+      <c r="K68" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N68" s="47"/>
-      <c r="O68" s="47"/>
-    </row>
-    <row r="69" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="29">
+      <c r="L68" s="96" t="s">
+        <v>1706</v>
+      </c>
+      <c r="M68" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N68" s="80"/>
+      <c r="O68" s="80"/>
+    </row>
+    <row r="69" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="78">
         <v>76</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C69" s="29">
+      <c r="C69" s="78">
         <v>67</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="78" t="s">
         <v>1292</v>
       </c>
-      <c r="E69" s="29" t="s">
+      <c r="E69" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F69" s="29" t="s">
+      <c r="F69" s="78" t="s">
         <v>1293</v>
       </c>
-      <c r="G69" s="29" t="s">
+      <c r="G69" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H69" s="29" t="s">
+      <c r="H69" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I69" s="29" t="s">
-        <v>1294</v>
-      </c>
-      <c r="J69" s="29">
+      <c r="I69" s="79" t="s">
+        <v>1704</v>
+      </c>
+      <c r="J69" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K69" s="29" t="s">
+      <c r="K69" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N69" s="47"/>
-      <c r="O69" s="47"/>
-    </row>
-    <row r="70" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="29">
+      <c r="L69" s="98"/>
+      <c r="M69" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N69" s="80"/>
+      <c r="O69" s="80"/>
+    </row>
+    <row r="70" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="78">
         <v>77</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C70" s="29">
+      <c r="C70" s="78">
         <v>68</v>
       </c>
-      <c r="D70" s="29" t="s">
+      <c r="D70" s="78" t="s">
         <v>1295</v>
       </c>
-      <c r="E70" s="29" t="s">
+      <c r="E70" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F70" s="29" t="s">
+      <c r="F70" s="78" t="s">
         <v>1296</v>
       </c>
-      <c r="G70" s="29" t="s">
+      <c r="G70" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H70" s="29" t="s">
+      <c r="H70" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I70" s="29" t="s">
-        <v>1297</v>
-      </c>
-      <c r="J70" s="29">
+      <c r="I70" s="79" t="s">
+        <v>1705</v>
+      </c>
+      <c r="J70" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K70" s="29" t="s">
+      <c r="K70" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N70" s="47"/>
-      <c r="O70" s="47"/>
+      <c r="L70" s="97"/>
+      <c r="M70" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N70" s="80"/>
+      <c r="O70" s="80"/>
     </row>
     <row r="71" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A71" s="78">
@@ -40008,7 +40070,7 @@
         <v>97</v>
       </c>
       <c r="D99" s="78" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E99" s="78" t="s">
         <v>1111</v>
@@ -40023,7 +40085,7 @@
         <v>1591</v>
       </c>
       <c r="I99" s="79" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="J99" s="78">
         <v>2016.2</v>
@@ -40032,7 +40094,7 @@
         <v>1114</v>
       </c>
       <c r="L99" s="78" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="M99" s="78" t="s">
         <v>565</v>
@@ -40122,46 +40184,48 @@
       <c r="N101" s="47"/>
       <c r="O101" s="47"/>
     </row>
-    <row r="102" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="29">
+    <row r="102" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="78">
         <v>109</v>
       </c>
-      <c r="B102" s="29" t="s">
+      <c r="B102" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C102" s="29">
+      <c r="C102" s="78">
         <v>100</v>
       </c>
-      <c r="D102" s="29" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E102" s="29" t="s">
+      <c r="D102" s="78" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E102" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F102" s="29" t="s">
+      <c r="F102" s="78" t="s">
         <v>1375</v>
       </c>
-      <c r="G102" s="29" t="s">
+      <c r="G102" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H102" s="29" t="s">
+      <c r="H102" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I102" s="29" t="s">
-        <v>1378</v>
-      </c>
-      <c r="J102" s="29">
+      <c r="I102" s="79" t="s">
+        <v>1717</v>
+      </c>
+      <c r="J102" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K102" s="29" t="s">
+      <c r="K102" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L102" s="29"/>
-      <c r="M102" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N102" s="47"/>
-      <c r="O102" s="47"/>
+      <c r="L102" s="78" t="s">
+        <v>1706</v>
+      </c>
+      <c r="M102" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N102" s="80"/>
+      <c r="O102" s="80"/>
     </row>
     <row r="103" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="29">
@@ -40394,7 +40458,7 @@
         <v>1591</v>
       </c>
       <c r="I108" s="79" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="J108" s="78">
         <v>2016.2</v>
@@ -40403,7 +40467,7 @@
         <v>1114</v>
       </c>
       <c r="L108" s="78" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="M108" s="78" t="s">
         <v>565</v>
@@ -40411,46 +40475,48 @@
       <c r="N108" s="80"/>
       <c r="O108" s="80"/>
     </row>
-    <row r="109" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="29">
+    <row r="109" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="78">
         <v>116</v>
       </c>
-      <c r="B109" s="29" t="s">
+      <c r="B109" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C109" s="29">
+      <c r="C109" s="78">
         <v>107</v>
       </c>
-      <c r="D109" s="29" t="s">
-        <v>1393</v>
-      </c>
-      <c r="E109" s="29" t="s">
+      <c r="D109" s="78" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E109" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F109" s="29" t="s">
+      <c r="F109" s="78" t="s">
         <v>1391</v>
       </c>
-      <c r="G109" s="29" t="s">
+      <c r="G109" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H109" s="29" t="s">
+      <c r="H109" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I109" s="29" t="s">
-        <v>1394</v>
-      </c>
-      <c r="J109" s="29">
+      <c r="I109" s="79" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J109" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K109" s="29" t="s">
+      <c r="K109" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L109" s="29"/>
-      <c r="M109" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N109" s="47"/>
-      <c r="O109" s="47"/>
+      <c r="L109" s="78" t="s">
+        <v>1706</v>
+      </c>
+      <c r="M109" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N109" s="80"/>
+      <c r="O109" s="80"/>
     </row>
     <row r="110" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="29">
@@ -40832,7 +40898,7 @@
         <v>117</v>
       </c>
       <c r="D119" s="78" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="E119" s="78" t="s">
         <v>1111</v>
@@ -40847,7 +40913,7 @@
         <v>1591</v>
       </c>
       <c r="I119" s="79" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="J119" s="78">
         <v>2016.2</v>
@@ -40856,7 +40922,7 @@
         <v>1114</v>
       </c>
       <c r="L119" s="78" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="M119" s="78" t="s">
         <v>565</v>
@@ -40875,7 +40941,7 @@
         <v>118</v>
       </c>
       <c r="D120" s="88" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E120" s="88" t="s">
         <v>1111</v>
@@ -40890,7 +40956,7 @@
         <v>1591</v>
       </c>
       <c r="I120" s="89" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="J120" s="88">
         <v>2016.2</v>
@@ -41028,128 +41094,130 @@
       <c r="N123" s="47"/>
       <c r="O123" s="47"/>
     </row>
-    <row r="124" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="29">
+    <row r="124" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="78">
         <v>131</v>
       </c>
-      <c r="B124" s="29" t="s">
+      <c r="B124" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C124" s="29">
+      <c r="C124" s="78">
         <v>122</v>
       </c>
-      <c r="D124" s="29" t="s">
+      <c r="D124" s="78" t="s">
         <v>1436</v>
       </c>
-      <c r="E124" s="29" t="s">
+      <c r="E124" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F124" s="29" t="s">
+      <c r="F124" s="78" t="s">
         <v>1437</v>
       </c>
-      <c r="G124" s="29" t="s">
+      <c r="G124" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H124" s="29" t="s">
+      <c r="H124" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I124" s="29" t="s">
-        <v>1438</v>
-      </c>
-      <c r="J124" s="29">
+      <c r="I124" s="79" t="s">
+        <v>1711</v>
+      </c>
+      <c r="J124" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K124" s="29" t="s">
+      <c r="K124" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L124" s="29"/>
-      <c r="M124" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N124" s="47"/>
-      <c r="O124" s="47"/>
-    </row>
-    <row r="125" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="29">
+      <c r="L124" s="96" t="s">
+        <v>1706</v>
+      </c>
+      <c r="M124" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N124" s="80"/>
+      <c r="O124" s="80"/>
+    </row>
+    <row r="125" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="78">
         <v>132</v>
       </c>
-      <c r="B125" s="29" t="s">
+      <c r="B125" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C125" s="29">
+      <c r="C125" s="78">
         <v>123</v>
       </c>
-      <c r="D125" s="29" t="s">
+      <c r="D125" s="78" t="s">
         <v>1439</v>
       </c>
-      <c r="E125" s="29" t="s">
+      <c r="E125" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F125" s="29" t="s">
+      <c r="F125" s="78" t="s">
         <v>1440</v>
       </c>
-      <c r="G125" s="29" t="s">
+      <c r="G125" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H125" s="29" t="s">
+      <c r="H125" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I125" s="29" t="s">
-        <v>1441</v>
-      </c>
-      <c r="J125" s="29">
+      <c r="I125" s="79" t="s">
+        <v>1712</v>
+      </c>
+      <c r="J125" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K125" s="29" t="s">
+      <c r="K125" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L125" s="29"/>
-      <c r="M125" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N125" s="47"/>
-      <c r="O125" s="47"/>
-    </row>
-    <row r="126" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="29">
+      <c r="L125" s="98"/>
+      <c r="M125" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N125" s="80"/>
+      <c r="O125" s="80"/>
+    </row>
+    <row r="126" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="78">
         <v>133</v>
       </c>
-      <c r="B126" s="29" t="s">
+      <c r="B126" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C126" s="29">
+      <c r="C126" s="78">
         <v>124</v>
       </c>
-      <c r="D126" s="29" t="s">
+      <c r="D126" s="78" t="s">
         <v>1442</v>
       </c>
-      <c r="E126" s="29" t="s">
+      <c r="E126" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F126" s="29" t="s">
+      <c r="F126" s="78" t="s">
         <v>1443</v>
       </c>
-      <c r="G126" s="29" t="s">
+      <c r="G126" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H126" s="29" t="s">
+      <c r="H126" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I126" s="29" t="s">
-        <v>1444</v>
-      </c>
-      <c r="J126" s="29">
+      <c r="I126" s="79" t="s">
+        <v>1713</v>
+      </c>
+      <c r="J126" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K126" s="29" t="s">
+      <c r="K126" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L126" s="29"/>
-      <c r="M126" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N126" s="47"/>
-      <c r="O126" s="47"/>
+      <c r="L126" s="97"/>
+      <c r="M126" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N126" s="80"/>
+      <c r="O126" s="80"/>
     </row>
     <row r="127" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="29">
@@ -41244,7 +41312,7 @@
         <v>127</v>
       </c>
       <c r="D129" s="78" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E129" s="78" t="s">
         <v>1111</v>
@@ -41259,7 +41327,7 @@
         <v>1591</v>
       </c>
       <c r="I129" s="79" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="J129" s="78">
         <v>2016.2</v>
@@ -41268,7 +41336,7 @@
         <v>1114</v>
       </c>
       <c r="L129" s="78" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="M129" s="78" t="s">
         <v>565</v>
@@ -41328,7 +41396,7 @@
         <v>129</v>
       </c>
       <c r="D131" s="78" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E131" s="78" t="s">
         <v>1111</v>
@@ -41343,7 +41411,7 @@
         <v>1591</v>
       </c>
       <c r="I131" s="79" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="J131" s="78">
         <v>2016.2</v>
@@ -41352,7 +41420,7 @@
         <v>1114</v>
       </c>
       <c r="L131" s="96" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="M131" s="78" t="s">
         <v>565</v>
@@ -41386,7 +41454,7 @@
         <v>1591</v>
       </c>
       <c r="I132" s="79" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="J132" s="78">
         <v>2016.2</v>
@@ -41427,7 +41495,7 @@
         <v>1591</v>
       </c>
       <c r="I133" s="79" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="J133" s="78">
         <v>2016.2</v>
@@ -42513,87 +42581,89 @@
       <c r="N158" s="86"/>
       <c r="O158" s="86"/>
     </row>
-    <row r="159" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="29">
+    <row r="159" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="78">
         <v>166</v>
       </c>
-      <c r="B159" s="29" t="s">
+      <c r="B159" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C159" s="29">
+      <c r="C159" s="78">
         <v>157</v>
       </c>
-      <c r="D159" s="29" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E159" s="29" t="s">
+      <c r="D159" s="78" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E159" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F159" s="29" t="s">
+      <c r="F159" s="78" t="s">
         <v>1534</v>
       </c>
-      <c r="G159" s="29" t="s">
+      <c r="G159" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H159" s="29" t="s">
+      <c r="H159" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I159" s="29" t="s">
-        <v>1535</v>
-      </c>
-      <c r="J159" s="29">
+      <c r="I159" s="79" t="s">
+        <v>1708</v>
+      </c>
+      <c r="J159" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K159" s="29" t="s">
+      <c r="K159" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L159" s="29"/>
-      <c r="M159" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N159" s="47"/>
-      <c r="O159" s="47"/>
-    </row>
-    <row r="160" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="29">
+      <c r="L159" s="96" t="s">
+        <v>1706</v>
+      </c>
+      <c r="M159" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N159" s="80"/>
+      <c r="O159" s="80"/>
+    </row>
+    <row r="160" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="78">
         <v>167</v>
       </c>
-      <c r="B160" s="29" t="s">
+      <c r="B160" s="78" t="s">
         <v>1589</v>
       </c>
-      <c r="C160" s="29">
+      <c r="C160" s="78">
         <v>158</v>
       </c>
-      <c r="D160" s="29" t="s">
+      <c r="D160" s="78" t="s">
         <v>1536</v>
       </c>
-      <c r="E160" s="29" t="s">
+      <c r="E160" s="78" t="s">
         <v>1111</v>
       </c>
-      <c r="F160" s="29" t="s">
+      <c r="F160" s="78" t="s">
         <v>1537</v>
       </c>
-      <c r="G160" s="29" t="s">
+      <c r="G160" s="78" t="s">
         <v>1590</v>
       </c>
-      <c r="H160" s="29" t="s">
+      <c r="H160" s="78" t="s">
         <v>1591</v>
       </c>
-      <c r="I160" s="29" t="s">
-        <v>1538</v>
-      </c>
-      <c r="J160" s="29">
+      <c r="I160" s="79" t="s">
+        <v>1709</v>
+      </c>
+      <c r="J160" s="78">
         <v>2016.2</v>
       </c>
-      <c r="K160" s="29" t="s">
+      <c r="K160" s="78" t="s">
         <v>1114</v>
       </c>
-      <c r="L160" s="29"/>
-      <c r="M160" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N160" s="47"/>
-      <c r="O160" s="47"/>
+      <c r="L160" s="97"/>
+      <c r="M160" s="78" t="s">
+        <v>565</v>
+      </c>
+      <c r="N160" s="80"/>
+      <c r="O160" s="80"/>
     </row>
     <row r="161" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A161" s="78">
@@ -42606,7 +42676,7 @@
         <v>159</v>
       </c>
       <c r="D161" s="78" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="E161" s="78" t="s">
         <v>1111</v>
@@ -42621,7 +42691,7 @@
         <v>1591</v>
       </c>
       <c r="I161" s="79" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="J161" s="78">
         <v>2016.2</v>
@@ -42630,7 +42700,7 @@
         <v>1114</v>
       </c>
       <c r="L161" s="78" t="s">
-        <v>1651</v>
+        <v>1710</v>
       </c>
       <c r="M161" s="78" t="s">
         <v>565</v>
@@ -42690,7 +42760,7 @@
         <v>161</v>
       </c>
       <c r="D163" s="78" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E163" s="78" t="s">
         <v>1111</v>
@@ -42705,7 +42775,7 @@
         <v>1591</v>
       </c>
       <c r="I163" s="79" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="J163" s="78">
         <v>2016.2</v>
@@ -42714,7 +42784,7 @@
         <v>1114</v>
       </c>
       <c r="L163" s="78" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="M163" s="78" t="s">
         <v>565</v>
@@ -42774,7 +42844,7 @@
         <v>163</v>
       </c>
       <c r="D165" s="78" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="E165" s="78" t="s">
         <v>1111</v>
@@ -42789,7 +42859,7 @@
         <v>1591</v>
       </c>
       <c r="I165" s="79" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="J165" s="78">
         <v>2016.2</v>
@@ -42798,7 +42868,7 @@
         <v>1114</v>
       </c>
       <c r="L165" s="78" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="M165" s="78" t="s">
         <v>565</v>
@@ -42914,7 +42984,7 @@
         <v>1591</v>
       </c>
       <c r="I168" s="79" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="J168" s="78">
         <v>2016.2</v>
@@ -42923,7 +42993,7 @@
         <v>1114</v>
       </c>
       <c r="L168" s="78" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="M168" s="78" t="s">
         <v>565</v>
@@ -43067,7 +43137,7 @@
         <v>170</v>
       </c>
       <c r="D172" s="29" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E172" s="29" t="s">
         <v>1563</v>
@@ -43082,7 +43152,7 @@
         <v>1591</v>
       </c>
       <c r="I172" s="46" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="J172" s="29">
         <v>2016.2</v>
@@ -43344,7 +43414,9 @@
       <c r="O178" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="L159:L160"/>
+    <mergeCell ref="L124:L126"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="L24:L25"/>
@@ -43352,6 +43424,7 @@
     <mergeCell ref="L131:L133"/>
     <mergeCell ref="L43:L44"/>
     <mergeCell ref="L63:L64"/>
+    <mergeCell ref="L68:L70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -43393,9 +43466,19 @@
     <hyperlink ref="I44" r:id="rId36"/>
     <hyperlink ref="I63" r:id="rId37"/>
     <hyperlink ref="I64" r:id="rId38"/>
+    <hyperlink ref="I68" r:id="rId39"/>
+    <hyperlink ref="I69" r:id="rId40"/>
+    <hyperlink ref="I70" r:id="rId41"/>
+    <hyperlink ref="I159" r:id="rId42"/>
+    <hyperlink ref="I160" r:id="rId43"/>
+    <hyperlink ref="I124" r:id="rId44"/>
+    <hyperlink ref="I125" r:id="rId45"/>
+    <hyperlink ref="I126" r:id="rId46"/>
+    <hyperlink ref="I109" r:id="rId47"/>
+    <hyperlink ref="I102" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
 

--- a/主题分工情况记录.xlsx
+++ b/主题分工情况记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13935" windowHeight="8970" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13935" windowHeight="8970" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6763" uniqueCount="1807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7159" uniqueCount="1931">
   <si>
     <t>标题</t>
   </si>
@@ -16176,12 +16176,385 @@
     <t>http://www.ttelectronics.com/sites/default/files/resistors-datasheets/CHP.pdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Isabellenhuette</t>
+  </si>
+  <si>
+    <t>BRS</t>
+  </si>
+  <si>
+    <t>SMD电阻</t>
+  </si>
+  <si>
+    <t>新产品</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/BRS.PDF</t>
+  </si>
+  <si>
+    <t>2014.10.28</t>
+  </si>
+  <si>
+    <t>BVE</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/BVE.PDF</t>
+  </si>
+  <si>
+    <t>2015.9.16</t>
+  </si>
+  <si>
+    <t>BVH</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/BVH.PDF</t>
+  </si>
+  <si>
+    <t>数据手册无参考时间</t>
+  </si>
+  <si>
+    <t>BVN</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/BVN.PDF</t>
+  </si>
+  <si>
+    <t>BVR</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/BVR.PDF</t>
+  </si>
+  <si>
+    <t>2013.7.9</t>
+  </si>
+  <si>
+    <t>BVS</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/BVS.PDF</t>
+  </si>
+  <si>
+    <t>2014.9.19</t>
+  </si>
+  <si>
+    <t>BVT</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/BVT.PDF</t>
+  </si>
+  <si>
+    <t>2016.1.12</t>
+  </si>
+  <si>
+    <t>CMK</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/CMK.PDF</t>
+  </si>
+  <si>
+    <t>2016.4.15</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/CMP.PDF</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/CMS.PDF</t>
+  </si>
+  <si>
+    <t>LMS</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/LMS.PDF</t>
+  </si>
+  <si>
+    <t>2012.4.20</t>
+  </si>
+  <si>
+    <t>SMK</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/SMK.PDF</t>
+  </si>
+  <si>
+    <t>2013.11.13</t>
+  </si>
+  <si>
+    <t>SMK-R000</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/SMK-R000.PDF</t>
+  </si>
+  <si>
+    <t>2011.11.11</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/SMS.PDF</t>
+  </si>
+  <si>
+    <t>2016.1.27</t>
+  </si>
+  <si>
+    <t>SMS-R000</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/SMR-R000.PDF</t>
+  </si>
+  <si>
+    <t>2012.2.7</t>
+  </si>
+  <si>
+    <t>SMT</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/SMT.PDF</t>
+  </si>
+  <si>
+    <t>2015.12.14</t>
+  </si>
+  <si>
+    <t>SMT-R000</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/SMT-R000.PDF</t>
+  </si>
+  <si>
+    <t>2012.2.3</t>
+  </si>
+  <si>
+    <t>SMV</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/SMV.PDF</t>
+  </si>
+  <si>
+    <t>VLK</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/VLK.PDF</t>
+  </si>
+  <si>
+    <t>2013.4.18</t>
+  </si>
+  <si>
+    <t>VLP</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/VLP.PDF</t>
+  </si>
+  <si>
+    <t>VMI</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/VMI.PDF</t>
+  </si>
+  <si>
+    <t>2015,11,25</t>
+  </si>
+  <si>
+    <t>VMI-R000</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/VMI-R000.PDF</t>
+  </si>
+  <si>
+    <t>VMK</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/VMK.PDF</t>
+  </si>
+  <si>
+    <t>2015.12.18</t>
+  </si>
+  <si>
+    <t>VMP-A</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/VMP-A.PDF</t>
+  </si>
+  <si>
+    <t>2014.4.10</t>
+  </si>
+  <si>
+    <t>VMP</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/VMP.PDF</t>
+  </si>
+  <si>
+    <t>VMS</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/VMS.PDF</t>
+  </si>
+  <si>
+    <t>BAS</t>
+  </si>
+  <si>
+    <t>精密电阻</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/BAS.PDF</t>
+  </si>
+  <si>
+    <t>BKW</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/BKW.PDF</t>
+  </si>
+  <si>
+    <t>BVD</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/BVD.PDF</t>
+  </si>
+  <si>
+    <t>BVM-F</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/BVM-F.PDF</t>
+  </si>
+  <si>
+    <t>KVM</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/KVM.PDF</t>
+  </si>
+  <si>
+    <t>PLU</t>
+  </si>
+  <si>
+    <t>大功率电阻</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/PLU.PDF</t>
+  </si>
+  <si>
+    <t>2014.3.17</t>
+  </si>
+  <si>
+    <t>PMB</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/PMB.PDF</t>
+  </si>
+  <si>
+    <t>2005.12.12</t>
+  </si>
+  <si>
+    <t>PMH</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/PMH.PDF</t>
+  </si>
+  <si>
+    <t>2011.12.20</t>
+  </si>
+  <si>
+    <t>PMH-D</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/PMH-D.PDF</t>
+  </si>
+  <si>
+    <t>A-H</t>
+  </si>
+  <si>
+    <t>四端子电阻</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/A-H.PDF</t>
+  </si>
+  <si>
+    <t>2014.1.9</t>
+  </si>
+  <si>
+    <t>AZ-H</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/AZ-H.PDF</t>
+  </si>
+  <si>
+    <t>2014.6.24</t>
+  </si>
+  <si>
+    <t>PBH</t>
+  </si>
+  <si>
+    <t>二端子电阻</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/PBH.PDF</t>
+  </si>
+  <si>
+    <t>2012.6.6</t>
+  </si>
+  <si>
+    <t>PBV</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/PBV.PDF</t>
+  </si>
+  <si>
+    <t>PBV-Z</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/PBV-Z.PDF</t>
+  </si>
+  <si>
+    <t>2012.11.28</t>
+  </si>
+  <si>
+    <t>PSB</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/PSB.PDF</t>
+  </si>
+  <si>
+    <t>RTO-A</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/RTO-A.PDF</t>
+  </si>
+  <si>
+    <t>2014.2.5</t>
+  </si>
+  <si>
+    <t>RTO-B</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/RTO-B.PDF</t>
+  </si>
+  <si>
+    <t>2013.5.16</t>
+  </si>
+  <si>
+    <t>RUG-Z</t>
+  </si>
+  <si>
+    <t>http://www.isabellenhuettecn.com/PDF/RUG-Z.PDF</t>
+  </si>
+  <si>
+    <t>2012.6.13</t>
+  </si>
+  <si>
+    <t>Isabellenhuette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16335,9 +16708,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF1F497D"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF313131"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -16613,7 +16993,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -16910,9 +17290,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -16941,6 +17318,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -17264,7 +17668,7 @@
       <selection activeCell="L226" sqref="L226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="36.25" customWidth="1"/>
@@ -17278,23 +17682,23 @@
     <col min="14" max="14" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:14" ht="109.5" customHeight="1" thickBot="1">
+      <c r="A1" s="111" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-    </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -17338,7 +17742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" s="11" customFormat="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -17382,7 +17786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" s="11" customFormat="1">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -17426,7 +17830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" s="7" customFormat="1">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -17470,7 +17874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" s="13" customFormat="1">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -17508,7 +17912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" s="9" customFormat="1">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -17552,7 +17956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" s="9" customFormat="1">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -17596,7 +18000,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" s="13" customFormat="1">
       <c r="A9" s="12">
         <v>7</v>
       </c>
@@ -17634,7 +18038,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" s="13" customFormat="1">
       <c r="A10" s="12">
         <v>8</v>
       </c>
@@ -17672,7 +18076,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" s="5" customFormat="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -17710,7 +18114,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" s="7" customFormat="1">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -17754,7 +18158,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" s="5" customFormat="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -17792,7 +18196,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" s="7" customFormat="1">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -17836,7 +18240,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" s="7" customFormat="1">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -17880,7 +18284,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" s="9" customFormat="1">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -17924,7 +18328,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" s="5" customFormat="1" ht="16.5" customHeight="1">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -17962,7 +18366,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" s="5" customFormat="1">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -18000,7 +18404,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" s="9" customFormat="1">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -18044,7 +18448,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" s="9" customFormat="1">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -18088,7 +18492,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" s="7" customFormat="1">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -18132,7 +18536,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" s="7" customFormat="1">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -18176,7 +18580,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" s="5" customFormat="1">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -18214,7 +18618,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" s="5" customFormat="1">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -18252,7 +18656,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" s="5" customFormat="1">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -18290,7 +18694,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" s="5" customFormat="1">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -18328,7 +18732,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" s="7" customFormat="1">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -18372,7 +18776,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" s="5" customFormat="1">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -18410,7 +18814,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" s="7" customFormat="1">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -18454,7 +18858,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" s="9" customFormat="1">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -18498,7 +18902,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" s="9" customFormat="1">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -18540,7 +18944,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" s="9" customFormat="1">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -18582,7 +18986,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" s="9" customFormat="1">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -18624,7 +19028,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" s="5" customFormat="1">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -18662,7 +19066,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" s="5" customFormat="1">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -18700,7 +19104,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" s="5" customFormat="1">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -18738,7 +19142,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" s="7" customFormat="1">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -18782,7 +19186,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" s="7" customFormat="1">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -18826,7 +19230,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" s="7" customFormat="1">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -18870,7 +19274,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" s="7" customFormat="1">
       <c r="A40" s="6">
         <v>38</v>
       </c>
@@ -18914,7 +19318,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" s="7" customFormat="1">
       <c r="A41" s="6">
         <v>39</v>
       </c>
@@ -18958,7 +19362,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" s="7" customFormat="1">
       <c r="A42" s="6">
         <v>40</v>
       </c>
@@ -19002,7 +19406,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" s="7" customFormat="1">
       <c r="A43" s="6">
         <v>41</v>
       </c>
@@ -19046,7 +19450,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" s="7" customFormat="1">
       <c r="A44" s="6">
         <v>42</v>
       </c>
@@ -19090,7 +19494,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" s="7" customFormat="1">
       <c r="A45" s="6">
         <v>43</v>
       </c>
@@ -19134,7 +19538,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" s="7" customFormat="1">
       <c r="A46" s="6">
         <v>44</v>
       </c>
@@ -19176,7 +19580,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" s="7" customFormat="1">
       <c r="A47" s="6">
         <v>45</v>
       </c>
@@ -19220,7 +19624,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" s="7" customFormat="1">
       <c r="A48" s="6">
         <v>46</v>
       </c>
@@ -19264,7 +19668,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" s="7" customFormat="1">
       <c r="A49" s="6">
         <v>47</v>
       </c>
@@ -19308,7 +19712,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" s="5" customFormat="1">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -19352,7 +19756,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" s="7" customFormat="1">
       <c r="A51" s="6">
         <v>49</v>
       </c>
@@ -19396,7 +19800,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" s="9" customFormat="1">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -19438,7 +19842,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" s="9" customFormat="1">
       <c r="A53" s="8">
         <v>51</v>
       </c>
@@ -19480,7 +19884,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" s="9" customFormat="1">
       <c r="A54" s="8">
         <v>52</v>
       </c>
@@ -19522,7 +19926,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" s="9" customFormat="1">
       <c r="A55" s="8">
         <v>53</v>
       </c>
@@ -19564,7 +19968,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" s="9" customFormat="1">
       <c r="A56" s="8">
         <v>54</v>
       </c>
@@ -19606,7 +20010,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" s="9" customFormat="1">
       <c r="A57" s="8">
         <v>55</v>
       </c>
@@ -19648,7 +20052,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" s="9" customFormat="1">
       <c r="A58" s="8">
         <v>56</v>
       </c>
@@ -19690,7 +20094,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" s="9" customFormat="1">
       <c r="A59" s="8">
         <v>57</v>
       </c>
@@ -19732,7 +20136,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" s="9" customFormat="1">
       <c r="A60" s="8">
         <v>58</v>
       </c>
@@ -19774,7 +20178,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" s="19" customFormat="1">
       <c r="A61" s="18">
         <v>59</v>
       </c>
@@ -19818,7 +20222,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" s="19" customFormat="1">
       <c r="A62" s="18">
         <v>60</v>
       </c>
@@ -19862,7 +20266,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" s="19" customFormat="1">
       <c r="A63" s="18">
         <v>61</v>
       </c>
@@ -19906,7 +20310,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" s="19" customFormat="1">
       <c r="A64" s="18">
         <v>62</v>
       </c>
@@ -19950,7 +20354,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14" s="19" customFormat="1">
       <c r="A65" s="18">
         <v>63</v>
       </c>
@@ -19994,7 +20398,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" s="19" customFormat="1">
       <c r="A66" s="18">
         <v>64</v>
       </c>
@@ -20038,7 +20442,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" s="19" customFormat="1">
       <c r="A67" s="18">
         <v>65</v>
       </c>
@@ -20080,7 +20484,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" s="19" customFormat="1">
       <c r="A68" s="18">
         <v>66</v>
       </c>
@@ -20122,7 +20526,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="69" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" s="19" customFormat="1">
       <c r="A69" s="18">
         <v>67</v>
       </c>
@@ -20164,7 +20568,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14" s="19" customFormat="1">
       <c r="A70" s="18">
         <v>68</v>
       </c>
@@ -20206,7 +20610,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" s="19" customFormat="1">
       <c r="A71" s="20">
         <v>69</v>
       </c>
@@ -20248,7 +20652,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" s="36" customFormat="1">
       <c r="A72" s="33">
         <v>70</v>
       </c>
@@ -20290,7 +20694,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" s="36" customFormat="1">
       <c r="A73" s="33">
         <v>71</v>
       </c>
@@ -20332,7 +20736,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="31" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" s="31" customFormat="1" ht="14.25" thickBot="1">
       <c r="A74" s="29">
         <v>72</v>
       </c>
@@ -20374,7 +20778,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1">
       <c r="A75" s="33">
         <v>73</v>
       </c>
@@ -20414,7 +20818,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="76" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1">
       <c r="A76" s="33">
         <v>74</v>
       </c>
@@ -20454,7 +20858,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="77" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:14" s="31" customFormat="1">
       <c r="A77" s="29">
         <v>75</v>
       </c>
@@ -20496,7 +20900,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="78" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1">
       <c r="A78" s="33">
         <v>76</v>
       </c>
@@ -20538,7 +20942,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1">
       <c r="A79" s="33">
         <v>77</v>
       </c>
@@ -20580,7 +20984,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="80" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:14" s="31" customFormat="1">
       <c r="A80" s="29">
         <v>78</v>
       </c>
@@ -20622,7 +21026,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="81" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" s="31" customFormat="1">
       <c r="A81" s="29">
         <v>79</v>
       </c>
@@ -20664,7 +21068,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="82" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" s="31" customFormat="1">
       <c r="A82" s="29">
         <v>80</v>
       </c>
@@ -20706,7 +21110,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14" s="31" customFormat="1">
       <c r="A83" s="29">
         <v>81</v>
       </c>
@@ -20748,7 +21152,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:14" s="31" customFormat="1">
       <c r="A84" s="29">
         <v>82</v>
       </c>
@@ -20790,7 +21194,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="85" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:14" s="31" customFormat="1">
       <c r="A85" s="29">
         <v>83</v>
       </c>
@@ -20832,7 +21236,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="31" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" s="31" customFormat="1" ht="14.25" thickBot="1">
       <c r="A86" s="29">
         <v>84</v>
       </c>
@@ -20874,7 +21278,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="31" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" s="31" customFormat="1" ht="14.25" thickBot="1">
       <c r="A87" s="29">
         <v>85</v>
       </c>
@@ -20916,7 +21320,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="88" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1">
       <c r="A88" s="33">
         <v>86</v>
       </c>
@@ -20956,7 +21360,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="31" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" s="31" customFormat="1" ht="14.25" thickBot="1">
       <c r="A89" s="29">
         <v>87</v>
       </c>
@@ -20996,7 +21400,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="90" spans="1:14" s="31" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" s="31" customFormat="1" ht="14.25" thickBot="1">
       <c r="A90" s="29">
         <v>88</v>
       </c>
@@ -21038,7 +21442,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="31" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" s="31" customFormat="1" ht="14.25" thickBot="1">
       <c r="A91" s="29">
         <v>89</v>
       </c>
@@ -21080,7 +21484,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="31" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" s="31" customFormat="1" ht="14.25" thickBot="1">
       <c r="A92" s="29">
         <v>90</v>
       </c>
@@ -21122,7 +21526,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="93" spans="1:14" s="31" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" s="31" customFormat="1" ht="14.25" thickBot="1">
       <c r="A93" s="29">
         <v>91</v>
       </c>
@@ -21164,7 +21568,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="94" spans="1:14" s="31" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" s="31" customFormat="1" ht="14.25" thickBot="1">
       <c r="A94" s="29">
         <v>92</v>
       </c>
@@ -21206,7 +21610,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A95" s="38">
         <v>93</v>
       </c>
@@ -21244,7 +21648,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="96" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A96" s="38">
         <v>94</v>
       </c>
@@ -21282,7 +21686,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A97" s="38">
         <v>95</v>
       </c>
@@ -21320,7 +21724,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="98" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A98" s="38">
         <v>96</v>
       </c>
@@ -21358,7 +21762,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="99" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A99" s="38">
         <v>97</v>
       </c>
@@ -21396,7 +21800,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="100" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A100" s="38">
         <v>98</v>
       </c>
@@ -21434,7 +21838,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="101" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A101" s="38">
         <v>99</v>
       </c>
@@ -21472,7 +21876,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="102" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A102" s="38">
         <v>100</v>
       </c>
@@ -21510,7 +21914,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="103" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A103" s="38">
         <v>101</v>
       </c>
@@ -21548,7 +21952,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="104" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A104" s="38">
         <v>102</v>
       </c>
@@ -21586,7 +21990,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="105" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A105" s="38">
         <v>103</v>
       </c>
@@ -21624,7 +22028,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="106" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A106" s="38">
         <v>104</v>
       </c>
@@ -21662,7 +22066,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="107" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A107" s="38">
         <v>105</v>
       </c>
@@ -21700,7 +22104,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="108" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A108" s="38">
         <v>106</v>
       </c>
@@ -21738,7 +22142,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="109" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A109" s="38">
         <v>107</v>
       </c>
@@ -21776,7 +22180,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="110" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A110" s="38">
         <v>108</v>
       </c>
@@ -21814,7 +22218,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="111" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A111" s="38">
         <v>109</v>
       </c>
@@ -21852,7 +22256,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="112" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A112" s="38">
         <v>110</v>
       </c>
@@ -21890,7 +22294,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="113" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A113" s="38">
         <v>111</v>
       </c>
@@ -21928,7 +22332,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="114" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A114" s="38">
         <v>112</v>
       </c>
@@ -21966,7 +22370,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="115" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" s="40" customFormat="1" ht="14.25" thickBot="1">
       <c r="A115" s="38">
         <v>113</v>
       </c>
@@ -22004,7 +22408,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="116" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A116" s="42">
         <v>114</v>
       </c>
@@ -22042,7 +22446,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A117" s="42">
         <v>115</v>
       </c>
@@ -22080,7 +22484,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="118" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A118" s="42">
         <v>116</v>
       </c>
@@ -22118,7 +22522,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="119" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A119" s="42">
         <v>117</v>
       </c>
@@ -22156,7 +22560,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="120" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A120" s="42">
         <v>118</v>
       </c>
@@ -22194,7 +22598,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="121" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A121" s="42">
         <v>119</v>
       </c>
@@ -22232,7 +22636,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="122" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A122" s="42">
         <v>120</v>
       </c>
@@ -22270,7 +22674,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="123" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A123" s="42">
         <v>121</v>
       </c>
@@ -22308,7 +22712,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="124" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1">
       <c r="A124" s="33">
         <v>122</v>
       </c>
@@ -22346,7 +22750,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="125" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A125" s="42">
         <v>123</v>
       </c>
@@ -22384,7 +22788,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="126" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A126" s="42">
         <v>124</v>
       </c>
@@ -22422,7 +22826,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="127" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A127" s="42">
         <v>125</v>
       </c>
@@ -22460,7 +22864,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="128" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A128" s="42">
         <v>126</v>
       </c>
@@ -22498,7 +22902,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="129" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A129" s="42">
         <v>127</v>
       </c>
@@ -22536,7 +22940,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="130" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A130" s="42">
         <v>128</v>
       </c>
@@ -22574,7 +22978,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="131" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1">
       <c r="A131" s="33">
         <v>129</v>
       </c>
@@ -22612,7 +23016,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="132" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A132" s="42">
         <v>130</v>
       </c>
@@ -22650,7 +23054,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="133" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A133" s="42">
         <v>131</v>
       </c>
@@ -22688,7 +23092,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="134" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A134" s="42">
         <v>132</v>
       </c>
@@ -22726,7 +23130,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="135" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A135" s="42">
         <v>133</v>
       </c>
@@ -22764,7 +23168,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="136" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1">
       <c r="A136" s="33">
         <v>134</v>
       </c>
@@ -22802,7 +23206,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="137" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1">
       <c r="A137" s="33">
         <v>135</v>
       </c>
@@ -22840,7 +23244,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="138" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1">
       <c r="A138" s="33">
         <v>136</v>
       </c>
@@ -22878,7 +23282,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="139" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1">
       <c r="A139" s="33">
         <v>137</v>
       </c>
@@ -22916,7 +23320,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="140" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1">
       <c r="A140" s="33">
         <v>138</v>
       </c>
@@ -22954,7 +23358,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="141" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1">
       <c r="A141" s="33">
         <v>139</v>
       </c>
@@ -22992,7 +23396,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="142" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A142" s="42">
         <v>140</v>
       </c>
@@ -23030,7 +23434,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="143" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" s="36" customFormat="1" ht="14.25" thickBot="1">
       <c r="A143" s="33">
         <v>141</v>
       </c>
@@ -23068,7 +23472,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="144" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A144" s="42">
         <v>142</v>
       </c>
@@ -23106,7 +23510,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="145" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" s="45" customFormat="1" ht="14.25" thickBot="1">
       <c r="A145" s="42">
         <v>143</v>
       </c>
@@ -23144,7 +23548,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:14" ht="15">
       <c r="A146" s="53">
         <v>1</v>
       </c>
@@ -23180,7 +23584,7 @@
       <c r="M146" s="72"/>
       <c r="N146" s="72"/>
     </row>
-    <row r="147" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:14" ht="15">
       <c r="A147" s="53">
         <v>2</v>
       </c>
@@ -23216,7 +23620,7 @@
       <c r="M147" s="72"/>
       <c r="N147" s="72"/>
     </row>
-    <row r="148" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:14" ht="15">
       <c r="A148" s="53">
         <v>3</v>
       </c>
@@ -23252,7 +23656,7 @@
       <c r="M148" s="72"/>
       <c r="N148" s="72"/>
     </row>
-    <row r="149" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:14" ht="15">
       <c r="A149" s="53">
         <v>4</v>
       </c>
@@ -23288,7 +23692,7 @@
       <c r="M149" s="72"/>
       <c r="N149" s="72"/>
     </row>
-    <row r="150" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:14" ht="15">
       <c r="A150" s="53">
         <v>5</v>
       </c>
@@ -23324,7 +23728,7 @@
       <c r="M150" s="72"/>
       <c r="N150" s="72"/>
     </row>
-    <row r="151" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:14" ht="15">
       <c r="A151" s="53">
         <v>6</v>
       </c>
@@ -23362,7 +23766,7 @@
       <c r="M151" s="72"/>
       <c r="N151" s="72"/>
     </row>
-    <row r="152" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:14" s="62" customFormat="1" ht="15">
       <c r="A152" s="59">
         <v>7</v>
       </c>
@@ -23400,7 +23804,7 @@
       <c r="M152" s="73"/>
       <c r="N152" s="73"/>
     </row>
-    <row r="153" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:14" ht="15">
       <c r="A153" s="53">
         <v>8</v>
       </c>
@@ -23438,7 +23842,7 @@
       <c r="M153" s="72"/>
       <c r="N153" s="72"/>
     </row>
-    <row r="154" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:14" ht="15">
       <c r="A154" s="53">
         <v>9</v>
       </c>
@@ -23476,7 +23880,7 @@
       <c r="M154" s="72"/>
       <c r="N154" s="72"/>
     </row>
-    <row r="155" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:14" ht="15">
       <c r="A155" s="53">
         <v>10</v>
       </c>
@@ -23514,7 +23918,7 @@
       <c r="M155" s="72"/>
       <c r="N155" s="72"/>
     </row>
-    <row r="156" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:14" s="62" customFormat="1" ht="15">
       <c r="A156" s="59">
         <v>11</v>
       </c>
@@ -23552,7 +23956,7 @@
       <c r="M156" s="73"/>
       <c r="N156" s="73"/>
     </row>
-    <row r="157" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:14" s="62" customFormat="1" ht="15">
       <c r="A157" s="59">
         <v>12</v>
       </c>
@@ -23590,7 +23994,7 @@
       <c r="M157" s="73"/>
       <c r="N157" s="73"/>
     </row>
-    <row r="158" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:14" ht="15">
       <c r="A158" s="53">
         <v>13</v>
       </c>
@@ -23628,7 +24032,7 @@
       <c r="M158" s="72"/>
       <c r="N158" s="72"/>
     </row>
-    <row r="159" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:14" ht="15">
       <c r="A159" s="53">
         <v>14</v>
       </c>
@@ -23666,7 +24070,7 @@
       <c r="M159" s="72"/>
       <c r="N159" s="72"/>
     </row>
-    <row r="160" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:14" ht="15">
       <c r="A160" s="53">
         <v>15</v>
       </c>
@@ -23704,7 +24108,7 @@
       <c r="M160" s="72"/>
       <c r="N160" s="72"/>
     </row>
-    <row r="161" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:14" ht="15">
       <c r="A161" s="53">
         <v>16</v>
       </c>
@@ -23742,7 +24146,7 @@
       <c r="M161" s="72"/>
       <c r="N161" s="72"/>
     </row>
-    <row r="162" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:14" s="62" customFormat="1" ht="15">
       <c r="A162" s="59">
         <v>17</v>
       </c>
@@ -23780,7 +24184,7 @@
       <c r="M162" s="73"/>
       <c r="N162" s="73"/>
     </row>
-    <row r="163" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:14" s="62" customFormat="1" ht="15">
       <c r="A163" s="59">
         <v>18</v>
       </c>
@@ -23818,7 +24222,7 @@
       <c r="M163" s="73"/>
       <c r="N163" s="73"/>
     </row>
-    <row r="164" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:14" s="62" customFormat="1" ht="15">
       <c r="A164" s="59">
         <v>19</v>
       </c>
@@ -23856,7 +24260,7 @@
       <c r="M164" s="73"/>
       <c r="N164" s="73"/>
     </row>
-    <row r="165" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:14" s="62" customFormat="1" ht="15">
       <c r="A165" s="59">
         <v>20</v>
       </c>
@@ -23894,7 +24298,7 @@
       <c r="M165" s="73"/>
       <c r="N165" s="73"/>
     </row>
-    <row r="166" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:14" ht="15">
       <c r="A166" s="53">
         <v>21</v>
       </c>
@@ -23932,7 +24336,7 @@
       <c r="M166" s="72"/>
       <c r="N166" s="72"/>
     </row>
-    <row r="167" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:14" ht="15">
       <c r="A167" s="53">
         <v>22</v>
       </c>
@@ -23970,7 +24374,7 @@
       <c r="M167" s="72"/>
       <c r="N167" s="72"/>
     </row>
-    <row r="168" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:14" ht="15">
       <c r="A168" s="53">
         <v>23</v>
       </c>
@@ -24008,7 +24412,7 @@
       <c r="M168" s="72"/>
       <c r="N168" s="72"/>
     </row>
-    <row r="169" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:14" ht="15">
       <c r="A169" s="53">
         <v>24</v>
       </c>
@@ -24046,7 +24450,7 @@
       <c r="M169" s="72"/>
       <c r="N169" s="72"/>
     </row>
-    <row r="170" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:14" ht="15">
       <c r="A170" s="53">
         <v>25</v>
       </c>
@@ -24084,7 +24488,7 @@
       <c r="M170" s="72"/>
       <c r="N170" s="72"/>
     </row>
-    <row r="171" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:14" ht="15">
       <c r="A171" s="53">
         <v>26</v>
       </c>
@@ -24122,7 +24526,7 @@
       <c r="M171" s="72"/>
       <c r="N171" s="72"/>
     </row>
-    <row r="172" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:14" ht="15">
       <c r="A172" s="53">
         <v>27</v>
       </c>
@@ -24160,7 +24564,7 @@
       <c r="M172" s="72"/>
       <c r="N172" s="72"/>
     </row>
-    <row r="173" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:14" ht="15">
       <c r="A173" s="53">
         <v>28</v>
       </c>
@@ -24198,7 +24602,7 @@
       <c r="M173" s="72"/>
       <c r="N173" s="72"/>
     </row>
-    <row r="174" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:14" ht="15">
       <c r="A174" s="53">
         <v>29</v>
       </c>
@@ -24236,7 +24640,7 @@
       <c r="M174" s="72"/>
       <c r="N174" s="72"/>
     </row>
-    <row r="175" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:14" ht="15">
       <c r="A175" s="53">
         <v>30</v>
       </c>
@@ -24274,7 +24678,7 @@
       <c r="M175" s="72"/>
       <c r="N175" s="72"/>
     </row>
-    <row r="176" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:14" ht="15">
       <c r="A176" s="53">
         <v>31</v>
       </c>
@@ -24312,7 +24716,7 @@
       <c r="M176" s="72"/>
       <c r="N176" s="72"/>
     </row>
-    <row r="177" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:14" s="71" customFormat="1" ht="15">
       <c r="A177" s="68">
         <v>32</v>
       </c>
@@ -24354,7 +24758,7 @@
       </c>
       <c r="N177" s="74"/>
     </row>
-    <row r="178" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:14" ht="15">
       <c r="A178" s="53">
         <v>33</v>
       </c>
@@ -24392,7 +24796,7 @@
       <c r="M178" s="72"/>
       <c r="N178" s="72"/>
     </row>
-    <row r="179" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:14" ht="15">
       <c r="A179" s="53">
         <v>34</v>
       </c>
@@ -24430,7 +24834,7 @@
       <c r="M179" s="72"/>
       <c r="N179" s="72"/>
     </row>
-    <row r="180" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:14" ht="15">
       <c r="A180" s="53">
         <v>35</v>
       </c>
@@ -24470,7 +24874,7 @@
       <c r="M180" s="72"/>
       <c r="N180" s="72"/>
     </row>
-    <row r="181" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:14" s="71" customFormat="1" ht="15">
       <c r="A181" s="68">
         <v>36</v>
       </c>
@@ -24512,7 +24916,7 @@
       </c>
       <c r="N181" s="74"/>
     </row>
-    <row r="182" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:14" ht="15">
       <c r="A182" s="53">
         <v>37</v>
       </c>
@@ -24550,7 +24954,7 @@
       <c r="M182" s="72"/>
       <c r="N182" s="72"/>
     </row>
-    <row r="183" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:14" ht="15">
       <c r="A183" s="53">
         <v>38</v>
       </c>
@@ -24588,7 +24992,7 @@
       <c r="M183" s="72"/>
       <c r="N183" s="72"/>
     </row>
-    <row r="184" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:14" s="71" customFormat="1" ht="15">
       <c r="A184" s="68">
         <v>39</v>
       </c>
@@ -24630,7 +25034,7 @@
       </c>
       <c r="N184" s="74"/>
     </row>
-    <row r="185" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:14" ht="15">
       <c r="A185" s="53">
         <v>40</v>
       </c>
@@ -24668,7 +25072,7 @@
       <c r="M185" s="72"/>
       <c r="N185" s="72"/>
     </row>
-    <row r="186" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:14" ht="15">
       <c r="A186" s="53">
         <v>41</v>
       </c>
@@ -24706,7 +25110,7 @@
       <c r="M186" s="72"/>
       <c r="N186" s="72"/>
     </row>
-    <row r="187" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:14" ht="15">
       <c r="A187" s="53">
         <v>42</v>
       </c>
@@ -24744,7 +25148,7 @@
       <c r="M187" s="72"/>
       <c r="N187" s="72"/>
     </row>
-    <row r="188" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:14" ht="15">
       <c r="A188" s="53">
         <v>43</v>
       </c>
@@ -24782,7 +25186,7 @@
       <c r="M188" s="72"/>
       <c r="N188" s="72"/>
     </row>
-    <row r="189" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:14" s="71" customFormat="1" ht="15">
       <c r="A189" s="68">
         <v>44</v>
       </c>
@@ -24824,7 +25228,7 @@
       </c>
       <c r="N189" s="74"/>
     </row>
-    <row r="190" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:14" s="71" customFormat="1" ht="15">
       <c r="A190" s="68">
         <v>45</v>
       </c>
@@ -24864,7 +25268,7 @@
       </c>
       <c r="N190" s="74"/>
     </row>
-    <row r="191" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:14" ht="15">
       <c r="A191" s="53">
         <v>46</v>
       </c>
@@ -24902,7 +25306,7 @@
       <c r="M191" s="72"/>
       <c r="N191" s="72"/>
     </row>
-    <row r="192" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:14" ht="15">
       <c r="A192" s="53">
         <v>47</v>
       </c>
@@ -24940,7 +25344,7 @@
       <c r="M192" s="72"/>
       <c r="N192" s="72"/>
     </row>
-    <row r="193" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:14" ht="15">
       <c r="A193" s="53">
         <v>48</v>
       </c>
@@ -24978,7 +25382,7 @@
       <c r="M193" s="72"/>
       <c r="N193" s="72"/>
     </row>
-    <row r="194" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:14" ht="15">
       <c r="A194" s="53">
         <v>49</v>
       </c>
@@ -25016,7 +25420,7 @@
       <c r="M194" s="72"/>
       <c r="N194" s="72"/>
     </row>
-    <row r="195" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:14" ht="15">
       <c r="A195" s="53">
         <v>50</v>
       </c>
@@ -25054,7 +25458,7 @@
       <c r="M195" s="72"/>
       <c r="N195" s="72"/>
     </row>
-    <row r="196" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:14" s="71" customFormat="1" ht="15">
       <c r="A196" s="68">
         <v>51</v>
       </c>
@@ -25096,7 +25500,7 @@
       </c>
       <c r="N196" s="74"/>
     </row>
-    <row r="197" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:14" s="71" customFormat="1" ht="15">
       <c r="A197" s="68">
         <v>52</v>
       </c>
@@ -25138,7 +25542,7 @@
       </c>
       <c r="N197" s="74"/>
     </row>
-    <row r="198" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:14" ht="15">
       <c r="A198" s="53">
         <v>53</v>
       </c>
@@ -25176,7 +25580,7 @@
       <c r="M198" s="72"/>
       <c r="N198" s="72"/>
     </row>
-    <row r="199" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:14" ht="15">
       <c r="A199" s="53">
         <v>54</v>
       </c>
@@ -25214,7 +25618,7 @@
       <c r="M199" s="72"/>
       <c r="N199" s="72"/>
     </row>
-    <row r="200" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:14" ht="15">
       <c r="A200" s="53">
         <v>55</v>
       </c>
@@ -25252,7 +25656,7 @@
       <c r="M200" s="72"/>
       <c r="N200" s="72"/>
     </row>
-    <row r="201" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:14" s="62" customFormat="1" ht="15">
       <c r="A201" s="59">
         <v>56</v>
       </c>
@@ -25290,7 +25694,7 @@
       <c r="M201" s="73"/>
       <c r="N201" s="73"/>
     </row>
-    <row r="202" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:14" s="62" customFormat="1" ht="15">
       <c r="A202" s="59">
         <v>57</v>
       </c>
@@ -25328,7 +25732,7 @@
       <c r="M202" s="73"/>
       <c r="N202" s="73"/>
     </row>
-    <row r="203" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:14" ht="15">
       <c r="A203" s="53">
         <v>58</v>
       </c>
@@ -25366,7 +25770,7 @@
       <c r="M203" s="72"/>
       <c r="N203" s="72"/>
     </row>
-    <row r="204" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:14" ht="15">
       <c r="A204" s="53">
         <v>59</v>
       </c>
@@ -25404,7 +25808,7 @@
       <c r="M204" s="72"/>
       <c r="N204" s="72"/>
     </row>
-    <row r="205" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:14" ht="15">
       <c r="A205" s="53">
         <v>60</v>
       </c>
@@ -25442,7 +25846,7 @@
       <c r="M205" s="72"/>
       <c r="N205" s="72"/>
     </row>
-    <row r="206" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:14" ht="15">
       <c r="A206" s="53">
         <v>61</v>
       </c>
@@ -25480,7 +25884,7 @@
       <c r="M206" s="72"/>
       <c r="N206" s="72"/>
     </row>
-    <row r="207" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:14" ht="15">
       <c r="A207" s="53">
         <v>62</v>
       </c>
@@ -25518,7 +25922,7 @@
       <c r="M207" s="72"/>
       <c r="N207" s="72"/>
     </row>
-    <row r="208" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:14" ht="15">
       <c r="A208" s="53">
         <v>63</v>
       </c>
@@ -25556,7 +25960,7 @@
       <c r="M208" s="72"/>
       <c r="N208" s="72"/>
     </row>
-    <row r="209" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:14" s="71" customFormat="1" ht="15">
       <c r="A209" s="68">
         <v>64</v>
       </c>
@@ -25598,7 +26002,7 @@
       </c>
       <c r="N209" s="74"/>
     </row>
-    <row r="210" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:14" ht="15">
       <c r="A210" s="53">
         <v>65</v>
       </c>
@@ -25636,7 +26040,7 @@
       <c r="M210" s="72"/>
       <c r="N210" s="72"/>
     </row>
-    <row r="211" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:14" ht="15">
       <c r="A211" s="53">
         <v>66</v>
       </c>
@@ -25674,7 +26078,7 @@
       <c r="M211" s="72"/>
       <c r="N211" s="72"/>
     </row>
-    <row r="212" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:14" ht="15">
       <c r="A212" s="53">
         <v>67</v>
       </c>
@@ -25712,7 +26116,7 @@
       <c r="M212" s="72"/>
       <c r="N212" s="72"/>
     </row>
-    <row r="213" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:14" s="71" customFormat="1" ht="15">
       <c r="A213" s="68">
         <v>68</v>
       </c>
@@ -25754,7 +26158,7 @@
       </c>
       <c r="N213" s="74"/>
     </row>
-    <row r="214" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:14" s="71" customFormat="1" ht="15">
       <c r="A214" s="68">
         <v>69</v>
       </c>
@@ -25796,7 +26200,7 @@
       </c>
       <c r="N214" s="74"/>
     </row>
-    <row r="215" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:14" ht="15">
       <c r="A215" s="53">
         <v>70</v>
       </c>
@@ -25834,7 +26238,7 @@
       <c r="M215" s="72"/>
       <c r="N215" s="72"/>
     </row>
-    <row r="216" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:14" ht="15">
       <c r="A216" s="53">
         <v>71</v>
       </c>
@@ -25872,7 +26276,7 @@
       <c r="M216" s="72"/>
       <c r="N216" s="72"/>
     </row>
-    <row r="217" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:14" ht="15">
       <c r="A217" s="53">
         <v>72</v>
       </c>
@@ -25910,7 +26314,7 @@
       <c r="M217" s="72"/>
       <c r="N217" s="72"/>
     </row>
-    <row r="218" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:14" ht="15">
       <c r="A218" s="53">
         <v>73</v>
       </c>
@@ -25948,7 +26352,7 @@
       <c r="M218" s="72"/>
       <c r="N218" s="72"/>
     </row>
-    <row r="219" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:14" ht="15">
       <c r="A219" s="53">
         <v>74</v>
       </c>
@@ -25986,7 +26390,7 @@
       <c r="M219" s="72"/>
       <c r="N219" s="72"/>
     </row>
-    <row r="220" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:14" s="71" customFormat="1" ht="15">
       <c r="A220" s="68">
         <v>75</v>
       </c>
@@ -26028,7 +26432,7 @@
       </c>
       <c r="N220" s="74"/>
     </row>
-    <row r="221" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:14" ht="15">
       <c r="A221" s="53">
         <v>76</v>
       </c>
@@ -26066,7 +26470,7 @@
       <c r="M221" s="72"/>
       <c r="N221" s="72"/>
     </row>
-    <row r="222" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:14" s="71" customFormat="1" ht="15">
       <c r="A222" s="68">
         <v>77</v>
       </c>
@@ -26108,7 +26512,7 @@
       </c>
       <c r="N222" s="74"/>
     </row>
-    <row r="223" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:14" ht="15">
       <c r="A223" s="53">
         <v>78</v>
       </c>
@@ -26146,7 +26550,7 @@
       <c r="M223" s="72"/>
       <c r="N223" s="72"/>
     </row>
-    <row r="224" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:14" ht="15">
       <c r="A224" s="53">
         <v>79</v>
       </c>
@@ -26184,7 +26588,7 @@
       <c r="M224" s="72"/>
       <c r="N224" s="72"/>
     </row>
-    <row r="225" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:14" ht="15">
       <c r="A225" s="53">
         <v>80</v>
       </c>
@@ -26222,7 +26626,7 @@
       <c r="M225" s="72"/>
       <c r="N225" s="72"/>
     </row>
-    <row r="226" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:14" ht="15">
       <c r="A226" s="53">
         <v>81</v>
       </c>
@@ -26260,7 +26664,7 @@
       <c r="M226" s="72"/>
       <c r="N226" s="72"/>
     </row>
-    <row r="227" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:14" s="5" customFormat="1">
       <c r="A227" s="33">
         <v>82</v>
       </c>
@@ -26302,7 +26706,7 @@
       </c>
       <c r="N227" s="51"/>
     </row>
-    <row r="228" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:14" ht="15">
       <c r="A228" s="53">
         <v>83</v>
       </c>
@@ -26340,7 +26744,7 @@
       <c r="M228" s="72"/>
       <c r="N228" s="72"/>
     </row>
-    <row r="229" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:14" ht="15">
       <c r="A229" s="53">
         <v>84</v>
       </c>
@@ -26378,7 +26782,7 @@
       <c r="M229" s="72"/>
       <c r="N229" s="72"/>
     </row>
-    <row r="230" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:14" ht="15">
       <c r="A230" s="53">
         <v>85</v>
       </c>
@@ -26416,7 +26820,7 @@
       <c r="M230" s="72"/>
       <c r="N230" s="72"/>
     </row>
-    <row r="231" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:14" ht="15">
       <c r="A231" s="53">
         <v>86</v>
       </c>
@@ -26454,7 +26858,7 @@
       <c r="M231" s="72"/>
       <c r="N231" s="72"/>
     </row>
-    <row r="232" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:14" s="71" customFormat="1" ht="15">
       <c r="A232" s="68">
         <v>87</v>
       </c>
@@ -26496,7 +26900,7 @@
       </c>
       <c r="N232" s="74"/>
     </row>
-    <row r="233" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:14" ht="15">
       <c r="A233" s="53">
         <v>88</v>
       </c>
@@ -26534,7 +26938,7 @@
       <c r="M233" s="72"/>
       <c r="N233" s="72"/>
     </row>
-    <row r="234" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:14" ht="15">
       <c r="A234" s="53">
         <v>89</v>
       </c>
@@ -26572,7 +26976,7 @@
       <c r="M234" s="72"/>
       <c r="N234" s="72"/>
     </row>
-    <row r="235" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:14" ht="15">
       <c r="A235" s="53">
         <v>90</v>
       </c>
@@ -26610,7 +27014,7 @@
       <c r="M235" s="72"/>
       <c r="N235" s="72"/>
     </row>
-    <row r="236" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:14" ht="15">
       <c r="A236" s="53">
         <v>91</v>
       </c>
@@ -26648,7 +27052,7 @@
       <c r="M236" s="72"/>
       <c r="N236" s="72"/>
     </row>
-    <row r="237" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:14" s="71" customFormat="1" ht="15">
       <c r="A237" s="68">
         <v>92</v>
       </c>
@@ -26690,7 +27094,7 @@
       </c>
       <c r="N237" s="74"/>
     </row>
-    <row r="238" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:14" ht="15">
       <c r="A238" s="53">
         <v>93</v>
       </c>
@@ -26728,7 +27132,7 @@
       <c r="M238" s="72"/>
       <c r="N238" s="72"/>
     </row>
-    <row r="239" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:14" ht="15">
       <c r="A239" s="53">
         <v>94</v>
       </c>
@@ -26766,7 +27170,7 @@
       <c r="M239" s="72"/>
       <c r="N239" s="72"/>
     </row>
-    <row r="240" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:14" ht="15">
       <c r="A240" s="53">
         <v>95</v>
       </c>
@@ -26804,7 +27208,7 @@
       <c r="M240" s="72"/>
       <c r="N240" s="72"/>
     </row>
-    <row r="241" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:14" s="5" customFormat="1">
       <c r="A241" s="33">
         <v>96</v>
       </c>
@@ -26844,7 +27248,7 @@
       </c>
       <c r="N241" s="51"/>
     </row>
-    <row r="242" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:14" ht="15">
       <c r="A242" s="53">
         <v>97</v>
       </c>
@@ -26882,7 +27286,7 @@
       <c r="M242" s="72"/>
       <c r="N242" s="72"/>
     </row>
-    <row r="243" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:14" ht="15">
       <c r="A243" s="53">
         <v>98</v>
       </c>
@@ -26920,7 +27324,7 @@
       <c r="M243" s="72"/>
       <c r="N243" s="72"/>
     </row>
-    <row r="244" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:14" ht="15">
       <c r="A244" s="53">
         <v>99</v>
       </c>
@@ -26958,7 +27362,7 @@
       <c r="M244" s="72"/>
       <c r="N244" s="72"/>
     </row>
-    <row r="245" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:14" ht="15">
       <c r="A245" s="53">
         <v>100</v>
       </c>
@@ -26996,7 +27400,7 @@
       <c r="M245" s="72"/>
       <c r="N245" s="72"/>
     </row>
-    <row r="246" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:14" ht="15">
       <c r="A246" s="53">
         <v>101</v>
       </c>
@@ -27034,7 +27438,7 @@
       <c r="M246" s="72"/>
       <c r="N246" s="72"/>
     </row>
-    <row r="247" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:14" ht="15">
       <c r="A247" s="53">
         <v>102</v>
       </c>
@@ -27072,7 +27476,7 @@
       <c r="M247" s="72"/>
       <c r="N247" s="72"/>
     </row>
-    <row r="248" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:14" ht="15">
       <c r="A248" s="53">
         <v>103</v>
       </c>
@@ -27110,7 +27514,7 @@
       <c r="M248" s="72"/>
       <c r="N248" s="72"/>
     </row>
-    <row r="249" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:14" s="71" customFormat="1" ht="15">
       <c r="A249" s="68">
         <v>104</v>
       </c>
@@ -27152,7 +27556,7 @@
       </c>
       <c r="N249" s="74"/>
     </row>
-    <row r="250" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:14" ht="15">
       <c r="A250" s="53">
         <v>105</v>
       </c>
@@ -27190,7 +27594,7 @@
       <c r="M250" s="72"/>
       <c r="N250" s="72"/>
     </row>
-    <row r="251" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:14" ht="15">
       <c r="A251" s="53">
         <v>106</v>
       </c>
@@ -27228,7 +27632,7 @@
       <c r="M251" s="72"/>
       <c r="N251" s="72"/>
     </row>
-    <row r="252" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:14" ht="15">
       <c r="A252" s="53">
         <v>107</v>
       </c>
@@ -27266,7 +27670,7 @@
       <c r="M252" s="72"/>
       <c r="N252" s="72"/>
     </row>
-    <row r="253" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:14" ht="15">
       <c r="A253" s="53">
         <v>108</v>
       </c>
@@ -27304,7 +27708,7 @@
       <c r="M253" s="72"/>
       <c r="N253" s="72"/>
     </row>
-    <row r="254" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:14" ht="15">
       <c r="A254" s="53">
         <v>109</v>
       </c>
@@ -27342,7 +27746,7 @@
       <c r="M254" s="72"/>
       <c r="N254" s="72"/>
     </row>
-    <row r="255" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:14" ht="15">
       <c r="A255" s="53">
         <v>110</v>
       </c>
@@ -27380,7 +27784,7 @@
       <c r="M255" s="72"/>
       <c r="N255" s="72"/>
     </row>
-    <row r="256" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:14" ht="15">
       <c r="A256" s="53">
         <v>111</v>
       </c>
@@ -27418,7 +27822,7 @@
       <c r="M256" s="72"/>
       <c r="N256" s="72"/>
     </row>
-    <row r="257" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:14" ht="15">
       <c r="A257" s="53">
         <v>112</v>
       </c>
@@ -27456,7 +27860,7 @@
       <c r="M257" s="72"/>
       <c r="N257" s="72"/>
     </row>
-    <row r="258" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:14" ht="15">
       <c r="A258" s="53">
         <v>113</v>
       </c>
@@ -27494,7 +27898,7 @@
       <c r="M258" s="72"/>
       <c r="N258" s="72"/>
     </row>
-    <row r="259" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A259" s="59">
         <v>114</v>
       </c>
@@ -27530,7 +27934,7 @@
       <c r="M259" s="75"/>
       <c r="N259" s="75"/>
     </row>
-    <row r="260" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A260" s="59">
         <v>115</v>
       </c>
@@ -27566,7 +27970,7 @@
       <c r="M260" s="75"/>
       <c r="N260" s="75"/>
     </row>
-    <row r="261" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A261" s="59">
         <v>116</v>
       </c>
@@ -27602,7 +28006,7 @@
       <c r="M261" s="75"/>
       <c r="N261" s="75"/>
     </row>
-    <row r="262" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A262" s="59">
         <v>117</v>
       </c>
@@ -27638,7 +28042,7 @@
       <c r="M262" s="75"/>
       <c r="N262" s="75"/>
     </row>
-    <row r="263" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A263" s="59">
         <v>118</v>
       </c>
@@ -27674,7 +28078,7 @@
       <c r="M263" s="75"/>
       <c r="N263" s="75"/>
     </row>
-    <row r="264" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A264" s="59">
         <v>119</v>
       </c>
@@ -27710,7 +28114,7 @@
       <c r="M264" s="75"/>
       <c r="N264" s="75"/>
     </row>
-    <row r="265" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A265" s="59">
         <v>120</v>
       </c>
@@ -27746,7 +28150,7 @@
       <c r="M265" s="75"/>
       <c r="N265" s="75"/>
     </row>
-    <row r="266" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A266" s="59">
         <v>121</v>
       </c>
@@ -27782,7 +28186,7 @@
       <c r="M266" s="75"/>
       <c r="N266" s="75"/>
     </row>
-    <row r="267" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A267" s="59">
         <v>122</v>
       </c>
@@ -27818,7 +28222,7 @@
       <c r="M267" s="75"/>
       <c r="N267" s="75"/>
     </row>
-    <row r="268" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A268" s="59">
         <v>123</v>
       </c>
@@ -27854,7 +28258,7 @@
       <c r="M268" s="75"/>
       <c r="N268" s="75"/>
     </row>
-    <row r="269" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A269" s="59">
         <v>124</v>
       </c>
@@ -27890,7 +28294,7 @@
       <c r="M269" s="75"/>
       <c r="N269" s="75"/>
     </row>
-    <row r="270" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A270" s="59">
         <v>125</v>
       </c>
@@ -27926,7 +28330,7 @@
       <c r="M270" s="75"/>
       <c r="N270" s="75"/>
     </row>
-    <row r="271" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A271" s="59">
         <v>126</v>
       </c>
@@ -27962,7 +28366,7 @@
       <c r="M271" s="75"/>
       <c r="N271" s="75"/>
     </row>
-    <row r="272" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A272" s="59">
         <v>127</v>
       </c>
@@ -27998,7 +28402,7 @@
       <c r="M272" s="75"/>
       <c r="N272" s="75"/>
     </row>
-    <row r="273" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A273" s="59">
         <v>128</v>
       </c>
@@ -28034,7 +28438,7 @@
       <c r="M273" s="75"/>
       <c r="N273" s="75"/>
     </row>
-    <row r="274" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A274" s="59">
         <v>129</v>
       </c>
@@ -28070,7 +28474,7 @@
       <c r="M274" s="75"/>
       <c r="N274" s="75"/>
     </row>
-    <row r="275" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A275" s="59">
         <v>130</v>
       </c>
@@ -28106,7 +28510,7 @@
       <c r="M275" s="75"/>
       <c r="N275" s="75"/>
     </row>
-    <row r="276" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A276" s="59">
         <v>131</v>
       </c>
@@ -28142,7 +28546,7 @@
       <c r="M276" s="75"/>
       <c r="N276" s="75"/>
     </row>
-    <row r="277" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A277" s="59">
         <v>132</v>
       </c>
@@ -28178,7 +28582,7 @@
       <c r="M277" s="75"/>
       <c r="N277" s="75"/>
     </row>
-    <row r="278" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A278" s="59">
         <v>133</v>
       </c>
@@ -28214,7 +28618,7 @@
       <c r="M278" s="75"/>
       <c r="N278" s="75"/>
     </row>
-    <row r="279" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A279" s="59">
         <v>134</v>
       </c>
@@ -28250,7 +28654,7 @@
       <c r="M279" s="75"/>
       <c r="N279" s="75"/>
     </row>
-    <row r="280" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A280" s="59">
         <v>135</v>
       </c>
@@ -28286,7 +28690,7 @@
       <c r="M280" s="75"/>
       <c r="N280" s="75"/>
     </row>
-    <row r="281" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A281" s="59">
         <v>136</v>
       </c>
@@ -28322,7 +28726,7 @@
       <c r="M281" s="75"/>
       <c r="N281" s="75"/>
     </row>
-    <row r="282" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A282" s="59">
         <v>137</v>
       </c>
@@ -28358,7 +28762,7 @@
       <c r="M282" s="75"/>
       <c r="N282" s="75"/>
     </row>
-    <row r="283" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A283" s="59">
         <v>138</v>
       </c>
@@ -28394,7 +28798,7 @@
       <c r="M283" s="75"/>
       <c r="N283" s="75"/>
     </row>
-    <row r="284" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A284" s="59">
         <v>139</v>
       </c>
@@ -28430,7 +28834,7 @@
       <c r="M284" s="75"/>
       <c r="N284" s="75"/>
     </row>
-    <row r="285" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A285" s="59">
         <v>140</v>
       </c>
@@ -28466,7 +28870,7 @@
       <c r="M285" s="75"/>
       <c r="N285" s="75"/>
     </row>
-    <row r="286" spans="1:14" s="64" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:14" s="64" customFormat="1" ht="15">
       <c r="A286" s="59">
         <v>141</v>
       </c>
@@ -28502,7 +28906,7 @@
       <c r="M286" s="75"/>
       <c r="N286" s="75"/>
     </row>
-    <row r="287" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:14" ht="15">
       <c r="A287" s="53">
         <v>142</v>
       </c>
@@ -28540,7 +28944,7 @@
       <c r="M287" s="72"/>
       <c r="N287" s="72"/>
     </row>
-    <row r="288" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:14" ht="15">
       <c r="A288" s="53">
         <v>143</v>
       </c>
@@ -28578,7 +28982,7 @@
       <c r="M288" s="72"/>
       <c r="N288" s="72"/>
     </row>
-    <row r="289" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:14" ht="15">
       <c r="A289" s="53">
         <v>144</v>
       </c>
@@ -28616,7 +29020,7 @@
       <c r="M289" s="72"/>
       <c r="N289" s="72"/>
     </row>
-    <row r="290" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:14" ht="15">
       <c r="A290" s="53">
         <v>145</v>
       </c>
@@ -28654,7 +29058,7 @@
       <c r="M290" s="72"/>
       <c r="N290" s="72"/>
     </row>
-    <row r="291" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:14" ht="15">
       <c r="A291" s="53">
         <v>146</v>
       </c>
@@ -28692,7 +29096,7 @@
       <c r="M291" s="72"/>
       <c r="N291" s="72"/>
     </row>
-    <row r="292" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:14" ht="15">
       <c r="A292" s="53">
         <v>147</v>
       </c>
@@ -28730,7 +29134,7 @@
       <c r="M292" s="72"/>
       <c r="N292" s="72"/>
     </row>
-    <row r="293" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:14" ht="15">
       <c r="A293" s="53">
         <v>148</v>
       </c>
@@ -28768,7 +29172,7 @@
       <c r="M293" s="72"/>
       <c r="N293" s="72"/>
     </row>
-    <row r="294" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:14" ht="15">
       <c r="A294" s="53">
         <v>149</v>
       </c>
@@ -28806,7 +29210,7 @@
       <c r="M294" s="72"/>
       <c r="N294" s="72"/>
     </row>
-    <row r="295" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:14" ht="15">
       <c r="A295" s="53">
         <v>150</v>
       </c>
@@ -28844,7 +29248,7 @@
       <c r="M295" s="72"/>
       <c r="N295" s="72"/>
     </row>
-    <row r="296" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:14" ht="15">
       <c r="A296" s="53">
         <v>151</v>
       </c>
@@ -28882,7 +29286,7 @@
       <c r="M296" s="72"/>
       <c r="N296" s="72"/>
     </row>
-    <row r="297" spans="1:14" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:14" s="62" customFormat="1" ht="15">
       <c r="A297" s="59">
         <v>152</v>
       </c>
@@ -28920,7 +29324,7 @@
       <c r="M297" s="73"/>
       <c r="N297" s="73"/>
     </row>
-    <row r="298" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:14" ht="15">
       <c r="A298" s="53">
         <v>153</v>
       </c>
@@ -28958,7 +29362,7 @@
       <c r="M298" s="72"/>
       <c r="N298" s="72"/>
     </row>
-    <row r="299" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:14" ht="15">
       <c r="A299" s="53">
         <v>154</v>
       </c>
@@ -28996,7 +29400,7 @@
       <c r="M299" s="72"/>
       <c r="N299" s="72"/>
     </row>
-    <row r="300" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:14" ht="15">
       <c r="A300" s="53">
         <v>155</v>
       </c>
@@ -29034,7 +29438,7 @@
       <c r="M300" s="72"/>
       <c r="N300" s="72"/>
     </row>
-    <row r="301" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:14" ht="15">
       <c r="A301" s="53">
         <v>156</v>
       </c>
@@ -29072,7 +29476,7 @@
       <c r="M301" s="72"/>
       <c r="N301" s="72"/>
     </row>
-    <row r="302" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:14" ht="15">
       <c r="A302" s="53">
         <v>157</v>
       </c>
@@ -29110,7 +29514,7 @@
       <c r="M302" s="72"/>
       <c r="N302" s="72"/>
     </row>
-    <row r="303" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:14" ht="15">
       <c r="A303" s="53">
         <v>158</v>
       </c>
@@ -29148,7 +29552,7 @@
       <c r="M303" s="72"/>
       <c r="N303" s="72"/>
     </row>
-    <row r="304" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:14" ht="15">
       <c r="A304" s="53">
         <v>159</v>
       </c>
@@ -29186,7 +29590,7 @@
       <c r="M304" s="72"/>
       <c r="N304" s="72"/>
     </row>
-    <row r="305" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:14" ht="15">
       <c r="A305" s="53">
         <v>160</v>
       </c>
@@ -29224,7 +29628,7 @@
       <c r="M305" s="72"/>
       <c r="N305" s="72"/>
     </row>
-    <row r="306" spans="1:14" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:14" s="71" customFormat="1" ht="15">
       <c r="A306" s="68">
         <v>161</v>
       </c>
@@ -29266,7 +29670,7 @@
       </c>
       <c r="N306" s="74"/>
     </row>
-    <row r="307" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:14" ht="15">
       <c r="A307" s="53">
         <v>162</v>
       </c>
@@ -29304,7 +29708,7 @@
       <c r="M307" s="72"/>
       <c r="N307" s="72"/>
     </row>
-    <row r="308" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:14" ht="15">
       <c r="A308" s="53">
         <v>163</v>
       </c>
@@ -29342,7 +29746,7 @@
       <c r="M308" s="72"/>
       <c r="N308" s="72"/>
     </row>
-    <row r="309" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:14" ht="15">
       <c r="A309" s="53">
         <v>164</v>
       </c>
@@ -29380,7 +29784,7 @@
       <c r="M309" s="72"/>
       <c r="N309" s="72"/>
     </row>
-    <row r="310" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:14" ht="15">
       <c r="A310" s="53">
         <v>165</v>
       </c>
@@ -29418,7 +29822,7 @@
       <c r="M310" s="72"/>
       <c r="N310" s="72"/>
     </row>
-    <row r="311" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:14" ht="15">
       <c r="A311" s="53">
         <v>166</v>
       </c>
@@ -29456,7 +29860,7 @@
       <c r="M311" s="72"/>
       <c r="N311" s="72"/>
     </row>
-    <row r="312" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:14" ht="15">
       <c r="A312" s="53">
         <v>167</v>
       </c>
@@ -29494,7 +29898,7 @@
       <c r="M312" s="72"/>
       <c r="N312" s="72"/>
     </row>
-    <row r="313" spans="1:14" ht="15" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:14" ht="15">
       <c r="A313" s="53">
         <v>168</v>
       </c>
@@ -29532,7 +29936,7 @@
       <c r="M313" s="72"/>
       <c r="N313" s="72"/>
     </row>
-    <row r="314" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A314" s="29">
         <v>1</v>
       </c>
@@ -29570,7 +29974,7 @@
       <c r="M314" s="47"/>
       <c r="N314" s="47"/>
     </row>
-    <row r="315" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A315" s="29">
         <v>2</v>
       </c>
@@ -29608,7 +30012,7 @@
       <c r="M315" s="47"/>
       <c r="N315" s="47"/>
     </row>
-    <row r="316" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A316" s="29">
         <v>3</v>
       </c>
@@ -29646,7 +30050,7 @@
       <c r="M316" s="47"/>
       <c r="N316" s="47"/>
     </row>
-    <row r="317" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A317" s="29">
         <v>4</v>
       </c>
@@ -29684,7 +30088,7 @@
       <c r="M317" s="47"/>
       <c r="N317" s="47"/>
     </row>
-    <row r="318" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A318" s="29">
         <v>5</v>
       </c>
@@ -29722,7 +30126,7 @@
       <c r="M318" s="47"/>
       <c r="N318" s="47"/>
     </row>
-    <row r="319" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A319" s="29">
         <v>6</v>
       </c>
@@ -29760,7 +30164,7 @@
       <c r="M319" s="47"/>
       <c r="N319" s="47"/>
     </row>
-    <row r="320" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A320" s="29">
         <v>7</v>
       </c>
@@ -29798,7 +30202,7 @@
       <c r="M320" s="47"/>
       <c r="N320" s="47"/>
     </row>
-    <row r="321" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A321" s="29">
         <v>8</v>
       </c>
@@ -29836,7 +30240,7 @@
       <c r="M321" s="47"/>
       <c r="N321" s="47"/>
     </row>
-    <row r="322" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A322" s="29">
         <v>9</v>
       </c>
@@ -29874,7 +30278,7 @@
       <c r="M322" s="47"/>
       <c r="N322" s="47"/>
     </row>
-    <row r="323" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A323" s="29">
         <v>10</v>
       </c>
@@ -29912,7 +30316,7 @@
       <c r="M323" s="47"/>
       <c r="N323" s="47"/>
     </row>
-    <row r="324" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A324" s="29">
         <v>12</v>
       </c>
@@ -29950,7 +30354,7 @@
       <c r="M324" s="47"/>
       <c r="N324" s="47"/>
     </row>
-    <row r="325" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A325" s="29">
         <v>13</v>
       </c>
@@ -29988,7 +30392,7 @@
       <c r="M325" s="47"/>
       <c r="N325" s="47"/>
     </row>
-    <row r="326" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A326" s="29">
         <v>14</v>
       </c>
@@ -30026,7 +30430,7 @@
       <c r="M326" s="47"/>
       <c r="N326" s="47"/>
     </row>
-    <row r="327" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A327" s="33">
         <v>19</v>
       </c>
@@ -30064,7 +30468,7 @@
       <c r="M327" s="76"/>
       <c r="N327" s="76"/>
     </row>
-    <row r="328" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A328" s="29">
         <v>20</v>
       </c>
@@ -30104,7 +30508,7 @@
       <c r="M328" s="47"/>
       <c r="N328" s="47"/>
     </row>
-    <row r="329" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A329" s="33">
         <v>22</v>
       </c>
@@ -30142,7 +30546,7 @@
       <c r="M329" s="76"/>
       <c r="N329" s="76"/>
     </row>
-    <row r="330" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A330" s="29">
         <v>23</v>
       </c>
@@ -30180,7 +30584,7 @@
       <c r="M330" s="47"/>
       <c r="N330" s="47"/>
     </row>
-    <row r="331" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A331" s="29">
         <v>24</v>
       </c>
@@ -30218,7 +30622,7 @@
       <c r="M331" s="47"/>
       <c r="N331" s="47"/>
     </row>
-    <row r="332" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A332" s="33">
         <v>25</v>
       </c>
@@ -30256,7 +30660,7 @@
       <c r="M332" s="76"/>
       <c r="N332" s="76"/>
     </row>
-    <row r="333" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A333" s="33">
         <v>26</v>
       </c>
@@ -30294,7 +30698,7 @@
       <c r="M333" s="76"/>
       <c r="N333" s="76"/>
     </row>
-    <row r="334" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A334" s="29">
         <v>27</v>
       </c>
@@ -30332,7 +30736,7 @@
       <c r="M334" s="47"/>
       <c r="N334" s="47"/>
     </row>
-    <row r="335" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A335" s="29">
         <v>28</v>
       </c>
@@ -30370,7 +30774,7 @@
       <c r="M335" s="47"/>
       <c r="N335" s="47"/>
     </row>
-    <row r="336" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A336" s="29">
         <v>29</v>
       </c>
@@ -30408,7 +30812,7 @@
       <c r="M336" s="47"/>
       <c r="N336" s="47"/>
     </row>
-    <row r="337" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A337" s="29">
         <v>30</v>
       </c>
@@ -30446,7 +30850,7 @@
       <c r="M337" s="47"/>
       <c r="N337" s="47"/>
     </row>
-    <row r="338" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A338" s="29">
         <v>31</v>
       </c>
@@ -30484,7 +30888,7 @@
       <c r="M338" s="47"/>
       <c r="N338" s="47"/>
     </row>
-    <row r="339" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A339" s="29">
         <v>32</v>
       </c>
@@ -30522,7 +30926,7 @@
       <c r="M339" s="47"/>
       <c r="N339" s="47"/>
     </row>
-    <row r="340" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A340" s="29">
         <v>33</v>
       </c>
@@ -30560,7 +30964,7 @@
       <c r="M340" s="47"/>
       <c r="N340" s="47"/>
     </row>
-    <row r="341" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A341" s="29">
         <v>34</v>
       </c>
@@ -30598,7 +31002,7 @@
       <c r="M341" s="47"/>
       <c r="N341" s="47"/>
     </row>
-    <row r="342" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A342" s="29">
         <v>35</v>
       </c>
@@ -30636,7 +31040,7 @@
       <c r="M342" s="47"/>
       <c r="N342" s="47"/>
     </row>
-    <row r="343" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A343" s="29">
         <v>36</v>
       </c>
@@ -30674,7 +31078,7 @@
       <c r="M343" s="47"/>
       <c r="N343" s="47"/>
     </row>
-    <row r="344" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A344" s="29">
         <v>37</v>
       </c>
@@ -30712,7 +31116,7 @@
       <c r="M344" s="47"/>
       <c r="N344" s="47"/>
     </row>
-    <row r="345" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A345" s="29">
         <v>38</v>
       </c>
@@ -30750,7 +31154,7 @@
       <c r="M345" s="47"/>
       <c r="N345" s="47"/>
     </row>
-    <row r="346" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A346" s="29">
         <v>39</v>
       </c>
@@ -30788,7 +31192,7 @@
       <c r="M346" s="47"/>
       <c r="N346" s="47"/>
     </row>
-    <row r="347" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A347" s="29">
         <v>40</v>
       </c>
@@ -30826,7 +31230,7 @@
       <c r="M347" s="47"/>
       <c r="N347" s="47"/>
     </row>
-    <row r="348" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A348" s="29">
         <v>41</v>
       </c>
@@ -30864,7 +31268,7 @@
       <c r="M348" s="47"/>
       <c r="N348" s="47"/>
     </row>
-    <row r="349" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A349" s="29">
         <v>42</v>
       </c>
@@ -30902,7 +31306,7 @@
       <c r="M349" s="47"/>
       <c r="N349" s="47"/>
     </row>
-    <row r="350" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A350" s="29">
         <v>43</v>
       </c>
@@ -30940,7 +31344,7 @@
       <c r="M350" s="47"/>
       <c r="N350" s="47"/>
     </row>
-    <row r="351" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A351" s="29">
         <v>44</v>
       </c>
@@ -30978,7 +31382,7 @@
       <c r="M351" s="47"/>
       <c r="N351" s="47"/>
     </row>
-    <row r="352" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A352" s="29">
         <v>45</v>
       </c>
@@ -31016,7 +31420,7 @@
       <c r="M352" s="47"/>
       <c r="N352" s="47"/>
     </row>
-    <row r="353" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A353" s="29">
         <v>46</v>
       </c>
@@ -31054,7 +31458,7 @@
       <c r="M353" s="47"/>
       <c r="N353" s="47"/>
     </row>
-    <row r="354" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A354" s="29">
         <v>47</v>
       </c>
@@ -31092,7 +31496,7 @@
       <c r="M354" s="47"/>
       <c r="N354" s="47"/>
     </row>
-    <row r="355" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A355" s="29">
         <v>48</v>
       </c>
@@ -31130,7 +31534,7 @@
       <c r="M355" s="47"/>
       <c r="N355" s="47"/>
     </row>
-    <row r="356" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A356" s="29">
         <v>49</v>
       </c>
@@ -31168,7 +31572,7 @@
       <c r="M356" s="47"/>
       <c r="N356" s="47"/>
     </row>
-    <row r="357" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A357" s="29">
         <v>50</v>
       </c>
@@ -31206,7 +31610,7 @@
       <c r="M357" s="47"/>
       <c r="N357" s="47"/>
     </row>
-    <row r="358" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A358" s="29">
         <v>51</v>
       </c>
@@ -31244,7 +31648,7 @@
       <c r="M358" s="47"/>
       <c r="N358" s="47"/>
     </row>
-    <row r="359" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A359" s="29">
         <v>52</v>
       </c>
@@ -31282,7 +31686,7 @@
       <c r="M359" s="47"/>
       <c r="N359" s="47"/>
     </row>
-    <row r="360" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A360" s="29">
         <v>53</v>
       </c>
@@ -31320,7 +31724,7 @@
       <c r="M360" s="47"/>
       <c r="N360" s="47"/>
     </row>
-    <row r="361" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A361" s="29">
         <v>54</v>
       </c>
@@ -31358,7 +31762,7 @@
       <c r="M361" s="47"/>
       <c r="N361" s="47"/>
     </row>
-    <row r="362" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A362" s="29">
         <v>55</v>
       </c>
@@ -31396,7 +31800,7 @@
       <c r="M362" s="47"/>
       <c r="N362" s="47"/>
     </row>
-    <row r="363" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A363" s="29">
         <v>57</v>
       </c>
@@ -31434,7 +31838,7 @@
       <c r="M363" s="47"/>
       <c r="N363" s="47"/>
     </row>
-    <row r="364" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A364" s="29">
         <v>58</v>
       </c>
@@ -31472,7 +31876,7 @@
       <c r="M364" s="47"/>
       <c r="N364" s="47"/>
     </row>
-    <row r="365" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A365" s="29">
         <v>59</v>
       </c>
@@ -31510,7 +31914,7 @@
       <c r="M365" s="47"/>
       <c r="N365" s="47"/>
     </row>
-    <row r="366" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A366" s="29">
         <v>61</v>
       </c>
@@ -31548,7 +31952,7 @@
       <c r="M366" s="47"/>
       <c r="N366" s="47"/>
     </row>
-    <row r="367" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A367" s="29">
         <v>62</v>
       </c>
@@ -31586,7 +31990,7 @@
       <c r="M367" s="47"/>
       <c r="N367" s="47"/>
     </row>
-    <row r="368" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A368" s="29">
         <v>63</v>
       </c>
@@ -31624,7 +32028,7 @@
       <c r="M368" s="47"/>
       <c r="N368" s="47"/>
     </row>
-    <row r="369" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A369" s="29">
         <v>64</v>
       </c>
@@ -31662,7 +32066,7 @@
       <c r="M369" s="47"/>
       <c r="N369" s="47"/>
     </row>
-    <row r="370" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A370" s="29">
         <v>65</v>
       </c>
@@ -31700,7 +32104,7 @@
       <c r="M370" s="47"/>
       <c r="N370" s="47"/>
     </row>
-    <row r="371" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A371" s="29">
         <v>66</v>
       </c>
@@ -31738,7 +32142,7 @@
       <c r="M371" s="47"/>
       <c r="N371" s="47"/>
     </row>
-    <row r="372" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A372" s="29">
         <v>67</v>
       </c>
@@ -31776,7 +32180,7 @@
       <c r="M372" s="47"/>
       <c r="N372" s="47"/>
     </row>
-    <row r="373" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A373" s="29">
         <v>68</v>
       </c>
@@ -31814,7 +32218,7 @@
       <c r="M373" s="47"/>
       <c r="N373" s="47"/>
     </row>
-    <row r="374" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A374" s="29">
         <v>69</v>
       </c>
@@ -31852,7 +32256,7 @@
       <c r="M374" s="47"/>
       <c r="N374" s="47"/>
     </row>
-    <row r="375" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A375" s="29">
         <v>70</v>
       </c>
@@ -31890,7 +32294,7 @@
       <c r="M375" s="47"/>
       <c r="N375" s="47"/>
     </row>
-    <row r="376" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A376" s="33">
         <v>71</v>
       </c>
@@ -31928,7 +32332,7 @@
       <c r="M376" s="76"/>
       <c r="N376" s="76"/>
     </row>
-    <row r="377" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A377" s="29">
         <v>72</v>
       </c>
@@ -31966,7 +32370,7 @@
       <c r="M377" s="47"/>
       <c r="N377" s="47"/>
     </row>
-    <row r="378" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A378" s="29">
         <v>73</v>
       </c>
@@ -32004,7 +32408,7 @@
       <c r="M378" s="47"/>
       <c r="N378" s="47"/>
     </row>
-    <row r="379" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A379" s="29">
         <v>75</v>
       </c>
@@ -32042,7 +32446,7 @@
       <c r="M379" s="47"/>
       <c r="N379" s="47"/>
     </row>
-    <row r="380" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A380" s="29">
         <v>76</v>
       </c>
@@ -32080,7 +32484,7 @@
       <c r="M380" s="47"/>
       <c r="N380" s="47"/>
     </row>
-    <row r="381" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A381" s="29">
         <v>77</v>
       </c>
@@ -32118,7 +32522,7 @@
       <c r="M381" s="47"/>
       <c r="N381" s="47"/>
     </row>
-    <row r="382" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A382" s="29">
         <v>78</v>
       </c>
@@ -32156,7 +32560,7 @@
       <c r="M382" s="47"/>
       <c r="N382" s="47"/>
     </row>
-    <row r="383" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A383" s="29">
         <v>79</v>
       </c>
@@ -32194,7 +32598,7 @@
       <c r="M383" s="47"/>
       <c r="N383" s="47"/>
     </row>
-    <row r="384" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A384" s="29">
         <v>80</v>
       </c>
@@ -32232,7 +32636,7 @@
       <c r="M384" s="47"/>
       <c r="N384" s="47"/>
     </row>
-    <row r="385" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A385" s="29">
         <v>81</v>
       </c>
@@ -32270,7 +32674,7 @@
       <c r="M385" s="47"/>
       <c r="N385" s="47"/>
     </row>
-    <row r="386" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A386" s="29">
         <v>82</v>
       </c>
@@ -32308,7 +32712,7 @@
       <c r="M386" s="47"/>
       <c r="N386" s="47"/>
     </row>
-    <row r="387" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A387" s="29">
         <v>83</v>
       </c>
@@ -32346,7 +32750,7 @@
       <c r="M387" s="47"/>
       <c r="N387" s="47"/>
     </row>
-    <row r="388" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A388" s="29">
         <v>84</v>
       </c>
@@ -32384,7 +32788,7 @@
       <c r="M388" s="47"/>
       <c r="N388" s="47"/>
     </row>
-    <row r="389" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A389" s="29">
         <v>85</v>
       </c>
@@ -32422,7 +32826,7 @@
       <c r="M389" s="47"/>
       <c r="N389" s="47"/>
     </row>
-    <row r="390" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A390" s="29">
         <v>86</v>
       </c>
@@ -32460,7 +32864,7 @@
       <c r="M390" s="47"/>
       <c r="N390" s="47"/>
     </row>
-    <row r="391" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A391" s="29">
         <v>87</v>
       </c>
@@ -32498,7 +32902,7 @@
       <c r="M391" s="47"/>
       <c r="N391" s="47"/>
     </row>
-    <row r="392" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A392" s="29">
         <v>88</v>
       </c>
@@ -32536,7 +32940,7 @@
       <c r="M392" s="47"/>
       <c r="N392" s="47"/>
     </row>
-    <row r="393" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A393" s="29">
         <v>89</v>
       </c>
@@ -32574,7 +32978,7 @@
       <c r="M393" s="47"/>
       <c r="N393" s="47"/>
     </row>
-    <row r="394" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A394" s="29">
         <v>90</v>
       </c>
@@ -32612,7 +33016,7 @@
       <c r="M394" s="47"/>
       <c r="N394" s="47"/>
     </row>
-    <row r="395" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A395" s="29">
         <v>91</v>
       </c>
@@ -32650,7 +33054,7 @@
       <c r="M395" s="47"/>
       <c r="N395" s="47"/>
     </row>
-    <row r="396" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A396" s="29">
         <v>92</v>
       </c>
@@ -32688,7 +33092,7 @@
       <c r="M396" s="47"/>
       <c r="N396" s="47"/>
     </row>
-    <row r="397" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A397" s="29">
         <v>93</v>
       </c>
@@ -32726,7 +33130,7 @@
       <c r="M397" s="47"/>
       <c r="N397" s="47"/>
     </row>
-    <row r="398" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A398" s="29">
         <v>94</v>
       </c>
@@ -32764,7 +33168,7 @@
       <c r="M398" s="47"/>
       <c r="N398" s="47"/>
     </row>
-    <row r="399" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A399" s="29">
         <v>95</v>
       </c>
@@ -32802,7 +33206,7 @@
       <c r="M399" s="47"/>
       <c r="N399" s="47"/>
     </row>
-    <row r="400" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A400" s="29">
         <v>96</v>
       </c>
@@ -32840,7 +33244,7 @@
       <c r="M400" s="47"/>
       <c r="N400" s="47"/>
     </row>
-    <row r="401" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A401" s="29">
         <v>97</v>
       </c>
@@ -32878,7 +33282,7 @@
       <c r="M401" s="47"/>
       <c r="N401" s="47"/>
     </row>
-    <row r="402" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A402" s="29">
         <v>98</v>
       </c>
@@ -32916,7 +33320,7 @@
       <c r="M402" s="47"/>
       <c r="N402" s="47"/>
     </row>
-    <row r="403" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A403" s="29">
         <v>99</v>
       </c>
@@ -32954,7 +33358,7 @@
       <c r="M403" s="47"/>
       <c r="N403" s="47"/>
     </row>
-    <row r="404" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A404" s="29">
         <v>100</v>
       </c>
@@ -32992,7 +33396,7 @@
       <c r="M404" s="47"/>
       <c r="N404" s="47"/>
     </row>
-    <row r="405" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A405" s="29">
         <v>101</v>
       </c>
@@ -33030,7 +33434,7 @@
       <c r="M405" s="47"/>
       <c r="N405" s="47"/>
     </row>
-    <row r="406" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A406" s="29">
         <v>102</v>
       </c>
@@ -33068,7 +33472,7 @@
       <c r="M406" s="47"/>
       <c r="N406" s="47"/>
     </row>
-    <row r="407" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A407" s="29">
         <v>103</v>
       </c>
@@ -33106,7 +33510,7 @@
       <c r="M407" s="47"/>
       <c r="N407" s="47"/>
     </row>
-    <row r="408" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A408" s="29">
         <v>104</v>
       </c>
@@ -33144,7 +33548,7 @@
       <c r="M408" s="47"/>
       <c r="N408" s="47"/>
     </row>
-    <row r="409" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A409" s="29">
         <v>105</v>
       </c>
@@ -33182,7 +33586,7 @@
       <c r="M409" s="47"/>
       <c r="N409" s="47"/>
     </row>
-    <row r="410" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A410" s="29">
         <v>106</v>
       </c>
@@ -33220,7 +33624,7 @@
       <c r="M410" s="47"/>
       <c r="N410" s="47"/>
     </row>
-    <row r="411" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A411" s="29">
         <v>107</v>
       </c>
@@ -33258,7 +33662,7 @@
       <c r="M411" s="47"/>
       <c r="N411" s="47"/>
     </row>
-    <row r="412" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A412" s="29">
         <v>108</v>
       </c>
@@ -33296,7 +33700,7 @@
       <c r="M412" s="47"/>
       <c r="N412" s="47"/>
     </row>
-    <row r="413" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A413" s="29">
         <v>109</v>
       </c>
@@ -33334,7 +33738,7 @@
       <c r="M413" s="47"/>
       <c r="N413" s="47"/>
     </row>
-    <row r="414" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A414" s="29">
         <v>110</v>
       </c>
@@ -33372,7 +33776,7 @@
       <c r="M414" s="47"/>
       <c r="N414" s="47"/>
     </row>
-    <row r="415" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A415" s="29">
         <v>111</v>
       </c>
@@ -33410,7 +33814,7 @@
       <c r="M415" s="47"/>
       <c r="N415" s="47"/>
     </row>
-    <row r="416" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A416" s="29">
         <v>112</v>
       </c>
@@ -33448,7 +33852,7 @@
       <c r="M416" s="47"/>
       <c r="N416" s="47"/>
     </row>
-    <row r="417" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A417" s="29">
         <v>113</v>
       </c>
@@ -33486,7 +33890,7 @@
       <c r="M417" s="47"/>
       <c r="N417" s="47"/>
     </row>
-    <row r="418" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A418" s="29">
         <v>114</v>
       </c>
@@ -33524,7 +33928,7 @@
       <c r="M418" s="47"/>
       <c r="N418" s="47"/>
     </row>
-    <row r="419" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A419" s="29">
         <v>115</v>
       </c>
@@ -33562,7 +33966,7 @@
       <c r="M419" s="47"/>
       <c r="N419" s="47"/>
     </row>
-    <row r="420" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A420" s="29">
         <v>116</v>
       </c>
@@ -33600,7 +34004,7 @@
       <c r="M420" s="47"/>
       <c r="N420" s="47"/>
     </row>
-    <row r="421" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A421" s="29">
         <v>117</v>
       </c>
@@ -33638,7 +34042,7 @@
       <c r="M421" s="47"/>
       <c r="N421" s="47"/>
     </row>
-    <row r="422" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A422" s="29">
         <v>118</v>
       </c>
@@ -33676,7 +34080,7 @@
       <c r="M422" s="47"/>
       <c r="N422" s="47"/>
     </row>
-    <row r="423" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A423" s="29">
         <v>119</v>
       </c>
@@ -33714,7 +34118,7 @@
       <c r="M423" s="47"/>
       <c r="N423" s="47"/>
     </row>
-    <row r="424" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A424" s="29">
         <v>120</v>
       </c>
@@ -33752,7 +34156,7 @@
       <c r="M424" s="47"/>
       <c r="N424" s="47"/>
     </row>
-    <row r="425" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A425" s="29">
         <v>121</v>
       </c>
@@ -33790,7 +34194,7 @@
       <c r="M425" s="47"/>
       <c r="N425" s="47"/>
     </row>
-    <row r="426" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A426" s="29">
         <v>122</v>
       </c>
@@ -33828,7 +34232,7 @@
       <c r="M426" s="47"/>
       <c r="N426" s="47"/>
     </row>
-    <row r="427" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A427" s="29">
         <v>123</v>
       </c>
@@ -33866,7 +34270,7 @@
       <c r="M427" s="47"/>
       <c r="N427" s="47"/>
     </row>
-    <row r="428" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A428" s="29">
         <v>124</v>
       </c>
@@ -33904,7 +34308,7 @@
       <c r="M428" s="47"/>
       <c r="N428" s="47"/>
     </row>
-    <row r="429" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A429" s="29">
         <v>125</v>
       </c>
@@ -33942,7 +34346,7 @@
       <c r="M429" s="47"/>
       <c r="N429" s="47"/>
     </row>
-    <row r="430" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A430" s="29">
         <v>126</v>
       </c>
@@ -33980,7 +34384,7 @@
       <c r="M430" s="47"/>
       <c r="N430" s="47"/>
     </row>
-    <row r="431" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A431" s="29">
         <v>127</v>
       </c>
@@ -34018,7 +34422,7 @@
       <c r="M431" s="47"/>
       <c r="N431" s="47"/>
     </row>
-    <row r="432" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A432" s="29">
         <v>128</v>
       </c>
@@ -34056,7 +34460,7 @@
       <c r="M432" s="47"/>
       <c r="N432" s="47"/>
     </row>
-    <row r="433" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A433" s="29">
         <v>129</v>
       </c>
@@ -34094,7 +34498,7 @@
       <c r="M433" s="47"/>
       <c r="N433" s="47"/>
     </row>
-    <row r="434" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A434" s="29">
         <v>130</v>
       </c>
@@ -34132,7 +34536,7 @@
       <c r="M434" s="47"/>
       <c r="N434" s="47"/>
     </row>
-    <row r="435" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A435" s="29">
         <v>131</v>
       </c>
@@ -34170,7 +34574,7 @@
       <c r="M435" s="47"/>
       <c r="N435" s="47"/>
     </row>
-    <row r="436" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A436" s="29">
         <v>132</v>
       </c>
@@ -34208,7 +34612,7 @@
       <c r="M436" s="47"/>
       <c r="N436" s="47"/>
     </row>
-    <row r="437" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A437" s="29">
         <v>133</v>
       </c>
@@ -34246,7 +34650,7 @@
       <c r="M437" s="47"/>
       <c r="N437" s="47"/>
     </row>
-    <row r="438" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A438" s="29">
         <v>134</v>
       </c>
@@ -34284,7 +34688,7 @@
       <c r="M438" s="47"/>
       <c r="N438" s="47"/>
     </row>
-    <row r="439" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A439" s="29">
         <v>135</v>
       </c>
@@ -34322,7 +34726,7 @@
       <c r="M439" s="47"/>
       <c r="N439" s="47"/>
     </row>
-    <row r="440" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A440" s="29">
         <v>136</v>
       </c>
@@ -34360,7 +34764,7 @@
       <c r="M440" s="47"/>
       <c r="N440" s="47"/>
     </row>
-    <row r="441" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A441" s="29">
         <v>137</v>
       </c>
@@ -34398,7 +34802,7 @@
       <c r="M441" s="47"/>
       <c r="N441" s="47"/>
     </row>
-    <row r="442" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A442" s="29">
         <v>138</v>
       </c>
@@ -34436,7 +34840,7 @@
       <c r="M442" s="47"/>
       <c r="N442" s="47"/>
     </row>
-    <row r="443" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A443" s="29">
         <v>139</v>
       </c>
@@ -34474,7 +34878,7 @@
       <c r="M443" s="47"/>
       <c r="N443" s="47"/>
     </row>
-    <row r="444" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A444" s="29">
         <v>140</v>
       </c>
@@ -34512,7 +34916,7 @@
       <c r="M444" s="47"/>
       <c r="N444" s="47"/>
     </row>
-    <row r="445" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A445" s="29">
         <v>141</v>
       </c>
@@ -34550,7 +34954,7 @@
       <c r="M445" s="47"/>
       <c r="N445" s="47"/>
     </row>
-    <row r="446" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A446" s="29">
         <v>142</v>
       </c>
@@ -34588,7 +34992,7 @@
       <c r="M446" s="47"/>
       <c r="N446" s="47"/>
     </row>
-    <row r="447" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A447" s="29">
         <v>143</v>
       </c>
@@ -34626,7 +35030,7 @@
       <c r="M447" s="47"/>
       <c r="N447" s="47"/>
     </row>
-    <row r="448" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A448" s="29">
         <v>144</v>
       </c>
@@ -34664,7 +35068,7 @@
       <c r="M448" s="47"/>
       <c r="N448" s="47"/>
     </row>
-    <row r="449" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A449" s="29">
         <v>145</v>
       </c>
@@ -34702,7 +35106,7 @@
       <c r="M449" s="47"/>
       <c r="N449" s="47"/>
     </row>
-    <row r="450" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A450" s="29">
         <v>146</v>
       </c>
@@ -34740,7 +35144,7 @@
       <c r="M450" s="47"/>
       <c r="N450" s="47"/>
     </row>
-    <row r="451" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A451" s="29">
         <v>147</v>
       </c>
@@ -34778,7 +35182,7 @@
       <c r="M451" s="47"/>
       <c r="N451" s="47"/>
     </row>
-    <row r="452" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A452" s="29">
         <v>148</v>
       </c>
@@ -34816,7 +35220,7 @@
       <c r="M452" s="47"/>
       <c r="N452" s="47"/>
     </row>
-    <row r="453" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A453" s="29">
         <v>149</v>
       </c>
@@ -34854,7 +35258,7 @@
       <c r="M453" s="47"/>
       <c r="N453" s="47"/>
     </row>
-    <row r="454" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A454" s="29">
         <v>150</v>
       </c>
@@ -34892,7 +35296,7 @@
       <c r="M454" s="47"/>
       <c r="N454" s="47"/>
     </row>
-    <row r="455" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A455" s="29">
         <v>151</v>
       </c>
@@ -34930,7 +35334,7 @@
       <c r="M455" s="47"/>
       <c r="N455" s="47"/>
     </row>
-    <row r="456" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A456" s="29">
         <v>152</v>
       </c>
@@ -34968,7 +35372,7 @@
       <c r="M456" s="47"/>
       <c r="N456" s="47"/>
     </row>
-    <row r="457" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A457" s="29">
         <v>153</v>
       </c>
@@ -35006,7 +35410,7 @@
       <c r="M457" s="47"/>
       <c r="N457" s="47"/>
     </row>
-    <row r="458" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A458" s="29">
         <v>154</v>
       </c>
@@ -35044,7 +35448,7 @@
       <c r="M458" s="47"/>
       <c r="N458" s="47"/>
     </row>
-    <row r="459" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A459" s="29">
         <v>155</v>
       </c>
@@ -35082,7 +35486,7 @@
       <c r="M459" s="47"/>
       <c r="N459" s="47"/>
     </row>
-    <row r="460" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A460" s="29">
         <v>156</v>
       </c>
@@ -35120,7 +35524,7 @@
       <c r="M460" s="47"/>
       <c r="N460" s="47"/>
     </row>
-    <row r="461" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A461" s="29">
         <v>157</v>
       </c>
@@ -35158,7 +35562,7 @@
       <c r="M461" s="47"/>
       <c r="N461" s="47"/>
     </row>
-    <row r="462" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A462" s="29">
         <v>158</v>
       </c>
@@ -35196,7 +35600,7 @@
       <c r="M462" s="47"/>
       <c r="N462" s="47"/>
     </row>
-    <row r="463" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A463" s="29">
         <v>159</v>
       </c>
@@ -35234,7 +35638,7 @@
       <c r="M463" s="47"/>
       <c r="N463" s="47"/>
     </row>
-    <row r="464" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A464" s="29">
         <v>160</v>
       </c>
@@ -35272,7 +35676,7 @@
       <c r="M464" s="47"/>
       <c r="N464" s="47"/>
     </row>
-    <row r="465" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A465" s="29">
         <v>161</v>
       </c>
@@ -35310,7 +35714,7 @@
       <c r="M465" s="47"/>
       <c r="N465" s="47"/>
     </row>
-    <row r="466" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A466" s="29">
         <v>162</v>
       </c>
@@ -35348,7 +35752,7 @@
       <c r="M466" s="47"/>
       <c r="N466" s="47"/>
     </row>
-    <row r="467" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A467" s="29">
         <v>163</v>
       </c>
@@ -35386,7 +35790,7 @@
       <c r="M467" s="47"/>
       <c r="N467" s="47"/>
     </row>
-    <row r="468" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A468" s="29">
         <v>164</v>
       </c>
@@ -35424,7 +35828,7 @@
       <c r="M468" s="47"/>
       <c r="N468" s="47"/>
     </row>
-    <row r="469" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A469" s="29">
         <v>165</v>
       </c>
@@ -35462,7 +35866,7 @@
       <c r="M469" s="47"/>
       <c r="N469" s="47"/>
     </row>
-    <row r="470" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A470" s="29">
         <v>166</v>
       </c>
@@ -35500,7 +35904,7 @@
       <c r="M470" s="47"/>
       <c r="N470" s="47"/>
     </row>
-    <row r="471" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A471" s="29">
         <v>167</v>
       </c>
@@ -35538,7 +35942,7 @@
       <c r="M471" s="47"/>
       <c r="N471" s="47"/>
     </row>
-    <row r="472" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A472" s="29">
         <v>168</v>
       </c>
@@ -35576,7 +35980,7 @@
       <c r="M472" s="47"/>
       <c r="N472" s="47"/>
     </row>
-    <row r="473" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A473" s="29">
         <v>169</v>
       </c>
@@ -35614,7 +36018,7 @@
       <c r="M473" s="47"/>
       <c r="N473" s="47"/>
     </row>
-    <row r="474" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A474" s="29">
         <v>170</v>
       </c>
@@ -35652,7 +36056,7 @@
       <c r="M474" s="47"/>
       <c r="N474" s="47"/>
     </row>
-    <row r="475" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A475" s="29">
         <v>171</v>
       </c>
@@ -35690,7 +36094,7 @@
       <c r="M475" s="47"/>
       <c r="N475" s="47"/>
     </row>
-    <row r="476" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A476" s="29">
         <v>172</v>
       </c>
@@ -35728,7 +36132,7 @@
       <c r="M476" s="47"/>
       <c r="N476" s="47"/>
     </row>
-    <row r="477" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A477" s="29">
         <v>173</v>
       </c>
@@ -35766,7 +36170,7 @@
       <c r="M477" s="47"/>
       <c r="N477" s="47"/>
     </row>
-    <row r="478" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A478" s="29">
         <v>174</v>
       </c>
@@ -35804,7 +36208,7 @@
       <c r="M478" s="47"/>
       <c r="N478" s="47"/>
     </row>
-    <row r="479" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A479" s="29">
         <v>175</v>
       </c>
@@ -35842,7 +36246,7 @@
       <c r="M479" s="47"/>
       <c r="N479" s="47"/>
     </row>
-    <row r="480" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A480" s="29">
         <v>176</v>
       </c>
@@ -35880,7 +36284,7 @@
       <c r="M480" s="47"/>
       <c r="N480" s="47"/>
     </row>
-    <row r="481" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A481" s="33">
         <v>188</v>
       </c>
@@ -35918,7 +36322,7 @@
       <c r="M481" s="76"/>
       <c r="N481" s="76"/>
     </row>
-    <row r="482" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A482" s="29">
         <v>189</v>
       </c>
@@ -35956,7 +36360,7 @@
       <c r="M482" s="47"/>
       <c r="N482" s="47"/>
     </row>
-    <row r="483" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A483" s="29">
         <v>190</v>
       </c>
@@ -35994,7 +36398,7 @@
       <c r="M483" s="47"/>
       <c r="N483" s="47"/>
     </row>
-    <row r="484" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A484" s="33">
         <v>191</v>
       </c>
@@ -36032,7 +36436,7 @@
       <c r="M484" s="76"/>
       <c r="N484" s="76"/>
     </row>
-    <row r="485" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A485" s="29">
         <v>193</v>
       </c>
@@ -36070,7 +36474,7 @@
       <c r="M485" s="47"/>
       <c r="N485" s="47"/>
     </row>
-    <row r="486" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A486" s="33">
         <v>199</v>
       </c>
@@ -36108,7 +36512,7 @@
       <c r="M486" s="76"/>
       <c r="N486" s="76"/>
     </row>
-    <row r="487" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:14" s="66" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A487" s="33">
         <v>202</v>
       </c>
@@ -36146,7 +36550,7 @@
       <c r="M487" s="76"/>
       <c r="N487" s="76"/>
     </row>
-    <row r="488" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A488" s="29">
         <v>205</v>
       </c>
@@ -36184,7 +36588,7 @@
       <c r="M488" s="47"/>
       <c r="N488" s="47"/>
     </row>
-    <row r="489" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A489" s="29">
         <v>206</v>
       </c>
@@ -36487,11 +36891,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="A94" sqref="A94:XFD94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
@@ -36505,21 +36909,21 @@
     <col min="15" max="15" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="s">
+    <row r="1" spans="1:15" ht="98.25" customHeight="1" thickBot="1">
+      <c r="A1" s="116" t="s">
         <v>1796</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-    </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="19.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -36564,7 +36968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" s="11" customFormat="1">
       <c r="A3" s="29">
         <v>1</v>
       </c>
@@ -36605,7 +37009,7 @@
       <c r="N3" s="47"/>
       <c r="O3" s="47"/>
     </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" s="11" customFormat="1">
       <c r="A4" s="29">
         <v>2</v>
       </c>
@@ -36646,7 +37050,7 @@
       <c r="N4" s="47"/>
       <c r="O4" s="47"/>
     </row>
-    <row r="5" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" s="11" customFormat="1">
       <c r="A5" s="29">
         <v>3</v>
       </c>
@@ -36687,7 +37091,7 @@
       <c r="N5" s="47"/>
       <c r="O5" s="47"/>
     </row>
-    <row r="6" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" s="11" customFormat="1">
       <c r="A6" s="29">
         <v>4</v>
       </c>
@@ -36728,7 +37132,7 @@
       <c r="N6" s="47"/>
       <c r="O6" s="47"/>
     </row>
-    <row r="7" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" s="11" customFormat="1">
       <c r="A7" s="29">
         <v>5</v>
       </c>
@@ -36769,7 +37173,7 @@
       <c r="N7" s="47"/>
       <c r="O7" s="47"/>
     </row>
-    <row r="8" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" s="11" customFormat="1">
       <c r="A8" s="29">
         <v>6</v>
       </c>
@@ -36810,7 +37214,7 @@
       <c r="N8" s="47"/>
       <c r="O8" s="47"/>
     </row>
-    <row r="9" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" s="11" customFormat="1">
       <c r="A9" s="29">
         <v>7</v>
       </c>
@@ -36851,7 +37255,7 @@
       <c r="N9" s="47"/>
       <c r="O9" s="47"/>
     </row>
-    <row r="10" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" s="11" customFormat="1">
       <c r="A10" s="29">
         <v>8</v>
       </c>
@@ -36892,7 +37296,7 @@
       <c r="N10" s="47"/>
       <c r="O10" s="47"/>
     </row>
-    <row r="11" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" s="11" customFormat="1">
       <c r="A11" s="29">
         <v>9</v>
       </c>
@@ -36933,7 +37337,7 @@
       <c r="N11" s="47"/>
       <c r="O11" s="47"/>
     </row>
-    <row r="12" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" s="11" customFormat="1">
       <c r="A12" s="29">
         <v>10</v>
       </c>
@@ -36974,7 +37378,7 @@
       <c r="N12" s="47"/>
       <c r="O12" s="47"/>
     </row>
-    <row r="13" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" s="11" customFormat="1">
       <c r="A13" s="29">
         <v>12</v>
       </c>
@@ -37015,7 +37419,7 @@
       <c r="N13" s="47"/>
       <c r="O13" s="47"/>
     </row>
-    <row r="14" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" s="11" customFormat="1">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -37056,7 +37460,7 @@
       <c r="N14" s="47"/>
       <c r="O14" s="47"/>
     </row>
-    <row r="15" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" s="11" customFormat="1">
       <c r="A15" s="29">
         <v>14</v>
       </c>
@@ -37097,7 +37501,7 @@
       <c r="N15" s="47"/>
       <c r="O15" s="47"/>
     </row>
-    <row r="16" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" s="66" customFormat="1">
       <c r="A16" s="33">
         <v>19</v>
       </c>
@@ -37138,7 +37542,7 @@
       <c r="N16" s="76"/>
       <c r="O16" s="76"/>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" s="11" customFormat="1">
       <c r="A17" s="29">
         <v>20</v>
       </c>
@@ -37183,7 +37587,7 @@
       </c>
       <c r="O17" s="47"/>
     </row>
-    <row r="18" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" s="66" customFormat="1">
       <c r="A18" s="33">
         <v>22</v>
       </c>
@@ -37224,7 +37628,7 @@
       <c r="N18" s="76"/>
       <c r="O18" s="76"/>
     </row>
-    <row r="19" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" s="81" customFormat="1">
       <c r="A19" s="78">
         <v>23</v>
       </c>
@@ -37258,7 +37662,7 @@
       <c r="K19" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L19" s="114" t="s">
+      <c r="L19" s="113" t="s">
         <v>1663</v>
       </c>
       <c r="M19" s="78" t="s">
@@ -37267,7 +37671,7 @@
       <c r="N19" s="80"/>
       <c r="O19" s="80"/>
     </row>
-    <row r="20" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" s="81" customFormat="1">
       <c r="A20" s="78">
         <v>24</v>
       </c>
@@ -37301,14 +37705,14 @@
       <c r="K20" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L20" s="115"/>
+      <c r="L20" s="114"/>
       <c r="M20" s="78" t="s">
         <v>565</v>
       </c>
       <c r="N20" s="80"/>
       <c r="O20" s="80"/>
     </row>
-    <row r="21" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" s="66" customFormat="1">
       <c r="A21" s="33">
         <v>25</v>
       </c>
@@ -37349,7 +37753,7 @@
       <c r="N21" s="76"/>
       <c r="O21" s="76"/>
     </row>
-    <row r="22" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" s="66" customFormat="1">
       <c r="A22" s="33">
         <v>26</v>
       </c>
@@ -37390,7 +37794,7 @@
       <c r="N22" s="76"/>
       <c r="O22" s="76"/>
     </row>
-    <row r="23" spans="1:15" s="84" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" s="84" customFormat="1">
       <c r="A23" s="82">
         <v>27</v>
       </c>
@@ -37435,7 +37839,7 @@
       </c>
       <c r="O23" s="83"/>
     </row>
-    <row r="24" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" s="81" customFormat="1">
       <c r="A24" s="78">
         <v>28</v>
       </c>
@@ -37469,7 +37873,7 @@
       <c r="K24" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L24" s="114" t="s">
+      <c r="L24" s="113" t="s">
         <v>1670</v>
       </c>
       <c r="M24" s="78" t="s">
@@ -37478,7 +37882,7 @@
       <c r="N24" s="80"/>
       <c r="O24" s="80"/>
     </row>
-    <row r="25" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" s="81" customFormat="1">
       <c r="A25" s="78">
         <v>29</v>
       </c>
@@ -37512,14 +37916,14 @@
       <c r="K25" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L25" s="115"/>
+      <c r="L25" s="114"/>
       <c r="M25" s="78" t="s">
         <v>565</v>
       </c>
       <c r="N25" s="80"/>
       <c r="O25" s="80"/>
     </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" s="11" customFormat="1">
       <c r="A26" s="29">
         <v>30</v>
       </c>
@@ -37560,7 +37964,7 @@
       <c r="N26" s="47"/>
       <c r="O26" s="47"/>
     </row>
-    <row r="27" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" s="81" customFormat="1">
       <c r="A27" s="78">
         <v>31</v>
       </c>
@@ -37605,7 +38009,7 @@
       </c>
       <c r="O27" s="80"/>
     </row>
-    <row r="28" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" s="81" customFormat="1">
       <c r="A28" s="78">
         <v>32</v>
       </c>
@@ -37648,7 +38052,7 @@
       <c r="N28" s="80"/>
       <c r="O28" s="80"/>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" s="11" customFormat="1">
       <c r="A29" s="29">
         <v>33</v>
       </c>
@@ -37689,7 +38093,7 @@
       <c r="N29" s="47"/>
       <c r="O29" s="47"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" s="11" customFormat="1">
       <c r="A30" s="29">
         <v>34</v>
       </c>
@@ -37730,7 +38134,7 @@
       <c r="N30" s="47"/>
       <c r="O30" s="47"/>
     </row>
-    <row r="31" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" s="81" customFormat="1">
       <c r="A31" s="78">
         <v>35</v>
       </c>
@@ -37775,7 +38179,7 @@
       </c>
       <c r="O31" s="80"/>
     </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" s="11" customFormat="1">
       <c r="A32" s="29">
         <v>36</v>
       </c>
@@ -37816,7 +38220,7 @@
       <c r="N32" s="47"/>
       <c r="O32" s="47"/>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" s="11" customFormat="1">
       <c r="A33" s="29">
         <v>37</v>
       </c>
@@ -37856,7 +38260,7 @@
       <c r="N33" s="47"/>
       <c r="O33" s="47"/>
     </row>
-    <row r="34" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" s="81" customFormat="1">
       <c r="A34" s="78">
         <v>38</v>
       </c>
@@ -37899,7 +38303,7 @@
       <c r="N34" s="80"/>
       <c r="O34" s="80"/>
     </row>
-    <row r="35" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" s="81" customFormat="1">
       <c r="A35" s="78">
         <v>39</v>
       </c>
@@ -37944,7 +38348,7 @@
       </c>
       <c r="O35" s="80"/>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" s="11" customFormat="1">
       <c r="A36" s="29">
         <v>40</v>
       </c>
@@ -37985,7 +38389,7 @@
       <c r="N36" s="47"/>
       <c r="O36" s="47"/>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" s="11" customFormat="1">
       <c r="A37" s="29">
         <v>41</v>
       </c>
@@ -38026,7 +38430,7 @@
       <c r="N37" s="47"/>
       <c r="O37" s="47"/>
     </row>
-    <row r="38" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" s="11" customFormat="1">
       <c r="A38" s="29">
         <v>42</v>
       </c>
@@ -38067,7 +38471,7 @@
       <c r="N38" s="47"/>
       <c r="O38" s="47"/>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" s="11" customFormat="1">
       <c r="A39" s="29">
         <v>43</v>
       </c>
@@ -38108,7 +38512,7 @@
       <c r="N39" s="47"/>
       <c r="O39" s="47"/>
     </row>
-    <row r="40" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" s="81" customFormat="1">
       <c r="A40" s="78">
         <v>44</v>
       </c>
@@ -38153,7 +38557,7 @@
       </c>
       <c r="O40" s="80"/>
     </row>
-    <row r="41" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" s="11" customFormat="1">
       <c r="A41" s="29">
         <v>45</v>
       </c>
@@ -38194,7 +38598,7 @@
       <c r="N41" s="47"/>
       <c r="O41" s="47"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:15" s="11" customFormat="1">
       <c r="A42" s="29">
         <v>46</v>
       </c>
@@ -38235,7 +38639,7 @@
       <c r="N42" s="47"/>
       <c r="O42" s="47"/>
     </row>
-    <row r="43" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:15" s="81" customFormat="1">
       <c r="A43" s="78">
         <v>47</v>
       </c>
@@ -38269,7 +38673,7 @@
       <c r="K43" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L43" s="114" t="s">
+      <c r="L43" s="113" t="s">
         <v>1695</v>
       </c>
       <c r="M43" s="78" t="s">
@@ -38278,7 +38682,7 @@
       <c r="N43" s="80"/>
       <c r="O43" s="80"/>
     </row>
-    <row r="44" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" s="81" customFormat="1">
       <c r="A44" s="78">
         <v>48</v>
       </c>
@@ -38312,14 +38716,14 @@
       <c r="K44" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L44" s="115"/>
+      <c r="L44" s="114"/>
       <c r="M44" s="78" t="s">
         <v>565</v>
       </c>
       <c r="N44" s="80"/>
       <c r="O44" s="80"/>
     </row>
-    <row r="45" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:15" s="11" customFormat="1">
       <c r="A45" s="29">
         <v>49</v>
       </c>
@@ -38360,7 +38764,7 @@
       <c r="N45" s="47"/>
       <c r="O45" s="47"/>
     </row>
-    <row r="46" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:15" s="11" customFormat="1">
       <c r="A46" s="29">
         <v>50</v>
       </c>
@@ -38401,7 +38805,7 @@
       <c r="N46" s="47"/>
       <c r="O46" s="47"/>
     </row>
-    <row r="47" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:15" s="11" customFormat="1">
       <c r="A47" s="29">
         <v>51</v>
       </c>
@@ -38442,7 +38846,7 @@
       <c r="N47" s="47"/>
       <c r="O47" s="47"/>
     </row>
-    <row r="48" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" s="11" customFormat="1">
       <c r="A48" s="29">
         <v>52</v>
       </c>
@@ -38483,7 +38887,7 @@
       <c r="N48" s="47"/>
       <c r="O48" s="47"/>
     </row>
-    <row r="49" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:15" s="11" customFormat="1">
       <c r="A49" s="29">
         <v>53</v>
       </c>
@@ -38524,7 +38928,7 @@
       <c r="N49" s="47"/>
       <c r="O49" s="47"/>
     </row>
-    <row r="50" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:15" s="81" customFormat="1">
       <c r="A50" s="78">
         <v>54</v>
       </c>
@@ -38567,7 +38971,7 @@
       <c r="N50" s="80"/>
       <c r="O50" s="80"/>
     </row>
-    <row r="51" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15" s="81" customFormat="1">
       <c r="A51" s="78">
         <v>55</v>
       </c>
@@ -38612,7 +39016,7 @@
       </c>
       <c r="O51" s="80"/>
     </row>
-    <row r="52" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15" s="11" customFormat="1">
       <c r="A52" s="29">
         <v>57</v>
       </c>
@@ -38653,7 +39057,7 @@
       <c r="N52" s="47"/>
       <c r="O52" s="47"/>
     </row>
-    <row r="53" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:15" s="11" customFormat="1">
       <c r="A53" s="29">
         <v>58</v>
       </c>
@@ -38694,7 +39098,7 @@
       <c r="N53" s="47"/>
       <c r="O53" s="47"/>
     </row>
-    <row r="54" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15" s="11" customFormat="1">
       <c r="A54" s="29">
         <v>59</v>
       </c>
@@ -38735,7 +39139,7 @@
       <c r="N54" s="47"/>
       <c r="O54" s="47"/>
     </row>
-    <row r="55" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:15" s="81" customFormat="1">
       <c r="A55" s="78">
         <v>61</v>
       </c>
@@ -38769,7 +39173,7 @@
       <c r="K55" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L55" s="114" t="s">
+      <c r="L55" s="113" t="s">
         <v>1700</v>
       </c>
       <c r="M55" s="78" t="s">
@@ -38778,7 +39182,7 @@
       <c r="N55" s="80"/>
       <c r="O55" s="80"/>
     </row>
-    <row r="56" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:15" s="81" customFormat="1">
       <c r="A56" s="78">
         <v>62</v>
       </c>
@@ -38812,14 +39216,14 @@
       <c r="K56" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L56" s="115"/>
+      <c r="L56" s="114"/>
       <c r="M56" s="78" t="s">
         <v>565</v>
       </c>
       <c r="N56" s="80"/>
       <c r="O56" s="80"/>
     </row>
-    <row r="57" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:15" s="11" customFormat="1">
       <c r="A57" s="29">
         <v>63</v>
       </c>
@@ -38860,7 +39264,7 @@
       <c r="N57" s="47"/>
       <c r="O57" s="47"/>
     </row>
-    <row r="58" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15" s="11" customFormat="1">
       <c r="A58" s="29">
         <v>64</v>
       </c>
@@ -38901,7 +39305,7 @@
       <c r="N58" s="47"/>
       <c r="O58" s="47"/>
     </row>
-    <row r="59" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:15" s="11" customFormat="1">
       <c r="A59" s="29">
         <v>65</v>
       </c>
@@ -38942,7 +39346,7 @@
       <c r="N59" s="47"/>
       <c r="O59" s="47"/>
     </row>
-    <row r="60" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:15" s="81" customFormat="1">
       <c r="A60" s="78">
         <v>66</v>
       </c>
@@ -38985,7 +39389,7 @@
       <c r="N60" s="80"/>
       <c r="O60" s="80"/>
     </row>
-    <row r="61" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:15" s="11" customFormat="1">
       <c r="A61" s="29">
         <v>67</v>
       </c>
@@ -39026,7 +39430,7 @@
       <c r="N61" s="47"/>
       <c r="O61" s="47"/>
     </row>
-    <row r="62" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:15" s="11" customFormat="1">
       <c r="A62" s="29">
         <v>68</v>
       </c>
@@ -39067,7 +39471,7 @@
       <c r="N62" s="47"/>
       <c r="O62" s="47"/>
     </row>
-    <row r="63" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:15" s="81" customFormat="1">
       <c r="A63" s="78">
         <v>69</v>
       </c>
@@ -39101,7 +39505,7 @@
       <c r="K63" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L63" s="114" t="s">
+      <c r="L63" s="113" t="s">
         <v>1675</v>
       </c>
       <c r="M63" s="78" t="s">
@@ -39110,7 +39514,7 @@
       <c r="N63" s="80"/>
       <c r="O63" s="80"/>
     </row>
-    <row r="64" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:15" s="81" customFormat="1">
       <c r="A64" s="78">
         <v>70</v>
       </c>
@@ -39144,14 +39548,14 @@
       <c r="K64" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L64" s="115"/>
+      <c r="L64" s="114"/>
       <c r="M64" s="78" t="s">
         <v>565</v>
       </c>
       <c r="N64" s="80"/>
       <c r="O64" s="80"/>
     </row>
-    <row r="65" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:15" s="66" customFormat="1">
       <c r="A65" s="33">
         <v>71</v>
       </c>
@@ -39192,7 +39596,7 @@
       <c r="N65" s="76"/>
       <c r="O65" s="76"/>
     </row>
-    <row r="66" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:15" s="11" customFormat="1">
       <c r="A66" s="29">
         <v>72</v>
       </c>
@@ -39233,7 +39637,7 @@
       <c r="N66" s="47"/>
       <c r="O66" s="47"/>
     </row>
-    <row r="67" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:15" s="11" customFormat="1">
       <c r="A67" s="29">
         <v>73</v>
       </c>
@@ -39274,7 +39678,7 @@
       <c r="N67" s="47"/>
       <c r="O67" s="47"/>
     </row>
-    <row r="68" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:15" s="81" customFormat="1">
       <c r="A68" s="78">
         <v>75</v>
       </c>
@@ -39308,7 +39712,7 @@
       <c r="K68" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L68" s="114" t="s">
+      <c r="L68" s="113" t="s">
         <v>1704</v>
       </c>
       <c r="M68" s="78" t="s">
@@ -39317,7 +39721,7 @@
       <c r="N68" s="80"/>
       <c r="O68" s="80"/>
     </row>
-    <row r="69" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:15" s="81" customFormat="1">
       <c r="A69" s="78">
         <v>76</v>
       </c>
@@ -39351,14 +39755,14 @@
       <c r="K69" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L69" s="116"/>
+      <c r="L69" s="115"/>
       <c r="M69" s="78" t="s">
         <v>565</v>
       </c>
       <c r="N69" s="80"/>
       <c r="O69" s="80"/>
     </row>
-    <row r="70" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:15" s="81" customFormat="1">
       <c r="A70" s="78">
         <v>77</v>
       </c>
@@ -39392,14 +39796,14 @@
       <c r="K70" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L70" s="115"/>
+      <c r="L70" s="114"/>
       <c r="M70" s="78" t="s">
         <v>565</v>
       </c>
       <c r="N70" s="80"/>
       <c r="O70" s="80"/>
     </row>
-    <row r="71" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" s="81" customFormat="1">
       <c r="A71" s="78">
         <v>78</v>
       </c>
@@ -39442,7 +39846,7 @@
       <c r="N71" s="80"/>
       <c r="O71" s="80"/>
     </row>
-    <row r="72" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:15" s="81" customFormat="1">
       <c r="A72" s="78">
         <v>79</v>
       </c>
@@ -39476,7 +39880,7 @@
       <c r="K72" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L72" s="114" t="s">
+      <c r="L72" s="113" t="s">
         <v>1795</v>
       </c>
       <c r="M72" s="78" t="s">
@@ -39485,7 +39889,7 @@
       <c r="N72" s="80"/>
       <c r="O72" s="80"/>
     </row>
-    <row r="73" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:15" s="81" customFormat="1">
       <c r="A73" s="78">
         <v>80</v>
       </c>
@@ -39519,14 +39923,14 @@
       <c r="K73" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L73" s="115"/>
+      <c r="L73" s="114"/>
       <c r="M73" s="78" t="s">
         <v>565</v>
       </c>
       <c r="N73" s="80"/>
       <c r="O73" s="80"/>
     </row>
-    <row r="74" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:15" s="11" customFormat="1">
       <c r="A74" s="29">
         <v>81</v>
       </c>
@@ -39567,7 +39971,7 @@
       <c r="N74" s="47"/>
       <c r="O74" s="47"/>
     </row>
-    <row r="75" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:15" s="11" customFormat="1">
       <c r="A75" s="29">
         <v>82</v>
       </c>
@@ -39608,7 +40012,7 @@
       <c r="N75" s="47"/>
       <c r="O75" s="47"/>
     </row>
-    <row r="76" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:15" s="11" customFormat="1">
       <c r="A76" s="29">
         <v>83</v>
       </c>
@@ -39649,7 +40053,7 @@
       <c r="N76" s="47"/>
       <c r="O76" s="47"/>
     </row>
-    <row r="77" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:15" s="11" customFormat="1">
       <c r="A77" s="29">
         <v>84</v>
       </c>
@@ -39690,7 +40094,7 @@
       <c r="N77" s="47"/>
       <c r="O77" s="47"/>
     </row>
-    <row r="78" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:15" s="81" customFormat="1">
       <c r="A78" s="78">
         <v>85</v>
       </c>
@@ -39733,7 +40137,7 @@
       <c r="N78" s="80"/>
       <c r="O78" s="80"/>
     </row>
-    <row r="79" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:15" s="11" customFormat="1">
       <c r="A79" s="29">
         <v>86</v>
       </c>
@@ -39774,7 +40178,7 @@
       <c r="N79" s="47"/>
       <c r="O79" s="47"/>
     </row>
-    <row r="80" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:15" s="11" customFormat="1">
       <c r="A80" s="29">
         <v>87</v>
       </c>
@@ -39815,7 +40219,7 @@
       <c r="N80" s="47"/>
       <c r="O80" s="47"/>
     </row>
-    <row r="81" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:15" s="11" customFormat="1">
       <c r="A81" s="29">
         <v>88</v>
       </c>
@@ -39856,7 +40260,7 @@
       <c r="N81" s="47"/>
       <c r="O81" s="47"/>
     </row>
-    <row r="82" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:15" s="81" customFormat="1">
       <c r="A82" s="78">
         <v>89</v>
       </c>
@@ -39901,7 +40305,7 @@
       </c>
       <c r="O82" s="80"/>
     </row>
-    <row r="83" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:15" s="81" customFormat="1">
       <c r="A83" s="78">
         <v>90</v>
       </c>
@@ -39944,7 +40348,7 @@
       <c r="N83" s="80"/>
       <c r="O83" s="80"/>
     </row>
-    <row r="84" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:15" s="81" customFormat="1">
       <c r="A84" s="78">
         <v>91</v>
       </c>
@@ -39987,7 +40391,7 @@
       <c r="N84" s="80"/>
       <c r="O84" s="80"/>
     </row>
-    <row r="85" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:15" s="81" customFormat="1">
       <c r="A85" s="78">
         <v>92</v>
       </c>
@@ -40021,7 +40425,7 @@
       <c r="K85" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L85" s="114" t="s">
+      <c r="L85" s="113" t="s">
         <v>1791</v>
       </c>
       <c r="M85" s="78" t="s">
@@ -40030,7 +40434,7 @@
       <c r="N85" s="80"/>
       <c r="O85" s="80"/>
     </row>
-    <row r="86" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:15" s="81" customFormat="1">
       <c r="A86" s="78">
         <v>93</v>
       </c>
@@ -40064,14 +40468,14 @@
       <c r="K86" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L86" s="116"/>
+      <c r="L86" s="115"/>
       <c r="M86" s="78" t="s">
         <v>565</v>
       </c>
       <c r="N86" s="80"/>
       <c r="O86" s="80"/>
     </row>
-    <row r="87" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:15" s="81" customFormat="1">
       <c r="A87" s="78">
         <v>94</v>
       </c>
@@ -40105,14 +40509,14 @@
       <c r="K87" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L87" s="115"/>
+      <c r="L87" s="114"/>
       <c r="M87" s="78" t="s">
         <v>565</v>
       </c>
       <c r="N87" s="80"/>
       <c r="O87" s="80"/>
     </row>
-    <row r="88" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:15" s="81" customFormat="1">
       <c r="A88" s="78">
         <v>95</v>
       </c>
@@ -40157,7 +40561,7 @@
       </c>
       <c r="O88" s="80"/>
     </row>
-    <row r="89" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:15" s="11" customFormat="1">
       <c r="A89" s="29">
         <v>96</v>
       </c>
@@ -40198,7 +40602,7 @@
       <c r="N89" s="47"/>
       <c r="O89" s="47"/>
     </row>
-    <row r="90" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:15" s="11" customFormat="1">
       <c r="A90" s="29">
         <v>97</v>
       </c>
@@ -40239,7 +40643,7 @@
       <c r="N90" s="47"/>
       <c r="O90" s="47"/>
     </row>
-    <row r="91" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:15" s="81" customFormat="1">
       <c r="A91" s="78">
         <v>98</v>
       </c>
@@ -40282,7 +40686,7 @@
       <c r="N91" s="80"/>
       <c r="O91" s="80"/>
     </row>
-    <row r="92" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:15" s="11" customFormat="1">
       <c r="A92" s="29">
         <v>99</v>
       </c>
@@ -40323,7 +40727,7 @@
       <c r="N92" s="47"/>
       <c r="O92" s="47"/>
     </row>
-    <row r="93" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:15" s="11" customFormat="1">
       <c r="A93" s="29">
         <v>100</v>
       </c>
@@ -40364,7 +40768,7 @@
       <c r="N93" s="47"/>
       <c r="O93" s="47"/>
     </row>
-    <row r="94" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:15" s="81" customFormat="1">
       <c r="A94" s="78">
         <v>101</v>
       </c>
@@ -40405,7 +40809,7 @@
       <c r="N94" s="80"/>
       <c r="O94" s="80"/>
     </row>
-    <row r="95" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:15" s="11" customFormat="1">
       <c r="A95" s="29">
         <v>102</v>
       </c>
@@ -40446,7 +40850,7 @@
       <c r="N95" s="47"/>
       <c r="O95" s="47"/>
     </row>
-    <row r="96" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:15" s="11" customFormat="1">
       <c r="A96" s="29">
         <v>103</v>
       </c>
@@ -40487,7 +40891,7 @@
       <c r="N96" s="47"/>
       <c r="O96" s="47"/>
     </row>
-    <row r="97" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:15" s="11" customFormat="1">
       <c r="A97" s="29">
         <v>104</v>
       </c>
@@ -40528,7 +40932,7 @@
       <c r="N97" s="47"/>
       <c r="O97" s="47"/>
     </row>
-    <row r="98" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:15" s="11" customFormat="1">
       <c r="A98" s="29">
         <v>105</v>
       </c>
@@ -40569,7 +40973,7 @@
       <c r="N98" s="47"/>
       <c r="O98" s="47"/>
     </row>
-    <row r="99" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:15" s="81" customFormat="1">
       <c r="A99" s="78">
         <v>106</v>
       </c>
@@ -40612,7 +41016,7 @@
       <c r="N99" s="80"/>
       <c r="O99" s="80"/>
     </row>
-    <row r="100" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:15" s="11" customFormat="1">
       <c r="A100" s="29">
         <v>107</v>
       </c>
@@ -40653,7 +41057,7 @@
       <c r="N100" s="47"/>
       <c r="O100" s="47"/>
     </row>
-    <row r="101" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:15" s="11" customFormat="1">
       <c r="A101" s="29">
         <v>108</v>
       </c>
@@ -40694,7 +41098,7 @@
       <c r="N101" s="47"/>
       <c r="O101" s="47"/>
     </row>
-    <row r="102" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:15" s="81" customFormat="1">
       <c r="A102" s="78">
         <v>109</v>
       </c>
@@ -40737,7 +41141,7 @@
       <c r="N102" s="80"/>
       <c r="O102" s="80"/>
     </row>
-    <row r="103" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:15" s="11" customFormat="1">
       <c r="A103" s="29">
         <v>110</v>
       </c>
@@ -40778,7 +41182,7 @@
       <c r="N103" s="47"/>
       <c r="O103" s="47"/>
     </row>
-    <row r="104" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:15" s="11" customFormat="1">
       <c r="A104" s="29">
         <v>111</v>
       </c>
@@ -40819,7 +41223,7 @@
       <c r="N104" s="47"/>
       <c r="O104" s="47"/>
     </row>
-    <row r="105" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:15" s="11" customFormat="1">
       <c r="A105" s="29">
         <v>112</v>
       </c>
@@ -40860,7 +41264,7 @@
       <c r="N105" s="47"/>
       <c r="O105" s="47"/>
     </row>
-    <row r="106" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:15" s="11" customFormat="1">
       <c r="A106" s="29">
         <v>113</v>
       </c>
@@ -40901,7 +41305,7 @@
       <c r="N106" s="47"/>
       <c r="O106" s="47"/>
     </row>
-    <row r="107" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:15" s="11" customFormat="1">
       <c r="A107" s="29">
         <v>114</v>
       </c>
@@ -40942,7 +41346,7 @@
       <c r="N107" s="47"/>
       <c r="O107" s="47"/>
     </row>
-    <row r="108" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:15" s="81" customFormat="1">
       <c r="A108" s="78">
         <v>115</v>
       </c>
@@ -40987,7 +41391,7 @@
       </c>
       <c r="O108" s="80"/>
     </row>
-    <row r="109" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:15" s="81" customFormat="1">
       <c r="A109" s="78">
         <v>116</v>
       </c>
@@ -41030,7 +41434,7 @@
       <c r="N109" s="80"/>
       <c r="O109" s="80"/>
     </row>
-    <row r="110" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:15" s="11" customFormat="1">
       <c r="A110" s="29">
         <v>117</v>
       </c>
@@ -41071,7 +41475,7 @@
       <c r="N110" s="47"/>
       <c r="O110" s="47"/>
     </row>
-    <row r="111" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:15" s="11" customFormat="1">
       <c r="A111" s="29">
         <v>118</v>
       </c>
@@ -41112,7 +41516,7 @@
       <c r="N111" s="47"/>
       <c r="O111" s="47"/>
     </row>
-    <row r="112" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:15" s="11" customFormat="1">
       <c r="A112" s="29">
         <v>119</v>
       </c>
@@ -41153,7 +41557,7 @@
       <c r="N112" s="47"/>
       <c r="O112" s="47"/>
     </row>
-    <row r="113" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:15" s="11" customFormat="1">
       <c r="A113" s="29">
         <v>120</v>
       </c>
@@ -41194,7 +41598,7 @@
       <c r="N113" s="47"/>
       <c r="O113" s="47"/>
     </row>
-    <row r="114" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:15" s="11" customFormat="1">
       <c r="A114" s="29">
         <v>121</v>
       </c>
@@ -41235,7 +41639,7 @@
       <c r="N114" s="47"/>
       <c r="O114" s="47"/>
     </row>
-    <row r="115" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:15" s="11" customFormat="1">
       <c r="A115" s="29">
         <v>122</v>
       </c>
@@ -41276,7 +41680,7 @@
       <c r="N115" s="47"/>
       <c r="O115" s="47"/>
     </row>
-    <row r="116" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:15" s="81" customFormat="1">
       <c r="A116" s="78">
         <v>123</v>
       </c>
@@ -41319,7 +41723,7 @@
       <c r="N116" s="80"/>
       <c r="O116" s="80"/>
     </row>
-    <row r="117" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:15" s="11" customFormat="1">
       <c r="A117" s="29">
         <v>124</v>
       </c>
@@ -41360,7 +41764,7 @@
       <c r="N117" s="47"/>
       <c r="O117" s="47"/>
     </row>
-    <row r="118" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:15" s="11" customFormat="1">
       <c r="A118" s="29">
         <v>125</v>
       </c>
@@ -41401,7 +41805,7 @@
       <c r="N118" s="47"/>
       <c r="O118" s="47"/>
     </row>
-    <row r="119" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:15" s="81" customFormat="1">
       <c r="A119" s="78">
         <v>126</v>
       </c>
@@ -41446,7 +41850,7 @@
       </c>
       <c r="O119" s="80"/>
     </row>
-    <row r="120" spans="1:15" s="91" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:15" s="91" customFormat="1">
       <c r="A120" s="88">
         <v>127</v>
       </c>
@@ -41487,7 +41891,7 @@
       <c r="N120" s="90"/>
       <c r="O120" s="90"/>
     </row>
-    <row r="121" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:15" s="11" customFormat="1">
       <c r="A121" s="29">
         <v>128</v>
       </c>
@@ -41528,7 +41932,7 @@
       <c r="N121" s="47"/>
       <c r="O121" s="47"/>
     </row>
-    <row r="122" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:15" s="11" customFormat="1">
       <c r="A122" s="29">
         <v>129</v>
       </c>
@@ -41569,7 +41973,7 @@
       <c r="N122" s="47"/>
       <c r="O122" s="47"/>
     </row>
-    <row r="123" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:15" s="11" customFormat="1">
       <c r="A123" s="29">
         <v>130</v>
       </c>
@@ -41610,7 +42014,7 @@
       <c r="N123" s="47"/>
       <c r="O123" s="47"/>
     </row>
-    <row r="124" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:15" s="81" customFormat="1">
       <c r="A124" s="78">
         <v>131</v>
       </c>
@@ -41644,7 +42048,7 @@
       <c r="K124" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L124" s="114" t="s">
+      <c r="L124" s="113" t="s">
         <v>1704</v>
       </c>
       <c r="M124" s="78" t="s">
@@ -41653,7 +42057,7 @@
       <c r="N124" s="80"/>
       <c r="O124" s="80"/>
     </row>
-    <row r="125" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:15" s="81" customFormat="1">
       <c r="A125" s="78">
         <v>132</v>
       </c>
@@ -41687,14 +42091,14 @@
       <c r="K125" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L125" s="116"/>
+      <c r="L125" s="115"/>
       <c r="M125" s="78" t="s">
         <v>565</v>
       </c>
       <c r="N125" s="80"/>
       <c r="O125" s="80"/>
     </row>
-    <row r="126" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:15" s="81" customFormat="1">
       <c r="A126" s="78">
         <v>133</v>
       </c>
@@ -41728,14 +42132,14 @@
       <c r="K126" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L126" s="115"/>
+      <c r="L126" s="114"/>
       <c r="M126" s="78" t="s">
         <v>565</v>
       </c>
       <c r="N126" s="80"/>
       <c r="O126" s="80"/>
     </row>
-    <row r="127" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:15" s="11" customFormat="1">
       <c r="A127" s="29">
         <v>134</v>
       </c>
@@ -41776,7 +42180,7 @@
       <c r="N127" s="47"/>
       <c r="O127" s="47"/>
     </row>
-    <row r="128" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:15" s="11" customFormat="1">
       <c r="A128" s="29">
         <v>135</v>
       </c>
@@ -41817,7 +42221,7 @@
       <c r="N128" s="47"/>
       <c r="O128" s="47"/>
     </row>
-    <row r="129" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:15" s="81" customFormat="1">
       <c r="A129" s="78">
         <v>136</v>
       </c>
@@ -41862,7 +42266,7 @@
       </c>
       <c r="O129" s="80"/>
     </row>
-    <row r="130" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:15" s="11" customFormat="1">
       <c r="A130" s="29">
         <v>137</v>
       </c>
@@ -41903,7 +42307,7 @@
       <c r="N130" s="47"/>
       <c r="O130" s="47"/>
     </row>
-    <row r="131" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:15" s="81" customFormat="1">
       <c r="A131" s="78">
         <v>138</v>
       </c>
@@ -41937,7 +42341,7 @@
       <c r="K131" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L131" s="114" t="s">
+      <c r="L131" s="113" t="s">
         <v>1684</v>
       </c>
       <c r="M131" s="78" t="s">
@@ -41946,7 +42350,7 @@
       <c r="N131" s="80"/>
       <c r="O131" s="80"/>
     </row>
-    <row r="132" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:15" s="81" customFormat="1">
       <c r="A132" s="78">
         <v>139</v>
       </c>
@@ -41980,14 +42384,14 @@
       <c r="K132" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L132" s="116"/>
+      <c r="L132" s="115"/>
       <c r="M132" s="78" t="s">
         <v>565</v>
       </c>
       <c r="N132" s="80"/>
       <c r="O132" s="80"/>
     </row>
-    <row r="133" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:15" s="81" customFormat="1">
       <c r="A133" s="78">
         <v>140</v>
       </c>
@@ -42021,14 +42425,14 @@
       <c r="K133" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L133" s="115"/>
+      <c r="L133" s="114"/>
       <c r="M133" s="78" t="s">
         <v>565</v>
       </c>
       <c r="N133" s="80"/>
       <c r="O133" s="80"/>
     </row>
-    <row r="134" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:15" s="11" customFormat="1">
       <c r="A134" s="29">
         <v>141</v>
       </c>
@@ -42069,7 +42473,7 @@
       <c r="N134" s="47"/>
       <c r="O134" s="47"/>
     </row>
-    <row r="135" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:15" s="11" customFormat="1">
       <c r="A135" s="29">
         <v>142</v>
       </c>
@@ -42110,7 +42514,7 @@
       <c r="N135" s="47"/>
       <c r="O135" s="47"/>
     </row>
-    <row r="136" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:15" s="87" customFormat="1">
       <c r="A136" s="85">
         <v>143</v>
       </c>
@@ -42153,7 +42557,7 @@
       <c r="N136" s="86"/>
       <c r="O136" s="86"/>
     </row>
-    <row r="137" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:15" s="87" customFormat="1">
       <c r="A137" s="85">
         <v>144</v>
       </c>
@@ -42196,7 +42600,7 @@
       <c r="N137" s="86"/>
       <c r="O137" s="86"/>
     </row>
-    <row r="138" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:15" s="87" customFormat="1">
       <c r="A138" s="85">
         <v>145</v>
       </c>
@@ -42239,7 +42643,7 @@
       <c r="N138" s="86"/>
       <c r="O138" s="86"/>
     </row>
-    <row r="139" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:15" s="87" customFormat="1">
       <c r="A139" s="85">
         <v>146</v>
       </c>
@@ -42282,7 +42686,7 @@
       <c r="N139" s="86"/>
       <c r="O139" s="86"/>
     </row>
-    <row r="140" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:15" s="87" customFormat="1">
       <c r="A140" s="85">
         <v>147</v>
       </c>
@@ -42325,7 +42729,7 @@
       <c r="N140" s="86"/>
       <c r="O140" s="86"/>
     </row>
-    <row r="141" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:15" s="87" customFormat="1">
       <c r="A141" s="85">
         <v>148</v>
       </c>
@@ -42368,7 +42772,7 @@
       <c r="N141" s="86"/>
       <c r="O141" s="86"/>
     </row>
-    <row r="142" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:15" s="87" customFormat="1">
       <c r="A142" s="85">
         <v>149</v>
       </c>
@@ -42411,7 +42815,7 @@
       <c r="N142" s="86"/>
       <c r="O142" s="86"/>
     </row>
-    <row r="143" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:15" s="87" customFormat="1">
       <c r="A143" s="85">
         <v>150</v>
       </c>
@@ -42454,7 +42858,7 @@
       <c r="N143" s="86"/>
       <c r="O143" s="86"/>
     </row>
-    <row r="144" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:15" s="87" customFormat="1">
       <c r="A144" s="85">
         <v>151</v>
       </c>
@@ -42497,7 +42901,7 @@
       <c r="N144" s="86"/>
       <c r="O144" s="86"/>
     </row>
-    <row r="145" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:15" s="87" customFormat="1">
       <c r="A145" s="85">
         <v>152</v>
       </c>
@@ -42540,7 +42944,7 @@
       <c r="N145" s="86"/>
       <c r="O145" s="86"/>
     </row>
-    <row r="146" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:15" s="87" customFormat="1">
       <c r="A146" s="85">
         <v>153</v>
       </c>
@@ -42583,7 +42987,7 @@
       <c r="N146" s="86"/>
       <c r="O146" s="86"/>
     </row>
-    <row r="147" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:15" s="87" customFormat="1">
       <c r="A147" s="85">
         <v>154</v>
       </c>
@@ -42626,7 +43030,7 @@
       <c r="N147" s="86"/>
       <c r="O147" s="86"/>
     </row>
-    <row r="148" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:15" s="87" customFormat="1">
       <c r="A148" s="85">
         <v>155</v>
       </c>
@@ -42669,7 +43073,7 @@
       <c r="N148" s="86"/>
       <c r="O148" s="86"/>
     </row>
-    <row r="149" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:15" s="87" customFormat="1">
       <c r="A149" s="85">
         <v>156</v>
       </c>
@@ -42712,7 +43116,7 @@
       <c r="N149" s="86"/>
       <c r="O149" s="86"/>
     </row>
-    <row r="150" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:15" s="87" customFormat="1">
       <c r="A150" s="85">
         <v>157</v>
       </c>
@@ -42755,7 +43159,7 @@
       <c r="N150" s="86"/>
       <c r="O150" s="86"/>
     </row>
-    <row r="151" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:15" s="87" customFormat="1">
       <c r="A151" s="85">
         <v>158</v>
       </c>
@@ -42798,7 +43202,7 @@
       <c r="N151" s="86"/>
       <c r="O151" s="86"/>
     </row>
-    <row r="152" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:15" s="87" customFormat="1">
       <c r="A152" s="85">
         <v>159</v>
       </c>
@@ -42841,7 +43245,7 @@
       <c r="N152" s="86"/>
       <c r="O152" s="86"/>
     </row>
-    <row r="153" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:15" s="87" customFormat="1">
       <c r="A153" s="85">
         <v>160</v>
       </c>
@@ -42884,7 +43288,7 @@
       <c r="N153" s="86"/>
       <c r="O153" s="86"/>
     </row>
-    <row r="154" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:15" s="87" customFormat="1">
       <c r="A154" s="85">
         <v>161</v>
       </c>
@@ -42927,7 +43331,7 @@
       <c r="N154" s="86"/>
       <c r="O154" s="86"/>
     </row>
-    <row r="155" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:15" s="87" customFormat="1">
       <c r="A155" s="85">
         <v>162</v>
       </c>
@@ -42970,7 +43374,7 @@
       <c r="N155" s="86"/>
       <c r="O155" s="86"/>
     </row>
-    <row r="156" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:15" s="87" customFormat="1">
       <c r="A156" s="85">
         <v>163</v>
       </c>
@@ -43013,7 +43417,7 @@
       <c r="N156" s="86"/>
       <c r="O156" s="86"/>
     </row>
-    <row r="157" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:15" s="87" customFormat="1">
       <c r="A157" s="85">
         <v>164</v>
       </c>
@@ -43056,7 +43460,7 @@
       <c r="N157" s="86"/>
       <c r="O157" s="86"/>
     </row>
-    <row r="158" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:15" s="87" customFormat="1">
       <c r="A158" s="85">
         <v>165</v>
       </c>
@@ -43099,7 +43503,7 @@
       <c r="N158" s="86"/>
       <c r="O158" s="86"/>
     </row>
-    <row r="159" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:15" s="81" customFormat="1">
       <c r="A159" s="78">
         <v>166</v>
       </c>
@@ -43133,7 +43537,7 @@
       <c r="K159" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L159" s="114" t="s">
+      <c r="L159" s="113" t="s">
         <v>1704</v>
       </c>
       <c r="M159" s="78" t="s">
@@ -43142,7 +43546,7 @@
       <c r="N159" s="80"/>
       <c r="O159" s="80"/>
     </row>
-    <row r="160" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:15" s="81" customFormat="1">
       <c r="A160" s="78">
         <v>167</v>
       </c>
@@ -43176,14 +43580,14 @@
       <c r="K160" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L160" s="115"/>
+      <c r="L160" s="114"/>
       <c r="M160" s="78" t="s">
         <v>565</v>
       </c>
       <c r="N160" s="80"/>
       <c r="O160" s="80"/>
     </row>
-    <row r="161" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:15" s="81" customFormat="1">
       <c r="A161" s="78">
         <v>168</v>
       </c>
@@ -43228,7 +43632,7 @@
       </c>
       <c r="O161" s="80"/>
     </row>
-    <row r="162" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:15" s="11" customFormat="1">
       <c r="A162" s="29">
         <v>169</v>
       </c>
@@ -43269,7 +43673,7 @@
       <c r="N162" s="47"/>
       <c r="O162" s="47"/>
     </row>
-    <row r="163" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:15" s="81" customFormat="1">
       <c r="A163" s="78">
         <v>170</v>
       </c>
@@ -43312,7 +43716,7 @@
       <c r="N163" s="80"/>
       <c r="O163" s="80"/>
     </row>
-    <row r="164" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:15" s="11" customFormat="1">
       <c r="A164" s="29">
         <v>171</v>
       </c>
@@ -43353,7 +43757,7 @@
       <c r="N164" s="47"/>
       <c r="O164" s="47"/>
     </row>
-    <row r="165" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:15" s="81" customFormat="1">
       <c r="A165" s="78">
         <v>172</v>
       </c>
@@ -43398,7 +43802,7 @@
       </c>
       <c r="O165" s="80"/>
     </row>
-    <row r="166" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:15" s="11" customFormat="1">
       <c r="A166" s="29">
         <v>173</v>
       </c>
@@ -43439,7 +43843,7 @@
       <c r="N166" s="47"/>
       <c r="O166" s="47"/>
     </row>
-    <row r="167" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:15" s="11" customFormat="1">
       <c r="A167" s="29">
         <v>174</v>
       </c>
@@ -43480,7 +43884,7 @@
       <c r="N167" s="47"/>
       <c r="O167" s="47"/>
     </row>
-    <row r="168" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:15" s="81" customFormat="1">
       <c r="A168" s="78">
         <v>175</v>
       </c>
@@ -43523,7 +43927,7 @@
       <c r="N168" s="80"/>
       <c r="O168" s="80"/>
     </row>
-    <row r="169" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:15" s="81" customFormat="1">
       <c r="A169" s="78">
         <v>176</v>
       </c>
@@ -43568,7 +43972,7 @@
       </c>
       <c r="O169" s="80"/>
     </row>
-    <row r="170" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:15" s="66" customFormat="1">
       <c r="A170" s="33">
         <v>188</v>
       </c>
@@ -43609,7 +44013,7 @@
       <c r="N170" s="76"/>
       <c r="O170" s="76"/>
     </row>
-    <row r="171" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:15" s="11" customFormat="1">
       <c r="A171" s="29">
         <v>189</v>
       </c>
@@ -43650,7 +44054,7 @@
       <c r="N171" s="47"/>
       <c r="O171" s="47"/>
     </row>
-    <row r="172" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:15" s="11" customFormat="1">
       <c r="A172" s="29">
         <v>190</v>
       </c>
@@ -43691,7 +44095,7 @@
       <c r="N172" s="47"/>
       <c r="O172" s="47"/>
     </row>
-    <row r="173" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:15" s="66" customFormat="1">
       <c r="A173" s="33">
         <v>191</v>
       </c>
@@ -43732,7 +44136,7 @@
       <c r="N173" s="76"/>
       <c r="O173" s="76"/>
     </row>
-    <row r="174" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:15" s="11" customFormat="1">
       <c r="A174" s="29">
         <v>193</v>
       </c>
@@ -43773,7 +44177,7 @@
       <c r="N174" s="47"/>
       <c r="O174" s="47"/>
     </row>
-    <row r="175" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:15" s="66" customFormat="1">
       <c r="A175" s="33">
         <v>199</v>
       </c>
@@ -43814,7 +44218,7 @@
       <c r="N175" s="76"/>
       <c r="O175" s="76"/>
     </row>
-    <row r="176" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:15" s="66" customFormat="1">
       <c r="A176" s="33">
         <v>202</v>
       </c>
@@ -43855,7 +44259,7 @@
       <c r="N176" s="76"/>
       <c r="O176" s="76"/>
     </row>
-    <row r="177" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:15" s="66" customFormat="1">
       <c r="A177" s="33">
         <v>205</v>
       </c>
@@ -43896,7 +44300,7 @@
       <c r="N177" s="76"/>
       <c r="O177" s="76"/>
     </row>
-    <row r="178" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:15" s="66" customFormat="1">
       <c r="A178" s="33">
         <v>206</v>
       </c>
@@ -44020,13 +44424,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.75" style="3" customWidth="1"/>
@@ -44039,7 +44443,7 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>1773</v>
       </c>
@@ -44068,7 +44472,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="97">
         <v>1</v>
       </c>
@@ -44081,7 +44485,7 @@
       <c r="D2" s="98" t="s">
         <v>1730</v>
       </c>
-      <c r="E2" s="109" t="s">
+      <c r="E2" s="108" t="s">
         <v>1780</v>
       </c>
       <c r="F2" s="98" t="s">
@@ -44100,7 +44504,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="A3" s="100">
         <v>2</v>
       </c>
@@ -44113,7 +44517,7 @@
       <c r="D3" s="101" t="s">
         <v>1730</v>
       </c>
-      <c r="E3" s="109" t="s">
+      <c r="E3" s="108" t="s">
         <v>1780</v>
       </c>
       <c r="F3" s="101" t="s">
@@ -44132,7 +44536,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15" thickBot="1">
       <c r="A4" s="100">
         <v>3</v>
       </c>
@@ -44145,7 +44549,7 @@
       <c r="D4" s="101" t="s">
         <v>1730</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="108" t="s">
         <v>1780</v>
       </c>
       <c r="F4" s="101" t="s">
@@ -44164,7 +44568,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15" thickBot="1">
       <c r="A5" s="100">
         <v>4</v>
       </c>
@@ -44177,7 +44581,7 @@
       <c r="D5" s="101" t="s">
         <v>1730</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="108" t="s">
         <v>1782</v>
       </c>
       <c r="F5" s="101" t="s">
@@ -44196,7 +44600,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" thickBot="1">
       <c r="A6" s="100">
         <v>5</v>
       </c>
@@ -44209,7 +44613,7 @@
       <c r="D6" s="101" t="s">
         <v>1730</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="108" t="s">
         <v>1781</v>
       </c>
       <c r="F6" s="101" t="s">
@@ -44228,7 +44632,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A7" s="103">
         <v>6</v>
       </c>
@@ -44241,7 +44645,7 @@
       <c r="D7" s="104" t="s">
         <v>1730</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="109" t="s">
         <v>1782</v>
       </c>
       <c r="F7" s="104" t="s">
@@ -44263,7 +44667,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A8" s="103">
         <v>7</v>
       </c>
@@ -44276,7 +44680,7 @@
       <c r="D8" s="104" t="s">
         <v>1730</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="109" t="s">
         <v>1782</v>
       </c>
       <c r="F8" s="104" t="s">
@@ -44298,7 +44702,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A9" s="103">
         <v>8</v>
       </c>
@@ -44311,7 +44715,7 @@
       <c r="D9" s="104" t="s">
         <v>1730</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="109" t="s">
         <v>1782</v>
       </c>
       <c r="F9" s="104" t="s">
@@ -44333,7 +44737,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A10" s="103">
         <v>9</v>
       </c>
@@ -44346,7 +44750,7 @@
       <c r="D10" s="104" t="s">
         <v>1730</v>
       </c>
-      <c r="E10" s="110" t="s">
+      <c r="E10" s="109" t="s">
         <v>1782</v>
       </c>
       <c r="F10" s="104" t="s">
@@ -44368,7 +44772,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A11" s="103">
         <v>10</v>
       </c>
@@ -44381,7 +44785,7 @@
       <c r="D11" s="104" t="s">
         <v>1730</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="109" t="s">
         <v>1782</v>
       </c>
       <c r="F11" s="104" t="s">
@@ -44403,7 +44807,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A12" s="103">
         <v>11</v>
       </c>
@@ -44413,10 +44817,10 @@
       <c r="C12" s="104" t="s">
         <v>1797</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="109" t="s">
         <v>1805</v>
       </c>
-      <c r="E12" s="110" t="s">
+      <c r="E12" s="109" t="s">
         <v>1782</v>
       </c>
       <c r="F12" s="104" t="s">
@@ -44435,7 +44839,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A13" s="103">
         <v>12</v>
       </c>
@@ -44448,7 +44852,7 @@
       <c r="D13" s="104" t="s">
         <v>1753</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="109" t="s">
         <v>1782</v>
       </c>
       <c r="F13" s="104" t="s">
@@ -44467,7 +44871,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A14" s="103">
         <v>12</v>
       </c>
@@ -44480,7 +44884,7 @@
       <c r="D14" s="104" t="s">
         <v>1753</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="109" t="s">
         <v>1782</v>
       </c>
       <c r="F14" s="104" t="s">
@@ -44499,7 +44903,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A15" s="103">
         <v>12</v>
       </c>
@@ -44512,7 +44916,7 @@
       <c r="D15" s="104" t="s">
         <v>1753</v>
       </c>
-      <c r="E15" s="110" t="s">
+      <c r="E15" s="109" t="s">
         <v>1782</v>
       </c>
       <c r="F15" s="104" t="s">
@@ -44531,7 +44935,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A16" s="103">
         <v>12</v>
       </c>
@@ -44544,7 +44948,7 @@
       <c r="D16" s="104" t="s">
         <v>1753</v>
       </c>
-      <c r="E16" s="110" t="s">
+      <c r="E16" s="109" t="s">
         <v>1782</v>
       </c>
       <c r="F16" s="104" t="s">
@@ -44563,7 +44967,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="100">
         <v>13</v>
       </c>
@@ -44576,7 +44980,7 @@
       <c r="D17" s="101" t="s">
         <v>1758</v>
       </c>
-      <c r="E17" s="111" t="s">
+      <c r="E17" s="110" t="s">
         <v>1782</v>
       </c>
       <c r="F17" s="101" t="s">
@@ -44595,7 +44999,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="100">
         <v>13</v>
       </c>
@@ -44608,7 +45012,7 @@
       <c r="D18" s="101" t="s">
         <v>1758</v>
       </c>
-      <c r="E18" s="111" t="s">
+      <c r="E18" s="110" t="s">
         <v>1782</v>
       </c>
       <c r="F18" s="101" t="s">
@@ -44627,7 +45031,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="100">
         <v>13</v>
       </c>
@@ -44640,7 +45044,7 @@
       <c r="D19" s="101" t="s">
         <v>1758</v>
       </c>
-      <c r="E19" s="111" t="s">
+      <c r="E19" s="110" t="s">
         <v>1782</v>
       </c>
       <c r="F19" s="101" t="s">
@@ -44659,7 +45063,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="100">
         <v>14</v>
       </c>
@@ -44672,7 +45076,7 @@
       <c r="D20" s="101" t="s">
         <v>1763</v>
       </c>
-      <c r="E20" s="111" t="s">
+      <c r="E20" s="110" t="s">
         <v>1782</v>
       </c>
       <c r="F20" s="101" t="s">
@@ -44691,7 +45095,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="100">
         <v>14</v>
       </c>
@@ -44704,7 +45108,7 @@
       <c r="D21" s="101" t="s">
         <v>1763</v>
       </c>
-      <c r="E21" s="111" t="s">
+      <c r="E21" s="110" t="s">
         <v>1782</v>
       </c>
       <c r="F21" s="101" t="s">
@@ -44723,7 +45127,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="100">
         <v>14</v>
       </c>
@@ -44736,7 +45140,7 @@
       <c r="D22" s="101" t="s">
         <v>1763</v>
       </c>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="110" t="s">
         <v>1782</v>
       </c>
       <c r="F22" s="101" t="s">
@@ -44755,7 +45159,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="100">
         <v>14</v>
       </c>
@@ -44768,7 +45172,7 @@
       <c r="D23" s="101" t="s">
         <v>1763</v>
       </c>
-      <c r="E23" s="111" t="s">
+      <c r="E23" s="110" t="s">
         <v>1782</v>
       </c>
       <c r="F23" s="101" t="s">
@@ -44787,7 +45191,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="100">
         <v>14</v>
       </c>
@@ -44800,7 +45204,7 @@
       <c r="D24" s="101" t="s">
         <v>1763</v>
       </c>
-      <c r="E24" s="111" t="s">
+      <c r="E24" s="110" t="s">
         <v>1782</v>
       </c>
       <c r="F24" s="101" t="s">
@@ -44819,7 +45223,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="100">
         <v>15</v>
       </c>
@@ -44832,7 +45236,7 @@
       <c r="D25" s="101" t="s">
         <v>1769</v>
       </c>
-      <c r="E25" s="111" t="s">
+      <c r="E25" s="110" t="s">
         <v>1782</v>
       </c>
       <c r="F25" s="101" t="s">
@@ -44851,7 +45255,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="100">
         <v>15</v>
       </c>
@@ -44864,7 +45268,7 @@
       <c r="D26" s="101" t="s">
         <v>1769</v>
       </c>
-      <c r="E26" s="111" t="s">
+      <c r="E26" s="110" t="s">
         <v>1782</v>
       </c>
       <c r="F26" s="101" t="s">
@@ -44883,7 +45287,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
       <c r="A27" s="100">
         <v>15</v>
       </c>
@@ -44896,7 +45300,7 @@
       <c r="D27" s="101" t="s">
         <v>1769</v>
       </c>
-      <c r="E27" s="111" t="s">
+      <c r="E27" s="110" t="s">
         <v>1782</v>
       </c>
       <c r="F27" s="101" t="s">
@@ -44915,8 +45319,1425 @@
         <v>562</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="108"/>
+    <row r="28" spans="1:10">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A29" s="122">
+        <v>1</v>
+      </c>
+      <c r="B29" s="123" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C29" s="124" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D29" s="124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E29" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F29" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G29" s="125" t="s">
+        <v>1811</v>
+      </c>
+      <c r="H29" s="124" t="s">
+        <v>1812</v>
+      </c>
+      <c r="I29" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J29" s="126" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A30" s="122">
+        <v>2</v>
+      </c>
+      <c r="B30" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C30" s="124" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D30" s="124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E30" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F30" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G30" s="125" t="s">
+        <v>1814</v>
+      </c>
+      <c r="H30" s="124" t="s">
+        <v>1815</v>
+      </c>
+      <c r="I30" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J30" s="126" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A31" s="122">
+        <v>3</v>
+      </c>
+      <c r="B31" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C31" s="124" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D31" s="124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E31" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F31" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G31" s="125" t="s">
+        <v>1817</v>
+      </c>
+      <c r="H31" s="124" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I31" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J31" s="126" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A32" s="122">
+        <v>4</v>
+      </c>
+      <c r="B32" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C32" s="124" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D32" s="124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E32" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F32" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G32" s="125" t="s">
+        <v>1820</v>
+      </c>
+      <c r="H32" s="124" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I32" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J32" s="126" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A33" s="122">
+        <v>5</v>
+      </c>
+      <c r="B33" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C33" s="124" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D33" s="124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E33" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F33" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G33" s="125" t="s">
+        <v>1822</v>
+      </c>
+      <c r="H33" s="124" t="s">
+        <v>1823</v>
+      </c>
+      <c r="I33" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J33" s="126" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A34" s="122">
+        <v>6</v>
+      </c>
+      <c r="B34" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C34" s="124" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D34" s="124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E34" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F34" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G34" s="125" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H34" s="124" t="s">
+        <v>1826</v>
+      </c>
+      <c r="I34" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J34" s="126" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A35" s="122">
+        <v>7</v>
+      </c>
+      <c r="B35" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C35" s="124" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D35" s="124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E35" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F35" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G35" s="125" t="s">
+        <v>1828</v>
+      </c>
+      <c r="H35" s="124" t="s">
+        <v>1829</v>
+      </c>
+      <c r="I35" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J35" s="126" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A36" s="122">
+        <v>8</v>
+      </c>
+      <c r="B36" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C36" s="124" t="s">
+        <v>1830</v>
+      </c>
+      <c r="D36" s="124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E36" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F36" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G36" s="125" t="s">
+        <v>1831</v>
+      </c>
+      <c r="H36" s="124" t="s">
+        <v>1832</v>
+      </c>
+      <c r="I36" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J36" s="126" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A37" s="122">
+        <v>9</v>
+      </c>
+      <c r="B37" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C37" s="124" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D37" s="124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E37" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F37" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G37" s="125" t="s">
+        <v>1834</v>
+      </c>
+      <c r="H37" s="124" t="s">
+        <v>1832</v>
+      </c>
+      <c r="I37" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J37" s="126" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A38" s="122">
+        <v>10</v>
+      </c>
+      <c r="B38" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C38" s="124" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D38" s="124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E38" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F38" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G38" s="125" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H38" s="124" t="s">
+        <v>1832</v>
+      </c>
+      <c r="I38" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J38" s="126" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A39" s="122">
+        <v>11</v>
+      </c>
+      <c r="B39" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C39" s="124" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D39" s="124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E39" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F39" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G39" s="125" t="s">
+        <v>1838</v>
+      </c>
+      <c r="H39" s="124" t="s">
+        <v>1839</v>
+      </c>
+      <c r="I39" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J39" s="126" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A40" s="118">
+        <v>12</v>
+      </c>
+      <c r="B40" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C40" s="120" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D40" s="120" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E40" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F40" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G40" s="121" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H40" s="120" t="s">
+        <v>1842</v>
+      </c>
+      <c r="I40" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J40" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A41" s="118">
+        <v>13</v>
+      </c>
+      <c r="B41" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C41" s="120" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D41" s="120" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E41" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F41" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G41" s="121" t="s">
+        <v>1844</v>
+      </c>
+      <c r="H41" s="120" t="s">
+        <v>1845</v>
+      </c>
+      <c r="I41" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J41" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A42" s="122">
+        <v>14</v>
+      </c>
+      <c r="B42" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C42" s="124" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D42" s="124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E42" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F42" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G42" s="125" t="s">
+        <v>1847</v>
+      </c>
+      <c r="H42" s="124" t="s">
+        <v>1848</v>
+      </c>
+      <c r="I42" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J42" s="106" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A43" s="122">
+        <v>15</v>
+      </c>
+      <c r="B43" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C43" s="124" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D43" s="124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E43" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F43" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G43" s="125" t="s">
+        <v>1850</v>
+      </c>
+      <c r="H43" s="124" t="s">
+        <v>1851</v>
+      </c>
+      <c r="I43" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J43" s="106" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A44" s="122">
+        <v>16</v>
+      </c>
+      <c r="B44" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C44" s="124" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D44" s="124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E44" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F44" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G44" s="125" t="s">
+        <v>1853</v>
+      </c>
+      <c r="H44" s="124" t="s">
+        <v>1854</v>
+      </c>
+      <c r="I44" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J44" s="106" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A45" s="122">
+        <v>17</v>
+      </c>
+      <c r="B45" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C45" s="124" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D45" s="124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E45" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F45" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G45" s="125" t="s">
+        <v>1856</v>
+      </c>
+      <c r="H45" s="124" t="s">
+        <v>1857</v>
+      </c>
+      <c r="I45" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J45" s="106" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A46" s="118">
+        <v>18</v>
+      </c>
+      <c r="B46" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C46" s="120" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D46" s="120" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E46" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F46" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G46" s="121" t="s">
+        <v>1859</v>
+      </c>
+      <c r="H46" s="120" t="s">
+        <v>1845</v>
+      </c>
+      <c r="I46" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J46" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A47" s="122">
+        <v>19</v>
+      </c>
+      <c r="B47" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C47" s="124" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D47" s="124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E47" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F47" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G47" s="125" t="s">
+        <v>1861</v>
+      </c>
+      <c r="H47" s="124" t="s">
+        <v>1862</v>
+      </c>
+      <c r="I47" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J47" s="106" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A48" s="122">
+        <v>20</v>
+      </c>
+      <c r="B48" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C48" s="124" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D48" s="124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E48" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F48" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G48" s="125" t="s">
+        <v>1864</v>
+      </c>
+      <c r="H48" s="124" t="s">
+        <v>1862</v>
+      </c>
+      <c r="I48" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J48" s="106" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A49" s="118">
+        <v>21</v>
+      </c>
+      <c r="B49" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C49" s="120" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D49" s="120" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E49" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F49" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G49" s="121" t="s">
+        <v>1866</v>
+      </c>
+      <c r="H49" s="120" t="s">
+        <v>1867</v>
+      </c>
+      <c r="I49" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J49" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A50" s="118">
+        <v>22</v>
+      </c>
+      <c r="B50" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C50" s="120" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D50" s="120" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E50" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F50" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G50" s="121" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H50" s="120" t="s">
+        <v>1842</v>
+      </c>
+      <c r="I50" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J50" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A51" s="118">
+        <v>23</v>
+      </c>
+      <c r="B51" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C51" s="120" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D51" s="120" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E51" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F51" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G51" s="121" t="s">
+        <v>1871</v>
+      </c>
+      <c r="H51" s="120" t="s">
+        <v>1872</v>
+      </c>
+      <c r="I51" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J51" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A52" s="118">
+        <v>24</v>
+      </c>
+      <c r="B52" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C52" s="120" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D52" s="120" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E52" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F52" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G52" s="121" t="s">
+        <v>1874</v>
+      </c>
+      <c r="H52" s="120" t="s">
+        <v>1875</v>
+      </c>
+      <c r="I52" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J52" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A53" s="122">
+        <v>25</v>
+      </c>
+      <c r="B53" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C53" s="124" t="s">
+        <v>1876</v>
+      </c>
+      <c r="D53" s="124" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E53" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F53" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G53" s="125" t="s">
+        <v>1877</v>
+      </c>
+      <c r="H53" s="124" t="s">
+        <v>1872</v>
+      </c>
+      <c r="I53" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J53" s="106" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A54" s="118">
+        <v>26</v>
+      </c>
+      <c r="B54" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C54" s="120" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D54" s="120" t="s">
+        <v>1809</v>
+      </c>
+      <c r="E54" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F54" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G54" s="121" t="s">
+        <v>1879</v>
+      </c>
+      <c r="H54" s="120" t="s">
+        <v>1872</v>
+      </c>
+      <c r="I54" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J54" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A55" s="118">
+        <v>27</v>
+      </c>
+      <c r="B55" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C55" s="120" t="s">
+        <v>1880</v>
+      </c>
+      <c r="D55" s="120" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E55" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F55" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G55" s="121" t="s">
+        <v>1882</v>
+      </c>
+      <c r="H55" s="120" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I55" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J55" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A56" s="118">
+        <v>28</v>
+      </c>
+      <c r="B56" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C56" s="120" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D56" s="120" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E56" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F56" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G56" s="121" t="s">
+        <v>1884</v>
+      </c>
+      <c r="H56" s="120" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I56" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J56" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A57" s="118">
+        <v>29</v>
+      </c>
+      <c r="B57" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C57" s="120" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D57" s="120" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E57" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F57" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G57" s="121" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H57" s="120" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I57" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J57" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A58" s="118">
+        <v>30</v>
+      </c>
+      <c r="B58" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C58" s="120" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D58" s="120" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E58" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F58" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G58" s="121" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H58" s="120" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I58" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J58" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A59" s="118">
+        <v>31</v>
+      </c>
+      <c r="B59" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C59" s="120" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D59" s="120" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E59" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F59" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G59" s="121" t="s">
+        <v>1890</v>
+      </c>
+      <c r="H59" s="120" t="s">
+        <v>1818</v>
+      </c>
+      <c r="I59" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J59" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A60" s="122">
+        <v>32</v>
+      </c>
+      <c r="B60" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C60" s="124" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D60" s="124" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E60" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F60" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G60" s="125" t="s">
+        <v>1893</v>
+      </c>
+      <c r="H60" s="124" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I60" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J60" s="106" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A61" s="122">
+        <v>33</v>
+      </c>
+      <c r="B61" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C61" s="124" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D61" s="124" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E61" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F61" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G61" s="125" t="s">
+        <v>1896</v>
+      </c>
+      <c r="H61" s="124" t="s">
+        <v>1897</v>
+      </c>
+      <c r="I61" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J61" s="106" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A62" s="122">
+        <v>34</v>
+      </c>
+      <c r="B62" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C62" s="124" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D62" s="124" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E62" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F62" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G62" s="125" t="s">
+        <v>1899</v>
+      </c>
+      <c r="H62" s="124" t="s">
+        <v>1900</v>
+      </c>
+      <c r="I62" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J62" s="106" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A63" s="122">
+        <v>35</v>
+      </c>
+      <c r="B63" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C63" s="124" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D63" s="124" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E63" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F63" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G63" s="125" t="s">
+        <v>1902</v>
+      </c>
+      <c r="H63" s="124" t="s">
+        <v>1894</v>
+      </c>
+      <c r="I63" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J63" s="106" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A64" s="118">
+        <v>36</v>
+      </c>
+      <c r="B64" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C64" s="120" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D64" s="120" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E64" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F64" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G64" s="121" t="s">
+        <v>1905</v>
+      </c>
+      <c r="H64" s="120" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I64" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J64" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A65" s="118">
+        <v>37</v>
+      </c>
+      <c r="B65" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C65" s="120" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D65" s="120" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E65" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F65" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G65" s="121" t="s">
+        <v>1908</v>
+      </c>
+      <c r="H65" s="120" t="s">
+        <v>1909</v>
+      </c>
+      <c r="I65" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J65" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A66" s="118">
+        <v>38</v>
+      </c>
+      <c r="B66" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C66" s="120" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D66" s="120" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E66" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F66" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G66" s="121" t="s">
+        <v>1912</v>
+      </c>
+      <c r="H66" s="120" t="s">
+        <v>1913</v>
+      </c>
+      <c r="I66" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J66" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A67" s="122">
+        <v>39</v>
+      </c>
+      <c r="B67" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C67" s="124" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D67" s="124" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E67" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F67" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G67" s="125" t="s">
+        <v>1915</v>
+      </c>
+      <c r="H67" s="124" t="s">
+        <v>1913</v>
+      </c>
+      <c r="I67" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J67" s="106" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A68" s="122">
+        <v>40</v>
+      </c>
+      <c r="B68" s="123" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C68" s="124" t="s">
+        <v>1916</v>
+      </c>
+      <c r="D68" s="124" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E68" s="124" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F68" s="124" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G68" s="125" t="s">
+        <v>1917</v>
+      </c>
+      <c r="H68" s="124" t="s">
+        <v>1918</v>
+      </c>
+      <c r="I68" s="124" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J68" s="106" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A69" s="118">
+        <v>41</v>
+      </c>
+      <c r="B69" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C69" s="120" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D69" s="120" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E69" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F69" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G69" s="121" t="s">
+        <v>1920</v>
+      </c>
+      <c r="H69" s="120" t="s">
+        <v>1857</v>
+      </c>
+      <c r="I69" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J69" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A70" s="118">
+        <v>42</v>
+      </c>
+      <c r="B70" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C70" s="120" t="s">
+        <v>1921</v>
+      </c>
+      <c r="D70" s="120" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E70" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F70" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G70" s="121" t="s">
+        <v>1922</v>
+      </c>
+      <c r="H70" s="120" t="s">
+        <v>1923</v>
+      </c>
+      <c r="I70" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J70" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A71" s="118">
+        <v>43</v>
+      </c>
+      <c r="B71" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C71" s="120" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D71" s="120" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E71" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F71" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G71" s="121" t="s">
+        <v>1925</v>
+      </c>
+      <c r="H71" s="120" t="s">
+        <v>1926</v>
+      </c>
+      <c r="I71" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J71" s="102" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="17.25" thickBot="1">
+      <c r="A72" s="118">
+        <v>44</v>
+      </c>
+      <c r="B72" s="119" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C72" s="120" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D72" s="120" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E72" s="120" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F72" s="120" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G72" s="121" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H72" s="120" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I72" s="120" t="s">
+        <v>1733</v>
+      </c>
+      <c r="J72" s="102" t="s">
+        <v>562</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/主题分工情况记录.xlsx
+++ b/主题分工情况记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7190" uniqueCount="1974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7190" uniqueCount="1975">
   <si>
     <t>标题</t>
   </si>
@@ -16730,6 +16730,10 @@
   </si>
   <si>
     <t>DE10P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF30JC4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16980,13 +16984,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17176,7 +17180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -17419,14 +17423,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -17460,23 +17456,23 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -17494,40 +17490,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -17561,6 +17536,40 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="3" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -17891,26 +17900,26 @@
     <col min="8" max="8" width="14.625" customWidth="1"/>
     <col min="9" max="9" width="20.25" style="28" customWidth="1"/>
     <col min="11" max="11" width="4.875" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="96" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="92" customWidth="1"/>
     <col min="13" max="13" width="25.375" customWidth="1"/>
     <col min="14" max="14" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="127" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -23794,7 +23803,7 @@
         <v>1088</v>
       </c>
       <c r="K146" s="56"/>
-      <c r="L146" s="92"/>
+      <c r="L146" s="88"/>
       <c r="M146" s="72"/>
       <c r="N146" s="72"/>
     </row>
@@ -23830,7 +23839,7 @@
         <v>1088</v>
       </c>
       <c r="K147" s="56"/>
-      <c r="L147" s="92"/>
+      <c r="L147" s="88"/>
       <c r="M147" s="72"/>
       <c r="N147" s="72"/>
     </row>
@@ -23866,7 +23875,7 @@
         <v>1088</v>
       </c>
       <c r="K148" s="56"/>
-      <c r="L148" s="92"/>
+      <c r="L148" s="88"/>
       <c r="M148" s="72"/>
       <c r="N148" s="72"/>
     </row>
@@ -23902,7 +23911,7 @@
         <v>1088</v>
       </c>
       <c r="K149" s="56"/>
-      <c r="L149" s="92"/>
+      <c r="L149" s="88"/>
       <c r="M149" s="72"/>
       <c r="N149" s="72"/>
     </row>
@@ -23938,7 +23947,7 @@
         <v>1088</v>
       </c>
       <c r="K150" s="56"/>
-      <c r="L150" s="92"/>
+      <c r="L150" s="88"/>
       <c r="M150" s="72"/>
       <c r="N150" s="72"/>
     </row>
@@ -23976,7 +23985,7 @@
       <c r="K151" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L151" s="92"/>
+      <c r="L151" s="88"/>
       <c r="M151" s="72"/>
       <c r="N151" s="72"/>
     </row>
@@ -24014,7 +24023,7 @@
       <c r="K152" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L152" s="93"/>
+      <c r="L152" s="89"/>
       <c r="M152" s="73"/>
       <c r="N152" s="73"/>
     </row>
@@ -24052,7 +24061,7 @@
       <c r="K153" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L153" s="92"/>
+      <c r="L153" s="88"/>
       <c r="M153" s="72"/>
       <c r="N153" s="72"/>
     </row>
@@ -24090,7 +24099,7 @@
       <c r="K154" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L154" s="92"/>
+      <c r="L154" s="88"/>
       <c r="M154" s="72"/>
       <c r="N154" s="72"/>
     </row>
@@ -24128,7 +24137,7 @@
       <c r="K155" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L155" s="92"/>
+      <c r="L155" s="88"/>
       <c r="M155" s="72"/>
       <c r="N155" s="72"/>
     </row>
@@ -24166,7 +24175,7 @@
       <c r="K156" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L156" s="93"/>
+      <c r="L156" s="89"/>
       <c r="M156" s="73"/>
       <c r="N156" s="73"/>
     </row>
@@ -24204,7 +24213,7 @@
       <c r="K157" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L157" s="93"/>
+      <c r="L157" s="89"/>
       <c r="M157" s="73"/>
       <c r="N157" s="73"/>
     </row>
@@ -24242,7 +24251,7 @@
       <c r="K158" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L158" s="92"/>
+      <c r="L158" s="88"/>
       <c r="M158" s="72"/>
       <c r="N158" s="72"/>
     </row>
@@ -24280,7 +24289,7 @@
       <c r="K159" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L159" s="92"/>
+      <c r="L159" s="88"/>
       <c r="M159" s="72"/>
       <c r="N159" s="72"/>
     </row>
@@ -24318,7 +24327,7 @@
       <c r="K160" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L160" s="92"/>
+      <c r="L160" s="88"/>
       <c r="M160" s="72"/>
       <c r="N160" s="72"/>
     </row>
@@ -24356,7 +24365,7 @@
       <c r="K161" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L161" s="92"/>
+      <c r="L161" s="88"/>
       <c r="M161" s="72"/>
       <c r="N161" s="72"/>
     </row>
@@ -24394,7 +24403,7 @@
       <c r="K162" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L162" s="93"/>
+      <c r="L162" s="89"/>
       <c r="M162" s="73"/>
       <c r="N162" s="73"/>
     </row>
@@ -24432,7 +24441,7 @@
       <c r="K163" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L163" s="93"/>
+      <c r="L163" s="89"/>
       <c r="M163" s="73"/>
       <c r="N163" s="73"/>
     </row>
@@ -24470,7 +24479,7 @@
       <c r="K164" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L164" s="93"/>
+      <c r="L164" s="89"/>
       <c r="M164" s="73"/>
       <c r="N164" s="73"/>
     </row>
@@ -24508,7 +24517,7 @@
       <c r="K165" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L165" s="93"/>
+      <c r="L165" s="89"/>
       <c r="M165" s="73"/>
       <c r="N165" s="73"/>
     </row>
@@ -24546,7 +24555,7 @@
       <c r="K166" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L166" s="92"/>
+      <c r="L166" s="88"/>
       <c r="M166" s="72"/>
       <c r="N166" s="72"/>
     </row>
@@ -24584,7 +24593,7 @@
       <c r="K167" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L167" s="92"/>
+      <c r="L167" s="88"/>
       <c r="M167" s="72"/>
       <c r="N167" s="72"/>
     </row>
@@ -24622,7 +24631,7 @@
       <c r="K168" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L168" s="92"/>
+      <c r="L168" s="88"/>
       <c r="M168" s="72"/>
       <c r="N168" s="72"/>
     </row>
@@ -24660,7 +24669,7 @@
       <c r="K169" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L169" s="92"/>
+      <c r="L169" s="88"/>
       <c r="M169" s="72"/>
       <c r="N169" s="72"/>
     </row>
@@ -24698,7 +24707,7 @@
       <c r="K170" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L170" s="92"/>
+      <c r="L170" s="88"/>
       <c r="M170" s="72"/>
       <c r="N170" s="72"/>
     </row>
@@ -24736,7 +24745,7 @@
       <c r="K171" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L171" s="92"/>
+      <c r="L171" s="88"/>
       <c r="M171" s="72"/>
       <c r="N171" s="72"/>
     </row>
@@ -24774,7 +24783,7 @@
       <c r="K172" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L172" s="92"/>
+      <c r="L172" s="88"/>
       <c r="M172" s="72"/>
       <c r="N172" s="72"/>
     </row>
@@ -24812,7 +24821,7 @@
       <c r="K173" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L173" s="92"/>
+      <c r="L173" s="88"/>
       <c r="M173" s="72"/>
       <c r="N173" s="72"/>
     </row>
@@ -24850,7 +24859,7 @@
       <c r="K174" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L174" s="92"/>
+      <c r="L174" s="88"/>
       <c r="M174" s="72"/>
       <c r="N174" s="72"/>
     </row>
@@ -24888,7 +24897,7 @@
       <c r="K175" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L175" s="92"/>
+      <c r="L175" s="88"/>
       <c r="M175" s="72"/>
       <c r="N175" s="72"/>
     </row>
@@ -24926,7 +24935,7 @@
       <c r="K176" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L176" s="92"/>
+      <c r="L176" s="88"/>
       <c r="M176" s="72"/>
       <c r="N176" s="72"/>
     </row>
@@ -24964,7 +24973,7 @@
       <c r="K177" s="70" t="s">
         <v>565</v>
       </c>
-      <c r="L177" s="94" t="s">
+      <c r="L177" s="90" t="s">
         <v>1723</v>
       </c>
       <c r="M177" s="74" t="s">
@@ -25006,7 +25015,7 @@
       <c r="K178" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L178" s="92"/>
+      <c r="L178" s="88"/>
       <c r="M178" s="72"/>
       <c r="N178" s="72"/>
     </row>
@@ -25044,7 +25053,7 @@
       <c r="K179" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L179" s="92"/>
+      <c r="L179" s="88"/>
       <c r="M179" s="72"/>
       <c r="N179" s="72"/>
     </row>
@@ -25122,7 +25131,7 @@
       <c r="K181" s="70" t="s">
         <v>565</v>
       </c>
-      <c r="L181" s="94" t="s">
+      <c r="L181" s="90" t="s">
         <v>1723</v>
       </c>
       <c r="M181" s="74" t="s">
@@ -25164,7 +25173,7 @@
       <c r="K182" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L182" s="92"/>
+      <c r="L182" s="88"/>
       <c r="M182" s="72"/>
       <c r="N182" s="72"/>
     </row>
@@ -25202,7 +25211,7 @@
       <c r="K183" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L183" s="92"/>
+      <c r="L183" s="88"/>
       <c r="M183" s="72"/>
       <c r="N183" s="72"/>
     </row>
@@ -25240,7 +25249,7 @@
       <c r="K184" s="70" t="s">
         <v>565</v>
       </c>
-      <c r="L184" s="94" t="s">
+      <c r="L184" s="90" t="s">
         <v>1723</v>
       </c>
       <c r="M184" s="74" t="s">
@@ -25282,7 +25291,7 @@
       <c r="K185" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L185" s="92"/>
+      <c r="L185" s="88"/>
       <c r="M185" s="72"/>
       <c r="N185" s="72"/>
     </row>
@@ -25320,7 +25329,7 @@
       <c r="K186" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L186" s="92"/>
+      <c r="L186" s="88"/>
       <c r="M186" s="72"/>
       <c r="N186" s="72"/>
     </row>
@@ -25358,7 +25367,7 @@
       <c r="K187" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L187" s="92"/>
+      <c r="L187" s="88"/>
       <c r="M187" s="72"/>
       <c r="N187" s="72"/>
     </row>
@@ -25396,7 +25405,7 @@
       <c r="K188" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L188" s="92"/>
+      <c r="L188" s="88"/>
       <c r="M188" s="72"/>
       <c r="N188" s="72"/>
     </row>
@@ -25434,7 +25443,7 @@
       <c r="K189" s="70" t="s">
         <v>565</v>
       </c>
-      <c r="L189" s="94" t="s">
+      <c r="L189" s="90" t="s">
         <v>1723</v>
       </c>
       <c r="M189" s="74" t="s">
@@ -25476,7 +25485,7 @@
       <c r="K190" s="70" t="s">
         <v>565</v>
       </c>
-      <c r="L190" s="94"/>
+      <c r="L190" s="90"/>
       <c r="M190" s="74" t="s">
         <v>1609</v>
       </c>
@@ -25516,7 +25525,7 @@
       <c r="K191" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L191" s="92"/>
+      <c r="L191" s="88"/>
       <c r="M191" s="72"/>
       <c r="N191" s="72"/>
     </row>
@@ -25554,7 +25563,7 @@
       <c r="K192" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L192" s="92"/>
+      <c r="L192" s="88"/>
       <c r="M192" s="72"/>
       <c r="N192" s="72"/>
     </row>
@@ -25592,7 +25601,7 @@
       <c r="K193" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L193" s="92"/>
+      <c r="L193" s="88"/>
       <c r="M193" s="72"/>
       <c r="N193" s="72"/>
     </row>
@@ -25630,7 +25639,7 @@
       <c r="K194" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L194" s="92"/>
+      <c r="L194" s="88"/>
       <c r="M194" s="72"/>
       <c r="N194" s="72"/>
     </row>
@@ -25668,7 +25677,7 @@
       <c r="K195" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L195" s="92"/>
+      <c r="L195" s="88"/>
       <c r="M195" s="72"/>
       <c r="N195" s="72"/>
     </row>
@@ -25706,7 +25715,7 @@
       <c r="K196" s="70" t="s">
         <v>565</v>
       </c>
-      <c r="L196" s="94" t="s">
+      <c r="L196" s="90" t="s">
         <v>1723</v>
       </c>
       <c r="M196" s="74" t="s">
@@ -25748,7 +25757,7 @@
       <c r="K197" s="70" t="s">
         <v>565</v>
       </c>
-      <c r="L197" s="94" t="s">
+      <c r="L197" s="90" t="s">
         <v>1723</v>
       </c>
       <c r="M197" s="74" t="s">
@@ -25790,7 +25799,7 @@
       <c r="K198" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L198" s="92"/>
+      <c r="L198" s="88"/>
       <c r="M198" s="72"/>
       <c r="N198" s="72"/>
     </row>
@@ -25828,7 +25837,7 @@
       <c r="K199" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L199" s="92"/>
+      <c r="L199" s="88"/>
       <c r="M199" s="72"/>
       <c r="N199" s="72"/>
     </row>
@@ -25866,7 +25875,7 @@
       <c r="K200" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L200" s="92"/>
+      <c r="L200" s="88"/>
       <c r="M200" s="72"/>
       <c r="N200" s="72"/>
     </row>
@@ -25904,7 +25913,7 @@
       <c r="K201" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L201" s="93"/>
+      <c r="L201" s="89"/>
       <c r="M201" s="73"/>
       <c r="N201" s="73"/>
     </row>
@@ -25942,7 +25951,7 @@
       <c r="K202" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L202" s="93"/>
+      <c r="L202" s="89"/>
       <c r="M202" s="73"/>
       <c r="N202" s="73"/>
     </row>
@@ -25980,7 +25989,7 @@
       <c r="K203" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L203" s="92"/>
+      <c r="L203" s="88"/>
       <c r="M203" s="72"/>
       <c r="N203" s="72"/>
     </row>
@@ -26018,7 +26027,7 @@
       <c r="K204" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L204" s="92"/>
+      <c r="L204" s="88"/>
       <c r="M204" s="72"/>
       <c r="N204" s="72"/>
     </row>
@@ -26056,7 +26065,7 @@
       <c r="K205" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L205" s="92"/>
+      <c r="L205" s="88"/>
       <c r="M205" s="72"/>
       <c r="N205" s="72"/>
     </row>
@@ -26094,7 +26103,7 @@
       <c r="K206" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L206" s="92"/>
+      <c r="L206" s="88"/>
       <c r="M206" s="72"/>
       <c r="N206" s="72"/>
     </row>
@@ -26132,7 +26141,7 @@
       <c r="K207" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L207" s="92"/>
+      <c r="L207" s="88"/>
       <c r="M207" s="72"/>
       <c r="N207" s="72"/>
     </row>
@@ -26170,7 +26179,7 @@
       <c r="K208" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L208" s="92"/>
+      <c r="L208" s="88"/>
       <c r="M208" s="72"/>
       <c r="N208" s="72"/>
     </row>
@@ -26208,7 +26217,7 @@
       <c r="K209" s="70" t="s">
         <v>565</v>
       </c>
-      <c r="L209" s="94" t="s">
+      <c r="L209" s="90" t="s">
         <v>1723</v>
       </c>
       <c r="M209" s="74" t="s">
@@ -26250,7 +26259,7 @@
       <c r="K210" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L210" s="92"/>
+      <c r="L210" s="88"/>
       <c r="M210" s="72"/>
       <c r="N210" s="72"/>
     </row>
@@ -26288,7 +26297,7 @@
       <c r="K211" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L211" s="92"/>
+      <c r="L211" s="88"/>
       <c r="M211" s="72"/>
       <c r="N211" s="72"/>
     </row>
@@ -26326,7 +26335,7 @@
       <c r="K212" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L212" s="92"/>
+      <c r="L212" s="88"/>
       <c r="M212" s="72"/>
       <c r="N212" s="72"/>
     </row>
@@ -26364,7 +26373,7 @@
       <c r="K213" s="70" t="s">
         <v>565</v>
       </c>
-      <c r="L213" s="94" t="s">
+      <c r="L213" s="90" t="s">
         <v>1723</v>
       </c>
       <c r="M213" s="74" t="s">
@@ -26406,7 +26415,7 @@
       <c r="K214" s="70" t="s">
         <v>565</v>
       </c>
-      <c r="L214" s="94" t="s">
+      <c r="L214" s="90" t="s">
         <v>1724</v>
       </c>
       <c r="M214" s="74" t="s">
@@ -26448,7 +26457,7 @@
       <c r="K215" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L215" s="92"/>
+      <c r="L215" s="88"/>
       <c r="M215" s="72"/>
       <c r="N215" s="72"/>
     </row>
@@ -26486,7 +26495,7 @@
       <c r="K216" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L216" s="92"/>
+      <c r="L216" s="88"/>
       <c r="M216" s="72"/>
       <c r="N216" s="72"/>
     </row>
@@ -26524,7 +26533,7 @@
       <c r="K217" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L217" s="92"/>
+      <c r="L217" s="88"/>
       <c r="M217" s="72"/>
       <c r="N217" s="72"/>
     </row>
@@ -26562,7 +26571,7 @@
       <c r="K218" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L218" s="92"/>
+      <c r="L218" s="88"/>
       <c r="M218" s="72"/>
       <c r="N218" s="72"/>
     </row>
@@ -26600,7 +26609,7 @@
       <c r="K219" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L219" s="92"/>
+      <c r="L219" s="88"/>
       <c r="M219" s="72"/>
       <c r="N219" s="72"/>
     </row>
@@ -26638,7 +26647,7 @@
       <c r="K220" s="70" t="s">
         <v>565</v>
       </c>
-      <c r="L220" s="94" t="s">
+      <c r="L220" s="90" t="s">
         <v>1723</v>
       </c>
       <c r="M220" s="74" t="s">
@@ -26680,7 +26689,7 @@
       <c r="K221" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L221" s="92"/>
+      <c r="L221" s="88"/>
       <c r="M221" s="72"/>
       <c r="N221" s="72"/>
     </row>
@@ -26718,7 +26727,7 @@
       <c r="K222" s="70" t="s">
         <v>565</v>
       </c>
-      <c r="L222" s="94" t="s">
+      <c r="L222" s="90" t="s">
         <v>1723</v>
       </c>
       <c r="M222" s="74" t="s">
@@ -26760,7 +26769,7 @@
       <c r="K223" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L223" s="92"/>
+      <c r="L223" s="88"/>
       <c r="M223" s="72"/>
       <c r="N223" s="72"/>
     </row>
@@ -26798,7 +26807,7 @@
       <c r="K224" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L224" s="92"/>
+      <c r="L224" s="88"/>
       <c r="M224" s="72"/>
       <c r="N224" s="72"/>
     </row>
@@ -26836,7 +26845,7 @@
       <c r="K225" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L225" s="92"/>
+      <c r="L225" s="88"/>
       <c r="M225" s="72"/>
       <c r="N225" s="72"/>
     </row>
@@ -26874,7 +26883,7 @@
       <c r="K226" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L226" s="92"/>
+      <c r="L226" s="88"/>
       <c r="M226" s="72"/>
       <c r="N226" s="72"/>
     </row>
@@ -26954,7 +26963,7 @@
       <c r="K228" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L228" s="92"/>
+      <c r="L228" s="88"/>
       <c r="M228" s="72"/>
       <c r="N228" s="72"/>
     </row>
@@ -26992,7 +27001,7 @@
       <c r="K229" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L229" s="92"/>
+      <c r="L229" s="88"/>
       <c r="M229" s="72"/>
       <c r="N229" s="72"/>
     </row>
@@ -27030,7 +27039,7 @@
       <c r="K230" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L230" s="92"/>
+      <c r="L230" s="88"/>
       <c r="M230" s="72"/>
       <c r="N230" s="72"/>
     </row>
@@ -27068,7 +27077,7 @@
       <c r="K231" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L231" s="92"/>
+      <c r="L231" s="88"/>
       <c r="M231" s="72"/>
       <c r="N231" s="72"/>
     </row>
@@ -27106,7 +27115,7 @@
       <c r="K232" s="70" t="s">
         <v>565</v>
       </c>
-      <c r="L232" s="94" t="s">
+      <c r="L232" s="90" t="s">
         <v>1723</v>
       </c>
       <c r="M232" s="74" t="s">
@@ -27148,7 +27157,7 @@
       <c r="K233" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L233" s="92"/>
+      <c r="L233" s="88"/>
       <c r="M233" s="72"/>
       <c r="N233" s="72"/>
     </row>
@@ -27186,7 +27195,7 @@
       <c r="K234" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L234" s="92"/>
+      <c r="L234" s="88"/>
       <c r="M234" s="72"/>
       <c r="N234" s="72"/>
     </row>
@@ -27224,7 +27233,7 @@
       <c r="K235" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L235" s="92"/>
+      <c r="L235" s="88"/>
       <c r="M235" s="72"/>
       <c r="N235" s="72"/>
     </row>
@@ -27262,7 +27271,7 @@
       <c r="K236" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L236" s="92"/>
+      <c r="L236" s="88"/>
       <c r="M236" s="72"/>
       <c r="N236" s="72"/>
     </row>
@@ -27300,7 +27309,7 @@
       <c r="K237" s="70" t="s">
         <v>565</v>
       </c>
-      <c r="L237" s="94" t="s">
+      <c r="L237" s="90" t="s">
         <v>1723</v>
       </c>
       <c r="M237" s="74" t="s">
@@ -27342,7 +27351,7 @@
       <c r="K238" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L238" s="92"/>
+      <c r="L238" s="88"/>
       <c r="M238" s="72"/>
       <c r="N238" s="72"/>
     </row>
@@ -27380,7 +27389,7 @@
       <c r="K239" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L239" s="92"/>
+      <c r="L239" s="88"/>
       <c r="M239" s="72"/>
       <c r="N239" s="72"/>
     </row>
@@ -27418,7 +27427,7 @@
       <c r="K240" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L240" s="92"/>
+      <c r="L240" s="88"/>
       <c r="M240" s="72"/>
       <c r="N240" s="72"/>
     </row>
@@ -27496,7 +27505,7 @@
       <c r="K242" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L242" s="92"/>
+      <c r="L242" s="88"/>
       <c r="M242" s="72"/>
       <c r="N242" s="72"/>
     </row>
@@ -27534,7 +27543,7 @@
       <c r="K243" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L243" s="92"/>
+      <c r="L243" s="88"/>
       <c r="M243" s="72"/>
       <c r="N243" s="72"/>
     </row>
@@ -27572,7 +27581,7 @@
       <c r="K244" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L244" s="92"/>
+      <c r="L244" s="88"/>
       <c r="M244" s="72"/>
       <c r="N244" s="72"/>
     </row>
@@ -27610,7 +27619,7 @@
       <c r="K245" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L245" s="92"/>
+      <c r="L245" s="88"/>
       <c r="M245" s="72"/>
       <c r="N245" s="72"/>
     </row>
@@ -27648,7 +27657,7 @@
       <c r="K246" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L246" s="92"/>
+      <c r="L246" s="88"/>
       <c r="M246" s="72"/>
       <c r="N246" s="72"/>
     </row>
@@ -27686,7 +27695,7 @@
       <c r="K247" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L247" s="92"/>
+      <c r="L247" s="88"/>
       <c r="M247" s="72"/>
       <c r="N247" s="72"/>
     </row>
@@ -27724,7 +27733,7 @@
       <c r="K248" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L248" s="92"/>
+      <c r="L248" s="88"/>
       <c r="M248" s="72"/>
       <c r="N248" s="72"/>
     </row>
@@ -27762,7 +27771,7 @@
       <c r="K249" s="70" t="s">
         <v>565</v>
       </c>
-      <c r="L249" s="94" t="s">
+      <c r="L249" s="90" t="s">
         <v>1724</v>
       </c>
       <c r="M249" s="74" t="s">
@@ -27804,7 +27813,7 @@
       <c r="K250" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L250" s="92"/>
+      <c r="L250" s="88"/>
       <c r="M250" s="72"/>
       <c r="N250" s="72"/>
     </row>
@@ -27842,7 +27851,7 @@
       <c r="K251" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L251" s="92"/>
+      <c r="L251" s="88"/>
       <c r="M251" s="72"/>
       <c r="N251" s="72"/>
     </row>
@@ -27880,7 +27889,7 @@
       <c r="K252" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L252" s="92"/>
+      <c r="L252" s="88"/>
       <c r="M252" s="72"/>
       <c r="N252" s="72"/>
     </row>
@@ -27918,7 +27927,7 @@
       <c r="K253" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L253" s="92"/>
+      <c r="L253" s="88"/>
       <c r="M253" s="72"/>
       <c r="N253" s="72"/>
     </row>
@@ -27956,7 +27965,7 @@
       <c r="K254" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L254" s="92"/>
+      <c r="L254" s="88"/>
       <c r="M254" s="72"/>
       <c r="N254" s="72"/>
     </row>
@@ -27994,7 +28003,7 @@
       <c r="K255" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L255" s="92"/>
+      <c r="L255" s="88"/>
       <c r="M255" s="72"/>
       <c r="N255" s="72"/>
     </row>
@@ -28032,7 +28041,7 @@
       <c r="K256" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L256" s="92"/>
+      <c r="L256" s="88"/>
       <c r="M256" s="72"/>
       <c r="N256" s="72"/>
     </row>
@@ -28070,7 +28079,7 @@
       <c r="K257" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L257" s="92"/>
+      <c r="L257" s="88"/>
       <c r="M257" s="72"/>
       <c r="N257" s="72"/>
     </row>
@@ -28108,7 +28117,7 @@
       <c r="K258" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L258" s="92"/>
+      <c r="L258" s="88"/>
       <c r="M258" s="72"/>
       <c r="N258" s="72"/>
     </row>
@@ -28144,7 +28153,7 @@
         <v>844</v>
       </c>
       <c r="K259" s="63"/>
-      <c r="L259" s="95"/>
+      <c r="L259" s="91"/>
       <c r="M259" s="75"/>
       <c r="N259" s="75"/>
     </row>
@@ -28180,7 +28189,7 @@
         <v>844</v>
       </c>
       <c r="K260" s="63"/>
-      <c r="L260" s="95"/>
+      <c r="L260" s="91"/>
       <c r="M260" s="75"/>
       <c r="N260" s="75"/>
     </row>
@@ -28216,7 +28225,7 @@
         <v>844</v>
       </c>
       <c r="K261" s="63"/>
-      <c r="L261" s="95"/>
+      <c r="L261" s="91"/>
       <c r="M261" s="75"/>
       <c r="N261" s="75"/>
     </row>
@@ -28252,7 +28261,7 @@
         <v>844</v>
       </c>
       <c r="K262" s="63"/>
-      <c r="L262" s="95"/>
+      <c r="L262" s="91"/>
       <c r="M262" s="75"/>
       <c r="N262" s="75"/>
     </row>
@@ -28288,7 +28297,7 @@
         <v>844</v>
       </c>
       <c r="K263" s="63"/>
-      <c r="L263" s="95"/>
+      <c r="L263" s="91"/>
       <c r="M263" s="75"/>
       <c r="N263" s="75"/>
     </row>
@@ -28324,7 +28333,7 @@
         <v>844</v>
       </c>
       <c r="K264" s="63"/>
-      <c r="L264" s="95"/>
+      <c r="L264" s="91"/>
       <c r="M264" s="75"/>
       <c r="N264" s="75"/>
     </row>
@@ -28360,7 +28369,7 @@
         <v>844</v>
       </c>
       <c r="K265" s="63"/>
-      <c r="L265" s="95"/>
+      <c r="L265" s="91"/>
       <c r="M265" s="75"/>
       <c r="N265" s="75"/>
     </row>
@@ -28396,7 +28405,7 @@
         <v>844</v>
       </c>
       <c r="K266" s="63"/>
-      <c r="L266" s="95"/>
+      <c r="L266" s="91"/>
       <c r="M266" s="75"/>
       <c r="N266" s="75"/>
     </row>
@@ -28432,7 +28441,7 @@
         <v>844</v>
       </c>
       <c r="K267" s="63"/>
-      <c r="L267" s="95"/>
+      <c r="L267" s="91"/>
       <c r="M267" s="75"/>
       <c r="N267" s="75"/>
     </row>
@@ -28468,7 +28477,7 @@
         <v>844</v>
       </c>
       <c r="K268" s="63"/>
-      <c r="L268" s="95"/>
+      <c r="L268" s="91"/>
       <c r="M268" s="75"/>
       <c r="N268" s="75"/>
     </row>
@@ -28504,7 +28513,7 @@
         <v>844</v>
       </c>
       <c r="K269" s="63"/>
-      <c r="L269" s="95"/>
+      <c r="L269" s="91"/>
       <c r="M269" s="75"/>
       <c r="N269" s="75"/>
     </row>
@@ -28540,7 +28549,7 @@
         <v>844</v>
       </c>
       <c r="K270" s="63"/>
-      <c r="L270" s="95"/>
+      <c r="L270" s="91"/>
       <c r="M270" s="75"/>
       <c r="N270" s="75"/>
     </row>
@@ -28576,7 +28585,7 @@
         <v>844</v>
       </c>
       <c r="K271" s="63"/>
-      <c r="L271" s="95"/>
+      <c r="L271" s="91"/>
       <c r="M271" s="75"/>
       <c r="N271" s="75"/>
     </row>
@@ -28612,7 +28621,7 @@
         <v>844</v>
       </c>
       <c r="K272" s="63"/>
-      <c r="L272" s="95"/>
+      <c r="L272" s="91"/>
       <c r="M272" s="75"/>
       <c r="N272" s="75"/>
     </row>
@@ -28648,7 +28657,7 @@
         <v>844</v>
       </c>
       <c r="K273" s="63"/>
-      <c r="L273" s="95"/>
+      <c r="L273" s="91"/>
       <c r="M273" s="75"/>
       <c r="N273" s="75"/>
     </row>
@@ -28684,7 +28693,7 @@
         <v>844</v>
       </c>
       <c r="K274" s="63"/>
-      <c r="L274" s="95"/>
+      <c r="L274" s="91"/>
       <c r="M274" s="75"/>
       <c r="N274" s="75"/>
     </row>
@@ -28720,7 +28729,7 @@
         <v>844</v>
       </c>
       <c r="K275" s="63"/>
-      <c r="L275" s="95"/>
+      <c r="L275" s="91"/>
       <c r="M275" s="75"/>
       <c r="N275" s="75"/>
     </row>
@@ -28756,7 +28765,7 @@
         <v>844</v>
       </c>
       <c r="K276" s="63"/>
-      <c r="L276" s="95"/>
+      <c r="L276" s="91"/>
       <c r="M276" s="75"/>
       <c r="N276" s="75"/>
     </row>
@@ -28792,7 +28801,7 @@
         <v>844</v>
       </c>
       <c r="K277" s="63"/>
-      <c r="L277" s="95"/>
+      <c r="L277" s="91"/>
       <c r="M277" s="75"/>
       <c r="N277" s="75"/>
     </row>
@@ -28828,7 +28837,7 @@
         <v>844</v>
       </c>
       <c r="K278" s="63"/>
-      <c r="L278" s="95"/>
+      <c r="L278" s="91"/>
       <c r="M278" s="75"/>
       <c r="N278" s="75"/>
     </row>
@@ -28864,7 +28873,7 @@
         <v>844</v>
       </c>
       <c r="K279" s="63"/>
-      <c r="L279" s="95"/>
+      <c r="L279" s="91"/>
       <c r="M279" s="75"/>
       <c r="N279" s="75"/>
     </row>
@@ -28900,7 +28909,7 @@
         <v>844</v>
       </c>
       <c r="K280" s="63"/>
-      <c r="L280" s="95"/>
+      <c r="L280" s="91"/>
       <c r="M280" s="75"/>
       <c r="N280" s="75"/>
     </row>
@@ -28936,7 +28945,7 @@
         <v>844</v>
       </c>
       <c r="K281" s="63"/>
-      <c r="L281" s="95"/>
+      <c r="L281" s="91"/>
       <c r="M281" s="75"/>
       <c r="N281" s="75"/>
     </row>
@@ -28972,7 +28981,7 @@
         <v>844</v>
       </c>
       <c r="K282" s="63"/>
-      <c r="L282" s="95"/>
+      <c r="L282" s="91"/>
       <c r="M282" s="75"/>
       <c r="N282" s="75"/>
     </row>
@@ -29008,7 +29017,7 @@
         <v>844</v>
       </c>
       <c r="K283" s="63"/>
-      <c r="L283" s="95"/>
+      <c r="L283" s="91"/>
       <c r="M283" s="75"/>
       <c r="N283" s="75"/>
     </row>
@@ -29044,7 +29053,7 @@
         <v>844</v>
       </c>
       <c r="K284" s="63"/>
-      <c r="L284" s="95"/>
+      <c r="L284" s="91"/>
       <c r="M284" s="75"/>
       <c r="N284" s="75"/>
     </row>
@@ -29080,7 +29089,7 @@
         <v>844</v>
       </c>
       <c r="K285" s="63"/>
-      <c r="L285" s="95"/>
+      <c r="L285" s="91"/>
       <c r="M285" s="75"/>
       <c r="N285" s="75"/>
     </row>
@@ -29116,7 +29125,7 @@
         <v>844</v>
       </c>
       <c r="K286" s="63"/>
-      <c r="L286" s="95"/>
+      <c r="L286" s="91"/>
       <c r="M286" s="75"/>
       <c r="N286" s="75"/>
     </row>
@@ -29154,7 +29163,7 @@
       <c r="K287" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L287" s="92"/>
+      <c r="L287" s="88"/>
       <c r="M287" s="72"/>
       <c r="N287" s="72"/>
     </row>
@@ -29192,7 +29201,7 @@
       <c r="K288" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L288" s="92"/>
+      <c r="L288" s="88"/>
       <c r="M288" s="72"/>
       <c r="N288" s="72"/>
     </row>
@@ -29230,7 +29239,7 @@
       <c r="K289" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L289" s="92"/>
+      <c r="L289" s="88"/>
       <c r="M289" s="72"/>
       <c r="N289" s="72"/>
     </row>
@@ -29268,7 +29277,7 @@
       <c r="K290" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L290" s="92"/>
+      <c r="L290" s="88"/>
       <c r="M290" s="72"/>
       <c r="N290" s="72"/>
     </row>
@@ -29306,7 +29315,7 @@
       <c r="K291" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L291" s="92"/>
+      <c r="L291" s="88"/>
       <c r="M291" s="72"/>
       <c r="N291" s="72"/>
     </row>
@@ -29344,7 +29353,7 @@
       <c r="K292" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L292" s="92"/>
+      <c r="L292" s="88"/>
       <c r="M292" s="72"/>
       <c r="N292" s="72"/>
     </row>
@@ -29382,7 +29391,7 @@
       <c r="K293" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L293" s="92"/>
+      <c r="L293" s="88"/>
       <c r="M293" s="72"/>
       <c r="N293" s="72"/>
     </row>
@@ -29420,7 +29429,7 @@
       <c r="K294" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L294" s="92"/>
+      <c r="L294" s="88"/>
       <c r="M294" s="72"/>
       <c r="N294" s="72"/>
     </row>
@@ -29458,7 +29467,7 @@
       <c r="K295" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L295" s="92"/>
+      <c r="L295" s="88"/>
       <c r="M295" s="72"/>
       <c r="N295" s="72"/>
     </row>
@@ -29496,7 +29505,7 @@
       <c r="K296" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L296" s="92"/>
+      <c r="L296" s="88"/>
       <c r="M296" s="72"/>
       <c r="N296" s="72"/>
     </row>
@@ -29534,7 +29543,7 @@
       <c r="K297" s="61" t="s">
         <v>562</v>
       </c>
-      <c r="L297" s="93"/>
+      <c r="L297" s="89"/>
       <c r="M297" s="73"/>
       <c r="N297" s="73"/>
     </row>
@@ -29572,7 +29581,7 @@
       <c r="K298" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L298" s="92"/>
+      <c r="L298" s="88"/>
       <c r="M298" s="72"/>
       <c r="N298" s="72"/>
     </row>
@@ -29610,7 +29619,7 @@
       <c r="K299" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L299" s="92"/>
+      <c r="L299" s="88"/>
       <c r="M299" s="72"/>
       <c r="N299" s="72"/>
     </row>
@@ -29648,7 +29657,7 @@
       <c r="K300" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L300" s="92"/>
+      <c r="L300" s="88"/>
       <c r="M300" s="72"/>
       <c r="N300" s="72"/>
     </row>
@@ -29686,7 +29695,7 @@
       <c r="K301" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L301" s="92"/>
+      <c r="L301" s="88"/>
       <c r="M301" s="72"/>
       <c r="N301" s="72"/>
     </row>
@@ -29724,7 +29733,7 @@
       <c r="K302" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L302" s="92"/>
+      <c r="L302" s="88"/>
       <c r="M302" s="72"/>
       <c r="N302" s="72"/>
     </row>
@@ -29762,7 +29771,7 @@
       <c r="K303" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L303" s="92"/>
+      <c r="L303" s="88"/>
       <c r="M303" s="72"/>
       <c r="N303" s="72"/>
     </row>
@@ -29800,7 +29809,7 @@
       <c r="K304" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L304" s="92"/>
+      <c r="L304" s="88"/>
       <c r="M304" s="72"/>
       <c r="N304" s="72"/>
     </row>
@@ -29838,7 +29847,7 @@
       <c r="K305" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L305" s="92"/>
+      <c r="L305" s="88"/>
       <c r="M305" s="72"/>
       <c r="N305" s="72"/>
     </row>
@@ -29876,7 +29885,7 @@
       <c r="K306" s="70" t="s">
         <v>565</v>
       </c>
-      <c r="L306" s="94" t="s">
+      <c r="L306" s="90" t="s">
         <v>1723</v>
       </c>
       <c r="M306" s="74" t="s">
@@ -29918,7 +29927,7 @@
       <c r="K307" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L307" s="92"/>
+      <c r="L307" s="88"/>
       <c r="M307" s="72"/>
       <c r="N307" s="72"/>
     </row>
@@ -29956,7 +29965,7 @@
       <c r="K308" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L308" s="92"/>
+      <c r="L308" s="88"/>
       <c r="M308" s="72"/>
       <c r="N308" s="72"/>
     </row>
@@ -29994,7 +30003,7 @@
       <c r="K309" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L309" s="92"/>
+      <c r="L309" s="88"/>
       <c r="M309" s="72"/>
       <c r="N309" s="72"/>
     </row>
@@ -30032,7 +30041,7 @@
       <c r="K310" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L310" s="92"/>
+      <c r="L310" s="88"/>
       <c r="M310" s="72"/>
       <c r="N310" s="72"/>
     </row>
@@ -30070,7 +30079,7 @@
       <c r="K311" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L311" s="92"/>
+      <c r="L311" s="88"/>
       <c r="M311" s="72"/>
       <c r="N311" s="72"/>
     </row>
@@ -30108,7 +30117,7 @@
       <c r="K312" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L312" s="92"/>
+      <c r="L312" s="88"/>
       <c r="M312" s="72"/>
       <c r="N312" s="72"/>
     </row>
@@ -30146,7 +30155,7 @@
       <c r="K313" s="56" t="s">
         <v>565</v>
       </c>
-      <c r="L313" s="92"/>
+      <c r="L313" s="88"/>
       <c r="M313" s="72"/>
       <c r="N313" s="72"/>
     </row>
@@ -37105,8 +37114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -37124,18 +37133,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="132" t="s">
         <v>1944</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -37876,7 +37885,7 @@
       <c r="K19" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L19" s="122" t="s">
+      <c r="L19" s="129" t="s">
         <v>1663</v>
       </c>
       <c r="M19" s="78" t="s">
@@ -37919,7 +37928,7 @@
       <c r="K20" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L20" s="123"/>
+      <c r="L20" s="130"/>
       <c r="M20" s="78" t="s">
         <v>565</v>
       </c>
@@ -38087,7 +38096,7 @@
       <c r="K24" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L24" s="122" t="s">
+      <c r="L24" s="129" t="s">
         <v>1670</v>
       </c>
       <c r="M24" s="78" t="s">
@@ -38130,7 +38139,7 @@
       <c r="K25" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L25" s="123"/>
+      <c r="L25" s="130"/>
       <c r="M25" s="78" t="s">
         <v>565</v>
       </c>
@@ -38908,7 +38917,7 @@
       <c r="K43" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L43" s="122" t="s">
+      <c r="L43" s="129" t="s">
         <v>1695</v>
       </c>
       <c r="M43" s="78" t="s">
@@ -38951,7 +38960,7 @@
       <c r="K44" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L44" s="123"/>
+      <c r="L44" s="130"/>
       <c r="M44" s="78" t="s">
         <v>565</v>
       </c>
@@ -39420,7 +39429,7 @@
       <c r="K55" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L55" s="122" t="s">
+      <c r="L55" s="129" t="s">
         <v>1700</v>
       </c>
       <c r="M55" s="78" t="s">
@@ -39463,7 +39472,7 @@
       <c r="K56" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L56" s="123"/>
+      <c r="L56" s="130"/>
       <c r="M56" s="78" t="s">
         <v>565</v>
       </c>
@@ -39758,7 +39767,7 @@
       <c r="K63" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L63" s="122" t="s">
+      <c r="L63" s="129" t="s">
         <v>1675</v>
       </c>
       <c r="M63" s="78" t="s">
@@ -39801,7 +39810,7 @@
       <c r="K64" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L64" s="123"/>
+      <c r="L64" s="130"/>
       <c r="M64" s="78" t="s">
         <v>565</v>
       </c>
@@ -39969,7 +39978,7 @@
       <c r="K68" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L68" s="122" t="s">
+      <c r="L68" s="129" t="s">
         <v>1704</v>
       </c>
       <c r="M68" s="78" t="s">
@@ -40012,7 +40021,7 @@
       <c r="K69" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L69" s="124"/>
+      <c r="L69" s="131"/>
       <c r="M69" s="78" t="s">
         <v>565</v>
       </c>
@@ -40053,7 +40062,7 @@
       <c r="K70" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L70" s="123"/>
+      <c r="L70" s="130"/>
       <c r="M70" s="78" t="s">
         <v>565</v>
       </c>
@@ -40137,7 +40146,7 @@
       <c r="K72" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L72" s="122" t="s">
+      <c r="L72" s="129" t="s">
         <v>1795</v>
       </c>
       <c r="M72" s="78" t="s">
@@ -40180,176 +40189,176 @@
       <c r="K73" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L73" s="123"/>
+      <c r="L73" s="130"/>
       <c r="M73" s="78" t="s">
         <v>565</v>
       </c>
       <c r="N73" s="80"/>
       <c r="O73" s="80"/>
     </row>
-    <row r="74" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="29">
+    <row r="74" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="134">
         <v>81</v>
       </c>
-      <c r="B74" s="29" t="s">
+      <c r="B74" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C74" s="29">
+      <c r="C74" s="134">
         <v>72</v>
       </c>
-      <c r="D74" s="29" t="s">
+      <c r="D74" s="134" t="s">
         <v>1305</v>
       </c>
-      <c r="E74" s="29" t="s">
+      <c r="E74" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F74" s="29" t="s">
+      <c r="F74" s="134" t="s">
         <v>1306</v>
       </c>
-      <c r="G74" s="29" t="s">
+      <c r="G74" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H74" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I74" s="29" t="s">
+      <c r="I74" s="134" t="s">
         <v>1307</v>
       </c>
-      <c r="J74" s="29">
+      <c r="J74" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K74" s="29" t="s">
+      <c r="K74" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L74" s="29"/>
-      <c r="M74" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N74" s="47"/>
-      <c r="O74" s="47"/>
-    </row>
-    <row r="75" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="29">
+      <c r="L74" s="134"/>
+      <c r="M74" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N74" s="135"/>
+      <c r="O74" s="135"/>
+    </row>
+    <row r="75" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="134">
         <v>82</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C75" s="29">
+      <c r="C75" s="134">
         <v>73</v>
       </c>
-      <c r="D75" s="29" t="s">
+      <c r="D75" s="134" t="s">
         <v>1308</v>
       </c>
-      <c r="E75" s="29" t="s">
+      <c r="E75" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F75" s="29" t="s">
+      <c r="F75" s="134" t="s">
         <v>1309</v>
       </c>
-      <c r="G75" s="29" t="s">
+      <c r="G75" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H75" s="29" t="s">
+      <c r="H75" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I75" s="29" t="s">
+      <c r="I75" s="134" t="s">
         <v>1310</v>
       </c>
-      <c r="J75" s="29">
+      <c r="J75" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K75" s="29" t="s">
+      <c r="K75" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N75" s="47"/>
-      <c r="O75" s="47"/>
-    </row>
-    <row r="76" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="29">
+      <c r="L75" s="134"/>
+      <c r="M75" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N75" s="135"/>
+      <c r="O75" s="135"/>
+    </row>
+    <row r="76" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="134">
         <v>83</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C76" s="29">
+      <c r="C76" s="134">
         <v>74</v>
       </c>
-      <c r="D76" s="29" t="s">
+      <c r="D76" s="134" t="s">
         <v>1311</v>
       </c>
-      <c r="E76" s="29" t="s">
+      <c r="E76" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F76" s="29" t="s">
+      <c r="F76" s="134" t="s">
         <v>1312</v>
       </c>
-      <c r="G76" s="29" t="s">
+      <c r="G76" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H76" s="29" t="s">
+      <c r="H76" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I76" s="29" t="s">
+      <c r="I76" s="134" t="s">
         <v>1313</v>
       </c>
-      <c r="J76" s="29">
+      <c r="J76" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K76" s="29" t="s">
+      <c r="K76" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L76" s="29"/>
-      <c r="M76" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N76" s="47"/>
-      <c r="O76" s="47"/>
-    </row>
-    <row r="77" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="29">
+      <c r="L76" s="134"/>
+      <c r="M76" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N76" s="135"/>
+      <c r="O76" s="135"/>
+    </row>
+    <row r="77" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="134">
         <v>84</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C77" s="29">
+      <c r="C77" s="134">
         <v>75</v>
       </c>
-      <c r="D77" s="29" t="s">
+      <c r="D77" s="134" t="s">
         <v>1314</v>
       </c>
-      <c r="E77" s="29" t="s">
+      <c r="E77" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F77" s="29" t="s">
+      <c r="F77" s="134" t="s">
         <v>1315</v>
       </c>
-      <c r="G77" s="29" t="s">
+      <c r="G77" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H77" s="29" t="s">
+      <c r="H77" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I77" s="29" t="s">
+      <c r="I77" s="134" t="s">
         <v>1316</v>
       </c>
-      <c r="J77" s="29">
+      <c r="J77" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K77" s="29" t="s">
+      <c r="K77" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L77" s="29"/>
-      <c r="M77" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N77" s="47"/>
-      <c r="O77" s="47"/>
+      <c r="L77" s="134"/>
+      <c r="M77" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N77" s="135"/>
+      <c r="O77" s="135"/>
     </row>
     <row r="78" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A78" s="78">
@@ -40435,87 +40444,87 @@
       <c r="N79" s="47"/>
       <c r="O79" s="47"/>
     </row>
-    <row r="80" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="29">
+    <row r="80" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="134">
         <v>87</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C80" s="29">
+      <c r="C80" s="134">
         <v>78</v>
       </c>
-      <c r="D80" s="29" t="s">
+      <c r="D80" s="134" t="s">
         <v>1321</v>
       </c>
-      <c r="E80" s="29" t="s">
+      <c r="E80" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F80" s="29" t="s">
+      <c r="F80" s="134" t="s">
         <v>1280</v>
       </c>
-      <c r="G80" s="29" t="s">
+      <c r="G80" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H80" s="29" t="s">
+      <c r="H80" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I80" s="29" t="s">
+      <c r="I80" s="134" t="s">
         <v>1322</v>
       </c>
-      <c r="J80" s="29">
+      <c r="J80" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K80" s="29" t="s">
+      <c r="K80" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L80" s="29"/>
-      <c r="M80" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N80" s="47"/>
-      <c r="O80" s="47"/>
-    </row>
-    <row r="81" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="29">
+      <c r="L80" s="134"/>
+      <c r="M80" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N80" s="135"/>
+      <c r="O80" s="135"/>
+    </row>
+    <row r="81" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="134">
         <v>88</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C81" s="29">
+      <c r="C81" s="134">
         <v>79</v>
       </c>
-      <c r="D81" s="29" t="s">
+      <c r="D81" s="134" t="s">
         <v>1323</v>
       </c>
-      <c r="E81" s="29" t="s">
+      <c r="E81" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F81" s="29" t="s">
+      <c r="F81" s="134" t="s">
         <v>1119</v>
       </c>
-      <c r="G81" s="29" t="s">
+      <c r="G81" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H81" s="29" t="s">
+      <c r="H81" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I81" s="29" t="s">
+      <c r="I81" s="134" t="s">
         <v>1324</v>
       </c>
-      <c r="J81" s="29">
+      <c r="J81" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K81" s="29" t="s">
+      <c r="K81" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L81" s="29"/>
-      <c r="M81" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N81" s="47"/>
-      <c r="O81" s="47"/>
+      <c r="L81" s="134"/>
+      <c r="M81" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N81" s="135"/>
+      <c r="O81" s="135"/>
     </row>
     <row r="82" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="78">
@@ -40682,7 +40691,7 @@
       <c r="K85" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L85" s="122" t="s">
+      <c r="L85" s="129" t="s">
         <v>1791</v>
       </c>
       <c r="M85" s="78" t="s">
@@ -40725,7 +40734,7 @@
       <c r="K86" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L86" s="124"/>
+      <c r="L86" s="131"/>
       <c r="M86" s="78" t="s">
         <v>565</v>
       </c>
@@ -40766,7 +40775,7 @@
       <c r="K87" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L87" s="123"/>
+      <c r="L87" s="130"/>
       <c r="M87" s="78" t="s">
         <v>565</v>
       </c>
@@ -40818,87 +40827,87 @@
       </c>
       <c r="O88" s="80"/>
     </row>
-    <row r="89" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="29">
+    <row r="89" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="134">
         <v>96</v>
       </c>
-      <c r="B89" s="29" t="s">
+      <c r="B89" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C89" s="29">
+      <c r="C89" s="134">
         <v>87</v>
       </c>
-      <c r="D89" s="29" t="s">
+      <c r="D89" s="134" t="s">
         <v>1343</v>
       </c>
-      <c r="E89" s="29" t="s">
+      <c r="E89" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F89" s="29" t="s">
+      <c r="F89" s="134" t="s">
         <v>1122</v>
       </c>
-      <c r="G89" s="29" t="s">
+      <c r="G89" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H89" s="29" t="s">
+      <c r="H89" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I89" s="29" t="s">
+      <c r="I89" s="134" t="s">
         <v>1344</v>
       </c>
-      <c r="J89" s="29">
+      <c r="J89" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K89" s="29" t="s">
+      <c r="K89" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L89" s="29"/>
-      <c r="M89" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N89" s="47"/>
-      <c r="O89" s="47"/>
-    </row>
-    <row r="90" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="29">
+      <c r="L89" s="134"/>
+      <c r="M89" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N89" s="135"/>
+      <c r="O89" s="135"/>
+    </row>
+    <row r="90" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="134">
         <v>97</v>
       </c>
-      <c r="B90" s="29" t="s">
+      <c r="B90" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C90" s="29">
+      <c r="C90" s="134">
         <v>88</v>
       </c>
-      <c r="D90" s="29" t="s">
+      <c r="D90" s="134" t="s">
         <v>1345</v>
       </c>
-      <c r="E90" s="29" t="s">
+      <c r="E90" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F90" s="29" t="s">
+      <c r="F90" s="134" t="s">
         <v>1346</v>
       </c>
-      <c r="G90" s="29" t="s">
+      <c r="G90" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H90" s="29" t="s">
+      <c r="H90" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I90" s="29" t="s">
+      <c r="I90" s="134" t="s">
         <v>1347</v>
       </c>
-      <c r="J90" s="29">
+      <c r="J90" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K90" s="29" t="s">
+      <c r="K90" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L90" s="29"/>
-      <c r="M90" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N90" s="47"/>
-      <c r="O90" s="47"/>
+      <c r="L90" s="134"/>
+      <c r="M90" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N90" s="135"/>
+      <c r="O90" s="135"/>
     </row>
     <row r="91" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="78">
@@ -40984,46 +40993,46 @@
       <c r="N92" s="47"/>
       <c r="O92" s="47"/>
     </row>
-    <row r="93" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="29">
+    <row r="93" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="138">
         <v>100</v>
       </c>
-      <c r="B93" s="29" t="s">
+      <c r="B93" s="138" t="s">
         <v>1587</v>
       </c>
-      <c r="C93" s="29">
+      <c r="C93" s="138">
         <v>91</v>
       </c>
-      <c r="D93" s="29" t="s">
+      <c r="D93" s="138" t="s">
         <v>1353</v>
       </c>
-      <c r="E93" s="29" t="s">
+      <c r="E93" s="138" t="s">
         <v>1109</v>
       </c>
-      <c r="F93" s="29" t="s">
+      <c r="F93" s="138" t="s">
         <v>1134</v>
       </c>
-      <c r="G93" s="29" t="s">
+      <c r="G93" s="138" t="s">
         <v>1588</v>
       </c>
-      <c r="H93" s="29" t="s">
+      <c r="H93" s="138" t="s">
         <v>1589</v>
       </c>
-      <c r="I93" s="29" t="s">
+      <c r="I93" s="138" t="s">
         <v>1354</v>
       </c>
-      <c r="J93" s="29">
+      <c r="J93" s="138">
         <v>2016.2</v>
       </c>
-      <c r="K93" s="29" t="s">
+      <c r="K93" s="138" t="s">
         <v>1112</v>
       </c>
-      <c r="L93" s="29"/>
-      <c r="M93" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N93" s="47"/>
-      <c r="O93" s="47"/>
+      <c r="L93" s="138"/>
+      <c r="M93" s="138" t="s">
+        <v>565</v>
+      </c>
+      <c r="N93" s="139"/>
+      <c r="O93" s="139"/>
     </row>
     <row r="94" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="78">
@@ -41107,128 +41116,128 @@
       <c r="N95" s="47"/>
       <c r="O95" s="47"/>
     </row>
-    <row r="96" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="29">
+    <row r="96" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="134">
         <v>103</v>
       </c>
-      <c r="B96" s="29" t="s">
+      <c r="B96" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C96" s="29">
+      <c r="C96" s="134">
         <v>94</v>
       </c>
-      <c r="D96" s="29" t="s">
+      <c r="D96" s="134" t="s">
         <v>1360</v>
       </c>
-      <c r="E96" s="29" t="s">
+      <c r="E96" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F96" s="29" t="s">
+      <c r="F96" s="134" t="s">
         <v>1145</v>
       </c>
-      <c r="G96" s="29" t="s">
+      <c r="G96" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H96" s="29" t="s">
+      <c r="H96" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I96" s="29" t="s">
+      <c r="I96" s="134" t="s">
         <v>1361</v>
       </c>
-      <c r="J96" s="29">
+      <c r="J96" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K96" s="29" t="s">
+      <c r="K96" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L96" s="29"/>
-      <c r="M96" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N96" s="47"/>
-      <c r="O96" s="47"/>
-    </row>
-    <row r="97" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="29">
+      <c r="L96" s="134"/>
+      <c r="M96" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N96" s="135"/>
+      <c r="O96" s="135"/>
+    </row>
+    <row r="97" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="134">
         <v>104</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C97" s="29">
+      <c r="C97" s="134">
         <v>95</v>
       </c>
-      <c r="D97" s="29" t="s">
+      <c r="D97" s="134" t="s">
         <v>1362</v>
       </c>
-      <c r="E97" s="29" t="s">
+      <c r="E97" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F97" s="29" t="s">
+      <c r="F97" s="134" t="s">
         <v>1363</v>
       </c>
-      <c r="G97" s="29" t="s">
+      <c r="G97" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H97" s="29" t="s">
+      <c r="H97" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I97" s="29" t="s">
+      <c r="I97" s="134" t="s">
         <v>1364</v>
       </c>
-      <c r="J97" s="29">
+      <c r="J97" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K97" s="29" t="s">
+      <c r="K97" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L97" s="29"/>
-      <c r="M97" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N97" s="47"/>
-      <c r="O97" s="47"/>
-    </row>
-    <row r="98" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="29">
+      <c r="L97" s="134"/>
+      <c r="M97" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N97" s="135"/>
+      <c r="O97" s="135"/>
+    </row>
+    <row r="98" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="138">
         <v>105</v>
       </c>
-      <c r="B98" s="29" t="s">
+      <c r="B98" s="138" t="s">
         <v>1587</v>
       </c>
-      <c r="C98" s="29">
+      <c r="C98" s="138">
         <v>96</v>
       </c>
-      <c r="D98" s="29" t="s">
+      <c r="D98" s="138" t="s">
         <v>1365</v>
       </c>
-      <c r="E98" s="29" t="s">
+      <c r="E98" s="138" t="s">
         <v>1109</v>
       </c>
-      <c r="F98" s="29" t="s">
+      <c r="F98" s="138" t="s">
         <v>1154</v>
       </c>
-      <c r="G98" s="29" t="s">
+      <c r="G98" s="138" t="s">
         <v>1588</v>
       </c>
-      <c r="H98" s="29" t="s">
+      <c r="H98" s="138" t="s">
         <v>1589</v>
       </c>
-      <c r="I98" s="29" t="s">
+      <c r="I98" s="138" t="s">
         <v>1366</v>
       </c>
-      <c r="J98" s="29">
+      <c r="J98" s="138">
         <v>2016.2</v>
       </c>
-      <c r="K98" s="29" t="s">
+      <c r="K98" s="138" t="s">
         <v>1112</v>
       </c>
-      <c r="L98" s="29"/>
-      <c r="M98" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N98" s="47"/>
-      <c r="O98" s="47"/>
+      <c r="L98" s="138"/>
+      <c r="M98" s="138" t="s">
+        <v>565</v>
+      </c>
+      <c r="N98" s="139"/>
+      <c r="O98" s="139"/>
     </row>
     <row r="99" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="78">
@@ -41409,7 +41418,7 @@
         <v>101</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>1377</v>
+        <v>1974</v>
       </c>
       <c r="E103" s="29" t="s">
         <v>1109</v>
@@ -41521,46 +41530,46 @@
       <c r="N105" s="47"/>
       <c r="O105" s="47"/>
     </row>
-    <row r="106" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="29">
+    <row r="106" spans="1:15" s="140" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="138">
         <v>113</v>
       </c>
-      <c r="B106" s="29" t="s">
+      <c r="B106" s="138" t="s">
         <v>1587</v>
       </c>
-      <c r="C106" s="29">
+      <c r="C106" s="138">
         <v>104</v>
       </c>
-      <c r="D106" s="29" t="s">
+      <c r="D106" s="138" t="s">
         <v>1384</v>
       </c>
-      <c r="E106" s="29" t="s">
+      <c r="E106" s="138" t="s">
         <v>1109</v>
       </c>
-      <c r="F106" s="29" t="s">
+      <c r="F106" s="138" t="s">
         <v>1163</v>
       </c>
-      <c r="G106" s="29" t="s">
+      <c r="G106" s="138" t="s">
         <v>1588</v>
       </c>
-      <c r="H106" s="29" t="s">
+      <c r="H106" s="138" t="s">
         <v>1589</v>
       </c>
-      <c r="I106" s="29" t="s">
+      <c r="I106" s="138" t="s">
         <v>1385</v>
       </c>
-      <c r="J106" s="29">
+      <c r="J106" s="138">
         <v>2016.2</v>
       </c>
-      <c r="K106" s="29" t="s">
+      <c r="K106" s="138" t="s">
         <v>1112</v>
       </c>
-      <c r="L106" s="29"/>
-      <c r="M106" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N106" s="47"/>
-      <c r="O106" s="47"/>
+      <c r="L106" s="138"/>
+      <c r="M106" s="138" t="s">
+        <v>565</v>
+      </c>
+      <c r="N106" s="139"/>
+      <c r="O106" s="139"/>
     </row>
     <row r="107" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="29">
@@ -41814,128 +41823,128 @@
       <c r="N112" s="47"/>
       <c r="O112" s="47"/>
     </row>
-    <row r="113" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="29">
+    <row r="113" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="134">
         <v>120</v>
       </c>
-      <c r="B113" s="29" t="s">
+      <c r="B113" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C113" s="29">
+      <c r="C113" s="134">
         <v>111</v>
       </c>
-      <c r="D113" s="29" t="s">
+      <c r="D113" s="134" t="s">
         <v>1402</v>
       </c>
-      <c r="E113" s="29" t="s">
+      <c r="E113" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F113" s="29" t="s">
+      <c r="F113" s="134" t="s">
         <v>1403</v>
       </c>
-      <c r="G113" s="29" t="s">
+      <c r="G113" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H113" s="29" t="s">
+      <c r="H113" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I113" s="29" t="s">
+      <c r="I113" s="134" t="s">
         <v>1404</v>
       </c>
-      <c r="J113" s="29">
+      <c r="J113" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K113" s="29" t="s">
+      <c r="K113" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L113" s="29"/>
-      <c r="M113" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N113" s="47"/>
-      <c r="O113" s="47"/>
-    </row>
-    <row r="114" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="29">
+      <c r="L113" s="134"/>
+      <c r="M113" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N113" s="135"/>
+      <c r="O113" s="135"/>
+    </row>
+    <row r="114" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="134">
         <v>121</v>
       </c>
-      <c r="B114" s="29" t="s">
+      <c r="B114" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C114" s="29">
+      <c r="C114" s="134">
         <v>112</v>
       </c>
-      <c r="D114" s="29" t="s">
+      <c r="D114" s="134" t="s">
         <v>1405</v>
       </c>
-      <c r="E114" s="29" t="s">
+      <c r="E114" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F114" s="29" t="s">
+      <c r="F114" s="134" t="s">
         <v>1406</v>
       </c>
-      <c r="G114" s="29" t="s">
+      <c r="G114" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H114" s="29" t="s">
+      <c r="H114" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I114" s="29" t="s">
+      <c r="I114" s="134" t="s">
         <v>1407</v>
       </c>
-      <c r="J114" s="29">
+      <c r="J114" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K114" s="29" t="s">
+      <c r="K114" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L114" s="29"/>
-      <c r="M114" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N114" s="47"/>
-      <c r="O114" s="47"/>
-    </row>
-    <row r="115" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="29">
+      <c r="L114" s="134"/>
+      <c r="M114" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N114" s="135"/>
+      <c r="O114" s="135"/>
+    </row>
+    <row r="115" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="134">
         <v>122</v>
       </c>
-      <c r="B115" s="29" t="s">
+      <c r="B115" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C115" s="29">
+      <c r="C115" s="134">
         <v>113</v>
       </c>
-      <c r="D115" s="29" t="s">
+      <c r="D115" s="134" t="s">
         <v>1408</v>
       </c>
-      <c r="E115" s="29" t="s">
+      <c r="E115" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F115" s="29" t="s">
+      <c r="F115" s="134" t="s">
         <v>1409</v>
       </c>
-      <c r="G115" s="29" t="s">
+      <c r="G115" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H115" s="29" t="s">
+      <c r="H115" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I115" s="29" t="s">
+      <c r="I115" s="134" t="s">
         <v>1410</v>
       </c>
-      <c r="J115" s="29">
+      <c r="J115" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K115" s="29" t="s">
+      <c r="K115" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L115" s="29"/>
-      <c r="M115" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N115" s="47"/>
-      <c r="O115" s="47"/>
+      <c r="L115" s="134"/>
+      <c r="M115" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N115" s="135"/>
+      <c r="O115" s="135"/>
     </row>
     <row r="116" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="78">
@@ -41980,87 +41989,87 @@
       <c r="N116" s="80"/>
       <c r="O116" s="80"/>
     </row>
-    <row r="117" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="29">
+    <row r="117" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="134">
         <v>124</v>
       </c>
-      <c r="B117" s="29" t="s">
+      <c r="B117" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C117" s="29">
+      <c r="C117" s="134">
         <v>115</v>
       </c>
-      <c r="D117" s="29" t="s">
+      <c r="D117" s="134" t="s">
         <v>1414</v>
       </c>
-      <c r="E117" s="29" t="s">
+      <c r="E117" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F117" s="29" t="s">
+      <c r="F117" s="134" t="s">
         <v>1415</v>
       </c>
-      <c r="G117" s="29" t="s">
+      <c r="G117" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H117" s="29" t="s">
+      <c r="H117" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I117" s="29" t="s">
+      <c r="I117" s="134" t="s">
         <v>1416</v>
       </c>
-      <c r="J117" s="29">
+      <c r="J117" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K117" s="29" t="s">
+      <c r="K117" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L117" s="29"/>
-      <c r="M117" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N117" s="47"/>
-      <c r="O117" s="47"/>
-    </row>
-    <row r="118" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="29">
+      <c r="L117" s="134"/>
+      <c r="M117" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N117" s="135"/>
+      <c r="O117" s="135"/>
+    </row>
+    <row r="118" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="134">
         <v>125</v>
       </c>
-      <c r="B118" s="29" t="s">
+      <c r="B118" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C118" s="29">
+      <c r="C118" s="134">
         <v>116</v>
       </c>
-      <c r="D118" s="29" t="s">
+      <c r="D118" s="134" t="s">
         <v>1417</v>
       </c>
-      <c r="E118" s="29" t="s">
+      <c r="E118" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F118" s="29" t="s">
+      <c r="F118" s="134" t="s">
         <v>1418</v>
       </c>
-      <c r="G118" s="29" t="s">
+      <c r="G118" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H118" s="29" t="s">
+      <c r="H118" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I118" s="29" t="s">
+      <c r="I118" s="134" t="s">
         <v>1419</v>
       </c>
-      <c r="J118" s="29">
+      <c r="J118" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K118" s="29" t="s">
+      <c r="K118" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L118" s="29"/>
-      <c r="M118" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N118" s="47"/>
-      <c r="O118" s="47"/>
+      <c r="L118" s="134"/>
+      <c r="M118" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N118" s="135"/>
+      <c r="O118" s="135"/>
     </row>
     <row r="119" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="78">
@@ -42107,169 +42116,169 @@
       </c>
       <c r="O119" s="80"/>
     </row>
-    <row r="120" spans="1:15" s="91" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="88">
+    <row r="120" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="134">
         <v>127</v>
       </c>
-      <c r="B120" s="88" t="s">
+      <c r="B120" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C120" s="88">
+      <c r="C120" s="134">
         <v>118</v>
       </c>
-      <c r="D120" s="88" t="s">
+      <c r="D120" s="134" t="s">
         <v>1642</v>
       </c>
-      <c r="E120" s="88" t="s">
+      <c r="E120" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F120" s="88" t="s">
+      <c r="F120" s="134" t="s">
         <v>1424</v>
       </c>
-      <c r="G120" s="88" t="s">
+      <c r="G120" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H120" s="88" t="s">
+      <c r="H120" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I120" s="89" t="s">
+      <c r="I120" s="137" t="s">
         <v>1641</v>
       </c>
-      <c r="J120" s="88">
+      <c r="J120" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K120" s="88" t="s">
+      <c r="K120" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L120" s="88"/>
-      <c r="M120" s="88" t="s">
-        <v>565</v>
-      </c>
-      <c r="N120" s="90"/>
-      <c r="O120" s="90"/>
-    </row>
-    <row r="121" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="29">
+      <c r="L120" s="134"/>
+      <c r="M120" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N120" s="135"/>
+      <c r="O120" s="135"/>
+    </row>
+    <row r="121" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="134">
         <v>128</v>
       </c>
-      <c r="B121" s="29" t="s">
+      <c r="B121" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C121" s="29">
+      <c r="C121" s="134">
         <v>119</v>
       </c>
-      <c r="D121" s="29" t="s">
+      <c r="D121" s="134" t="s">
         <v>1426</v>
       </c>
-      <c r="E121" s="29" t="s">
+      <c r="E121" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F121" s="29" t="s">
+      <c r="F121" s="134" t="s">
         <v>1427</v>
       </c>
-      <c r="G121" s="29" t="s">
+      <c r="G121" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H121" s="29" t="s">
+      <c r="H121" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I121" s="29" t="s">
+      <c r="I121" s="134" t="s">
         <v>1428</v>
       </c>
-      <c r="J121" s="29">
+      <c r="J121" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K121" s="29" t="s">
+      <c r="K121" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L121" s="29"/>
-      <c r="M121" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N121" s="47"/>
-      <c r="O121" s="47"/>
-    </row>
-    <row r="122" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="29">
+      <c r="L121" s="134"/>
+      <c r="M121" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N121" s="135"/>
+      <c r="O121" s="135"/>
+    </row>
+    <row r="122" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="134">
         <v>129</v>
       </c>
-      <c r="B122" s="29" t="s">
+      <c r="B122" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C122" s="29">
+      <c r="C122" s="134">
         <v>120</v>
       </c>
-      <c r="D122" s="29" t="s">
+      <c r="D122" s="134" t="s">
         <v>1429</v>
       </c>
-      <c r="E122" s="29" t="s">
+      <c r="E122" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F122" s="29" t="s">
+      <c r="F122" s="134" t="s">
         <v>1427</v>
       </c>
-      <c r="G122" s="29" t="s">
+      <c r="G122" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H122" s="29" t="s">
+      <c r="H122" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I122" s="29" t="s">
+      <c r="I122" s="134" t="s">
         <v>1430</v>
       </c>
-      <c r="J122" s="29">
+      <c r="J122" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K122" s="29" t="s">
+      <c r="K122" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L122" s="29"/>
-      <c r="M122" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N122" s="47"/>
-      <c r="O122" s="47"/>
-    </row>
-    <row r="123" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="29">
+      <c r="L122" s="134"/>
+      <c r="M122" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N122" s="135"/>
+      <c r="O122" s="135"/>
+    </row>
+    <row r="123" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="134">
         <v>130</v>
       </c>
-      <c r="B123" s="29" t="s">
+      <c r="B123" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C123" s="29">
+      <c r="C123" s="134">
         <v>121</v>
       </c>
-      <c r="D123" s="29" t="s">
+      <c r="D123" s="134" t="s">
         <v>1431</v>
       </c>
-      <c r="E123" s="29" t="s">
+      <c r="E123" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F123" s="29" t="s">
+      <c r="F123" s="134" t="s">
         <v>1432</v>
       </c>
-      <c r="G123" s="29" t="s">
+      <c r="G123" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H123" s="29" t="s">
+      <c r="H123" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I123" s="29" t="s">
+      <c r="I123" s="134" t="s">
         <v>1433</v>
       </c>
-      <c r="J123" s="29">
+      <c r="J123" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K123" s="29" t="s">
+      <c r="K123" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L123" s="29"/>
-      <c r="M123" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N123" s="47"/>
-      <c r="O123" s="47"/>
+      <c r="L123" s="134"/>
+      <c r="M123" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N123" s="135"/>
+      <c r="O123" s="135"/>
     </row>
     <row r="124" spans="1:15" s="81" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="78">
@@ -42305,7 +42314,7 @@
       <c r="K124" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L124" s="122" t="s">
+      <c r="L124" s="129" t="s">
         <v>1704</v>
       </c>
       <c r="M124" s="78" t="s">
@@ -42348,7 +42357,7 @@
       <c r="K125" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L125" s="124"/>
+      <c r="L125" s="131"/>
       <c r="M125" s="78" t="s">
         <v>565</v>
       </c>
@@ -42389,7 +42398,7 @@
       <c r="K126" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L126" s="123"/>
+      <c r="L126" s="130"/>
       <c r="M126" s="78" t="s">
         <v>565</v>
       </c>
@@ -42598,7 +42607,7 @@
       <c r="K131" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L131" s="122" t="s">
+      <c r="L131" s="129" t="s">
         <v>1684</v>
       </c>
       <c r="M131" s="78" t="s">
@@ -42641,7 +42650,7 @@
       <c r="K132" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L132" s="124"/>
+      <c r="L132" s="131"/>
       <c r="M132" s="78" t="s">
         <v>565</v>
       </c>
@@ -42682,94 +42691,94 @@
       <c r="K133" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L133" s="123"/>
+      <c r="L133" s="130"/>
       <c r="M133" s="78" t="s">
         <v>565</v>
       </c>
       <c r="N133" s="80"/>
       <c r="O133" s="80"/>
     </row>
-    <row r="134" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="29">
+    <row r="134" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="134">
         <v>141</v>
       </c>
-      <c r="B134" s="29" t="s">
+      <c r="B134" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C134" s="29">
+      <c r="C134" s="134">
         <v>132</v>
       </c>
-      <c r="D134" s="29" t="s">
+      <c r="D134" s="134" t="s">
         <v>1463</v>
       </c>
-      <c r="E134" s="29" t="s">
+      <c r="E134" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F134" s="29" t="s">
+      <c r="F134" s="134" t="s">
         <v>1464</v>
       </c>
-      <c r="G134" s="29" t="s">
+      <c r="G134" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H134" s="29" t="s">
+      <c r="H134" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I134" s="29" t="s">
+      <c r="I134" s="134" t="s">
         <v>1465</v>
       </c>
-      <c r="J134" s="29">
+      <c r="J134" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K134" s="29" t="s">
+      <c r="K134" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L134" s="29"/>
-      <c r="M134" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N134" s="47"/>
-      <c r="O134" s="47"/>
-    </row>
-    <row r="135" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="29">
+      <c r="L134" s="134"/>
+      <c r="M134" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N134" s="135"/>
+      <c r="O134" s="135"/>
+    </row>
+    <row r="135" spans="1:15" s="136" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="134">
         <v>142</v>
       </c>
-      <c r="B135" s="29" t="s">
+      <c r="B135" s="134" t="s">
         <v>1587</v>
       </c>
-      <c r="C135" s="29">
+      <c r="C135" s="134">
         <v>133</v>
       </c>
-      <c r="D135" s="29" t="s">
+      <c r="D135" s="134" t="s">
         <v>1466</v>
       </c>
-      <c r="E135" s="29" t="s">
+      <c r="E135" s="134" t="s">
         <v>1109</v>
       </c>
-      <c r="F135" s="29" t="s">
+      <c r="F135" s="134" t="s">
         <v>1467</v>
       </c>
-      <c r="G135" s="29" t="s">
+      <c r="G135" s="134" t="s">
         <v>1588</v>
       </c>
-      <c r="H135" s="29" t="s">
+      <c r="H135" s="134" t="s">
         <v>1589</v>
       </c>
-      <c r="I135" s="29" t="s">
+      <c r="I135" s="134" t="s">
         <v>1468</v>
       </c>
-      <c r="J135" s="29">
+      <c r="J135" s="134">
         <v>2016.2</v>
       </c>
-      <c r="K135" s="29" t="s">
+      <c r="K135" s="134" t="s">
         <v>1112</v>
       </c>
-      <c r="L135" s="29"/>
-      <c r="M135" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="N135" s="47"/>
-      <c r="O135" s="47"/>
+      <c r="L135" s="134"/>
+      <c r="M135" s="134" t="s">
+        <v>565</v>
+      </c>
+      <c r="N135" s="135"/>
+      <c r="O135" s="135"/>
     </row>
     <row r="136" spans="1:15" s="87" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="85">
@@ -43794,7 +43803,7 @@
       <c r="K159" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L159" s="122" t="s">
+      <c r="L159" s="129" t="s">
         <v>1704</v>
       </c>
       <c r="M159" s="78" t="s">
@@ -43837,7 +43846,7 @@
       <c r="K160" s="78" t="s">
         <v>1112</v>
       </c>
-      <c r="L160" s="123"/>
+      <c r="L160" s="130"/>
       <c r="M160" s="78" t="s">
         <v>565</v>
       </c>
@@ -44721,15 +44730,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="133" t="s">
         <v>1945</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -44761,849 +44770,849 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="97">
+      <c r="A3" s="93">
         <v>1</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="94" t="s">
         <v>1728</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="94" t="s">
         <v>1729</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="94" t="s">
         <v>1730</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="104" t="s">
         <v>1780</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="94" t="s">
         <v>1731</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="94" t="s">
         <v>1732</v>
       </c>
-      <c r="H3" s="98">
+      <c r="H3" s="94">
         <v>2014.08</v>
       </c>
-      <c r="I3" s="98" t="s">
+      <c r="I3" s="94" t="s">
         <v>1733</v>
       </c>
-      <c r="J3" s="99" t="s">
+      <c r="J3" s="95" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="100">
+      <c r="A4" s="96">
         <v>2</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="97" t="s">
         <v>1728</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="97" t="s">
         <v>1734</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="97" t="s">
         <v>1730</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="104" t="s">
         <v>1780</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="97" t="s">
         <v>1731</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="97" t="s">
         <v>1735</v>
       </c>
-      <c r="H4" s="101">
+      <c r="H4" s="97">
         <v>2014.08</v>
       </c>
-      <c r="I4" s="101" t="s">
+      <c r="I4" s="97" t="s">
         <v>1733</v>
       </c>
-      <c r="J4" s="102" t="s">
+      <c r="J4" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="100">
+      <c r="A5" s="96">
         <v>3</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="97" t="s">
         <v>1728</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="97" t="s">
         <v>1736</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="97" t="s">
         <v>1730</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="104" t="s">
         <v>1780</v>
       </c>
-      <c r="F5" s="101" t="s">
+      <c r="F5" s="97" t="s">
         <v>1731</v>
       </c>
-      <c r="G5" s="101" t="s">
+      <c r="G5" s="97" t="s">
         <v>1737</v>
       </c>
-      <c r="H5" s="101">
+      <c r="H5" s="97">
         <v>2015.01</v>
       </c>
-      <c r="I5" s="101" t="s">
+      <c r="I5" s="97" t="s">
         <v>1733</v>
       </c>
-      <c r="J5" s="102" t="s">
+      <c r="J5" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="100">
+      <c r="A6" s="96">
         <v>4</v>
       </c>
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="97" t="s">
         <v>1728</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="97" t="s">
         <v>1738</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="97" t="s">
         <v>1730</v>
       </c>
-      <c r="E6" s="108" t="s">
+      <c r="E6" s="104" t="s">
         <v>1782</v>
       </c>
-      <c r="F6" s="101" t="s">
+      <c r="F6" s="97" t="s">
         <v>1731</v>
       </c>
-      <c r="G6" s="101" t="s">
+      <c r="G6" s="97" t="s">
         <v>1739</v>
       </c>
-      <c r="H6" s="101">
+      <c r="H6" s="97">
         <v>2014.07</v>
       </c>
-      <c r="I6" s="101" t="s">
+      <c r="I6" s="97" t="s">
         <v>1733</v>
       </c>
-      <c r="J6" s="102" t="s">
+      <c r="J6" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="100">
+      <c r="A7" s="96">
         <v>5</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="97" t="s">
         <v>1728</v>
       </c>
-      <c r="C7" s="101" t="s">
+      <c r="C7" s="97" t="s">
         <v>1740</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="97" t="s">
         <v>1730</v>
       </c>
-      <c r="E7" s="108" t="s">
+      <c r="E7" s="104" t="s">
         <v>1781</v>
       </c>
-      <c r="F7" s="101" t="s">
+      <c r="F7" s="97" t="s">
         <v>1731</v>
       </c>
-      <c r="G7" s="101" t="s">
+      <c r="G7" s="97" t="s">
         <v>1741</v>
       </c>
-      <c r="H7" s="101">
+      <c r="H7" s="97">
         <v>2014.08</v>
       </c>
-      <c r="I7" s="101" t="s">
+      <c r="I7" s="97" t="s">
         <v>1733</v>
       </c>
-      <c r="J7" s="102" t="s">
+      <c r="J7" s="98" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="132" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="133">
+    <row r="8" spans="1:11" s="121" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="122">
         <v>6</v>
       </c>
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="123" t="s">
         <v>1742</v>
       </c>
-      <c r="C8" s="134" t="s">
+      <c r="C8" s="123" t="s">
         <v>1743</v>
       </c>
-      <c r="D8" s="134" t="s">
+      <c r="D8" s="123" t="s">
         <v>1730</v>
       </c>
-      <c r="E8" s="135" t="s">
+      <c r="E8" s="124" t="s">
         <v>1782</v>
       </c>
-      <c r="F8" s="134" t="s">
+      <c r="F8" s="123" t="s">
         <v>1731</v>
       </c>
-      <c r="G8" s="130" t="s">
+      <c r="G8" s="119" t="s">
         <v>1744</v>
       </c>
-      <c r="H8" s="134">
+      <c r="H8" s="123">
         <v>2014.08</v>
       </c>
-      <c r="I8" s="134" t="s">
+      <c r="I8" s="123" t="s">
         <v>1733</v>
       </c>
-      <c r="J8" s="136" t="s">
-        <v>565</v>
-      </c>
-      <c r="K8" s="132" t="s">
+      <c r="J8" s="125" t="s">
+        <v>565</v>
+      </c>
+      <c r="K8" s="121" t="s">
         <v>1745</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="132" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="133">
+    <row r="9" spans="1:11" s="121" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="122">
         <v>7</v>
       </c>
-      <c r="B9" s="134" t="s">
+      <c r="B9" s="123" t="s">
         <v>1728</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="123" t="s">
         <v>1746</v>
       </c>
-      <c r="D9" s="134" t="s">
+      <c r="D9" s="123" t="s">
         <v>1730</v>
       </c>
-      <c r="E9" s="135" t="s">
+      <c r="E9" s="124" t="s">
         <v>1782</v>
       </c>
-      <c r="F9" s="134" t="s">
+      <c r="F9" s="123" t="s">
         <v>1731</v>
       </c>
-      <c r="G9" s="130" t="s">
+      <c r="G9" s="119" t="s">
         <v>1747</v>
       </c>
-      <c r="H9" s="134">
+      <c r="H9" s="123">
         <v>2014.08</v>
       </c>
-      <c r="I9" s="134" t="s">
+      <c r="I9" s="123" t="s">
         <v>1733</v>
       </c>
-      <c r="J9" s="136" t="s">
-        <v>565</v>
-      </c>
-      <c r="K9" s="132" t="s">
+      <c r="J9" s="125" t="s">
+        <v>565</v>
+      </c>
+      <c r="K9" s="121" t="s">
         <v>1745</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="132" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="133">
+    <row r="10" spans="1:11" s="121" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="122">
         <v>8</v>
       </c>
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="123" t="s">
         <v>1728</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="123" t="s">
         <v>1748</v>
       </c>
-      <c r="D10" s="134" t="s">
+      <c r="D10" s="123" t="s">
         <v>1730</v>
       </c>
-      <c r="E10" s="135" t="s">
+      <c r="E10" s="124" t="s">
         <v>1782</v>
       </c>
-      <c r="F10" s="134" t="s">
+      <c r="F10" s="123" t="s">
         <v>1731</v>
       </c>
-      <c r="G10" s="134" t="s">
+      <c r="G10" s="123" t="s">
         <v>1749</v>
       </c>
-      <c r="H10" s="134">
+      <c r="H10" s="123">
         <v>2014.08</v>
       </c>
-      <c r="I10" s="134" t="s">
+      <c r="I10" s="123" t="s">
         <v>1733</v>
       </c>
-      <c r="J10" s="136" t="s">
-        <v>565</v>
-      </c>
-      <c r="K10" s="132" t="s">
+      <c r="J10" s="125" t="s">
+        <v>565</v>
+      </c>
+      <c r="K10" s="121" t="s">
         <v>1745</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="132" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="133">
+    <row r="11" spans="1:11" s="121" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="122">
         <v>9</v>
       </c>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="123" t="s">
         <v>1728</v>
       </c>
-      <c r="C11" s="134" t="s">
+      <c r="C11" s="123" t="s">
         <v>1797</v>
       </c>
-      <c r="D11" s="134" t="s">
+      <c r="D11" s="123" t="s">
         <v>1730</v>
       </c>
-      <c r="E11" s="135" t="s">
+      <c r="E11" s="124" t="s">
         <v>1782</v>
       </c>
-      <c r="F11" s="134" t="s">
+      <c r="F11" s="123" t="s">
         <v>1731</v>
       </c>
-      <c r="G11" s="130" t="s">
+      <c r="G11" s="119" t="s">
         <v>1798</v>
       </c>
-      <c r="H11" s="134">
+      <c r="H11" s="123">
         <v>2014.08</v>
       </c>
-      <c r="I11" s="134" t="s">
+      <c r="I11" s="123" t="s">
         <v>1733</v>
       </c>
-      <c r="J11" s="136" t="s">
-        <v>565</v>
-      </c>
-      <c r="K11" s="132" t="s">
+      <c r="J11" s="125" t="s">
+        <v>565</v>
+      </c>
+      <c r="K11" s="121" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="132" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="133">
+    <row r="12" spans="1:11" s="121" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="122">
         <v>10</v>
       </c>
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="123" t="s">
         <v>1728</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="C12" s="123" t="s">
         <v>1783</v>
       </c>
-      <c r="D12" s="134" t="s">
+      <c r="D12" s="123" t="s">
         <v>1730</v>
       </c>
-      <c r="E12" s="135" t="s">
+      <c r="E12" s="124" t="s">
         <v>1782</v>
       </c>
-      <c r="F12" s="134" t="s">
+      <c r="F12" s="123" t="s">
         <v>1731</v>
       </c>
-      <c r="G12" s="134" t="s">
+      <c r="G12" s="123" t="s">
         <v>1750</v>
       </c>
-      <c r="H12" s="134">
+      <c r="H12" s="123">
         <v>2012.09</v>
       </c>
-      <c r="I12" s="134" t="s">
+      <c r="I12" s="123" t="s">
         <v>1733</v>
       </c>
-      <c r="J12" s="136" t="s">
-        <v>565</v>
-      </c>
-      <c r="K12" s="132" t="s">
+      <c r="J12" s="125" t="s">
+        <v>565</v>
+      </c>
+      <c r="K12" s="121" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="103">
+    <row r="13" spans="1:11" s="103" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="99">
         <v>11</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="100" t="s">
         <v>1802</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="100" t="s">
         <v>1796</v>
       </c>
-      <c r="D13" s="109" t="s">
+      <c r="D13" s="105" t="s">
         <v>1804</v>
       </c>
-      <c r="E13" s="109" t="s">
+      <c r="E13" s="105" t="s">
         <v>1782</v>
       </c>
-      <c r="F13" s="104" t="s">
+      <c r="F13" s="100" t="s">
         <v>1731</v>
       </c>
-      <c r="G13" s="105" t="s">
+      <c r="G13" s="101" t="s">
         <v>1803</v>
       </c>
-      <c r="H13" s="104">
+      <c r="H13" s="100">
         <v>2017.08</v>
       </c>
-      <c r="I13" s="104" t="s">
+      <c r="I13" s="100" t="s">
         <v>1733</v>
       </c>
-      <c r="J13" s="106" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="103">
+      <c r="J13" s="102" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="103" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="99">
         <v>12</v>
       </c>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="100" t="s">
         <v>1751</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="100" t="s">
         <v>1752</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="100" t="s">
         <v>1753</v>
       </c>
-      <c r="E14" s="109" t="s">
+      <c r="E14" s="105" t="s">
         <v>1782</v>
       </c>
-      <c r="F14" s="104" t="s">
+      <c r="F14" s="100" t="s">
         <v>1731</v>
       </c>
-      <c r="G14" s="105" t="s">
+      <c r="G14" s="101" t="s">
         <v>1805</v>
       </c>
-      <c r="H14" s="104">
+      <c r="H14" s="100">
         <v>2017.05</v>
       </c>
-      <c r="I14" s="104" t="s">
+      <c r="I14" s="100" t="s">
         <v>1733</v>
       </c>
-      <c r="J14" s="106" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="103">
+      <c r="J14" s="102" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="103" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="99">
         <v>12</v>
       </c>
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="100" t="s">
         <v>1751</v>
       </c>
-      <c r="C15" s="104" t="s">
+      <c r="C15" s="100" t="s">
         <v>1755</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="100" t="s">
         <v>1753</v>
       </c>
-      <c r="E15" s="109" t="s">
+      <c r="E15" s="105" t="s">
         <v>1782</v>
       </c>
-      <c r="F15" s="104" t="s">
+      <c r="F15" s="100" t="s">
         <v>1731</v>
       </c>
-      <c r="G15" s="104" t="s">
+      <c r="G15" s="100" t="s">
         <v>1754</v>
       </c>
-      <c r="H15" s="104">
+      <c r="H15" s="100">
         <v>2017.05</v>
       </c>
-      <c r="I15" s="104" t="s">
+      <c r="I15" s="100" t="s">
         <v>1733</v>
       </c>
-      <c r="J15" s="106" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="103">
+      <c r="J15" s="102" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="103" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="99">
         <v>12</v>
       </c>
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="100" t="s">
         <v>1751</v>
       </c>
-      <c r="C16" s="104" t="s">
+      <c r="C16" s="100" t="s">
         <v>1756</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="100" t="s">
         <v>1753</v>
       </c>
-      <c r="E16" s="109" t="s">
+      <c r="E16" s="105" t="s">
         <v>1782</v>
       </c>
-      <c r="F16" s="104" t="s">
+      <c r="F16" s="100" t="s">
         <v>1731</v>
       </c>
-      <c r="G16" s="104" t="s">
+      <c r="G16" s="100" t="s">
         <v>1754</v>
       </c>
-      <c r="H16" s="104">
+      <c r="H16" s="100">
         <v>2017.05</v>
       </c>
-      <c r="I16" s="104" t="s">
+      <c r="I16" s="100" t="s">
         <v>1733</v>
       </c>
-      <c r="J16" s="106" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="107" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="103">
+      <c r="J16" s="102" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="103" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="99">
         <v>12</v>
       </c>
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="100" t="s">
         <v>1751</v>
       </c>
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="100" t="s">
         <v>1757</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="100" t="s">
         <v>1753</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="E17" s="105" t="s">
         <v>1782</v>
       </c>
-      <c r="F17" s="104" t="s">
+      <c r="F17" s="100" t="s">
         <v>1731</v>
       </c>
-      <c r="G17" s="104" t="s">
+      <c r="G17" s="100" t="s">
         <v>1754</v>
       </c>
-      <c r="H17" s="104">
+      <c r="H17" s="100">
         <v>2017.05</v>
       </c>
-      <c r="I17" s="104" t="s">
+      <c r="I17" s="100" t="s">
         <v>1733</v>
       </c>
-      <c r="J17" s="106" t="s">
+      <c r="J17" s="102" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="100">
+      <c r="A18" s="96">
         <v>13</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="97" t="s">
         <v>1751</v>
       </c>
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="97" t="s">
         <v>1800</v>
       </c>
-      <c r="D18" s="101" t="s">
+      <c r="D18" s="97" t="s">
         <v>1758</v>
       </c>
-      <c r="E18" s="110" t="s">
+      <c r="E18" s="106" t="s">
         <v>1782</v>
       </c>
-      <c r="F18" s="101" t="s">
+      <c r="F18" s="97" t="s">
         <v>1731</v>
       </c>
-      <c r="G18" s="101" t="s">
+      <c r="G18" s="97" t="s">
         <v>1759</v>
       </c>
-      <c r="H18" s="101">
+      <c r="H18" s="97">
         <v>2017.05</v>
       </c>
-      <c r="I18" s="101" t="s">
+      <c r="I18" s="97" t="s">
         <v>1733</v>
       </c>
-      <c r="J18" s="102" t="s">
+      <c r="J18" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="100">
+      <c r="A19" s="96">
         <v>13</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="97" t="s">
         <v>1751</v>
       </c>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="97" t="s">
         <v>1760</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="97" t="s">
         <v>1758</v>
       </c>
-      <c r="E19" s="110" t="s">
+      <c r="E19" s="106" t="s">
         <v>1782</v>
       </c>
-      <c r="F19" s="101" t="s">
+      <c r="F19" s="97" t="s">
         <v>1731</v>
       </c>
-      <c r="G19" s="101" t="s">
+      <c r="G19" s="97" t="s">
         <v>1759</v>
       </c>
-      <c r="H19" s="101">
+      <c r="H19" s="97">
         <v>2017.05</v>
       </c>
-      <c r="I19" s="101" t="s">
+      <c r="I19" s="97" t="s">
         <v>1733</v>
       </c>
-      <c r="J19" s="102" t="s">
+      <c r="J19" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="100">
+      <c r="A20" s="96">
         <v>13</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="97" t="s">
         <v>1751</v>
       </c>
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="97" t="s">
         <v>1761</v>
       </c>
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="97" t="s">
         <v>1758</v>
       </c>
-      <c r="E20" s="110" t="s">
+      <c r="E20" s="106" t="s">
         <v>1782</v>
       </c>
-      <c r="F20" s="101" t="s">
+      <c r="F20" s="97" t="s">
         <v>1731</v>
       </c>
-      <c r="G20" s="101" t="s">
+      <c r="G20" s="97" t="s">
         <v>1759</v>
       </c>
-      <c r="H20" s="101">
+      <c r="H20" s="97">
         <v>2017.05</v>
       </c>
-      <c r="I20" s="101" t="s">
+      <c r="I20" s="97" t="s">
         <v>1733</v>
       </c>
-      <c r="J20" s="102" t="s">
+      <c r="J20" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="100">
+      <c r="A21" s="96">
         <v>14</v>
       </c>
-      <c r="B21" s="101" t="s">
+      <c r="B21" s="97" t="s">
         <v>1751</v>
       </c>
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="97" t="s">
         <v>1762</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="97" t="s">
         <v>1763</v>
       </c>
-      <c r="E21" s="110" t="s">
+      <c r="E21" s="106" t="s">
         <v>1782</v>
       </c>
-      <c r="F21" s="101" t="s">
+      <c r="F21" s="97" t="s">
         <v>1731</v>
       </c>
-      <c r="G21" s="101" t="s">
+      <c r="G21" s="97" t="s">
         <v>1764</v>
       </c>
-      <c r="H21" s="101">
+      <c r="H21" s="97">
         <v>2017.04</v>
       </c>
-      <c r="I21" s="101" t="s">
+      <c r="I21" s="97" t="s">
         <v>1733</v>
       </c>
-      <c r="J21" s="102" t="s">
+      <c r="J21" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="100">
+      <c r="A22" s="96">
         <v>14</v>
       </c>
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="97" t="s">
         <v>1751</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="97" t="s">
         <v>1765</v>
       </c>
-      <c r="D22" s="101" t="s">
+      <c r="D22" s="97" t="s">
         <v>1763</v>
       </c>
-      <c r="E22" s="110" t="s">
+      <c r="E22" s="106" t="s">
         <v>1782</v>
       </c>
-      <c r="F22" s="101" t="s">
+      <c r="F22" s="97" t="s">
         <v>1731</v>
       </c>
-      <c r="G22" s="101" t="s">
+      <c r="G22" s="97" t="s">
         <v>1764</v>
       </c>
-      <c r="H22" s="101">
+      <c r="H22" s="97">
         <v>2017.04</v>
       </c>
-      <c r="I22" s="101" t="s">
+      <c r="I22" s="97" t="s">
         <v>1733</v>
       </c>
-      <c r="J22" s="102" t="s">
+      <c r="J22" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="100">
+      <c r="A23" s="96">
         <v>14</v>
       </c>
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="97" t="s">
         <v>1751</v>
       </c>
-      <c r="C23" s="101" t="s">
+      <c r="C23" s="97" t="s">
         <v>1766</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="97" t="s">
         <v>1763</v>
       </c>
-      <c r="E23" s="110" t="s">
+      <c r="E23" s="106" t="s">
         <v>1782</v>
       </c>
-      <c r="F23" s="101" t="s">
+      <c r="F23" s="97" t="s">
         <v>1731</v>
       </c>
-      <c r="G23" s="101" t="s">
+      <c r="G23" s="97" t="s">
         <v>1764</v>
       </c>
-      <c r="H23" s="101">
+      <c r="H23" s="97">
         <v>2017.04</v>
       </c>
-      <c r="I23" s="101" t="s">
+      <c r="I23" s="97" t="s">
         <v>1733</v>
       </c>
-      <c r="J23" s="102" t="s">
+      <c r="J23" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="100">
+      <c r="A24" s="96">
         <v>14</v>
       </c>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="97" t="s">
         <v>1751</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="97" t="s">
         <v>1767</v>
       </c>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="97" t="s">
         <v>1763</v>
       </c>
-      <c r="E24" s="110" t="s">
+      <c r="E24" s="106" t="s">
         <v>1782</v>
       </c>
-      <c r="F24" s="101" t="s">
+      <c r="F24" s="97" t="s">
         <v>1731</v>
       </c>
-      <c r="G24" s="101" t="s">
+      <c r="G24" s="97" t="s">
         <v>1764</v>
       </c>
-      <c r="H24" s="101">
+      <c r="H24" s="97">
         <v>2017.04</v>
       </c>
-      <c r="I24" s="101" t="s">
+      <c r="I24" s="97" t="s">
         <v>1733</v>
       </c>
-      <c r="J24" s="102" t="s">
+      <c r="J24" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="100">
+      <c r="A25" s="96">
         <v>14</v>
       </c>
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="97" t="s">
         <v>1751</v>
       </c>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="97" t="s">
         <v>1768</v>
       </c>
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="97" t="s">
         <v>1763</v>
       </c>
-      <c r="E25" s="110" t="s">
+      <c r="E25" s="106" t="s">
         <v>1782</v>
       </c>
-      <c r="F25" s="101" t="s">
+      <c r="F25" s="97" t="s">
         <v>1731</v>
       </c>
-      <c r="G25" s="101" t="s">
+      <c r="G25" s="97" t="s">
         <v>1764</v>
       </c>
-      <c r="H25" s="101">
+      <c r="H25" s="97">
         <v>2017.04</v>
       </c>
-      <c r="I25" s="101" t="s">
+      <c r="I25" s="97" t="s">
         <v>1733</v>
       </c>
-      <c r="J25" s="102" t="s">
+      <c r="J25" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="100">
+      <c r="A26" s="96">
         <v>15</v>
       </c>
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="97" t="s">
         <v>1751</v>
       </c>
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="97" t="s">
         <v>1801</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="D26" s="97" t="s">
         <v>1769</v>
       </c>
-      <c r="E26" s="110" t="s">
+      <c r="E26" s="106" t="s">
         <v>1782</v>
       </c>
-      <c r="F26" s="101" t="s">
+      <c r="F26" s="97" t="s">
         <v>1731</v>
       </c>
-      <c r="G26" s="101" t="s">
+      <c r="G26" s="97" t="s">
         <v>1770</v>
       </c>
-      <c r="H26" s="101">
+      <c r="H26" s="97">
         <v>2017.05</v>
       </c>
-      <c r="I26" s="101" t="s">
+      <c r="I26" s="97" t="s">
         <v>1733</v>
       </c>
-      <c r="J26" s="102" t="s">
+      <c r="J26" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="100">
+      <c r="A27" s="96">
         <v>15</v>
       </c>
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="97" t="s">
         <v>1751</v>
       </c>
-      <c r="C27" s="101" t="s">
+      <c r="C27" s="97" t="s">
         <v>1771</v>
       </c>
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="97" t="s">
         <v>1769</v>
       </c>
-      <c r="E27" s="110" t="s">
+      <c r="E27" s="106" t="s">
         <v>1782</v>
       </c>
-      <c r="F27" s="101" t="s">
+      <c r="F27" s="97" t="s">
         <v>1731</v>
       </c>
-      <c r="G27" s="101" t="s">
+      <c r="G27" s="97" t="s">
         <v>1770</v>
       </c>
-      <c r="H27" s="101">
+      <c r="H27" s="97">
         <v>2017.05</v>
       </c>
-      <c r="I27" s="101" t="s">
+      <c r="I27" s="97" t="s">
         <v>1733</v>
       </c>
-      <c r="J27" s="102" t="s">
+      <c r="J27" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="100">
+      <c r="A28" s="96">
         <v>15</v>
       </c>
-      <c r="B28" s="101" t="s">
+      <c r="B28" s="97" t="s">
         <v>1751</v>
       </c>
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="97" t="s">
         <v>1772</v>
       </c>
-      <c r="D28" s="101" t="s">
+      <c r="D28" s="97" t="s">
         <v>1769</v>
       </c>
-      <c r="E28" s="110" t="s">
+      <c r="E28" s="106" t="s">
         <v>1782</v>
       </c>
-      <c r="F28" s="101" t="s">
+      <c r="F28" s="97" t="s">
         <v>1731</v>
       </c>
-      <c r="G28" s="101" t="s">
+      <c r="G28" s="97" t="s">
         <v>1770</v>
       </c>
-      <c r="H28" s="101">
+      <c r="H28" s="97">
         <v>2017.05</v>
       </c>
-      <c r="I28" s="101" t="s">
+      <c r="I28" s="97" t="s">
         <v>1733</v>
       </c>
-      <c r="J28" s="102" t="s">
+      <c r="J28" s="98" t="s">
         <v>562</v>
       </c>
     </row>
@@ -45619,1438 +45628,1438 @@
       <c r="I29"/>
       <c r="J29"/>
     </row>
-    <row r="30" spans="1:11" s="132" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="127">
+    <row r="30" spans="1:11" s="121" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="116">
         <v>1</v>
       </c>
-      <c r="B30" s="128" t="s">
+      <c r="B30" s="117" t="s">
         <v>1919</v>
       </c>
-      <c r="C30" s="129" t="s">
+      <c r="C30" s="118" t="s">
         <v>1807</v>
       </c>
-      <c r="D30" s="129" t="s">
+      <c r="D30" s="118" t="s">
         <v>1808</v>
       </c>
-      <c r="E30" s="129" t="s">
+      <c r="E30" s="118" t="s">
         <v>1809</v>
       </c>
-      <c r="F30" s="129" t="s">
+      <c r="F30" s="118" t="s">
         <v>1731</v>
       </c>
-      <c r="G30" s="130" t="s">
+      <c r="G30" s="119" t="s">
         <v>1950</v>
       </c>
-      <c r="H30" s="129" t="s">
+      <c r="H30" s="118" t="s">
         <v>1810</v>
       </c>
-      <c r="I30" s="129" t="s">
+      <c r="I30" s="118" t="s">
         <v>1733</v>
       </c>
-      <c r="J30" s="131" t="s">
-        <v>565</v>
-      </c>
-      <c r="K30" s="132" t="s">
+      <c r="J30" s="120" t="s">
+        <v>565</v>
+      </c>
+      <c r="K30" s="121" t="s">
         <v>1921</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="132" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="127">
+    <row r="31" spans="1:11" s="121" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="116">
         <v>2</v>
       </c>
-      <c r="B31" s="128" t="s">
+      <c r="B31" s="117" t="s">
         <v>1806</v>
       </c>
-      <c r="C31" s="129" t="s">
+      <c r="C31" s="118" t="s">
         <v>1811</v>
       </c>
-      <c r="D31" s="129" t="s">
+      <c r="D31" s="118" t="s">
         <v>1808</v>
       </c>
-      <c r="E31" s="129" t="s">
+      <c r="E31" s="118" t="s">
         <v>1809</v>
       </c>
-      <c r="F31" s="129" t="s">
+      <c r="F31" s="118" t="s">
         <v>1731</v>
       </c>
-      <c r="G31" s="130" t="s">
+      <c r="G31" s="119" t="s">
         <v>1920</v>
       </c>
-      <c r="H31" s="129" t="s">
+      <c r="H31" s="118" t="s">
         <v>1812</v>
       </c>
-      <c r="I31" s="129" t="s">
+      <c r="I31" s="118" t="s">
         <v>1733</v>
       </c>
-      <c r="J31" s="131" t="s">
-        <v>565</v>
-      </c>
-      <c r="K31" s="132" t="s">
+      <c r="J31" s="120" t="s">
+        <v>565</v>
+      </c>
+      <c r="K31" s="121" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="132" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="127">
+    <row r="32" spans="1:11" s="121" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="116">
         <v>3</v>
       </c>
-      <c r="B32" s="128" t="s">
+      <c r="B32" s="117" t="s">
         <v>1806</v>
       </c>
-      <c r="C32" s="129" t="s">
+      <c r="C32" s="118" t="s">
         <v>1813</v>
       </c>
-      <c r="D32" s="129" t="s">
+      <c r="D32" s="118" t="s">
         <v>1808</v>
       </c>
-      <c r="E32" s="129" t="s">
+      <c r="E32" s="118" t="s">
         <v>1809</v>
       </c>
-      <c r="F32" s="129" t="s">
+      <c r="F32" s="118" t="s">
         <v>1731</v>
       </c>
-      <c r="G32" s="130" t="s">
+      <c r="G32" s="119" t="s">
         <v>1947</v>
       </c>
-      <c r="H32" s="129" t="s">
+      <c r="H32" s="118" t="s">
         <v>1814</v>
       </c>
-      <c r="I32" s="129" t="s">
+      <c r="I32" s="118" t="s">
         <v>1733</v>
       </c>
-      <c r="J32" s="131" t="s">
-        <v>565</v>
-      </c>
-      <c r="K32" s="132" t="s">
+      <c r="J32" s="120" t="s">
+        <v>565</v>
+      </c>
+      <c r="K32" s="121" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="107" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="115">
+    <row r="33" spans="1:11" s="103" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="111">
         <v>4</v>
       </c>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="112" t="s">
         <v>1806</v>
       </c>
-      <c r="C33" s="117" t="s">
+      <c r="C33" s="113" t="s">
         <v>1815</v>
       </c>
-      <c r="D33" s="117" t="s">
+      <c r="D33" s="113" t="s">
         <v>1808</v>
       </c>
-      <c r="E33" s="117" t="s">
+      <c r="E33" s="113" t="s">
         <v>1809</v>
       </c>
-      <c r="F33" s="117" t="s">
+      <c r="F33" s="113" t="s">
         <v>1731</v>
       </c>
-      <c r="G33" s="118" t="s">
+      <c r="G33" s="114" t="s">
         <v>1816</v>
       </c>
-      <c r="H33" s="117" t="s">
+      <c r="H33" s="113" t="s">
         <v>1814</v>
       </c>
-      <c r="I33" s="117" t="s">
+      <c r="I33" s="113" t="s">
         <v>1733</v>
       </c>
-      <c r="J33" s="119" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="107" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="115">
+      <c r="J33" s="115" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="103" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="111">
         <v>5</v>
       </c>
-      <c r="B34" s="116" t="s">
+      <c r="B34" s="112" t="s">
         <v>1806</v>
       </c>
-      <c r="C34" s="117" t="s">
+      <c r="C34" s="113" t="s">
         <v>1817</v>
       </c>
-      <c r="D34" s="117" t="s">
+      <c r="D34" s="113" t="s">
         <v>1808</v>
       </c>
-      <c r="E34" s="117" t="s">
+      <c r="E34" s="113" t="s">
         <v>1809</v>
       </c>
-      <c r="F34" s="117" t="s">
+      <c r="F34" s="113" t="s">
         <v>1731</v>
       </c>
-      <c r="G34" s="118" t="s">
+      <c r="G34" s="114" t="s">
         <v>1818</v>
       </c>
-      <c r="H34" s="117" t="s">
+      <c r="H34" s="113" t="s">
         <v>1819</v>
       </c>
-      <c r="I34" s="117" t="s">
+      <c r="I34" s="113" t="s">
         <v>1733</v>
       </c>
-      <c r="J34" s="119" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="107" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="115">
+      <c r="J34" s="115" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="103" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="111">
         <v>6</v>
       </c>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="112" t="s">
         <v>1806</v>
       </c>
-      <c r="C35" s="117" t="s">
+      <c r="C35" s="113" t="s">
         <v>1820</v>
       </c>
-      <c r="D35" s="117" t="s">
+      <c r="D35" s="113" t="s">
         <v>1808</v>
       </c>
-      <c r="E35" s="117" t="s">
+      <c r="E35" s="113" t="s">
         <v>1809</v>
       </c>
-      <c r="F35" s="117" t="s">
+      <c r="F35" s="113" t="s">
         <v>1731</v>
       </c>
-      <c r="G35" s="118" t="s">
+      <c r="G35" s="114" t="s">
         <v>1821</v>
       </c>
-      <c r="H35" s="117" t="s">
+      <c r="H35" s="113" t="s">
         <v>1822</v>
       </c>
-      <c r="I35" s="117" t="s">
+      <c r="I35" s="113" t="s">
         <v>1733</v>
       </c>
-      <c r="J35" s="119" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="107" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="115">
+      <c r="J35" s="115" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="103" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="111">
         <v>7</v>
       </c>
-      <c r="B36" s="116" t="s">
+      <c r="B36" s="112" t="s">
         <v>1806</v>
       </c>
-      <c r="C36" s="117" t="s">
+      <c r="C36" s="113" t="s">
         <v>1823</v>
       </c>
-      <c r="D36" s="117" t="s">
+      <c r="D36" s="113" t="s">
         <v>1808</v>
       </c>
-      <c r="E36" s="117" t="s">
+      <c r="E36" s="113" t="s">
         <v>1809</v>
       </c>
-      <c r="F36" s="117" t="s">
+      <c r="F36" s="113" t="s">
         <v>1731</v>
       </c>
-      <c r="G36" s="118" t="s">
+      <c r="G36" s="114" t="s">
         <v>1824</v>
       </c>
-      <c r="H36" s="117" t="s">
+      <c r="H36" s="113" t="s">
         <v>1825</v>
       </c>
-      <c r="I36" s="117" t="s">
+      <c r="I36" s="113" t="s">
         <v>1733</v>
       </c>
-      <c r="J36" s="119" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="132" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="127">
+      <c r="J36" s="115" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="121" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="116">
         <v>8</v>
       </c>
-      <c r="B37" s="128" t="s">
+      <c r="B37" s="117" t="s">
         <v>1806</v>
       </c>
-      <c r="C37" s="129" t="s">
+      <c r="C37" s="118" t="s">
         <v>1826</v>
       </c>
-      <c r="D37" s="129" t="s">
+      <c r="D37" s="118" t="s">
         <v>1808</v>
       </c>
-      <c r="E37" s="129" t="s">
+      <c r="E37" s="118" t="s">
         <v>1809</v>
       </c>
-      <c r="F37" s="129" t="s">
+      <c r="F37" s="118" t="s">
         <v>1731</v>
       </c>
-      <c r="G37" s="130" t="s">
+      <c r="G37" s="119" t="s">
         <v>1948</v>
       </c>
-      <c r="H37" s="129" t="s">
+      <c r="H37" s="118" t="s">
         <v>1827</v>
       </c>
-      <c r="I37" s="129" t="s">
+      <c r="I37" s="118" t="s">
         <v>1733</v>
       </c>
-      <c r="J37" s="131" t="s">
-        <v>565</v>
-      </c>
-      <c r="K37" s="132" t="s">
+      <c r="J37" s="120" t="s">
+        <v>565</v>
+      </c>
+      <c r="K37" s="121" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="132" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="127">
+    <row r="38" spans="1:11" s="121" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="116">
         <v>9</v>
       </c>
-      <c r="B38" s="128" t="s">
+      <c r="B38" s="117" t="s">
         <v>1806</v>
       </c>
-      <c r="C38" s="129" t="s">
+      <c r="C38" s="118" t="s">
         <v>1828</v>
       </c>
-      <c r="D38" s="129" t="s">
+      <c r="D38" s="118" t="s">
         <v>1808</v>
       </c>
-      <c r="E38" s="129" t="s">
+      <c r="E38" s="118" t="s">
         <v>1809</v>
       </c>
-      <c r="F38" s="129" t="s">
+      <c r="F38" s="118" t="s">
         <v>1731</v>
       </c>
-      <c r="G38" s="130" t="s">
+      <c r="G38" s="119" t="s">
         <v>1949</v>
       </c>
-      <c r="H38" s="129" t="s">
+      <c r="H38" s="118" t="s">
         <v>1827</v>
       </c>
-      <c r="I38" s="129" t="s">
+      <c r="I38" s="118" t="s">
         <v>1733</v>
       </c>
-      <c r="J38" s="131" t="s">
-        <v>565</v>
-      </c>
-      <c r="K38" s="132" t="s">
+      <c r="J38" s="120" t="s">
+        <v>565</v>
+      </c>
+      <c r="K38" s="121" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="132" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="127">
+    <row r="39" spans="1:11" s="121" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="116">
         <v>10</v>
       </c>
-      <c r="B39" s="128" t="s">
+      <c r="B39" s="117" t="s">
         <v>1806</v>
       </c>
-      <c r="C39" s="129" t="s">
+      <c r="C39" s="118" t="s">
         <v>1952</v>
       </c>
-      <c r="D39" s="129" t="s">
+      <c r="D39" s="118" t="s">
         <v>1808</v>
       </c>
-      <c r="E39" s="129" t="s">
+      <c r="E39" s="118" t="s">
         <v>1809</v>
       </c>
-      <c r="F39" s="129" t="s">
+      <c r="F39" s="118" t="s">
         <v>1731</v>
       </c>
-      <c r="G39" s="130" t="s">
+      <c r="G39" s="119" t="s">
         <v>1951</v>
       </c>
-      <c r="H39" s="129" t="s">
+      <c r="H39" s="118" t="s">
         <v>1827</v>
       </c>
-      <c r="I39" s="129" t="s">
+      <c r="I39" s="118" t="s">
         <v>1733</v>
       </c>
-      <c r="J39" s="131" t="s">
-        <v>565</v>
-      </c>
-      <c r="K39" s="132" t="s">
+      <c r="J39" s="120" t="s">
+        <v>565</v>
+      </c>
+      <c r="K39" s="121" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="132" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="127">
+    <row r="40" spans="1:11" s="121" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="116">
         <v>11</v>
       </c>
-      <c r="B40" s="128" t="s">
+      <c r="B40" s="117" t="s">
         <v>1806</v>
       </c>
-      <c r="C40" s="129" t="s">
+      <c r="C40" s="118" t="s">
         <v>1829</v>
       </c>
-      <c r="D40" s="129" t="s">
+      <c r="D40" s="118" t="s">
         <v>1808</v>
       </c>
-      <c r="E40" s="129" t="s">
+      <c r="E40" s="118" t="s">
         <v>1809</v>
       </c>
-      <c r="F40" s="129" t="s">
+      <c r="F40" s="118" t="s">
         <v>1731</v>
       </c>
-      <c r="G40" s="130" t="s">
+      <c r="G40" s="119" t="s">
         <v>1953</v>
       </c>
-      <c r="H40" s="129" t="s">
+      <c r="H40" s="118" t="s">
         <v>1830</v>
       </c>
-      <c r="I40" s="129" t="s">
+      <c r="I40" s="118" t="s">
         <v>1733</v>
       </c>
-      <c r="J40" s="131" t="s">
-        <v>565</v>
-      </c>
-      <c r="K40" s="132" t="s">
+      <c r="J40" s="120" t="s">
+        <v>565</v>
+      </c>
+      <c r="K40" s="121" t="s">
         <v>1946</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="111">
+      <c r="A41" s="107">
         <v>12</v>
       </c>
-      <c r="B41" s="112" t="s">
+      <c r="B41" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C41" s="113" t="s">
+      <c r="C41" s="109" t="s">
         <v>1831</v>
       </c>
-      <c r="D41" s="113" t="s">
+      <c r="D41" s="109" t="s">
         <v>1808</v>
       </c>
-      <c r="E41" s="113" t="s">
+      <c r="E41" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F41" s="113" t="s">
+      <c r="F41" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G41" s="114" t="s">
+      <c r="G41" s="110" t="s">
         <v>1832</v>
       </c>
-      <c r="H41" s="113" t="s">
+      <c r="H41" s="109" t="s">
         <v>1833</v>
       </c>
-      <c r="I41" s="113" t="s">
+      <c r="I41" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J41" s="102" t="s">
+      <c r="J41" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="111">
+      <c r="A42" s="107">
         <v>13</v>
       </c>
-      <c r="B42" s="112" t="s">
+      <c r="B42" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C42" s="113" t="s">
+      <c r="C42" s="109" t="s">
         <v>1834</v>
       </c>
-      <c r="D42" s="113" t="s">
+      <c r="D42" s="109" t="s">
         <v>1808</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F42" s="113" t="s">
+      <c r="F42" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G42" s="114" t="s">
+      <c r="G42" s="110" t="s">
         <v>1835</v>
       </c>
-      <c r="H42" s="113" t="s">
+      <c r="H42" s="109" t="s">
         <v>1836</v>
       </c>
-      <c r="I42" s="113" t="s">
+      <c r="I42" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J42" s="102" t="s">
+      <c r="J42" s="98" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="132" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="127">
+    <row r="43" spans="1:11" s="121" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="116">
         <v>14</v>
       </c>
-      <c r="B43" s="128" t="s">
+      <c r="B43" s="117" t="s">
         <v>1806</v>
       </c>
-      <c r="C43" s="129" t="s">
+      <c r="C43" s="118" t="s">
         <v>1837</v>
       </c>
-      <c r="D43" s="129" t="s">
+      <c r="D43" s="118" t="s">
         <v>1808</v>
       </c>
-      <c r="E43" s="129" t="s">
+      <c r="E43" s="118" t="s">
         <v>1809</v>
       </c>
-      <c r="F43" s="129" t="s">
+      <c r="F43" s="118" t="s">
         <v>1731</v>
       </c>
-      <c r="G43" s="130" t="s">
+      <c r="G43" s="119" t="s">
         <v>1954</v>
       </c>
-      <c r="H43" s="129" t="s">
+      <c r="H43" s="118" t="s">
         <v>1838</v>
       </c>
-      <c r="I43" s="129" t="s">
+      <c r="I43" s="118" t="s">
         <v>1733</v>
       </c>
-      <c r="J43" s="136" t="s">
-        <v>565</v>
-      </c>
-      <c r="K43" s="132" t="s">
+      <c r="J43" s="125" t="s">
+        <v>565</v>
+      </c>
+      <c r="K43" s="121" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="107" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="115">
+    <row r="44" spans="1:11" s="103" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="111">
         <v>15</v>
       </c>
-      <c r="B44" s="116" t="s">
+      <c r="B44" s="112" t="s">
         <v>1806</v>
       </c>
-      <c r="C44" s="117" t="s">
+      <c r="C44" s="113" t="s">
         <v>1839</v>
       </c>
-      <c r="D44" s="117" t="s">
+      <c r="D44" s="113" t="s">
         <v>1808</v>
       </c>
-      <c r="E44" s="117" t="s">
+      <c r="E44" s="113" t="s">
         <v>1809</v>
       </c>
-      <c r="F44" s="117" t="s">
+      <c r="F44" s="113" t="s">
         <v>1731</v>
       </c>
-      <c r="G44" s="118" t="s">
+      <c r="G44" s="114" t="s">
         <v>1840</v>
       </c>
-      <c r="H44" s="117" t="s">
+      <c r="H44" s="113" t="s">
         <v>1841</v>
       </c>
-      <c r="I44" s="117" t="s">
+      <c r="I44" s="113" t="s">
         <v>1733</v>
       </c>
-      <c r="J44" s="106" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="132" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="127">
+      <c r="J44" s="102" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="121" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="116">
         <v>16</v>
       </c>
-      <c r="B45" s="128" t="s">
+      <c r="B45" s="117" t="s">
         <v>1806</v>
       </c>
-      <c r="C45" s="129" t="s">
+      <c r="C45" s="118" t="s">
         <v>1842</v>
       </c>
-      <c r="D45" s="129" t="s">
+      <c r="D45" s="118" t="s">
         <v>1808</v>
       </c>
-      <c r="E45" s="129" t="s">
+      <c r="E45" s="118" t="s">
         <v>1809</v>
       </c>
-      <c r="F45" s="129" t="s">
+      <c r="F45" s="118" t="s">
         <v>1731</v>
       </c>
-      <c r="G45" s="130" t="s">
+      <c r="G45" s="119" t="s">
         <v>1955</v>
       </c>
-      <c r="H45" s="129" t="s">
+      <c r="H45" s="118" t="s">
         <v>1843</v>
       </c>
-      <c r="I45" s="129" t="s">
+      <c r="I45" s="118" t="s">
         <v>1733</v>
       </c>
-      <c r="J45" s="136" t="s">
-        <v>565</v>
-      </c>
-      <c r="K45" s="132" t="s">
+      <c r="J45" s="125" t="s">
+        <v>565</v>
+      </c>
+      <c r="K45" s="121" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="107" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="115">
+    <row r="46" spans="1:11" s="103" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="111">
         <v>17</v>
       </c>
-      <c r="B46" s="116" t="s">
+      <c r="B46" s="112" t="s">
         <v>1806</v>
       </c>
-      <c r="C46" s="117" t="s">
+      <c r="C46" s="113" t="s">
         <v>1844</v>
       </c>
-      <c r="D46" s="117" t="s">
+      <c r="D46" s="113" t="s">
         <v>1808</v>
       </c>
-      <c r="E46" s="117" t="s">
+      <c r="E46" s="113" t="s">
         <v>1809</v>
       </c>
-      <c r="F46" s="117" t="s">
+      <c r="F46" s="113" t="s">
         <v>1731</v>
       </c>
-      <c r="G46" s="118" t="s">
+      <c r="G46" s="114" t="s">
         <v>1845</v>
       </c>
-      <c r="H46" s="117" t="s">
+      <c r="H46" s="113" t="s">
         <v>1846</v>
       </c>
-      <c r="I46" s="117" t="s">
+      <c r="I46" s="113" t="s">
         <v>1733</v>
       </c>
-      <c r="J46" s="106" t="s">
+      <c r="J46" s="102" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="111">
+      <c r="A47" s="107">
         <v>18</v>
       </c>
-      <c r="B47" s="112" t="s">
+      <c r="B47" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C47" s="113" t="s">
+      <c r="C47" s="109" t="s">
         <v>1847</v>
       </c>
-      <c r="D47" s="113" t="s">
+      <c r="D47" s="109" t="s">
         <v>1808</v>
       </c>
-      <c r="E47" s="113" t="s">
+      <c r="E47" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F47" s="113" t="s">
+      <c r="F47" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G47" s="114" t="s">
+      <c r="G47" s="110" t="s">
         <v>1848</v>
       </c>
-      <c r="H47" s="113" t="s">
+      <c r="H47" s="109" t="s">
         <v>1836</v>
       </c>
-      <c r="I47" s="113" t="s">
+      <c r="I47" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J47" s="102" t="s">
+      <c r="J47" s="98" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="132" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="127">
+    <row r="48" spans="1:11" s="121" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="116">
         <v>19</v>
       </c>
-      <c r="B48" s="128" t="s">
+      <c r="B48" s="117" t="s">
         <v>1806</v>
       </c>
-      <c r="C48" s="129" t="s">
+      <c r="C48" s="118" t="s">
         <v>1849</v>
       </c>
-      <c r="D48" s="129" t="s">
+      <c r="D48" s="118" t="s">
         <v>1808</v>
       </c>
-      <c r="E48" s="129" t="s">
+      <c r="E48" s="118" t="s">
         <v>1809</v>
       </c>
-      <c r="F48" s="129" t="s">
+      <c r="F48" s="118" t="s">
         <v>1731</v>
       </c>
-      <c r="G48" s="137" t="s">
+      <c r="G48" s="126" t="s">
         <v>1850</v>
       </c>
-      <c r="H48" s="129" t="s">
+      <c r="H48" s="118" t="s">
         <v>1851</v>
       </c>
-      <c r="I48" s="129" t="s">
+      <c r="I48" s="118" t="s">
         <v>1733</v>
       </c>
-      <c r="J48" s="136" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="115">
+      <c r="J48" s="125" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="103" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="111">
         <v>20</v>
       </c>
-      <c r="B49" s="116" t="s">
+      <c r="B49" s="112" t="s">
         <v>1806</v>
       </c>
-      <c r="C49" s="117" t="s">
+      <c r="C49" s="113" t="s">
         <v>1852</v>
       </c>
-      <c r="D49" s="117" t="s">
+      <c r="D49" s="113" t="s">
         <v>1808</v>
       </c>
-      <c r="E49" s="117" t="s">
+      <c r="E49" s="113" t="s">
         <v>1809</v>
       </c>
-      <c r="F49" s="117" t="s">
+      <c r="F49" s="113" t="s">
         <v>1731</v>
       </c>
-      <c r="G49" s="118" t="s">
+      <c r="G49" s="114" t="s">
         <v>1853</v>
       </c>
-      <c r="H49" s="117" t="s">
+      <c r="H49" s="113" t="s">
         <v>1851</v>
       </c>
-      <c r="I49" s="117" t="s">
+      <c r="I49" s="113" t="s">
         <v>1733</v>
       </c>
-      <c r="J49" s="106" t="s">
+      <c r="J49" s="102" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="111">
+      <c r="A50" s="107">
         <v>21</v>
       </c>
-      <c r="B50" s="112" t="s">
+      <c r="B50" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C50" s="113" t="s">
+      <c r="C50" s="109" t="s">
         <v>1854</v>
       </c>
-      <c r="D50" s="113" t="s">
+      <c r="D50" s="109" t="s">
         <v>1808</v>
       </c>
-      <c r="E50" s="113" t="s">
+      <c r="E50" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F50" s="113" t="s">
+      <c r="F50" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G50" s="114" t="s">
+      <c r="G50" s="110" t="s">
         <v>1855</v>
       </c>
-      <c r="H50" s="113" t="s">
+      <c r="H50" s="109" t="s">
         <v>1856</v>
       </c>
-      <c r="I50" s="113" t="s">
+      <c r="I50" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J50" s="102" t="s">
+      <c r="J50" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="111">
+      <c r="A51" s="107">
         <v>22</v>
       </c>
-      <c r="B51" s="112" t="s">
+      <c r="B51" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C51" s="113" t="s">
+      <c r="C51" s="109" t="s">
         <v>1857</v>
       </c>
-      <c r="D51" s="113" t="s">
+      <c r="D51" s="109" t="s">
         <v>1808</v>
       </c>
-      <c r="E51" s="113" t="s">
+      <c r="E51" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F51" s="113" t="s">
+      <c r="F51" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G51" s="114" t="s">
+      <c r="G51" s="110" t="s">
         <v>1858</v>
       </c>
-      <c r="H51" s="113" t="s">
+      <c r="H51" s="109" t="s">
         <v>1833</v>
       </c>
-      <c r="I51" s="113" t="s">
+      <c r="I51" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J51" s="102" t="s">
+      <c r="J51" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="111">
+      <c r="A52" s="107">
         <v>23</v>
       </c>
-      <c r="B52" s="112" t="s">
+      <c r="B52" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C52" s="113" t="s">
+      <c r="C52" s="109" t="s">
         <v>1859</v>
       </c>
-      <c r="D52" s="113" t="s">
+      <c r="D52" s="109" t="s">
         <v>1808</v>
       </c>
-      <c r="E52" s="113" t="s">
+      <c r="E52" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F52" s="113" t="s">
+      <c r="F52" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G52" s="114" t="s">
+      <c r="G52" s="110" t="s">
         <v>1860</v>
       </c>
-      <c r="H52" s="113" t="s">
+      <c r="H52" s="109" t="s">
         <v>1861</v>
       </c>
-      <c r="I52" s="113" t="s">
+      <c r="I52" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J52" s="102" t="s">
+      <c r="J52" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="111">
+      <c r="A53" s="107">
         <v>24</v>
       </c>
-      <c r="B53" s="112" t="s">
+      <c r="B53" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C53" s="113" t="s">
+      <c r="C53" s="109" t="s">
         <v>1862</v>
       </c>
-      <c r="D53" s="113" t="s">
+      <c r="D53" s="109" t="s">
         <v>1808</v>
       </c>
-      <c r="E53" s="113" t="s">
+      <c r="E53" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F53" s="113" t="s">
+      <c r="F53" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G53" s="114" t="s">
+      <c r="G53" s="110" t="s">
         <v>1863</v>
       </c>
-      <c r="H53" s="113" t="s">
+      <c r="H53" s="109" t="s">
         <v>1864</v>
       </c>
-      <c r="I53" s="113" t="s">
+      <c r="I53" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J53" s="102" t="s">
+      <c r="J53" s="98" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="115">
+    <row r="54" spans="1:10" s="103" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="111">
         <v>25</v>
       </c>
-      <c r="B54" s="116" t="s">
+      <c r="B54" s="112" t="s">
         <v>1806</v>
       </c>
-      <c r="C54" s="117" t="s">
+      <c r="C54" s="113" t="s">
         <v>1865</v>
       </c>
-      <c r="D54" s="117" t="s">
+      <c r="D54" s="113" t="s">
         <v>1808</v>
       </c>
-      <c r="E54" s="117" t="s">
+      <c r="E54" s="113" t="s">
         <v>1809</v>
       </c>
-      <c r="F54" s="117" t="s">
+      <c r="F54" s="113" t="s">
         <v>1731</v>
       </c>
-      <c r="G54" s="118" t="s">
+      <c r="G54" s="114" t="s">
         <v>1866</v>
       </c>
-      <c r="H54" s="117" t="s">
+      <c r="H54" s="113" t="s">
         <v>1861</v>
       </c>
-      <c r="I54" s="117" t="s">
+      <c r="I54" s="113" t="s">
         <v>1733</v>
       </c>
-      <c r="J54" s="106" t="s">
+      <c r="J54" s="102" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="111">
+      <c r="A55" s="107">
         <v>26</v>
       </c>
-      <c r="B55" s="112" t="s">
+      <c r="B55" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C55" s="113" t="s">
+      <c r="C55" s="109" t="s">
         <v>1867</v>
       </c>
-      <c r="D55" s="113" t="s">
+      <c r="D55" s="109" t="s">
         <v>1808</v>
       </c>
-      <c r="E55" s="113" t="s">
+      <c r="E55" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F55" s="113" t="s">
+      <c r="F55" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G55" s="114" t="s">
+      <c r="G55" s="110" t="s">
         <v>1868</v>
       </c>
-      <c r="H55" s="113" t="s">
+      <c r="H55" s="109" t="s">
         <v>1861</v>
       </c>
-      <c r="I55" s="113" t="s">
+      <c r="I55" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J55" s="102" t="s">
+      <c r="J55" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="111">
+      <c r="A56" s="107">
         <v>27</v>
       </c>
-      <c r="B56" s="112" t="s">
+      <c r="B56" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C56" s="113" t="s">
+      <c r="C56" s="109" t="s">
         <v>1869</v>
       </c>
-      <c r="D56" s="113" t="s">
+      <c r="D56" s="109" t="s">
         <v>1870</v>
       </c>
-      <c r="E56" s="113" t="s">
+      <c r="E56" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F56" s="113" t="s">
+      <c r="F56" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G56" s="114" t="s">
+      <c r="G56" s="110" t="s">
         <v>1871</v>
       </c>
-      <c r="H56" s="113" t="s">
+      <c r="H56" s="109" t="s">
         <v>1814</v>
       </c>
-      <c r="I56" s="113" t="s">
+      <c r="I56" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J56" s="102" t="s">
+      <c r="J56" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="111">
+      <c r="A57" s="107">
         <v>28</v>
       </c>
-      <c r="B57" s="112" t="s">
+      <c r="B57" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C57" s="113" t="s">
+      <c r="C57" s="109" t="s">
         <v>1872</v>
       </c>
-      <c r="D57" s="113" t="s">
+      <c r="D57" s="109" t="s">
         <v>1870</v>
       </c>
-      <c r="E57" s="113" t="s">
+      <c r="E57" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F57" s="113" t="s">
+      <c r="F57" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G57" s="114" t="s">
+      <c r="G57" s="110" t="s">
         <v>1873</v>
       </c>
-      <c r="H57" s="113" t="s">
+      <c r="H57" s="109" t="s">
         <v>1814</v>
       </c>
-      <c r="I57" s="113" t="s">
+      <c r="I57" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J57" s="102" t="s">
+      <c r="J57" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="111">
+      <c r="A58" s="107">
         <v>29</v>
       </c>
-      <c r="B58" s="112" t="s">
+      <c r="B58" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C58" s="113" t="s">
+      <c r="C58" s="109" t="s">
         <v>1874</v>
       </c>
-      <c r="D58" s="113" t="s">
+      <c r="D58" s="109" t="s">
         <v>1870</v>
       </c>
-      <c r="E58" s="113" t="s">
+      <c r="E58" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F58" s="113" t="s">
+      <c r="F58" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G58" s="114" t="s">
+      <c r="G58" s="110" t="s">
         <v>1875</v>
       </c>
-      <c r="H58" s="113" t="s">
+      <c r="H58" s="109" t="s">
         <v>1814</v>
       </c>
-      <c r="I58" s="113" t="s">
+      <c r="I58" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J58" s="102" t="s">
+      <c r="J58" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="111">
+      <c r="A59" s="107">
         <v>30</v>
       </c>
-      <c r="B59" s="112" t="s">
+      <c r="B59" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C59" s="113" t="s">
+      <c r="C59" s="109" t="s">
         <v>1876</v>
       </c>
-      <c r="D59" s="113" t="s">
+      <c r="D59" s="109" t="s">
         <v>1870</v>
       </c>
-      <c r="E59" s="113" t="s">
+      <c r="E59" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F59" s="113" t="s">
+      <c r="F59" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G59" s="114" t="s">
+      <c r="G59" s="110" t="s">
         <v>1877</v>
       </c>
-      <c r="H59" s="113" t="s">
+      <c r="H59" s="109" t="s">
         <v>1814</v>
       </c>
-      <c r="I59" s="113" t="s">
+      <c r="I59" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J59" s="102" t="s">
+      <c r="J59" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="111">
+      <c r="A60" s="107">
         <v>31</v>
       </c>
-      <c r="B60" s="112" t="s">
+      <c r="B60" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C60" s="113" t="s">
+      <c r="C60" s="109" t="s">
         <v>1878</v>
       </c>
-      <c r="D60" s="113" t="s">
+      <c r="D60" s="109" t="s">
         <v>1870</v>
       </c>
-      <c r="E60" s="113" t="s">
+      <c r="E60" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F60" s="113" t="s">
+      <c r="F60" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G60" s="114" t="s">
+      <c r="G60" s="110" t="s">
         <v>1879</v>
       </c>
-      <c r="H60" s="113" t="s">
+      <c r="H60" s="109" t="s">
         <v>1814</v>
       </c>
-      <c r="I60" s="113" t="s">
+      <c r="I60" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J60" s="102" t="s">
+      <c r="J60" s="98" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="115">
+    <row r="61" spans="1:10" s="103" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="111">
         <v>32</v>
       </c>
-      <c r="B61" s="116" t="s">
+      <c r="B61" s="112" t="s">
         <v>1806</v>
       </c>
-      <c r="C61" s="117" t="s">
+      <c r="C61" s="113" t="s">
         <v>1880</v>
       </c>
-      <c r="D61" s="117" t="s">
+      <c r="D61" s="113" t="s">
         <v>1881</v>
       </c>
-      <c r="E61" s="117" t="s">
+      <c r="E61" s="113" t="s">
         <v>1809</v>
       </c>
-      <c r="F61" s="117" t="s">
+      <c r="F61" s="113" t="s">
         <v>1731</v>
       </c>
-      <c r="G61" s="118" t="s">
+      <c r="G61" s="114" t="s">
         <v>1882</v>
       </c>
-      <c r="H61" s="117" t="s">
+      <c r="H61" s="113" t="s">
         <v>1883</v>
       </c>
-      <c r="I61" s="117" t="s">
+      <c r="I61" s="113" t="s">
         <v>1733</v>
       </c>
-      <c r="J61" s="106" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="115">
+      <c r="J61" s="102" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="103" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="111">
         <v>33</v>
       </c>
-      <c r="B62" s="116" t="s">
+      <c r="B62" s="112" t="s">
         <v>1806</v>
       </c>
-      <c r="C62" s="117" t="s">
+      <c r="C62" s="113" t="s">
         <v>1884</v>
       </c>
-      <c r="D62" s="117" t="s">
+      <c r="D62" s="113" t="s">
         <v>1881</v>
       </c>
-      <c r="E62" s="117" t="s">
+      <c r="E62" s="113" t="s">
         <v>1809</v>
       </c>
-      <c r="F62" s="117" t="s">
+      <c r="F62" s="113" t="s">
         <v>1731</v>
       </c>
-      <c r="G62" s="118" t="s">
+      <c r="G62" s="114" t="s">
         <v>1885</v>
       </c>
-      <c r="H62" s="117" t="s">
+      <c r="H62" s="113" t="s">
         <v>1886</v>
       </c>
-      <c r="I62" s="117" t="s">
+      <c r="I62" s="113" t="s">
         <v>1733</v>
       </c>
-      <c r="J62" s="106" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="115">
+      <c r="J62" s="102" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="103" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="111">
         <v>34</v>
       </c>
-      <c r="B63" s="116" t="s">
+      <c r="B63" s="112" t="s">
         <v>1806</v>
       </c>
-      <c r="C63" s="117" t="s">
+      <c r="C63" s="113" t="s">
         <v>1887</v>
       </c>
-      <c r="D63" s="117" t="s">
+      <c r="D63" s="113" t="s">
         <v>1881</v>
       </c>
-      <c r="E63" s="117" t="s">
+      <c r="E63" s="113" t="s">
         <v>1809</v>
       </c>
-      <c r="F63" s="117" t="s">
+      <c r="F63" s="113" t="s">
         <v>1731</v>
       </c>
-      <c r="G63" s="118" t="s">
+      <c r="G63" s="114" t="s">
         <v>1888</v>
       </c>
-      <c r="H63" s="117" t="s">
+      <c r="H63" s="113" t="s">
         <v>1889</v>
       </c>
-      <c r="I63" s="117" t="s">
+      <c r="I63" s="113" t="s">
         <v>1733</v>
       </c>
-      <c r="J63" s="106" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="115">
+      <c r="J63" s="102" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="103" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="111">
         <v>35</v>
       </c>
-      <c r="B64" s="116" t="s">
+      <c r="B64" s="112" t="s">
         <v>1806</v>
       </c>
-      <c r="C64" s="117" t="s">
+      <c r="C64" s="113" t="s">
         <v>1890</v>
       </c>
-      <c r="D64" s="117" t="s">
+      <c r="D64" s="113" t="s">
         <v>1881</v>
       </c>
-      <c r="E64" s="117" t="s">
+      <c r="E64" s="113" t="s">
         <v>1809</v>
       </c>
-      <c r="F64" s="117" t="s">
+      <c r="F64" s="113" t="s">
         <v>1731</v>
       </c>
-      <c r="G64" s="118" t="s">
+      <c r="G64" s="114" t="s">
         <v>1891</v>
       </c>
-      <c r="H64" s="117" t="s">
+      <c r="H64" s="113" t="s">
         <v>1883</v>
       </c>
-      <c r="I64" s="117" t="s">
+      <c r="I64" s="113" t="s">
         <v>1733</v>
       </c>
-      <c r="J64" s="106" t="s">
+      <c r="J64" s="102" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="111">
+      <c r="A65" s="107">
         <v>36</v>
       </c>
-      <c r="B65" s="112" t="s">
+      <c r="B65" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C65" s="113" t="s">
+      <c r="C65" s="109" t="s">
         <v>1892</v>
       </c>
-      <c r="D65" s="113" t="s">
+      <c r="D65" s="109" t="s">
         <v>1893</v>
       </c>
-      <c r="E65" s="113" t="s">
+      <c r="E65" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F65" s="113" t="s">
+      <c r="F65" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G65" s="114" t="s">
+      <c r="G65" s="110" t="s">
         <v>1894</v>
       </c>
-      <c r="H65" s="113" t="s">
+      <c r="H65" s="109" t="s">
         <v>1895</v>
       </c>
-      <c r="I65" s="113" t="s">
+      <c r="I65" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J65" s="102" t="s">
+      <c r="J65" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="111">
+      <c r="A66" s="107">
         <v>37</v>
       </c>
-      <c r="B66" s="112" t="s">
+      <c r="B66" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C66" s="113" t="s">
+      <c r="C66" s="109" t="s">
         <v>1896</v>
       </c>
-      <c r="D66" s="113" t="s">
+      <c r="D66" s="109" t="s">
         <v>1893</v>
       </c>
-      <c r="E66" s="113" t="s">
+      <c r="E66" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F66" s="113" t="s">
+      <c r="F66" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G66" s="114" t="s">
+      <c r="G66" s="110" t="s">
         <v>1897</v>
       </c>
-      <c r="H66" s="113" t="s">
+      <c r="H66" s="109" t="s">
         <v>1898</v>
       </c>
-      <c r="I66" s="113" t="s">
+      <c r="I66" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J66" s="102" t="s">
+      <c r="J66" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="111">
+      <c r="A67" s="107">
         <v>38</v>
       </c>
-      <c r="B67" s="112" t="s">
+      <c r="B67" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C67" s="113" t="s">
+      <c r="C67" s="109" t="s">
         <v>1899</v>
       </c>
-      <c r="D67" s="113" t="s">
+      <c r="D67" s="109" t="s">
         <v>1900</v>
       </c>
-      <c r="E67" s="113" t="s">
+      <c r="E67" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F67" s="113" t="s">
+      <c r="F67" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G67" s="114" t="s">
+      <c r="G67" s="110" t="s">
         <v>1901</v>
       </c>
-      <c r="H67" s="113" t="s">
+      <c r="H67" s="109" t="s">
         <v>1902</v>
       </c>
-      <c r="I67" s="113" t="s">
+      <c r="I67" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J67" s="102" t="s">
+      <c r="J67" s="98" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="115">
+    <row r="68" spans="1:10" s="103" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="111">
         <v>39</v>
       </c>
-      <c r="B68" s="116" t="s">
+      <c r="B68" s="112" t="s">
         <v>1806</v>
       </c>
-      <c r="C68" s="117" t="s">
+      <c r="C68" s="113" t="s">
         <v>1903</v>
       </c>
-      <c r="D68" s="117" t="s">
+      <c r="D68" s="113" t="s">
         <v>1900</v>
       </c>
-      <c r="E68" s="117" t="s">
+      <c r="E68" s="113" t="s">
         <v>1809</v>
       </c>
-      <c r="F68" s="117" t="s">
+      <c r="F68" s="113" t="s">
         <v>1731</v>
       </c>
-      <c r="G68" s="118" t="s">
+      <c r="G68" s="114" t="s">
         <v>1904</v>
       </c>
-      <c r="H68" s="117" t="s">
+      <c r="H68" s="113" t="s">
         <v>1902</v>
       </c>
-      <c r="I68" s="117" t="s">
+      <c r="I68" s="113" t="s">
         <v>1733</v>
       </c>
-      <c r="J68" s="106" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" s="107" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="115">
+      <c r="J68" s="102" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" s="103" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="111">
         <v>40</v>
       </c>
-      <c r="B69" s="116" t="s">
+      <c r="B69" s="112" t="s">
         <v>1806</v>
       </c>
-      <c r="C69" s="117" t="s">
+      <c r="C69" s="113" t="s">
         <v>1905</v>
       </c>
-      <c r="D69" s="117" t="s">
+      <c r="D69" s="113" t="s">
         <v>1900</v>
       </c>
-      <c r="E69" s="117" t="s">
+      <c r="E69" s="113" t="s">
         <v>1809</v>
       </c>
-      <c r="F69" s="117" t="s">
+      <c r="F69" s="113" t="s">
         <v>1731</v>
       </c>
-      <c r="G69" s="118" t="s">
+      <c r="G69" s="114" t="s">
         <v>1906</v>
       </c>
-      <c r="H69" s="117" t="s">
+      <c r="H69" s="113" t="s">
         <v>1907</v>
       </c>
-      <c r="I69" s="117" t="s">
+      <c r="I69" s="113" t="s">
         <v>1733</v>
       </c>
-      <c r="J69" s="106" t="s">
+      <c r="J69" s="102" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="111">
+      <c r="A70" s="107">
         <v>41</v>
       </c>
-      <c r="B70" s="112" t="s">
+      <c r="B70" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C70" s="113" t="s">
+      <c r="C70" s="109" t="s">
         <v>1908</v>
       </c>
-      <c r="D70" s="113" t="s">
+      <c r="D70" s="109" t="s">
         <v>1900</v>
       </c>
-      <c r="E70" s="113" t="s">
+      <c r="E70" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F70" s="113" t="s">
+      <c r="F70" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G70" s="114" t="s">
+      <c r="G70" s="110" t="s">
         <v>1909</v>
       </c>
-      <c r="H70" s="113" t="s">
+      <c r="H70" s="109" t="s">
         <v>1846</v>
       </c>
-      <c r="I70" s="113" t="s">
+      <c r="I70" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J70" s="102" t="s">
+      <c r="J70" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="111">
+      <c r="A71" s="107">
         <v>42</v>
       </c>
-      <c r="B71" s="112" t="s">
+      <c r="B71" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C71" s="113" t="s">
+      <c r="C71" s="109" t="s">
         <v>1910</v>
       </c>
-      <c r="D71" s="113" t="s">
+      <c r="D71" s="109" t="s">
         <v>1900</v>
       </c>
-      <c r="E71" s="113" t="s">
+      <c r="E71" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F71" s="113" t="s">
+      <c r="F71" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G71" s="114" t="s">
+      <c r="G71" s="110" t="s">
         <v>1911</v>
       </c>
-      <c r="H71" s="113" t="s">
+      <c r="H71" s="109" t="s">
         <v>1912</v>
       </c>
-      <c r="I71" s="113" t="s">
+      <c r="I71" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J71" s="102" t="s">
+      <c r="J71" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="111">
+      <c r="A72" s="107">
         <v>43</v>
       </c>
-      <c r="B72" s="112" t="s">
+      <c r="B72" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C72" s="113" t="s">
+      <c r="C72" s="109" t="s">
         <v>1913</v>
       </c>
-      <c r="D72" s="113" t="s">
+      <c r="D72" s="109" t="s">
         <v>1893</v>
       </c>
-      <c r="E72" s="113" t="s">
+      <c r="E72" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F72" s="113" t="s">
+      <c r="F72" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G72" s="114" t="s">
+      <c r="G72" s="110" t="s">
         <v>1914</v>
       </c>
-      <c r="H72" s="113" t="s">
+      <c r="H72" s="109" t="s">
         <v>1915</v>
       </c>
-      <c r="I72" s="113" t="s">
+      <c r="I72" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J72" s="102" t="s">
+      <c r="J72" s="98" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="111">
+      <c r="A73" s="107">
         <v>44</v>
       </c>
-      <c r="B73" s="112" t="s">
+      <c r="B73" s="108" t="s">
         <v>1806</v>
       </c>
-      <c r="C73" s="113" t="s">
+      <c r="C73" s="109" t="s">
         <v>1916</v>
       </c>
-      <c r="D73" s="113" t="s">
+      <c r="D73" s="109" t="s">
         <v>1870</v>
       </c>
-      <c r="E73" s="113" t="s">
+      <c r="E73" s="109" t="s">
         <v>1809</v>
       </c>
-      <c r="F73" s="113" t="s">
+      <c r="F73" s="109" t="s">
         <v>1731</v>
       </c>
-      <c r="G73" s="114" t="s">
+      <c r="G73" s="110" t="s">
         <v>1917</v>
       </c>
-      <c r="H73" s="113" t="s">
+      <c r="H73" s="109" t="s">
         <v>1918</v>
       </c>
-      <c r="I73" s="113" t="s">
+      <c r="I73" s="109" t="s">
         <v>1733</v>
       </c>
-      <c r="J73" s="102" t="s">
+      <c r="J73" s="98" t="s">
         <v>562</v>
       </c>
     </row>
